--- a/ciq reference/data/Shares.xlsx
+++ b/ciq reference/data/Shares.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LZM\Desktop\Shixiang\CIQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18613\Desktop\cursor\FundsMonitor-CIQ\ciq reference\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F225FCC-7C95-4256-A60D-BD9863D860DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2178646E-124C-45C4-A17F-B94009B636F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="21" state="veryHidden" r:id="rId1"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="23" state="veryHidden" r:id="rId1"/>
     <sheet name="shares" sheetId="1" r:id="rId2"/>
     <sheet name="07_30_2025_agix_holdings" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="CIQWBGuid" localSheetId="2" hidden="1">"244e8b9b-9555-43d4-a766-55f71f6305a6"</definedName>
-    <definedName name="CIQWBGuid" hidden="1">"ab5a2c4b-f0b7-4517-a02d-fb9efa0796d7"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"29ff8d82-fbb6-4db5-8236-154cb7cd6e97"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -44,7 +44,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">"07/17/2025 06:52:51"</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">"08/04/2025 00:55:56"</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="160">
   <si>
     <t>Ticker</t>
   </si>
@@ -517,34 +517,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BAABTAVMT0NBTAFI/////wFQXAAAACRDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAI/cAcAIAAAAHMzIuNDU5NQAMllWft9HdCDzF0J+30d0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAj9wBwAgAAAAczMi40MTYyAAyWVZ+30d0IDlDQn7fR3QgbQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4uVVNEAQAAACP3AHACAAAABzMyLjQ1OTUAtupWyBrR3QjYRs79GtHdCCdDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLktPU0U6QTAwMDY2MC5VU0QFAAAAAAAAAAgAAAAOKEludmFsaWQgRGF0ZSnz5q/9GtHdCNhGzv0a0d0ILENJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAJ16DQACAAAACzE5NS45NjE5Mjk1AAyWVZ+30d0IPMXQn7fR3QgsQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAnXoNAAIAAAALMTg5LjQ1NTE4MjUADJZVn7fR3QjBZc+ft9HdCC5DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAKhxAAACAAAABTE5MS45ADO9VZ+30d0IDlDQn7fR3QguQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACocQAAAgAAAAYxOTYuNTMAM71Vn7fR3Qh6e86ft9HdCCRDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIw</t>
-  </si>
-  <si>
-    <t>MjUvNy8zMS5VU0QBAAAA1YIAAAIAAAAGMTQ2Ljc2ADO9VZ+30d0I/SjQn7fR3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAANWCAAACAAAABjE1OS4wNgAzvVWft9HdCLYXz5+30d0II0NJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALo+/BECAAAABTM4LjAzADO9VZ+30d0I5drPn7fR3QgjQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAuj78EQIAAAAFMzguNTMAM71Vn7fR3QjMjM+ft9HdCCNDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADibswCAgAAAAYyMzcuODkAM71Vn7fR3Qibyc6ft9HdCCNDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADibswCAgAAAAYyNDQuMzYAM71Vn7fR3QhkVM6ft9HdCCRDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAABisEBQIAAAAGMTIyLjIxADO9VZ+30d0Im8nOn7fR3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAAYrBAUCAAAABjEyMy4wMQAzvVWft9HdCB8tzp+30d0IJENJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAC2eQAAAgAAAAU4MC4zNwAzvVWft9HdCPgB0J+30d0IJENJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAC2eQAAAgAAAAU4MS43NAAz</t>
-  </si>
-  <si>
-    <t>vVWft9HdCOXaz5+30d0IJENJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADD2/wBAgAAAAYxMjMuMjIADJZVn7fR3Qj9KNCft9HdCCRDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAw9v8AQIAAAAGMTIyLjA5AAyWVZ+30d0IiqLOn7fR3QgjQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAALOfFJwIAAAAHMTQxLjM3NQAMllWft9HdCIqizp+30d0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAACznxScCAAAABzE2My4zMjUADJZVn7fR3QiKos6ft9HdCCNDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAA0yQZAgAAAAU1Ni41OQAzvVWft9HdCPgB0J+30d0II0NJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAADTJBkCAAAABTU3LjgxADO9VZ+30d0I/SjQn7fR3QgtQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACjvBQACAAAABjY5NC43MQAMllWft9HdCA5Q0J+30d0ILUNJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAo7wUAAgAAAAY3MjEuNDUADJZVn7fR3Qis8M6ft9HdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAEMaiAQIAAAAGMzA4LjI3ADO9VZ+30d0I/SjQ</t>
-  </si>
-  <si>
-    <t>n7fR3QgkQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAABDGogECAAAABjMxOS4wNAAzvVWft9HdCKzwzp+30d0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAADT14AQCAAAABjIwNy42OAAzvVWft9HdCD2e0J+30d0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAADT14AQCAAAABjIwMC44NQAzvVWft9HdCD2e0J+30d0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAmAXoQAgAAAAYxNy43MjUADJZVn7fR3QhH7NCft9HdCCRDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAJgF6EAIAAAAEMjYuNAAMllWft9HdCEfs0J+30d0IKUNJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAKvMBQACAAAACzM4Ljc1MDYyNTkyAAyWVZ+30d0IDlDQn7fR3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAq8wFAAIAAAALMzguNzM0OTkyNDUADJZVn7fR3QiKos6ft9HdCCRDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAaVX0AQIAAAAGMTM3Ljc5ADO9VZ+30d0IPZ7Qn7fR3QgkQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAGlV9AECAAAABjEyNC45NAAzvVWft9HdCD2e0J+30d0IKUNJ</t>
-  </si>
-  <si>
-    <t>US5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAD03XAACAAAACzQ1Ljc2NTgyNTQ0AAyWVZ+30d0IHHfQn7fR3QgpQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAPTdcAAIAAAAKNDYuMjgwNzcwMgAMllWft9HdCBx30J+30d0II0NJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAAvuAQACAAAADjI4Ni44OTA4NzE2NDc2ADO9VZ+30d0IHHfQn7fR3QgjQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAC+4BAAIAAAANMjkwLjUwNDA3NjM2OAAzvVWft9HdCBx30J+30d0IJENJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABpYQAAAgAAAAYyMDcuNTcADJZVn7fR3QjSs8+ft9HdCCRDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAaWEAAAIAAAAGMjA5LjA1AAyWVZ+30d0Im8nOn7fR3QgkQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAAFfAAACAAAABjM1Ny42OQAMllWft9HdCPgB0J+30d0IJENJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAABXwAAAgAAAAMzNjQADJZVn7fR3Qj4AdCft9HdCCRDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAF9s8AQIAAAAGNzczLjQ0ADO9VZ+30d0I+AHQn7fR</t>
-  </si>
-  <si>
-    <t>3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAABfbPAECAAAABjY5NS4yMQAzvVWft9HdCNKzz5+30d0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACwPGQQAgAAAAUyMjMuNQAzvVWft9HdCMyMz5+30d0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACwPGQQAgAAAAYyMjAuMjgAM71Vn7fR3QjMjM+ft9HdCCRDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAPUkAAAIAAAAGMjM0LjExAAyWVZ+30d0IDlDQn7fR3QgkQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAD1JAAACAAAABjIzMC4xOQAMllWft9HdCA5Q0J+30d0IJENJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADUiAAAAgAAAAY2MzMuNDcAM71Vn7fR3Qg8xdCft9HdCCRDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA1IgAAAIAAAAGNjQ1LjM1ADO9VZ+30d0IPMXQn7fR3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAEtVAAACAAAABTUzMy41ADO9VZ+30d0IR+zQn7fR3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAEtVAAACAAAABjUxMy4yNAAzvVWft9HdCEfs0J+30d0IJENJUS5URUFNLklRX0NMT1NFUFJJQ0Uu</t>
-  </si>
-  <si>
-    <t>MjAyNS83LzMxLlVTRAEAAABSEyIPAgAAAAYxOTEuNzgAM71Vn7fR3Qjl2s+ft9HdCCRDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAUhMiDwIAAAAGMTk3LjE5ADO9VZ+30d0I5drPn7fR3QgiQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAGaQQAAgAAAAYxMDkuMTQAM71Vn7fR3Qi2F8+ft9HdCCJDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAAZpBAACAAAABjExNC43NAAzvVWft9HdCLYXz5+30d0IJENJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAC/+xkDAgAAAAU1NC40MwAzvVWft9HdCP0o0J+30d0IJENJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAC/+xkDAgAAAAU1MS4yOQAzvVWft9HdCGRUzp+30d0IJENJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADwtn0BAgAAAAUyOTMuNwAMllWft9HdCD2e0J+30d0IJENJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADwtn0BAgAAAAYzMDIuNjIADJZVn7fR3Qg8xdCft9HdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABEm4ciAgAAAAUxNDUuNgAzvVWft9HdCBx30J+30d0II0NJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAESbhyICAAAABjE0NC4xNwAz</t>
-  </si>
-  <si>
-    <t>vVWft9HdCBx30J+30d0II0NJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAL90XgECAAAABjk0My4xMgAzvVWft9HdCP0o0J+30d0II0NJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAL90XgECAAAABjk3Ny40OAAzvVWft9HdCP0o0J+30d0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACHY2sBAgAAAAYyMjkuMzgAM71Vn7fR3Qibyc6ft9HdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAh2NrAQIAAAAGMjM3LjY4ADO9VZ+30d0IHy3On7fR3QgjQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAJeABAAIAAAAGMjU4LjMzAAyWVZ+30d0Im8nOn7fR3QgjQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAJeABAAIAAAAGMjY0LjgxAAyWVZ+30d0IZFTOn7fR3QgkQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAADN+AAACAAAABjE3Ny44NwAzvVWft9HdCJvJzp+30d0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAzfgAAAgAAAAYxNzkuMjcAM71Vn7fR3QgfLc6ft9HdCCRDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAu6EECAIAAAAGMTM5Ljk4AAyWVZ+30d0I0rPPn7fR3QgkQ0lRLkRET0cuSVFf</t>
-  </si>
-  <si>
-    <t>Q0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAALuhBAgCAAAABjE0OC44OAAMllWft9HdCNKzz5+30d0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADnVgAAAgAAAAYyNTMuNzcAM71Vn7fR3Qjl2s+ft9HdCCRDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA51YAAAIAAAAFMjUwLjYAM71Vn7fR3QjSs8+ft9HdCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADauc4NAgAAAAUzOTAuNwAMllWft9HdCKzwzp+30d0II0NJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAANq5zg0CAAAABjM2My4zMQAMllWft9HdCHp7zp+30d0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACw8IcMAgAAAAYzNDYuNTUAM71Vn7fR3QiKos6ft9HdCCRDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAsPCHDAIAAAAGMzQxLjM0ADO9VZ+30d0IiqLOn7fR3QgkQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAGX6mAICAAAABjE1OC4zNQAzvVWft9HdCPgB0J+30d0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABl+pgCAgAAAAYxNTguNjEAM71Vn7fR3Qj4AdCft9HdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA</t>
-  </si>
-  <si>
-    <t>gIRbDQIAAAAEODMuNwAzvVWft9HdCMFlz5+30d0IJENJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACAhFsNAgAAAAU4Ny45OQAzvVWft9HdCMyMz5+30d0IJENJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADNhBcRAgAAAAU0My44MQAzvVWft9HdCD2e0J+30d0IJENJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADNhBcRAgAAAAU0Ni4xNwAzvVWft9HdCD2e0J+30d0IIkNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA1MyBAwIAAAAGMjg1LjU2ADO9VZ+30d0I5drPn7fR3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADUzIEDAgAAAAYyODcuNzMAM71Vn7fR3QjMjM+ft9HdCCRDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAg32EAQIAAAAFMTczLjYAM71Vn7fR3QjBZc+ft9HdCCRDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAg32EAQIAAAAGMTgzLjAzADO9VZ+30d0IwWXPn7fR3QgkQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALjKpQYCAAAABTU5LjUyADO9VZ+30d0IR+zQn7fR3QgkQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAALjKpQYCAAAABTU5LjIzADO9VZ+30d0IR+zQn7fR3Qg=</t>
+    <t>BAABTAVMT0NBTAFI/////wFQ4QAAACxDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACdeg0AAgAAAAsxOTUuOTYxOTI5NQAYL1dUM9TdCOaxvlQz1N0ILENJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAJ16DQACAAAACzE4OS40NTUxODI1ABgvV1Qz1N0I1gfBYzPU3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACP3AHACAAAABzMyLjQ1OTUAGC9XVDPU3Qjlir5UM9TdCCRDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAI/cAcAIAAAAHMzIuNDE2MgAYL1dUM9TdCC13wGMz1N0IKUNJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAKvMBQACAAAACzM4Ljc1MDYyNTkyABgvV1Qz1N0IlbO9VDPU3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAq8wFAAIAAAALMzguNzM0OTkyNDUAGC9XVDPU3QgvTcJjM9TdCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAA9N1wAAgAAAAs0NS43NjU4MjU0NAAYL1dUM9TdCOaxvlQz1N0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAD03XAACAAAACjQ2LjI4MDc3MDIAGC9XVDPU3Qix3r9jM9TdCCRDSVEuQUFQ</t>
+  </si>
+  <si>
+    <t>TC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAaWEAAAIAAAAGMjA3LjU3ABgvV1Qz1N0IlbO9VDPU3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAGlhAAACAAAABjIwOS4wNQAYL1dUM9TdCDAmwmMz1N0IJENJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAABXwAAAgAAAAYzNTcuNjkAGC9XVDPU3QhU7r1UM9TdCCRDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAAV8AAAIAAAADMzY0ABgvV1Qz1N0I84rBYzPU3QgkQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAD1JAAACAAAABjIzNC4xMQAYL1dUM9TdCJWzvVQz1N0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAA9SQAAAgAAAAYyMzAuMTkAGC9XVDPU3QgvTcJjM9TdCCRDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAw9v8AQIAAAAGMTIzLjIyABgvV1Qz1N0Ix2O+VDPU3QgkQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAMPb/AECAAAABjEyMi4wOQAYL1dUM9TdCIvPwGMz1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACznxScCAAAABzE0MS4zNzUAGC9XVDPU3QjHY75UM9TdCCNDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVT</t>
+  </si>
+  <si>
+    <t>RAEAAAAs58UnAgAAAAcxNjMuMzI1ABgvV1Qz1N0Ii8/AYzPU3QgtQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACjvBQACAAAABjY5NC43MQAYL1dUM9TdCOWKvlQz1N0ILUNJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAo7wUAAgAAAAY3MjEuNDUAGC9XVDPU3QjWB8FjM9TdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA8LZ9AQIAAAAFMjkzLjcAGC9XVDPU3Qjmsb5UM9TdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA8LZ9AQIAAAAGMzAyLjYyABgvV1Qz1N0Isd6/YzPU3QgkQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACYBehACAAAABjE3LjcyNQAYL1dUM9TdCOaxvlQz1N0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAmAXoQAgAAAAQyNi40ABgvV1Qz1N0ILXfAYzPU3QgjQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAJeABAAIAAAAGMjU4LjMzABgvV1Qz1N0Id2W9VDPU3QgjQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAJeABAAIAAAAGMjY0LjgxABgvV1Qz1N0IL03CYzPU3QgkQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALuhBAgC</t>
+  </si>
+  <si>
+    <t>AAAABjEzOS45OAAYL1dUM9TdCJfavVQz1N0IJENJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAC7oQQIAgAAAAYxNDguODgAGC9XVDPU3QjzisFjM9TdCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADauc4NAgAAAAUzOTAuNwAYL1dUM9TdCHGMvVQz1N0II0NJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAANq5zg0CAAAABjM2My4zMQAYL1dUM9TdCGOfwmMz1N0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACw8IcMAgAAAAYzNDYuNTUAGC9XVDPU3QhU7r1UM9TdCCRDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAsPCHDAIAAAAGMzQxLjM0ABgvV1Qz1N0I6GPBYzPU3QgkQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAICEWw0CAAAABDgzLjcAGC9XVDPU3Qi6Fb5UM9TdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAgIRbDQIAAAAFODcuOTkAGC9XVDPU3QjWB8FjM9TdCC5DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAKhxAAACAAAABTE5MS45ABgvV1Qz1N0Ix2O+VDPU3QguQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACocQAAAgAAAAYxOTYuNTMA</t>
+  </si>
+  <si>
+    <t>GC9XVDPU3QhQnsBjM9TdCCRDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAzYQXEQIAAAAFNDMuODEAGC9XVDPU3Qjmsb5UM9TdCCRDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAzYQXEQIAAAAFNDYuMTcAGC9XVDPU3QhvFMBjM9TdCCNDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAC6PvwRAgAAAAUzOC4wMwAYL1dUM9TdCOaxvlQz1N0II0NJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAALo+/BECAAAABTM4LjUzABgvV1Qz1N0ILXfAYzPU3QgjQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA4m7MAgIAAAAGMjM3Ljg5ABgvV1Qz1N0Id2W9VDPU3QgjQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA4m7MAgIAAAAGMjQ0LjM2ABgvV1Qz1N0Ie8rCYzPU3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAABfbPAECAAAABjc3My40NAAYL1dUM9TdCJfavVQz1N0IJENJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAX2zwBAgAAAAY2OTUuMjEAGC9XVDPU3Qg0/cFjM9TdCCRDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAtnkAAAIAAAAFODAuMzcAGC9XVDPU3QhxjL1UM9TdCCRDSVEuTVJWTC5JUV9DTE9T</t>
+  </si>
+  <si>
+    <t>RVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAtnkAAAIAAAAFODEuNzQAGC9XVDPU3QgwJsJjM9TdCCRDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAS1UAAAIAAAAFNTMzLjUAGC9XVDPU3QhU7r1UM9TdCCRDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAS1UAAAIAAAAGNTEzLjI0ABgvV1Qz1N0I6GPBYzPU3QgiQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAGaQQAAgAAAAYxMDkuMTQAGC9XVDPU3Qi6Fb5UM9TdCCJDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAAZpBAACAAAABjExNC43NAAYL1dUM9TdCIvPwGMz1N0IJENJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAC/+xkDAgAAAAU1NC40MwAYL1dUM9TdCMdjvlQz1N0IJENJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAC/+xkDAgAAAAU1MS4yOQAYL1dUM9TdCFCewGMz1N0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAADT14AQCAAAABjIwNy42OAAYL1dUM9TdCOaxvlQz1N0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAADT14AQCAAAABjIwMC44NQAYL1dUM9TdCG8UwGMz1N0II0NJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAL90XgECAAAABjk0</t>
+  </si>
+  <si>
+    <t>My4xMgAYL1dUM9TdCOaxvlQz1N0II0NJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAL90XgECAAAABjk3Ny40OAAYL1dUM9TdCGtKwGMz1N0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAzfgAAAgAAAAYxNzcuODcAGC9XVDPU3QhSPr1UM9TdCCRDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAM34AAAIAAAAGMTc5LjI3ABgvV1Qz1N0Ie8rCYzPU3QgkQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAOdWAAACAAAABjI1My43NwAYL1dUM9TdCJWzvVQz1N0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADnVgAAAgAAAAUyNTAuNgAYL1dUM9TdCDT9wWMz1N0IJENJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACDfYQBAgAAAAUxNzMuNgAYL1dUM9TdCHGMvVQz1N0IJENJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACDfYQBAgAAAAYxODMuMDMAGC9XVDPU3QgadsJjM9TdCCRDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAZfqYAgIAAAAGMTU4LjM1ABgvV1Qz1N0IVO69VDPU3QgkQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAGX6mAICAAAABjE1OC42MQAYL1dUM9TdCJ3AwWMz1N0IJENJUS5Q</t>
+  </si>
+  <si>
+    <t>U1RHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAC4yqUGAgAAAAU1OS41MgAYL1dUM9TdCMU8vlQz1N0IJENJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAC4yqUGAgAAAAU1OS4yMwAYL1dUM9TdCFCewGMz1N0IJENJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADVggAAAgAAAAYxNDYuNzYAGC9XVDPU3QjHY75UM9TdCCRDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA1YIAAAIAAAAGMTU5LjA2ABgvV1Qz1N0ILXfAYzPU3QgkQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAGlV9AECAAAABjEzNy43OQAYL1dUM9TdCOWKvlQz1N0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABpVfQBAgAAAAYxMjQuOTQAGC9XVDPU3QhvFMBjM9TdCCNDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAL7gEAAgAAAA4yODYuODkwODcxNjQ3NgAYL1dUM9TdCOWKvlQz1N0II0NJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAAvuAQACAAAADTI5MC41MDQwNzYzNjgAGC9XVDPU3QhrSsBjM9TdCCRDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAABisEBQIAAAAGMTIyLjIxABgvV1Qz1N0IUj69VDPU3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQ</t>
+  </si>
+  <si>
+    <t>UklDRS4yMDI1LzcvMzAuVVNEAQAAAAYrBAUCAAAABjEyMy4wMQAYL1dUM9TdCGOfwmMz1N0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACwPGQQAgAAAAUyMjMuNQAYL1dUM9TdCJWzvVQz1N0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACwPGQQAgAAAAYyMjAuMjgAGC9XVDPU3Qhk6MFjM9TdCCRDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA1IgAAAIAAAAGNjMzLjQ3ABgvV1Qz1N0Id2W9VDPU3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAANSIAAACAAAABjY0NS4zNQAYL1dUM9TdCBp2wmMz1N0IJENJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABSEyIPAgAAAAYxOTEuNzgAGC9XVDPU3QhU7r1UM9TdCCRDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAUhMiDwIAAAAGMTk3LjE5ABgvV1Qz1N0IncDBYzPU3QgjQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAANMkGQIAAAAFNTYuNTkAGC9XVDPU3Qi6Fb5UM9TdCCNDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAA0yQZAgAAAAU1Ny44MQAYL1dUM9TdCIvPwGMz1N0IJENJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAQxqIBAgAA</t>
+  </si>
+  <si>
+    <t>CJjRcWcz1N0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAADT14AQCAAAABTIwOC44AAjPWGcz1N0ImNFxZzPU3QgkQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAM2EFxECAAAABTQ0LjE1AAjPWGcz1N0ImNFxZzPU3QgjQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAC+4BAAIAAAAPMjgzLjExMTYyNTI1NTI1AAjPWGcz1N0In/hxZzPU3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAv3ReAQIAAAADOTIzAAjPWGcz1N0In/hxZzPU3QgjQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAuj78EQIAAAAEMzcuNgAIz1hnM9TdCGxccWcz1N0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAmAXoQAgAAAAUxNy4xMgAIz1hnM9TdCGxccWcz1N0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAj9wBwAgAAAAczMi4wMjI3AAjPWGcz1N0IbFxxZzPU3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAANWCAAACAAAABjE0Ny41MQAIz1hnM9TdCHmDcWcz1N0IJENJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAC4yqUGAgAAAAU1Ni4yNQAIz1hnM9TdCHmDcWcz1N0IJENJUS5OQklTLklRX0NMT1NF</t>
+  </si>
+  <si>
+    <t>UFJJQ0UuMjAyNS84LzMxLlVTRAEAAAC/+xkDAgAAAAU1NC4xNwAIz1hnM9TdCHmDcWcz1N0ILkNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAqHEAAAIAAAAGMTk1LjA0AAjPWGcz1N0IeYNxZzPU3QgjQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAALOfFJwIAAAAGMTQwLjA1AAjPWGcz1N0ImapxZzPU3QgkQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAMPb/AECAAAABjEyMC4zNQAIz1hnM9TdCDwOcWcz1N0II0NJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAADTJBkCAAAABTU3LjUyAAjPWGcz1N0IPA5xZzPU3QgiQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAGaQQAAgAAAAYxMDcuNzcACM9YZzPU3Qg8DnFnM9TdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAgIRbDQIAAAAFODAuNTMACM9YZzPU3QhJNXFnM9TdCC1DSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAKO8FAAIAAAAGNjk5LjM2AAjPWGcz1N0ISTVxZzPU3QgsQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAnXoNAAIAAAAKMTkwLjMxNjAzNwAIz1hnM9TdCEk1cWcz1N0IJENJUS5UU0xBLklRX0NMT1NF</t>
+  </si>
+  <si>
+    <t>UFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAQxqIBAgAAAAYzMDkuMjYACM9YZzPU3QhJNXFnM9TdCCRDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAS1UAAAIAAAAGNTM1LjY0AAjPWGcz1N0IbFxxZzPU3QgkQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAALDwhwwCAAAABjM1Mi4zNgAIz1hnM9TdCCDAcGcz1N0IJENJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAABXwAAAgAAAAYzMzguODUACM9YZzPU3QggwHBnM9TdCCRDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAu6EECAIAAAAGMTM5LjEzAAjPWGcz1N0IIMBwZzPU3QgkQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAFITIg8CAAAABjE4NS42OQAIz1hnM9TdCC7ncGcz1N0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABl+pgCAgAAAAYxNjAuNjYACM9YZzPU3Qgu53BnM9TdCCJDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAANTMgQMCAAAABjI4NS44NgAIz1hnM9TdCC7ncGcz1N0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAACwPGQQAgAAAAYyMDguNDgACM9YZzPU3Qgu53BnM9TdCCRDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAA51YA</t>
+  </si>
+  <si>
+    <t>AAIAAAAGMjUyLjUzAAjPWGcz1N0IPA5xZzPU3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAABfbPAECAAAABjc3Ni4zNwAIz1hnM9TdCO1KcGcz1N0IJENJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABpYQAAAgAAAAYyMDMuMzUACM9YZzPU3QgLcnBnM9TdCCRDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAtnkAAAIAAAAFNzYuNTMACM9YZzPU3QgLcnBnM9TdCCRDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAPUkAAAIAAAAGMjExLjY1AAjPWGcz1N0IC3JwZzPU3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAq8wFAAIAAAALMzguNDY5MjU4MzUACM9YZzPU3QgLcnBnM9TdCCNDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAl4AEAAgAAAAYyNTIuMzIACM9YZzPU3QgdmXBnM9TdCCRDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAA1IgAAAIAAAAGNjM2LjAyAAjPWGcz1N0IHZlwZzPU3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAIN9hAECAAAAAzE3MQAIz1hnM9TdCB2ZcGcz1N0II0NJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAANq5zg0CAAAABjM5NS4wMQAIz1hnM9Td</t>
+  </si>
+  <si>
+    <t>AAYzMDguMjcAGC9XVDPU3QjHY75UM9TdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAEMaiAQIAAAAGMzE5LjA0ABgvV1Qz1N0I1gfBYzPU3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAARJuHIgIAAAAFMTQ1LjYAGC9XVDPU3Qjlir5UM9TdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABEm4ciAgAAAAYxNDQuMTcAGC9XVDPU3Qix3r9jM9TdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAh2NrAQIAAAAGMjI5LjM4ABgvV1Qz1N0IUj69VDPU3QgkQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAIdjawECAAAABjIzNy42OAAYL1dUM9TdCGOfwmMz1N0IIkNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA1MyBAwIAAAAGMjg1LjU2ABgvV1Qz1N0IlbO9VDPU3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADUzIEDAgAAAAYyODcuNzMAGC9XVDPU3Qhk6MFjM9TdCCNDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACHY2sBAgAAAAYyMjUuMTIAz+gsgDPU3Qh+wWOAM9TdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAESbhyICAAAABTE0MC4yAM/oLIAz1N0I4SFkgDPU3QgjQ0lRLlNIT1Au</t>
+  </si>
+  <si>
+    <t>SVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAABisEBQIAAAAGMTI1LjIxAM/oLIAz1N0Ie01kgDPU3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAaVX0AQIAAAAFMTMwLjcAz+gsgDPU3Qirm2SAM9TdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAzfgAAAgAAAAMxODAAz+gsgDPU3Qjt0GSAM9TdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAADT14AQCAAAABTIwOC44AM/oLIAz1N0IegtlgDPU3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADibswCAgAAAAYyMjYuNTYAs9IsgDPU3QgTbGWAM9TdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADNhBcRAgAAAAU0NC4xNQCz0iyAM9TdCEeTZYAz1N0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJeABAAIAAAAGMjUyLjMyALPSLIAz1N0ItfhlgDPU3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA8LZ9AQIAAAAGMjk3LjcyALPSLIAz1N0Im1pmgDPU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAA9N1wAAgAAAAs0NC40OTA1MzM1NwCz0iyAM9TdCPSGZoAz1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAACP3</t>
+  </si>
+  <si>
+    <t>AHACAAAABzMyLjAyMjcAs9IsgDPU3Qj21GaAM9TdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADUiAAAAgAAAAY2MzYuMDIAz+gsgDPU3QjhIWSAM9TdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACDfYQBAgAAAAMxNzEAz+gsgDPU3Qirm2SAM9TdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAANq5zg0CAAAABjM5NS4wMQCz0iyAM9TdCFXKZYAz1N0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAGlhAAACAAAABjIwMy4zNQCz0iyAM9TdCAKuZoAz1N0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAALZ5AAACAAAABTc2LjUzALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAPUkAAAIAAAAGMjExLjY1ALPSLIAz1N0Im1pmgDPU3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACrzAUAAgAAAAwzNy45Njc0ODU0MTUAs9IsgDPU3Qj21GaAM9TdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA1MyBAwIAAAAGMjg1Ljg2AM/oLIAz1N0IfsFjgDPU3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsDxkEAIAAAAGMjA4LjQ4AM/oLIAz1N0Io3RkgDPU</t>
+  </si>
+  <si>
+    <t>3QgjQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA51YAAAIAAAAGMjUyLjUzAM/oLIAz1N0IegtlgDPU3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAF9s8AQIAAAAGNzc2LjM3ALPSLIAz1N0IE2xlgDPU3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAu6EECAIAAAAGMTM5LjEzALPSLIAz1N0INDNmgDPU3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAUhMiDwIAAAAGMTg1LjY5AM/oLIAz1N0I4SFkgDPU3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAZfqYAgIAAAAGMTYwLjY2AM/oLIAz1N0Iq5tkgDPU3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAS1UAAAIAAAAGNTM1LjY0ALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsPCHDAIAAAAGMzUyLjM2ALPSLIAz1N0IVcplgDPU3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAAV8AAAIAAAAGMzM4Ljg1ALPSLIAz1N0IAq5mgDPU3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAZpBAACAAAABjEwNy43NwCz0iyAM9TdCIk0ZYAz1N0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5V</t>
+  </si>
+  <si>
+    <t>U0QBAAAAANMkGQIAAAAFNTcuNTIAz+gsgDPU3QjhIWSAM9TdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC4yqUGAgAAAAU1Ni4yNQDP6CyAM9TdCO3QZIAz1N0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAICEWw0CAAAABTgwLjUzALPSLIAz1N0IVcplgDPU3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAs58UnAgAAAAYxNDAuMDUAs9IsgDPU3Qj0hmaAM9TdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADD2/wBAgAAAAYxMjAuMzUAs9IsgDPU3Qj0hmaAM9TdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAo7wUAAgAAAAY2OTkuMzYAs9IsgDPU3Qg0M2aAM9TdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAJ16DQACAAAACjE4Ni4zNDM1OTYAs9IsgDPU3Qj21GaAM9TdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAQxqIBAgAAAAYzMDkuMjYAz+gsgDPU3QiK+GOAM9TdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADVggAAAgAAAAYxNDcuNTEAz+gsgDPU3Qirm2SAM9TdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC/+xkDAgAAAAU1</t>
+  </si>
+  <si>
+    <t>NC4xNwDP6CyAM9TdCHoLZYAz1N0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACocQAAAgAAAAYxOTUuMDQAs9IsgDPU3QhHk2WAM9TdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAvuAQACAAAADzI4My4xMTE2MjUyNTUyNQDP6CyAM9TdCHtNZIAz1N0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAv3ReAQIAAAADOTIzAM/oLIAz1N0I7dBkgDPU3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC6PvwRAgAAAAQzNy42ALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJgF6EAIAAAAFMTcuMTIAs9IsgDPU3Qi1+GWAM9TdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAA8LZ9AQIAAAAGMjk3LjcyAAjPWGcz1N0ImapxZzPU3QgpQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAPTdcAAIAAAALNDQuODI1MDQ4ODYACM9YZzPU3QiZqnFnM9TdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABEm4ciAgAAAAUxNDAuMgAIz1hnM9TdCJjRcWcz1N0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABpVfQBAgAAAAUxMzAuNwAIz1hnM9Td</t>
+  </si>
+  <si>
+    <t>CN8jcGcz1N0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAACHY2sBAgAAAAYyMjUuMTIACM9YZzPU3QjfI3BnM9TdCCRDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAABisEBQIAAAAGMTI1LjIxAAjPWGcz1N0I3yNwZzPU3QgkQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAADN+AAACAAAAAzE4MAAIz1hnM9TdCO1KcGcz1N0II0NJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAOJuzAICAAAABjIyNi41NgAIz1hnM9TdCO1KcGcz1N0IIkNJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA2rnODQIAAAAGMzc5LjE3ALPSLIAz1N0IR5NlgDPU3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAh2NrAQIAAAAGMjIyLjIyAM/oLIAz1N0IfsFjgDPU3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAABisEBQIAAAAFMTE4LjYAz+gsgDPU3Qh7TWSAM9TdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAzfgAAAgAAAAYxNzMuNzIAz+gsgDPU3Qjt0GSAM9TdCCJDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOJuzAICAAAABjIyMC45NwCz0iyAM9TdCBNsZYAz1N0II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAy</t>
+  </si>
+  <si>
+    <t>NS84LzEuVVNEAQAAABfbPAECAAAABjc1MC4wMQCz0iyAM9TdCBNsZYAz1N0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGlhAAACAAAABjIwMi4zOACz0iyAM9TdCPSGZoAz1N0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALZ5AAACAAAABTc0LjQ1ALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAPUkAAAIAAAAGMjE0Ljc1ALPSLIAz1N0Im1pmgDPU3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACrzAUAAgAAAAozOC4zMzYwNzk2ALPSLIAz1N0I9tRmgDPU3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAl4AEAAgAAAAYyNTAuNzQAs9IsgDPU3Qi1+GWAM9TdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADUiAAAAgAAAAY2MTguNjUAz+gsgDPU3QjhIWSAM9TdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACDfYQBAgAAAAYxNzIuODgAz+gsgDPU3Qirm2SAM9TdCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACw8IcMAgAAAAYzMzguOTkAs9IsgDPU3QhVymWAM9TdCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAABXwAAAgAAAAUzNDcu</t>
+  </si>
+  <si>
+    <t>OACz0iyAM9TdCAKuZoAz1N0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALuhBAgCAAAABTEzNS42ALPSLIAz1N0INDNmgDPU3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAUhMiDwIAAAAGMTgyLjk2AM/oLIAz1N0I4SFkgDPU3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAZfqYAgIAAAAGMTU0LjI3AM/oLIAz1N0Iq5tkgDPU3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAANTMgQMCAAAABjI4MC4yNwDP6CyAM9TdCH7BY4Az1N0II0NJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALA8ZBACAAAABjIwNS4wMgDP6CyAM9TdCKN0ZIAz1N0II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOdWAAACAAAABjI0NC40MgDP6CyAM9TdCO3QZIAz1N0II0NJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAMPb/AECAAAABjExNy41NwCz0iyAM9TdCJtaZoAz1N0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAANMkGQIAAAAFNTQuODkAz+gsgDPU3QjhIWSAM9TdCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAABmkEAAIAAAAGMTA0Ljg4ALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkVTVEMuSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzgvMS5VU0QBAAAAgIRbDQIAAAAFNzkuNTgAs9IsgDPU3Qi1+GWAM9TdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAo7wUAAgAAAAY2ODkuODIAs9IsgDPU3Qg0M2aAM9TdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAJ16DQACAAAACjE4NS42NzgyMTQAs9IsgDPU3QgCrmaAM9TdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAQxqIBAgAAAAYzMDIuNjMAz+gsgDPU3QiK+GOAM9TdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABLVQAAAgAAAAY1MjQuMTEAs9IsgDPU3QiJNGWAM9TdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALo+/BECAAAABTM2LjAxALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAJgF6EAIAAAAEMTcuMgCz0iyAM9TdCLX4ZYAz1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACP3AHACAAAABzMxLjM5MDEAs9IsgDPU3QgCrmaAM9TdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADVggAAAgAAAAYxNDguMTkAz+gsgDPU3QijdGSAM9TdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEA</t>
+  </si>
+  <si>
+    <t>AAC4yqUGAgAAAAU1NC41MQDP6CyAM9TdCO3QZIAz1N0II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAL/7GQMCAAAAAjUyALPSLIAz1N0IegtlgDPU3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAKhxAAACAAAABjE4OS4xMwCz0iyAM9TdCEeTZYAz1N0IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAALOfFJwIAAAAGMTM3LjU4ALPSLIAz1N0I9IZmgDPU3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA8LZ9AQIAAAAGMjg4LjY0ALPSLIAz1N0Im1pmgDPU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAA9N1wAAgAAAAk0NS4zOTc5ODkAs9IsgDPU3Qj0hmaAM9TdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAESbhyICAAAABjE0MS41OQDP6CyAM9TdCIr4Y4Az1N0II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGlV9AECAAAABjEyNS4wMwDP6CyAM9TdCKubZIAz1N0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAANPXgBAIAAAAGMjAwLjExAM/oLIAz1N0IegtlgDPU3QgjQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAzYQXEQIAAAAFNDEuODIAs9IsgDPU</t>
+  </si>
+  <si>
+    <t>3QhHk2WAM9TdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAvuAQACAAAADzI4Mi40NzMxNTU0NDUyNQDP6CyAM9TdCHtNZIAz1N0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAv3ReAQIAAAAGOTE0LjM3AM/oLIAz1N0I7dBkgDPU3Qg=</t>
   </si>
 </sst>
 </file>
@@ -555,17 +600,17 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -573,21 +618,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -609,6 +654,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1239,16 +1291,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD07558-E67A-4E90-AF33-552D633EA80B}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EE19EC-66B3-4080-9290-F9D26728C2BC}">
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>135</v>
@@ -1278,11 +1330,56 @@
         <v>143</v>
       </c>
       <c r="K1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" t="s">
         <v>144</v>
       </c>
+      <c r="R1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1291,11 +1388,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.81640625" customWidth="1"/>
     <col min="2" max="2" width="14.453125" customWidth="1"/>
@@ -1312,7 +1409,7 @@
     <col min="18" max="18" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1454,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1366,20 +1463,20 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP(A2,CHOOSE({1,2},F2:F45,J2:J45),2,FALSE)</f>
-        <v>3.4503152859898614E-3</v>
+        <v>3.1273463976408968E-3</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="13">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.5067499999999825</v>
+        <v>0.66539000000000215</v>
       </c>
       <c r="H2" s="9">
         <f>VLOOKUP(F2,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1387,36 +1484,36 @@
       </c>
       <c r="I2" s="2">
         <f>G2*H2</f>
-        <v>2.3304538512738317E-2</v>
+        <v>2.3831570109487899E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J45" si="0">$P$7*H2</f>
-        <v>3.4503152859898614E-3</v>
+        <v>3.1273463976408968E-3</v>
       </c>
       <c r="K2" s="6" cm="1">
         <f t="array" ref="K2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>195.96193</v>
+        <v>186.34360000000001</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L45" si="1">K2*H2</f>
-        <v>0.70185612551819909</v>
+        <v>0.66740716990852811</v>
       </c>
       <c r="M2" s="2">
         <f>J2*K2</f>
-        <v>0.67613044255107513</v>
+        <v>0.58276098618343619</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>126</v>
       </c>
       <c r="O2" s="6" cm="1">
         <f t="array" ref="O2">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.459499999999998</v>
+        <v>32.0227</v>
       </c>
       <c r="P2" s="2">
         <v>1250002</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1425,20 +1522,20 @@
       </c>
       <c r="C3" s="7">
         <f>VLOOKUP(A3,CHOOSE({1,2},F3:F47,J3:J47),2,FALSE)</f>
-        <v>2.0808244967997824E-2</v>
+        <v>1.886047637621269E-2</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" ref="G3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.5639999999997656E-2</v>
+        <v>-0.36859000000000464</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP(F3,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1446,34 +1543,34 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I45" si="2">G3*H3</f>
-        <v>3.378234594824142E-4</v>
+        <v>-7.9615312615500811E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>2.0808244967997824E-2</v>
+        <v>1.886047637621269E-2</v>
       </c>
       <c r="K3" s="6" cm="1">
         <f t="array" ref="K3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>38.750630000000001</v>
+        <v>37.967489999999998</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>0.83701226878037005</v>
+        <v>0.82009647184564505</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M45" si="3">J3*K3</f>
-        <v>0.80633260170424559</v>
+        <v>0.71608494820909152</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>127</v>
       </c>
       <c r="O3" s="12">
         <f>SUM(M2:M45)</f>
-        <v>32.814485780530681</v>
+        <v>29.314209861095613</v>
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="14">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1579,7 @@
       </c>
       <c r="C4" s="7">
         <f>VLOOKUP(A4,CHOOSE({1,2},F4:F48,J4:J48),2,FALSE)</f>
-        <v>4.6240544373328495E-3</v>
+        <v>4.1912169724917089E-3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1495,7 +1592,7 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.51493999999999573</v>
+        <v>-0.90746000000000038</v>
       </c>
       <c r="H4" s="9">
         <f>VLOOKUP(F4,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1503,34 +1600,34 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4717080452671069E-3</v>
+        <v>-4.3558010307183526E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.6240544373328495E-3</v>
+        <v>4.1912169724917089E-3</v>
       </c>
       <c r="K4" s="6" cm="1">
         <f t="array" ref="K4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>45.765830000000001</v>
+        <v>44.49053</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="1"/>
-        <v>0.21967563251898797</v>
+        <v>0.21355420231327629</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="3"/>
-        <v>0.21162368928972083</v>
+        <v>0.18646946445115156</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>130</v>
       </c>
       <c r="O4" s="6">
         <f>SUM(L2:L45)</f>
-        <v>34.063024531032752</v>
+        <v>33.572106413005734</v>
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="14">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1539,7 +1636,7 @@
       </c>
       <c r="C5" s="7">
         <f>VLOOKUP(A5,CHOOSE({1,2},F5:F49,J5:J49),2,FALSE)</f>
-        <v>5.1273056952625745E-3</v>
+        <v>4.6473610863312226E-3</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1550,7 +1647,7 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.4800000000000182</v>
+        <v>0.96999999999999886</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP(F5,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1558,23 +1655,23 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>-7.8771393965770611E-3</v>
+        <v>5.1627197396484099E-3</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>5.1273056952625745E-3</v>
+        <v>4.6473610863312226E-3</v>
       </c>
       <c r="K5" s="6" cm="1">
         <f t="array" ref="K5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>207.57</v>
+        <v>203.35</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>1.1047688003699192</v>
+        <v>1.0823083083067067</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>1.0642748431656526</v>
+        <v>0.94504087690545413</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>129</v>
@@ -1582,7 +1679,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="14">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +1688,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,CHOOSE({1,2},F6:F50,J6:J50),2,FALSE)</f>
-        <v>1.6731370305749361E-3</v>
+        <v>1.5165220078799167E-3</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -1602,7 +1699,7 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-6.3100000000000023</v>
+        <v>-8.9499999999999886</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP(F6,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1610,23 +1707,23 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>-1.095919046529526E-2</v>
+        <v>-1.5544335129063775E-2</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.6731370305749361E-3</v>
+        <v>1.5165220078799167E-3</v>
       </c>
       <c r="K6" s="6" cm="1">
         <f t="array" ref="K6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>357.69</v>
+        <v>338.85</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>0.62123499802400317</v>
+        <v>0.58851373837801868</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>0.59846438446634886</v>
+        <v>0.51387348237010977</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="5" t="s">
@@ -1639,7 +1736,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1648,7 +1745,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,CHOOSE({1,2},F7:F51,J7:J51),2,FALSE)</f>
-        <v>7.6004041434960942E-3</v>
+        <v>6.8889636304522057E-3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
@@ -1659,7 +1756,7 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.9200000000000159</v>
+        <v>-3.0999999999999943</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP(F7,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1667,41 +1764,41 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>3.0927182516508101E-2</v>
+        <v>-2.4457720867646568E-2</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>7.6004041434960942E-3</v>
+        <v>6.8889636304522057E-3</v>
       </c>
       <c r="K7" s="6" cm="1">
         <f t="array" ref="K7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>234.11</v>
+        <v>211.65</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>1.8470313007499191</v>
+        <v>1.669831168270131</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>1.7793306140338707</v>
+        <v>1.4580491523852095</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>114</v>
       </c>
       <c r="O7" s="2" cm="1">
         <f t="array" ref="O7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>4.3299999999995009E-2</v>
+        <v>0.63260000000000005</v>
       </c>
       <c r="P7" s="6">
         <f>O7/SUM(I2:I45)</f>
-        <v>0.9633462157958228</v>
+        <v>0.87317159967476354</v>
       </c>
       <c r="Q7" s="6" cm="1">
         <f t="array" ref="Q7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.459499999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="14">
+        <v>32.0227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1710,7 +1807,7 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,CHOOSE({1,2},F8:F52,J8:J52),2,FALSE)</f>
-        <v>3.9181154599000354E-3</v>
+        <v>3.5513578480246416E-3</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1721,7 +1818,7 @@
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" ref="G8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.1299999999999955</v>
+        <v>2.7800000000000011</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP(F8,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1729,29 +1826,29 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>4.5959286465141478E-3</v>
+        <v>1.1306797909123352E-2</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>3.9181154599000354E-3</v>
+        <v>3.5513578480246416E-3</v>
       </c>
       <c r="K8" s="6" cm="1">
         <f t="array" ref="K8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>123.22</v>
+        <v>120.35</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>0.5011595821446686</v>
+        <v>0.48948673682122112</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>0.48279018696888237</v>
+        <v>0.4274059170097656</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="14">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1760,7 +1857,7 @@
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,CHOOSE({1,2},F9:F53,J9:J53),2,FALSE)</f>
-        <v>2.1077981476842239E-3</v>
+        <v>1.9104964032941373E-3</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -1771,7 +1868,7 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-21.949999999999989</v>
+        <v>2.4699999999999989</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP(F9,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1779,29 +1876,29 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>-4.8026523157562923E-2</v>
+        <v>5.4043513530378324E-3</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>2.1077981476842239E-3</v>
+        <v>1.9104964032941373E-3</v>
       </c>
       <c r="K9" s="6" cm="1">
         <f t="array" ref="K9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>141.375</v>
+        <v>140.05000000000001</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>0.30932800507519187</v>
+        <v>0.30642890971374448</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.29798996312885717</v>
+        <v>0.26756502128134396</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="14">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1810,7 +1907,7 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,CHOOSE({1,2},F10:F54,J10:J54),2,FALSE)</f>
-        <v>5.9804437389504854E-4</v>
+        <v>5.4206406177559438E-4</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
@@ -1821,7 +1918,7 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-26.740000000000009</v>
+        <v>9.5399999999999636</v>
       </c>
       <c r="H10" s="9">
         <f>VLOOKUP(F10,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1829,29 +1926,29 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>-1.66001654397353E-2</v>
+        <v>5.9224225241239388E-3</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>5.9804437389504854E-4</v>
+        <v>5.4206406177559438E-4</v>
       </c>
       <c r="K10" s="6" cm="1">
         <f t="array" ref="K10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>694.71</v>
+        <v>699.36</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>0.43127527795955528</v>
+        <v>0.43416199334081063</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>0.41546740698862922</v>
+        <v>0.37909792224337968</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="14">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1860,7 +1957,7 @@
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,CHOOSE({1,2},F11:F55,J11:J55),2,FALSE)</f>
-        <v>3.2792252718085459E-3</v>
+        <v>2.9722713696587037E-3</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -1871,7 +1968,7 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-8.9200000000000159</v>
+        <v>9.0800000000000409</v>
       </c>
       <c r="H11" s="9">
         <f>VLOOKUP(F11,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1879,29 +1976,29 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0363631418189783E-2</v>
+        <v>3.0908270546767262E-2</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>3.2792252718085459E-3</v>
+        <v>2.9722713696587037E-3</v>
       </c>
       <c r="K11" s="6" cm="1">
         <f t="array" ref="K11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>293.7</v>
+        <v>297.72000000000003</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>0.99975320039487925</v>
+        <v>1.0134372585003864</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>0.96310846233016989</v>
+        <v>0.88490463217478932</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="14">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +2007,7 @@
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,CHOOSE({1,2},F12:F56,J12:J56),2,FALSE)</f>
-        <v>1.4734549464561125E-2</v>
+        <v>1.3355312882844831E-2</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>27</v>
@@ -1921,7 +2018,7 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-8.6749999999999972</v>
+        <v>-7.9999999999998295E-2</v>
       </c>
       <c r="H12" s="9">
         <f>VLOOKUP(F12,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1929,29 +2026,29 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>-0.13268564770296362</v>
+        <v>-1.2236140422175064E-3</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.4734549464561125E-2</v>
+        <v>1.3355312882844831E-2</v>
       </c>
       <c r="K12" s="6" cm="1">
         <f t="array" ref="K12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>17.725000000000001</v>
+        <v>17.12</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>0.27110698622882207</v>
+        <v>0.26185340503455196</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>0.26116988925934598</v>
+        <v>0.22864295655430353</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="14">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1960,7 +2057,7 @@
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,CHOOSE({1,2},F13:F57,J13:J57),2,FALSE)</f>
-        <v>3.3046575712138765E-3</v>
+        <v>2.9953230630074081E-3</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>29</v>
@@ -1971,7 +2068,7 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-6.4800000000000182</v>
+        <v>1.5799999999999841</v>
       </c>
       <c r="H13" s="9">
         <f>VLOOKUP(F13,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1979,29 +2076,29 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>-2.2228956433669768E-2</v>
+        <v>5.420023327962621E-3</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>3.3046575712138765E-3</v>
+        <v>2.9953230630074081E-3</v>
       </c>
       <c r="K13" s="6" cm="1">
         <f t="array" ref="K13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>258.33</v>
+        <v>252.32</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>0.88617381412189733</v>
+        <v>0.86555714310857101</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.85369219037168065</v>
+        <v>0.75577991525802923</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -2010,7 +2107,7 @@
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,CHOOSE({1,2},F14:F58,J14:J58),2,FALSE)</f>
-        <v>4.5608590266893014E-3</v>
+        <v>4.1339370072009897E-3</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>31</v>
@@ -2021,7 +2118,7 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-8.9000000000000057</v>
+        <v>3.5300000000000011</v>
       </c>
       <c r="H14" s="9">
         <f>VLOOKUP(F14,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2029,29 +2126,29 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2136092582251899E-2</v>
+        <v>1.6712405260151591E-2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>4.5608590266893014E-3</v>
+        <v>4.1339370072009897E-3</v>
       </c>
       <c r="K14" s="6" cm="1">
         <f t="array" ref="K14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>139.97999999999999</v>
+        <v>139.13</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>0.6627202516475974</v>
+        <v>0.65869601808637113</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>0.63842904655596833</v>
+        <v>0.57515465581187364</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="14">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -2060,7 +2157,7 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,CHOOSE({1,2},F15:F59,J15:J59),2,FALSE)</f>
-        <v>1.3833629525020774E-3</v>
+        <v>1.253872410937103E-3</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>33</v>
@@ -2071,7 +2168,7 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>27.389999999999986</v>
+        <v>15.839999999999975</v>
       </c>
       <c r="H15" s="9">
         <f>VLOOKUP(F15,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2079,29 +2176,29 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>3.933197706883667E-2</v>
+        <v>2.2746203606074194E-2</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1.3833629525020774E-3</v>
+        <v>1.253872410937103E-3</v>
       </c>
       <c r="K15" s="6" cm="1">
         <f t="array" ref="K15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>390.7</v>
+        <v>395.01</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="1"/>
-        <v>0.56104430232911617</v>
+        <v>0.56723345242647605</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>0.54047990554256164</v>
+        <v>0.49529214104426506</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="14">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -2110,7 +2207,7 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,CHOOSE({1,2},F16:F60,J16:J60),2,FALSE)</f>
-        <v>1.5228552613616186E-3</v>
+        <v>1.3803074562739363E-3</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>35</v>
@@ -2121,7 +2218,7 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>5.2100000000000364</v>
+        <v>13.370000000000005</v>
       </c>
       <c r="H16" s="9">
         <f>VLOOKUP(F16,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2129,29 +2226,29 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>8.2359548224723422E-3</v>
+        <v>2.1135262183580514E-2</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>1.5228552613616186E-3</v>
+        <v>1.3803074562739363E-3</v>
       </c>
       <c r="K16" s="6" cm="1">
         <f t="array" ref="K16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>346.55</v>
+        <v>352.36</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="1"/>
-        <v>0.54782536347941846</v>
+        <v>0.55700979678432516</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>0.52774549082486899</v>
+        <v>0.48636513529268421</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="14">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -2160,7 +2257,7 @@
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,CHOOSE({1,2},F17:F61,J17:J61),2,FALSE)</f>
-        <v>6.711815015788632E-3</v>
+        <v>6.0835514355717163E-3</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>37</v>
@@ -2171,7 +2268,7 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.289999999999992</v>
+        <v>0.95000000000000284</v>
       </c>
       <c r="H17" s="9">
         <f>VLOOKUP(F17,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2179,29 +2276,29 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9889240177215663E-2</v>
+        <v>6.6188294098729642E-3</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>6.711815015788632E-3</v>
+        <v>6.0835514355717163E-3</v>
       </c>
       <c r="K17" s="6" cm="1">
         <f t="array" ref="K17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>83.7</v>
+        <v>80.53</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>0.58315370695406887</v>
+        <v>0.56106771829165081</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>0.56177891682150849</v>
+        <v>0.48990839710659034</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="14">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -2210,7 +2307,7 @@
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,CHOOSE({1,2},F18:F62,J18:J62),2,FALSE)</f>
-        <v>6.263281735367345E-3</v>
+        <v>5.6770033892400203E-3</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>39</v>
@@ -2221,7 +2318,7 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.6299999999999955</v>
+        <v>5.9099999999999966</v>
       </c>
       <c r="H18" s="9">
         <f>VLOOKUP(F18,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2229,29 +2326,29 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0102359836224234E-2</v>
+        <v>3.8424394520968748E-2</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>6.263281735367345E-3</v>
+        <v>5.6770033892400203E-3</v>
       </c>
       <c r="K18" s="6" cm="1">
         <f t="array" ref="K18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>191.9</v>
+        <v>195.04</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="1"/>
-        <v>1.24765504375193</v>
+        <v>1.2680700350879439</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>1.2019237650169936</v>
+        <v>1.1072427410373735</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="14">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2260,7 +2357,7 @@
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,CHOOSE({1,2},F19:F63,J19:J63),2,FALSE)</f>
-        <v>8.6277149043235413E-3</v>
+        <v>7.8201123345074466E-3</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>41</v>
@@ -2271,7 +2368,7 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.3599999999999994</v>
+        <v>2.3299999999999983</v>
       </c>
       <c r="H19" s="9">
         <f>VLOOKUP(F19,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2279,29 +2376,29 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1136126182198102E-2</v>
+        <v>2.0867446612085404E-2</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>8.6277149043235413E-3</v>
+        <v>7.8201123345074466E-3</v>
       </c>
       <c r="K19" s="6" cm="1">
         <f t="array" ref="K19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>43.81</v>
+        <v>44.15</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>0.39236173222122844</v>
+        <v>0.39540676734917218</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>0.37798018995841437</v>
+        <v>0.34525795956850375</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="14">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -2310,7 +2407,7 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,CHOOSE({1,2},F20:F64,J20:J64),2,FALSE)</f>
-        <v>1.3367370702589712E-2</v>
+        <v>1.2116109731311449E-2</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>43</v>
@@ -2321,7 +2418,7 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.5</v>
+        <v>1.5900000000000034</v>
       </c>
       <c r="H20" s="9">
         <f>VLOOKUP(F20,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2329,29 +2426,29 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>-6.937988899217761E-3</v>
+        <v>2.2062804699512526E-2</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1.3367370702589712E-2</v>
+        <v>1.2116109731311449E-2</v>
       </c>
       <c r="K20" s="6" cm="1">
         <f t="array" ref="K20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>38.03</v>
+        <v>37.6</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="1"/>
-        <v>0.52770343567450295</v>
+        <v>0.52173676522117562</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>0.50836110781948673</v>
+        <v>0.45556572589731048</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="14">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -2360,7 +2457,7 @@
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,CHOOSE({1,2},F21:F65,J21:J65),2,FALSE)</f>
-        <v>2.1501853133597754E-3</v>
+        <v>1.9489158922086447E-3</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>45</v>
@@ -2371,7 +2468,7 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-6.4700000000000273</v>
+        <v>5.5900000000000034</v>
       </c>
       <c r="H21" s="9">
         <f>VLOOKUP(F21,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2379,29 +2476,29 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>-1.444101689437303E-2</v>
+        <v>1.2476860037023949E-2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>2.1501853133597754E-3</v>
+        <v>1.9489158922086447E-3</v>
       </c>
       <c r="K21" s="6" cm="1">
         <f t="array" ref="K21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>237.89</v>
+        <v>226.56</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>0.53096963044859125</v>
+        <v>0.50568111091022261</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.51150758419515696</v>
+        <v>0.44154638453879053</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="14">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2410,7 +2507,7 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,CHOOSE({1,2},F22:F66,J22:J66),2,FALSE)</f>
-        <v>3.5058039392378555E-3</v>
+        <v>3.1776410013107971E-3</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>47</v>
@@ -2421,7 +2518,7 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>78.230000000000018</v>
+        <v>26.360000000000014</v>
       </c>
       <c r="H22" s="9">
         <f>VLOOKUP(F22,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2429,29 +2526,29 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="2"/>
-        <v>0.28469416048934326</v>
+        <v>9.5929158513346421E-2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>3.5058039392378555E-3</v>
+        <v>3.1776410013107971E-3</v>
       </c>
       <c r="K22" s="6" cm="1">
         <f t="array" ref="K22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>773.44</v>
+        <v>776.37</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>2.814698344482649</v>
+        <v>2.8253611834221064</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>2.7115289987641273</v>
+        <v>2.4670251441876636</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="14">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -2460,7 +2557,7 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,CHOOSE({1,2},F23:F67,J23:J67),2,FALSE)</f>
-        <v>7.0000477423823792E-3</v>
+        <v>6.344803960190366E-3</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>49</v>
@@ -2471,7 +2568,7 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.3699999999999903</v>
+        <v>2.0799999999999983</v>
       </c>
       <c r="H23" s="9">
         <f>VLOOKUP(F23,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2479,29 +2576,29 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="2"/>
-        <v>-9.9549520720766151E-3</v>
+        <v>1.511408781745948E-2</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>7.0000477423823792E-3</v>
+        <v>6.344803960190366E-3</v>
       </c>
       <c r="K23" s="6" cm="1">
         <f t="array" ref="K23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>80.37</v>
+        <v>76.53</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>0.58399963360058627</v>
+        <v>0.55609670224527641</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>0.56259383705527188</v>
+        <v>0.4855678470733687</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" ht="14">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2510,7 +2607,7 @@
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,CHOOSE({1,2},F24:F68,J24:J68),2,FALSE)</f>
-        <v>3.5443377262156296E-3</v>
+        <v>3.2125678094148949E-3</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>51</v>
@@ -2521,7 +2618,7 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>20.259999999999991</v>
+        <v>11.529999999999973</v>
       </c>
       <c r="H24" s="9">
         <f>VLOOKUP(F24,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2529,29 +2626,29 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>7.4540472735243599E-2</v>
+        <v>4.2421108126226896E-2</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>3.5443377262156296E-3</v>
+        <v>3.2125678094148949E-3</v>
       </c>
       <c r="K24" s="6" cm="1">
         <f t="array" ref="K24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>533.5</v>
+        <v>535.64</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="1"/>
-        <v>1.962850059439905</v>
+        <v>1.9707235348423442</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>1.8909041769360384</v>
+        <v>1.7207798214349943</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="14">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -2560,7 +2657,7 @@
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,CHOOSE({1,2},F25:F69,J25:J69),2,FALSE)</f>
-        <v>3.5805594859747367E-3</v>
+        <v>3.2453990090327467E-3</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>53</v>
@@ -2571,7 +2668,7 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-5.5999999999999943</v>
+        <v>2.8900000000000006</v>
       </c>
       <c r="H25" s="9">
         <f>VLOOKUP(F25,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2579,29 +2676,29 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0814046697525262E-2</v>
+        <v>1.07415348135443E-2</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>3.5805594859747367E-3</v>
+        <v>3.2453990090327467E-3</v>
       </c>
       <c r="K25" s="6" cm="1">
         <f t="array" ref="K25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>109.14</v>
+        <v>107.77</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>0.40565090295855527</v>
+        <v>0.40055889510576781</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>0.39078226229928276</v>
+        <v>0.34975665120345911</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="14">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -2610,7 +2707,7 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,CHOOSE({1,2},F26:F70,J26:J70),2,FALSE)</f>
-        <v>1.9739317717234379E-2</v>
+        <v>1.7891606719405023E-2</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>55</v>
@@ -2621,7 +2718,7 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.1400000000000006</v>
+        <v>2.1700000000000017</v>
       </c>
       <c r="H26" s="9">
         <f>VLOOKUP(F26,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2629,29 +2726,29 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>6.4339753056395124E-2</v>
+        <v>4.4464096857445061E-2</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>1.9739317717234379E-2</v>
+        <v>1.7891606719405023E-2</v>
       </c>
       <c r="K26" s="6" cm="1">
         <f t="array" ref="K26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>54.43</v>
+        <v>54.17</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="1"/>
-        <v>1.1152906875348998</v>
+        <v>1.1099631920588926</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>1.0744110633490673</v>
+        <v>0.96918833599017007</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="14">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2660,7 +2757,7 @@
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,CHOOSE({1,2},F27:F71,J27:J71),2,FALSE)</f>
-        <v>3.9427770835658103E-3</v>
+        <v>3.5737110052112644E-3</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>57</v>
@@ -2671,7 +2768,7 @@
       </c>
       <c r="G27" s="2" cm="1">
         <f t="array" ref="G27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.8300000000000125</v>
+        <v>8.6899999999999977</v>
       </c>
       <c r="H27" s="9">
         <f>VLOOKUP(F27,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2679,29 +2776,29 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>2.7953779273953216E-2</v>
+        <v>3.556637509379984E-2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>3.9427770835658103E-3</v>
+        <v>3.5737110052112644E-3</v>
       </c>
       <c r="K27" s="6" cm="1">
         <f t="array" ref="K27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>207.68</v>
+        <v>208.8</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="1"/>
-        <v>0.84999134401384968</v>
+        <v>0.85457527267956379</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>0.81883594471494747</v>
+        <v>0.74619085788811201</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="14">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -2710,7 +2807,7 @@
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,CHOOSE({1,2},F28:F72,J28:J72),2,FALSE)</f>
-        <v>8.8088237031190791E-4</v>
+        <v>7.9842683325967055E-4</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
@@ -2721,7 +2818,7 @@
       </c>
       <c r="G28" s="2" cm="1">
         <f t="array" ref="G28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-34.360000000000014</v>
+        <v>8.6299999999999955</v>
       </c>
       <c r="H28" s="9">
         <f>VLOOKUP(F28,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2729,29 +2826,29 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1418733730026044E-2</v>
+        <v>7.8912593739849969E-3</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>8.8088237031190791E-4</v>
+        <v>7.9842683325967055E-4</v>
       </c>
       <c r="K28" s="6" cm="1">
         <f t="array" ref="K28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>943.12</v>
+        <v>923</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="1"/>
-        <v>0.86238754817992291</v>
+        <v>0.84398984961624068</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>0.83077778108856659</v>
+        <v>0.73694796709867594</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="14">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -2760,7 +2857,7 @@
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,CHOOSE({1,2},F29:F73,J29:J73),2,FALSE)</f>
-        <v>9.3552328024639111E-3</v>
+        <v>8.4795304715128087E-3</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>61</v>
@@ -2771,7 +2868,7 @@
       </c>
       <c r="G29" s="2" cm="1">
         <f t="array" ref="G29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.4000000000000057</v>
+        <v>6.2800000000000011</v>
       </c>
       <c r="H29" s="9">
         <f>VLOOKUP(F29,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2779,29 +2876,29 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3595658246946861E-2</v>
+        <v>6.0986238422018536E-2</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>9.3552328024639111E-3</v>
+        <v>8.4795304715128087E-3</v>
       </c>
       <c r="K29" s="6" cm="1">
         <f t="array" ref="K29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>177.87</v>
+        <v>180</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="1"/>
-        <v>1.7273283802745916</v>
+        <v>1.7480132031788749</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>1.6640152585742558</v>
+        <v>1.5263154848723055</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="14">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -2810,7 +2907,7 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,CHOOSE({1,2},F30:F74,J30:J74),2,FALSE)</f>
-        <v>4.0005777640324701E-3</v>
+        <v>3.6261012173674102E-3</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>63</v>
@@ -2821,7 +2918,7 @@
       </c>
       <c r="G30" s="2" cm="1">
         <f t="array" ref="G30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.1700000000000159</v>
+        <v>8.1100000000000136</v>
       </c>
       <c r="H30" s="9">
         <f>VLOOKUP(F30,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2829,29 +2926,29 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>1.3164354937032167E-2</v>
+        <v>3.3679154113353475E-2</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>4.0005777640324701E-3</v>
+        <v>3.6261012173674102E-3</v>
       </c>
       <c r="K30" s="6" cm="1">
         <f t="array" ref="K30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>253.77</v>
+        <v>252.53</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="1"/>
-        <v>1.0538543698330083</v>
+        <v>1.0487049060721503</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>1.01522661917852</v>
+        <v>0.91569934042179213</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" ht="14">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -2860,7 +2957,7 @@
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,CHOOSE({1,2},F31:F75,J31:J75),2,FALSE)</f>
-        <v>2.2133807240033239E-3</v>
+        <v>2.0061958574993646E-3</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>65</v>
@@ -2871,7 +2968,7 @@
       </c>
       <c r="G31" s="2" cm="1">
         <f t="array" ref="G31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-9.4300000000000068</v>
+        <v>-1.8799999999999955</v>
       </c>
       <c r="H31" s="9">
         <f>VLOOKUP(F31,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2879,29 +2976,29 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>-2.166633333386668E-2</v>
+        <v>-4.319481088830247E-3</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>2.2133807240033239E-3</v>
+        <v>2.0061958574993646E-3</v>
       </c>
       <c r="K31" s="6" cm="1">
         <f t="array" ref="K31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>173.6</v>
+        <v>171</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="1"/>
-        <v>0.39886272181964505</v>
+        <v>0.39288897137764578</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>0.38424289368697701</v>
+        <v>0.34305949163239136</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="14">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -2910,7 +3007,7 @@
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,CHOOSE({1,2},F32:F76,J32:J76),2,FALSE)</f>
-        <v>6.186984837151353E-3</v>
+        <v>5.6078483091939069E-3</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>67</v>
@@ -2921,7 +3018,7 @@
       </c>
       <c r="G32" s="2" cm="1">
         <f t="array" ref="G32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.26000000000001933</v>
+        <v>6.3899999999999864</v>
       </c>
       <c r="H32" s="9">
         <f>VLOOKUP(F32,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2929,29 +3026,29 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>-1.669821328285999E-3</v>
+        <v>4.1039070337487375E-2</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>6.186984837151353E-3</v>
+        <v>5.6078483091939069E-3</v>
       </c>
       <c r="K32" s="6" cm="1">
         <f t="array" ref="K32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>158.35</v>
+        <v>160.66</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="1"/>
-        <v>1.0169854128233395</v>
+        <v>1.0318211330861871</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>0.97970904896291666</v>
+        <v>0.90095690935509309</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="14">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
@@ -2960,7 +3057,7 @@
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,CHOOSE({1,2},F33:F77,J33:J77),2,FALSE)</f>
-        <v>7.1988820831876913E-3</v>
+        <v>6.5250262900075091E-3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>69</v>
@@ -2971,7 +3068,7 @@
       </c>
       <c r="G33" s="2" cm="1">
         <f t="array" ref="G33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.29000000000000625</v>
+        <v>1.740000000000002</v>
       </c>
       <c r="H33" s="9">
         <f>VLOOKUP(F33,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2979,29 +3076,29 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>2.1671085326263944E-3</v>
+        <v>1.3002651195758101E-2</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>7.1988820831876913E-3</v>
+        <v>6.5250262900075091E-3</v>
       </c>
       <c r="K33" s="6" cm="1">
         <f t="array" ref="K33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>59.52</v>
+        <v>56.25</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="1"/>
-        <v>0.44478034435144903</v>
+        <v>0.42034432744907607</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.42847746159133143</v>
+        <v>0.36703272881292237</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="14">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3010,7 +3107,7 @@
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,CHOOSE({1,2},F34:F78,J34:J78),2,FALSE)</f>
-        <v>1.9428735394193522E-3</v>
+        <v>1.7610096646085995E-3</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>71</v>
@@ -3021,7 +3118,7 @@
       </c>
       <c r="G34" s="2" cm="1">
         <f t="array" ref="G34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-12.300000000000011</v>
+        <v>-0.68000000000000682</v>
       </c>
       <c r="H34" s="9">
         <f>VLOOKUP(F34,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3029,29 +3126,29 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4806600309439524E-2</v>
+        <v>-1.3714218057251245E-3</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>1.9428735394193522E-3</v>
+        <v>1.7610096646085995E-3</v>
       </c>
       <c r="K34" s="6" cm="1">
         <f t="array" ref="K34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>146.76</v>
+        <v>147.51</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="1"/>
-        <v>0.29598509442384885</v>
+        <v>0.29749769200369275</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>0.28513612064518412</v>
+        <v>0.2597665356264145</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="14">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3060,7 +3157,7 @@
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,CHOOSE({1,2},F35:F79,J35:J79),2,FALSE)</f>
-        <v>6.8058374560143993E-3</v>
+        <v>6.1687728473457139E-3</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>73</v>
@@ -3071,7 +3168,7 @@
       </c>
       <c r="G35" s="2" cm="1">
         <f t="array" ref="G35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>12.849999999999994</v>
+        <v>5.6699999999999875</v>
       </c>
       <c r="H35" s="9">
         <f>VLOOKUP(F35,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3079,29 +3176,29 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>9.0782534747944371E-2</v>
+        <v>4.0057351908236859E-2</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>6.8058374560143993E-3</v>
+        <v>6.1687728473457139E-3</v>
       </c>
       <c r="K35" s="6" cm="1">
         <f t="array" ref="K35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>137.79</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="1"/>
-        <v>0.9734572344684248</v>
+        <v>0.9233678826113878</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>0.93777634306422408</v>
+        <v>0.80625861114808473</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="14">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>74</v>
       </c>
@@ -3110,7 +3207,7 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,CHOOSE({1,2},F36:F80,J36:J80),2,FALSE)</f>
-        <v>2.4885119630246285E-3</v>
+        <v>2.2555732673626211E-3</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>75</v>
@@ -3121,7 +3218,7 @@
       </c>
       <c r="G36" s="2" cm="1">
         <f t="array" ref="G36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-3.6132099999999809</v>
+        <v>0.63846999999998388</v>
       </c>
       <c r="H36" s="9">
         <f>VLOOKUP(F36,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3129,29 +3226,29 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="2"/>
-        <v>-9.3336291381933296E-3</v>
+        <v>1.649293065131054E-3</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>2.4885119630246285E-3</v>
+        <v>2.2555732673626211E-3</v>
       </c>
       <c r="K36" s="6" cm="1">
         <f t="array" ref="K36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>286.89087000000001</v>
+        <v>283.11162999999999</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="1"/>
-        <v>0.7410953096315045</v>
+        <v>0.73133279248353189</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>0.71393136207754349</v>
+        <v>0.63857902430745739</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="14">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>76</v>
       </c>
@@ -3160,7 +3257,7 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,CHOOSE({1,2},F37:F81,J37:J81),2,FALSE)</f>
-        <v>4.7411971497452821E-3</v>
+        <v>4.2973944691281655E-3</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>77</v>
@@ -3171,7 +3268,7 @@
       </c>
       <c r="G37" s="2" cm="1">
         <f t="array" ref="G37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.80000000000001137</v>
+        <v>6.6099999999999994</v>
       </c>
       <c r="H37" s="9">
         <f>VLOOKUP(F37,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3179,29 +3276,29 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="2"/>
-        <v>-3.9372737003621353E-3</v>
+        <v>3.2531723949241677E-2</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>4.7411971497452821E-3</v>
+        <v>4.2973944691281655E-3</v>
       </c>
       <c r="K37" s="6" cm="1">
         <f t="array" ref="K37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>122.21</v>
+        <v>125.21</v>
       </c>
       <c r="L37" s="6">
         <f t="shared" si="1"/>
-        <v>0.60146777365156212</v>
+        <v>0.61623255002791999</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.57942170367037094</v>
+        <v>0.53807676147953754</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="14">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
@@ -3210,7 +3307,7 @@
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,CHOOSE({1,2},F38:F82,J38:J82),2,FALSE)</f>
-        <v>3.0688307949099016E-3</v>
+        <v>2.7815709974103311E-3</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>79</v>
@@ -3221,7 +3318,7 @@
       </c>
       <c r="G38" s="2" cm="1">
         <f t="array" ref="G38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.2199999999999989</v>
+        <v>3.4599999999999795</v>
       </c>
       <c r="H38" s="9">
         <f>VLOOKUP(F38,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3229,29 +3326,29 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>1.0257615587815056E-2</v>
+        <v>1.1022158364546552E-2</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>3.0688307949099016E-3</v>
+        <v>2.7815709974103311E-3</v>
       </c>
       <c r="K38" s="6" cm="1">
         <f t="array" ref="K38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>223.5</v>
+        <v>208.48</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="1"/>
-        <v>0.71198046083126265</v>
+        <v>0.66413282538747942</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>0.68588368266236299</v>
+        <v>0.57990192154010578</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="14">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
@@ -3260,7 +3357,7 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,CHOOSE({1,2},F39:F83,J39:J83),2,FALSE)</f>
-        <v>5.9419099519727125E-4</v>
+        <v>5.3857138096518459E-4</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>81</v>
@@ -3271,7 +3368,7 @@
       </c>
       <c r="G39" s="2" cm="1">
         <f t="array" ref="G39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-11.879999999999995</v>
+        <v>17.370000000000005</v>
       </c>
       <c r="H39" s="9">
         <f>VLOOKUP(F39,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3279,29 +3376,29 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" si="2"/>
-        <v>-7.3275722758843562E-3</v>
+        <v>1.0713798857921831E-2</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>5.9419099519727125E-4</v>
+        <v>5.3857138096518459E-4</v>
       </c>
       <c r="K39" s="6" cm="1">
         <f t="array" ref="K39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>633.47</v>
+        <v>636.02</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="1"/>
-        <v>0.39072367084212667</v>
+        <v>0.39229650832558671</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>0.37640216972761542</v>
+        <v>0.34254216972147672</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="14">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>82</v>
       </c>
@@ -3310,7 +3407,7 @@
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,CHOOSE({1,2},F40:F84,J40:J84),2,FALSE)</f>
-        <v>2.2195461299197678E-3</v>
+        <v>2.0117841467960202E-3</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>83</v>
@@ -3321,7 +3418,7 @@
       </c>
       <c r="G40" s="2" cm="1">
         <f t="array" ref="G40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-5.4099999999999966</v>
+        <v>2.7299999999999898</v>
       </c>
       <c r="H40" s="9">
         <f>VLOOKUP(F40,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3329,29 +3426,29 @@
       </c>
       <c r="I40" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2464620056607902E-2</v>
+        <v>6.2899099361440787E-3</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>2.2195461299197678E-3</v>
+        <v>2.0117841467960202E-3</v>
       </c>
       <c r="K40" s="6" cm="1">
         <f t="array" ref="K40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>191.78</v>
+        <v>185.69</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="1"/>
-        <v>0.44186041302333917</v>
+        <v>0.4278290754734792</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>0.42566455679601306</v>
+        <v>0.37356819821855297</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="14">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -3360,7 +3457,7 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,CHOOSE({1,2},F41:F85,J41:J85),2,FALSE)</f>
-        <v>9.0646880486514973E-3</v>
+        <v>8.2161823384079135E-3</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>85</v>
@@ -3371,7 +3468,7 @@
       </c>
       <c r="G41" s="2" cm="1">
         <f t="array" ref="G41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.2199999999999989</v>
+        <v>2.6300000000000026</v>
       </c>
       <c r="H41" s="9">
         <f>VLOOKUP(F41,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3379,29 +3476,29 @@
       </c>
       <c r="I41" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1479693632490177E-2</v>
+        <v>2.4747208404466578E-2</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>9.0646880486514973E-3</v>
+        <v>8.2161823384079135E-3</v>
       </c>
       <c r="K41" s="6" cm="1">
         <f t="array" ref="K41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>56.59</v>
+        <v>57.52</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="1"/>
-        <v>0.5324884120185408</v>
+        <v>0.54123932601707836</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>0.51297069667318829</v>
+        <v>0.4725948081052232</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" ht="14">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>86</v>
       </c>
@@ -3410,7 +3507,7 @@
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,CHOOSE({1,2},F42:F86,J42:J86),2,FALSE)</f>
-        <v>2.7759740138788209E-3</v>
+        <v>2.5161272558191896E-3</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>87</v>
@@ -3421,7 +3518,7 @@
       </c>
       <c r="G42" s="2" cm="1">
         <f t="array" ref="G42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-10.770000000000039</v>
+        <v>6.6299999999999955</v>
       </c>
       <c r="H42" s="9">
         <f>VLOOKUP(F42,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3429,29 +3526,29 @@
       </c>
       <c r="I42" s="2">
         <f t="shared" si="2"/>
-        <v>-3.1034782344348363E-2</v>
+        <v>1.9104977432036097E-2</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>2.7759740138788209E-3</v>
+        <v>2.5161272558191896E-3</v>
       </c>
       <c r="K42" s="6" cm="1">
         <f t="array" ref="K42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>308.27</v>
+        <v>309.26</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="1"/>
-        <v>0.88830941070494285</v>
+        <v>0.8911621901404958</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>0.85574950925842408</v>
+        <v>0.77813751513464258</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" ht="14">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>88</v>
       </c>
@@ -3460,7 +3557,7 @@
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,CHOOSE({1,2},F43:F87,J43:J87),2,FALSE)</f>
-        <v>3.7084916587409454E-3</v>
+        <v>3.3613560119383507E-3</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>89</v>
@@ -3471,7 +3568,7 @@
       </c>
       <c r="G43" s="2" cm="1">
         <f t="array" ref="G43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.4300000000000068</v>
+        <v>-1.3900000000000148</v>
       </c>
       <c r="H43" s="9">
         <f>VLOOKUP(F43,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3479,29 +3576,29 @@
       </c>
       <c r="I43" s="2">
         <f t="shared" si="2"/>
-        <v>5.504919192129319E-3</v>
+        <v>-5.3509354385033554E-3</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>3.7084916587409454E-3</v>
+        <v>3.3613560119383507E-3</v>
       </c>
       <c r="K43" s="6" cm="1">
         <f t="array" ref="K43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>145.6</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="1"/>
-        <v>0.56050086319861891</v>
+        <v>0.53971305645910961</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>0.53995638551268166</v>
+        <v>0.47126211287375674</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="14">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>90</v>
       </c>
@@ -3510,7 +3607,7 @@
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,CHOOSE({1,2},F44:F88,J44:J88),2,FALSE)</f>
-        <v>1.9035690767020233E-3</v>
+        <v>1.7253843203424203E-3</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>91</v>
@@ -3521,7 +3618,7 @@
       </c>
       <c r="G44" s="2" cm="1">
         <f t="array" ref="G44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-8.3000000000000114</v>
+        <v>2.9000000000000057</v>
       </c>
       <c r="H44" s="9">
         <f>VLOOKUP(F44,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3529,29 +3626,29 @@
       </c>
       <c r="I44" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6400773758762009E-2</v>
+        <v>5.7303908313746819E-3</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>1.9035690767020233E-3</v>
+        <v>1.7253843203424203E-3</v>
       </c>
       <c r="K44" s="6" cm="1">
         <f t="array" ref="K44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>229.38</v>
+        <v>225.12</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="1"/>
-        <v>0.45325415479335235</v>
+        <v>0.44483640826174681</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.43664067481391011</v>
+        <v>0.38841851819548567</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" ht="14">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -3560,7 +3657,7 @@
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,CHOOSE({1,2},F45:F89,J45:J89),2,FALSE)</f>
-        <v>1.5228552613616186E-3</v>
+        <v>1.3803074562739363E-3</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>93</v>
@@ -3571,7 +3668,7 @@
       </c>
       <c r="G45" s="2" cm="1">
         <f t="array" ref="G45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.1700000000000159</v>
+        <v>5.5900000000000318</v>
       </c>
       <c r="H45" s="9">
         <f>VLOOKUP(F45,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3579,29 +3676,29 @@
       </c>
       <c r="I45" s="2">
         <f t="shared" si="2"/>
-        <v>-3.4303305114712071E-3</v>
+        <v>8.836657861347472E-3</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>1.5228552613616186E-3</v>
+        <v>1.3803074562739363E-3</v>
       </c>
       <c r="K45" s="6" cm="1">
         <f t="array" ref="K45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>285.56</v>
+        <v>285.86</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="1"/>
-        <v>0.45141252573995883</v>
+        <v>0.45188676498117608</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>0.43486654843442379</v>
+        <v>0.39457468945046742</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" ht="14">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3611,7 +3708,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" ht="14">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I47" s="2"/>
     </row>
   </sheetData>
@@ -3625,20 +3722,21 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.36328125" style="17" customWidth="1"/>
     <col min="2" max="2" width="28.1796875" style="17" customWidth="1"/>
     <col min="3" max="3" width="9.36328125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="17"/>
+    <col min="6" max="6" width="16.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>119</v>
       </c>
@@ -3649,7 +3747,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>94</v>
       </c>
@@ -3669,7 +3767,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -3689,7 +3787,7 @@
         <v>3162510</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -3709,7 +3807,7 @@
         <v>2360391</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -3729,7 +3827,7 @@
         <v>2270134</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -3749,7 +3847,7 @@
         <v>2176159</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -3769,7 +3867,7 @@
         <v>1597199</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -3784,7 +3882,7 @@
         <v>1500020</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -3804,7 +3902,7 @@
         <v>1390810</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -3824,7 +3922,7 @@
         <v>1313691</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>9</v>
       </c>
@@ -3844,7 +3942,7 @@
         <v>1300865</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -3864,7 +3962,7 @@
         <v>1287648</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>11</v>
       </c>
@@ -3884,7 +3982,7 @@
         <v>1273321</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>12</v>
       </c>
@@ -3899,7 +3997,7 @@
         <v>1194543</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>13</v>
       </c>
@@ -3919,7 +4017,7 @@
         <v>1149182</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>14</v>
       </c>
@@ -3939,7 +4037,7 @@
         <v>1135505</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>15</v>
       </c>
@@ -3959,7 +4057,7 @@
         <v>1117260</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>16</v>
       </c>
@@ -3979,7 +4077,7 @@
         <v>1103345</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -3999,7 +4097,7 @@
         <v>1049788</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>18</v>
       </c>
@@ -4019,7 +4117,7 @@
         <v>1027549</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>19</v>
       </c>
@@ -4039,7 +4137,7 @@
         <v>937844</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>20</v>
       </c>
@@ -4059,7 +4157,7 @@
         <v>881072</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -4079,7 +4177,7 @@
         <v>877155</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>22</v>
       </c>
@@ -4099,7 +4197,7 @@
         <v>853055</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>23</v>
       </c>
@@ -4119,7 +4217,7 @@
         <v>790244</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>24</v>
       </c>
@@ -4139,7 +4237,7 @@
         <v>766305</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -4159,7 +4257,7 @@
         <v>758793</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -4179,7 +4277,7 @@
         <v>742444</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -4199,7 +4297,7 @@
         <v>693746</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -4219,7 +4317,7 @@
         <v>681764</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -4239,7 +4337,7 @@
         <v>679961</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>30</v>
       </c>
@@ -4259,7 +4357,7 @@
         <v>674488</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>31</v>
       </c>
@@ -4279,7 +4377,7 @@
         <v>668303</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>32</v>
       </c>
@@ -4299,7 +4397,7 @@
         <v>652141</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>33</v>
       </c>
@@ -4319,7 +4417,7 @@
         <v>620706</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>34</v>
       </c>
@@ -4339,7 +4437,7 @@
         <v>587070</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>35</v>
       </c>
@@ -4359,7 +4457,7 @@
         <v>568554</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>36</v>
       </c>
@@ -4379,7 +4477,7 @@
         <v>567907</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>37</v>
       </c>
@@ -4399,7 +4497,7 @@
         <v>559007</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>38</v>
       </c>
@@ -4419,7 +4517,7 @@
         <v>553267</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>39</v>
       </c>
@@ -4439,7 +4537,7 @@
         <v>533082</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>40</v>
       </c>
@@ -4459,7 +4557,7 @@
         <v>525662</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>41</v>
       </c>
@@ -4479,7 +4577,7 @@
         <v>516873</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>42</v>
       </c>
@@ -4499,7 +4597,7 @@
         <v>504742</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>43</v>
       </c>
@@ -4519,7 +4617,7 @@
         <v>497565</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>44</v>
       </c>
@@ -4539,7 +4637,7 @@
         <v>446694</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>45</v>
       </c>
@@ -4559,7 +4657,7 @@
         <v>400990</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>46</v>
       </c>

--- a/ciq reference/data/Shares.xlsx
+++ b/ciq reference/data/Shares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18613\Desktop\cursor\FundsMonitor-CIQ\ciq reference\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2178646E-124C-45C4-A17F-B94009B636F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CE61F2-3B41-4D2F-A1E4-BEC9D468AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="CIQWBGuid" localSheetId="2" hidden="1">"244e8b9b-9555-43d4-a766-55f71f6305a6"</definedName>
-    <definedName name="CIQWBGuid" hidden="1">"29ff8d82-fbb6-4db5-8236-154cb7cd6e97"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"3ee75ae5-6867-462f-b712-6ce6ed08c8f4"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="165">
   <si>
     <t>Ticker</t>
   </si>
@@ -517,9 +517,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BAABTAVMT0NBTAFI/////wFQ4QAAACxDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACdeg0AAgAAAAsxOTUuOTYxOTI5NQAYL1dUM9TdCOaxvlQz1N0ILENJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAJ16DQACAAAACzE4OS40NTUxODI1ABgvV1Qz1N0I1gfBYzPU3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACP3AHACAAAABzMyLjQ1OTUAGC9XVDPU3Qjlir5UM9TdCCRDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAI/cAcAIAAAAHMzIuNDE2MgAYL1dUM9TdCC13wGMz1N0IKUNJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAKvMBQACAAAACzM4Ljc1MDYyNTkyABgvV1Qz1N0IlbO9VDPU3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAq8wFAAIAAAALMzguNzM0OTkyNDUAGC9XVDPU3QgvTcJjM9TdCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAA9N1wAAgAAAAs0NS43NjU4MjU0NAAYL1dUM9TdCOaxvlQz1N0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAD03XAACAAAACjQ2LjI4MDc3MDIAGC9XVDPU3Qix3r9jM9TdCCRDSVEuQUFQ</t>
-  </si>
-  <si>
     <t>TC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAaWEAAAIAAAAGMjA3LjU3ABgvV1Qz1N0IlbO9VDPU3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAGlhAAACAAAABjIwOS4wNQAYL1dUM9TdCDAmwmMz1N0IJENJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAABXwAAAgAAAAYzNTcuNjkAGC9XVDPU3QhU7r1UM9TdCCRDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAAV8AAAIAAAADMzY0ABgvV1Qz1N0I84rBYzPU3QgkQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAD1JAAACAAAABjIzNC4xMQAYL1dUM9TdCJWzvVQz1N0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAA9SQAAAgAAAAYyMzAuMTkAGC9XVDPU3QgvTcJjM9TdCCRDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAw9v8AQIAAAAGMTIzLjIyABgvV1Qz1N0Ix2O+VDPU3QgkQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAMPb/AECAAAABjEyMi4wOQAYL1dUM9TdCIvPwGMz1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACznxScCAAAABzE0MS4zNzUAGC9XVDPU3QjHY75UM9TdCCNDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVT</t>
   </si>
   <si>
@@ -556,40 +553,58 @@
     <t>AAIAAAAGMjUyLjUzAAjPWGcz1N0IPA5xZzPU3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAABfbPAECAAAABjc3Ni4zNwAIz1hnM9TdCO1KcGcz1N0IJENJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABpYQAAAgAAAAYyMDMuMzUACM9YZzPU3QgLcnBnM9TdCCRDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAtnkAAAIAAAAFNzYuNTMACM9YZzPU3QgLcnBnM9TdCCRDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAPUkAAAIAAAAGMjExLjY1AAjPWGcz1N0IC3JwZzPU3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAq8wFAAIAAAALMzguNDY5MjU4MzUACM9YZzPU3QgLcnBnM9TdCCNDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAl4AEAAgAAAAYyNTIuMzIACM9YZzPU3QgdmXBnM9TdCCRDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAA1IgAAAIAAAAGNjM2LjAyAAjPWGcz1N0IHZlwZzPU3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAIN9hAECAAAAAzE3MQAIz1hnM9TdCB2ZcGcz1N0II0NJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAANq5zg0CAAAABjM5NS4wMQAIz1hnM9Td</t>
   </si>
   <si>
-    <t>AAYzMDguMjcAGC9XVDPU3QjHY75UM9TdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAEMaiAQIAAAAGMzE5LjA0ABgvV1Qz1N0I1gfBYzPU3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAARJuHIgIAAAAFMTQ1LjYAGC9XVDPU3Qjlir5UM9TdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABEm4ciAgAAAAYxNDQuMTcAGC9XVDPU3Qix3r9jM9TdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAh2NrAQIAAAAGMjI5LjM4ABgvV1Qz1N0IUj69VDPU3QgkQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAIdjawECAAAABjIzNy42OAAYL1dUM9TdCGOfwmMz1N0IIkNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA1MyBAwIAAAAGMjg1LjU2ABgvV1Qz1N0IlbO9VDPU3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADUzIEDAgAAAAYyODcuNzMAGC9XVDPU3Qhk6MFjM9TdCCNDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACHY2sBAgAAAAYyMjUuMTIAz+gsgDPU3Qh+wWOAM9TdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAESbhyICAAAABTE0MC4yAM/oLIAz1N0I4SFkgDPU3QgjQ0lRLlNIT1Au</t>
-  </si>
-  <si>
-    <t>SVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAABisEBQIAAAAGMTI1LjIxAM/oLIAz1N0Ie01kgDPU3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAaVX0AQIAAAAFMTMwLjcAz+gsgDPU3Qirm2SAM9TdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAzfgAAAgAAAAMxODAAz+gsgDPU3Qjt0GSAM9TdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAADT14AQCAAAABTIwOC44AM/oLIAz1N0IegtlgDPU3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADibswCAgAAAAYyMjYuNTYAs9IsgDPU3QgTbGWAM9TdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADNhBcRAgAAAAU0NC4xNQCz0iyAM9TdCEeTZYAz1N0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJeABAAIAAAAGMjUyLjMyALPSLIAz1N0ItfhlgDPU3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA8LZ9AQIAAAAGMjk3LjcyALPSLIAz1N0Im1pmgDPU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAA9N1wAAgAAAAs0NC40OTA1MzM1NwCz0iyAM9TdCPSGZoAz1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAACP3</t>
-  </si>
-  <si>
-    <t>AHACAAAABzMyLjAyMjcAs9IsgDPU3Qj21GaAM9TdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADUiAAAAgAAAAY2MzYuMDIAz+gsgDPU3QjhIWSAM9TdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACDfYQBAgAAAAMxNzEAz+gsgDPU3Qirm2SAM9TdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAANq5zg0CAAAABjM5NS4wMQCz0iyAM9TdCFXKZYAz1N0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAGlhAAACAAAABjIwMy4zNQCz0iyAM9TdCAKuZoAz1N0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAALZ5AAACAAAABTc2LjUzALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAPUkAAAIAAAAGMjExLjY1ALPSLIAz1N0Im1pmgDPU3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACrzAUAAgAAAAwzNy45Njc0ODU0MTUAs9IsgDPU3Qj21GaAM9TdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA1MyBAwIAAAAGMjg1Ljg2AM/oLIAz1N0IfsFjgDPU3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsDxkEAIAAAAGMjA4LjQ4AM/oLIAz1N0Io3RkgDPU</t>
-  </si>
-  <si>
-    <t>3QgjQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA51YAAAIAAAAGMjUyLjUzAM/oLIAz1N0IegtlgDPU3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAF9s8AQIAAAAGNzc2LjM3ALPSLIAz1N0IE2xlgDPU3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAu6EECAIAAAAGMTM5LjEzALPSLIAz1N0INDNmgDPU3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAUhMiDwIAAAAGMTg1LjY5AM/oLIAz1N0I4SFkgDPU3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAZfqYAgIAAAAGMTYwLjY2AM/oLIAz1N0Iq5tkgDPU3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAS1UAAAIAAAAGNTM1LjY0ALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsPCHDAIAAAAGMzUyLjM2ALPSLIAz1N0IVcplgDPU3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAAV8AAAIAAAAGMzM4Ljg1ALPSLIAz1N0IAq5mgDPU3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAZpBAACAAAABjEwNy43NwCz0iyAM9TdCIk0ZYAz1N0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5V</t>
-  </si>
-  <si>
-    <t>U0QBAAAAANMkGQIAAAAFNTcuNTIAz+gsgDPU3QjhIWSAM9TdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC4yqUGAgAAAAU1Ni4yNQDP6CyAM9TdCO3QZIAz1N0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAICEWw0CAAAABTgwLjUzALPSLIAz1N0IVcplgDPU3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAs58UnAgAAAAYxNDAuMDUAs9IsgDPU3Qj0hmaAM9TdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADD2/wBAgAAAAYxMjAuMzUAs9IsgDPU3Qj0hmaAM9TdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAo7wUAAgAAAAY2OTkuMzYAs9IsgDPU3Qg0M2aAM9TdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAJ16DQACAAAACjE4Ni4zNDM1OTYAs9IsgDPU3Qj21GaAM9TdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAQxqIBAgAAAAYzMDkuMjYAz+gsgDPU3QiK+GOAM9TdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADVggAAAgAAAAYxNDcuNTEAz+gsgDPU3Qirm2SAM9TdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC/+xkDAgAAAAU1</t>
-  </si>
-  <si>
-    <t>NC4xNwDP6CyAM9TdCHoLZYAz1N0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACocQAAAgAAAAYxOTUuMDQAs9IsgDPU3QhHk2WAM9TdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAvuAQACAAAADzI4My4xMTE2MjUyNTUyNQDP6CyAM9TdCHtNZIAz1N0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAv3ReAQIAAAADOTIzAM/oLIAz1N0I7dBkgDPU3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC6PvwRAgAAAAQzNy42ALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJgF6EAIAAAAFMTcuMTIAs9IsgDPU3Qi1+GWAM9TdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAA8LZ9AQIAAAAGMjk3LjcyAAjPWGcz1N0ImapxZzPU3QgpQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAPTdcAAIAAAALNDQuODI1MDQ4ODYACM9YZzPU3QiZqnFnM9TdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABEm4ciAgAAAAUxNDAuMgAIz1hnM9TdCJjRcWcz1N0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABpVfQBAgAAAAUxMzAuNwAIz1hnM9Td</t>
-  </si>
-  <si>
-    <t>CN8jcGcz1N0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAACHY2sBAgAAAAYyMjUuMTIACM9YZzPU3QjfI3BnM9TdCCRDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAABisEBQIAAAAGMTI1LjIxAAjPWGcz1N0I3yNwZzPU3QgkQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAADN+AAACAAAAAzE4MAAIz1hnM9TdCO1KcGcz1N0II0NJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAOJuzAICAAAABjIyNi41NgAIz1hnM9TdCO1KcGcz1N0IIkNJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA2rnODQIAAAAGMzc5LjE3ALPSLIAz1N0IR5NlgDPU3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAh2NrAQIAAAAGMjIyLjIyAM/oLIAz1N0IfsFjgDPU3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAABisEBQIAAAAFMTE4LjYAz+gsgDPU3Qh7TWSAM9TdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAzfgAAAgAAAAYxNzMuNzIAz+gsgDPU3Qjt0GSAM9TdCCJDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOJuzAICAAAABjIyMC45NwCz0iyAM9TdCBNsZYAz1N0II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAy</t>
-  </si>
-  <si>
-    <t>NS84LzEuVVNEAQAAABfbPAECAAAABjc1MC4wMQCz0iyAM9TdCBNsZYAz1N0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGlhAAACAAAABjIwMi4zOACz0iyAM9TdCPSGZoAz1N0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALZ5AAACAAAABTc0LjQ1ALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAPUkAAAIAAAAGMjE0Ljc1ALPSLIAz1N0Im1pmgDPU3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACrzAUAAgAAAAozOC4zMzYwNzk2ALPSLIAz1N0I9tRmgDPU3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAl4AEAAgAAAAYyNTAuNzQAs9IsgDPU3Qi1+GWAM9TdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADUiAAAAgAAAAY2MTguNjUAz+gsgDPU3QjhIWSAM9TdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACDfYQBAgAAAAYxNzIuODgAz+gsgDPU3Qirm2SAM9TdCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACw8IcMAgAAAAYzMzguOTkAs9IsgDPU3QhVymWAM9TdCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAABXwAAAgAAAAUzNDcu</t>
-  </si>
-  <si>
-    <t>OACz0iyAM9TdCAKuZoAz1N0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALuhBAgCAAAABTEzNS42ALPSLIAz1N0INDNmgDPU3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAUhMiDwIAAAAGMTgyLjk2AM/oLIAz1N0I4SFkgDPU3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAZfqYAgIAAAAGMTU0LjI3AM/oLIAz1N0Iq5tkgDPU3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAANTMgQMCAAAABjI4MC4yNwDP6CyAM9TdCH7BY4Az1N0II0NJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALA8ZBACAAAABjIwNS4wMgDP6CyAM9TdCKN0ZIAz1N0II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOdWAAACAAAABjI0NC40MgDP6CyAM9TdCO3QZIAz1N0II0NJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAMPb/AECAAAABjExNy41NwCz0iyAM9TdCJtaZoAz1N0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAANMkGQIAAAAFNTQuODkAz+gsgDPU3QjhIWSAM9TdCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAABmkEAAIAAAAGMTA0Ljg4ALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkVTVEMuSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI1LzgvMS5VU0QBAAAAgIRbDQIAAAAFNzkuNTgAs9IsgDPU3Qi1+GWAM9TdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAo7wUAAgAAAAY2ODkuODIAs9IsgDPU3Qg0M2aAM9TdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAJ16DQACAAAACjE4NS42NzgyMTQAs9IsgDPU3QgCrmaAM9TdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAQxqIBAgAAAAYzMDIuNjMAz+gsgDPU3QiK+GOAM9TdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABLVQAAAgAAAAY1MjQuMTEAs9IsgDPU3QiJNGWAM9TdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALo+/BECAAAABTM2LjAxALPSLIAz1N0IiTRlgDPU3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAJgF6EAIAAAAEMTcuMgCz0iyAM9TdCLX4ZYAz1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACP3AHACAAAABzMxLjM5MDEAs9IsgDPU3QgCrmaAM9TdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADVggAAAgAAAAYxNDguMTkAz+gsgDPU3QijdGSAM9TdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEA</t>
-  </si>
-  <si>
-    <t>AAC4yqUGAgAAAAU1NC41MQDP6CyAM9TdCO3QZIAz1N0II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAL/7GQMCAAAAAjUyALPSLIAz1N0IegtlgDPU3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAKhxAAACAAAABjE4OS4xMwCz0iyAM9TdCEeTZYAz1N0IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAALOfFJwIAAAAGMTM3LjU4ALPSLIAz1N0I9IZmgDPU3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA8LZ9AQIAAAAGMjg4LjY0ALPSLIAz1N0Im1pmgDPU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAA9N1wAAgAAAAk0NS4zOTc5ODkAs9IsgDPU3Qj0hmaAM9TdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAESbhyICAAAABjE0MS41OQDP6CyAM9TdCIr4Y4Az1N0II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGlV9AECAAAABjEyNS4wMwDP6CyAM9TdCKubZIAz1N0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAANPXgBAIAAAAGMjAwLjExAM/oLIAz1N0IegtlgDPU3QgjQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAzYQXEQIAAAAFNDEuODIAs9IsgDPU</t>
-  </si>
-  <si>
-    <t>3QhHk2WAM9TdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAvuAQACAAAADzI4Mi40NzMxNTU0NDUyNQDP6CyAM9TdCHtNZIAz1N0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAv3ReAQIAAAAGOTE0LjM3AM/oLIAz1N0I7dBkgDPU3Qg=</t>
+    <t>BAABTAVMT0NBTAFI/////wFQDgEAACxDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACdeg0AAgAAAAsxOTUuOTYxOTI5NQAYL1dUM9TdCOaxvlQz1N0ILENJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAJ16DQACAAAACzE4OS40NTUxODI1ABgvV1Qz1N0I1gfBYzPU3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACP3AHACAAAABzMyLjQ1OTUAGC9XVDPU3Qjlir5UM9TdCCRDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAI/cAcAIAAAAHMzIuNDE2MgAYL1dUM9TdCC13wGMz1N0IKUNJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAKvMBQACAAAACzM4Ljc1MDYyNTkyABgvV1Qz1N0IlbO9VDPU3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAq8wFAAIAAAALMzguNzM0OTkyNDUAGC9XVDPU3QgvTcJjM9TdCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAA9N1wAAgAAAAs0NS43NjU4MjU0NAAYL1dUM9TdCOaxvlQz1N0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAD03XAACAAAACjQ2LjI4MDc3MDIAGC9XVDPU3Qix3r9jM9TdCCRDSVEuQUFQ</t>
+  </si>
+  <si>
+    <t>AAYzMDguMjcAGC9XVDPU3QjHY75UM9TdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAEMaiAQIAAAAGMzE5LjA0ABgvV1Qz1N0I1gfBYzPU3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAARJuHIgIAAAAFMTQ1LjYAGC9XVDPU3Qjlir5UM9TdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABEm4ciAgAAAAYxNDQuMTcAGC9XVDPU3Qix3r9jM9TdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAh2NrAQIAAAAGMjI5LjM4ABgvV1Qz1N0IUj69VDPU3QgkQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAIdjawECAAAABjIzNy42OAAYL1dUM9TdCGOfwmMz1N0IIkNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA1MyBAwIAAAAGMjg1LjU2ABgvV1Qz1N0IlbO9VDPU3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADUzIEDAgAAAAYyODcuNzMAGC9XVDPU3Qhk6MFjM9TdCCNDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACHY2sBAgAAAAYyMjUuMTIAeaeLQcrU3QgfQsRBytTdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAESbhyICAAAABTE0MC4yAHmni0HK1N0IG2nFQcrU3QgjQ0lRLlNIT1Au</t>
+  </si>
+  <si>
+    <t>SVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAABisEBQIAAAAGMTI1LjIxAHmni0HK1N0IzNfFQcrU3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAaVX0AQIAAAAFMTMwLjcAeaeLQcrU3QjM18VBytTdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAzfgAAAgAAAAMxODAAxpCLQcrU3Qi0QcZBytTdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAADT14AQCAAAABTIwOC44AMaQi0HK1N0ItEHGQcrU3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADibswCAgAAAAYyMjYuNTYAxpCLQcrU3Qi0QcZBytTdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADNhBcRAgAAAAU0NC4xNQDGkItBytTdCLRBxkHK1N0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJeABAAIAAAAGMjUyLjMyAMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA8LZ9AQIAAAAGMjk3LjcyAMaQi0HK1N0ItEHGQcrU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAA9N1wAAgAAAAs0NC40OTA1MzM1NwDGkItBytTdCLOnx0HK1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAACP3</t>
+  </si>
+  <si>
+    <t>AHACAAAABzMyLjAyMjcAxpCLQcrU3QhTzMdBytTdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADUiAAAAgAAAAY2MzYuMDIAeaeLQcrU3QgbacVBytTdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACDfYQBAgAAAAMxNzEAxpCLQcrU3QjM18VBytTdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAANq5zg0CAAAABjM5NS4wMQDGkItBytTdCLRBxkHK1N0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAGlhAAACAAAABjIwMy4zNQDGkItBytTdCFPMx0HK1N0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAALZ5AAACAAAABTc2LjUzAMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAPUkAAAIAAAAGMjExLjY1AMaQi0HK1N0ItEHGQcrU3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACrzAUAAgAAAAwzNy45Njc0ODU0MTUAxpCLQcrU3QgPC8hBytTdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA1MyBAwIAAAAGMjg1Ljg2AHmni0HK1N0IH0LEQcrU3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsDxkEAIAAAAGMjA4LjQ4AHmni0HK1N0IzNfFQcrU</t>
+  </si>
+  <si>
+    <t>3QgjQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA51YAAAIAAAAGMjUyLjUzAMaQi0HK1N0ItEHGQcrU3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAF9s8AQIAAAAGNzc2LjM3AMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAu6EECAIAAAAGMTM5LjEzAMaQi0HK1N0ItEHGQcrU3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAUhMiDwIAAAAGMTg1LjY5AHmni0HK1N0IG2nFQcrU3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAZfqYAgIAAAAGMTYwLjY2AHmni0HK1N0IzNfFQcrU3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAS1UAAAIAAAAGNTM1LjY0AMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsPCHDAIAAAAGMzUyLjM2AMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAAV8AAAIAAAAGMzM4Ljg1AMaQi0HK1N0IU8zHQcrU3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAZpBAACAAAABjEwNy43NwDGkItBytTdCLRBxkHK1N0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5V</t>
+  </si>
+  <si>
+    <t>U0QBAAAAANMkGQIAAAAFNTcuNTIAeaeLQcrU3QgbacVBytTdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC4yqUGAgAAAAU1Ni4yNQB5p4tBytTdCLRBxkHK1N0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAICEWw0CAAAABTgwLjUzAMaQi0HK1N0ItEHGQcrU3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAs58UnAgAAAAYxNDAuMDUAxpCLQcrU3Qizp8dBytTdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADD2/wBAgAAAAYxMjAuMzUAxpCLQcrU3Qizp8dBytTdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAo7wUAAgAAAAY2OTkuMzYAxpCLQcrU3Qi0QcZBytTdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAJ16DQACAAAACjE4Ni4zNDM1OTYAxpCLQcrU3QhTzMdBytTdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAQxqIBAgAAAAYzMDkuMjYAeaeLQcrU3QgbacVBytTdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADVggAAAgAAAAYxNDcuNTEAeaeLQcrU3QjM18VBytTdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC/+xkDAgAAAAU1</t>
+  </si>
+  <si>
+    <t>NC4xNwDGkItBytTdCLRBxkHK1N0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACocQAAAgAAAAYxOTUuMDQAxpCLQcrU3Qi0QcZBytTdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAvuAQACAAAADzI4My4xMTE2MjUyNTUyNQB5p4tBytTdCBtpxUHK1N0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAv3ReAQIAAAADOTIzAMaQi0HK1N0ItEHGQcrU3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC6PvwRAgAAAAQzNy42AMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJgF6EAIAAAAFMTcuMTIAxpCLQcrU3Qi0QcZBytTdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAA8LZ9AQIAAAAGMjk3LjcyAAjPWGcz1N0ImapxZzPU3QgpQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAPTdcAAIAAAALNDQuODI1MDQ4ODYACM9YZzPU3QiZqnFnM9TdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABEm4ciAgAAAAUxNDAuMgAIz1hnM9TdCJjRcWcz1N0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABpVfQBAgAAAAUxMzAuNwAIz1hnM9Td</t>
+  </si>
+  <si>
+    <t>CN8jcGcz1N0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAACHY2sBAgAAAAYyMjUuMTIACM9YZzPU3QjfI3BnM9TdCCRDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAABisEBQIAAAAGMTI1LjIxAAjPWGcz1N0I3yNwZzPU3QgkQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAADN+AAACAAAAAzE4MAAIz1hnM9TdCO1KcGcz1N0II0NJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAOJuzAICAAAABjIyNi41NgAIz1hnM9TdCO1KcGcz1N0IIkNJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA2rnODQIAAAAGMzc5LjE3AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAh2NrAQIAAAAGMjIyLjIyAKxFLSfK1N0IlahsNMrU3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAABisEBQIAAAAFMTE4LjYArEUtJ8rU3QiVqGw0ytTdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAzfgAAAgAAAAYxNzMuNzIArEUtJ8rU3QiVqGw0ytTdCCJDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOJuzAICAAAABjIyMC45NwCsRS0nytTdCJWobDTK1N0II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAy</t>
+  </si>
+  <si>
+    <t>NS84LzEuVVNEAQAAABfbPAECAAAABjc1MC4wMQCsRS0nytTdCEkwazTK1N0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGlhAAACAAAABjIwMi4zOACsRS0nytTdCEkwazTK1N0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALZ5AAACAAAABTc0LjQ1AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAPUkAAAIAAAAGMjE0Ljc1AKxFLSfK1N0ISHNsNMrU3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACrzAUAAgAAAAozOC4zMzYwNzk2AKxFLSfK1N0ISHNsNMrU3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAl4AEAAgAAAAYyNTAuNzQArEUtJ8rU3QhIc2w0ytTdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADUiAAAAgAAAAY2MTguNjUArEUtJ8rU3QhIc2w0ytTdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACDfYQBAgAAAAYxNzIuODgArEUtJ8rU3QiVqGw0ytTdCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACw8IcMAgAAAAYzMzguOTkArEUtJ8rU3QhJMGs0ytTdCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAABXwAAAgAAAAUzNDcu</t>
+  </si>
+  <si>
+    <t>OACsRS0nytTdCEkwazTK1N0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALuhBAgCAAAABTEzNS42AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAUhMiDwIAAAAGMTgyLjk2AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAZfqYAgIAAAAGMTU0LjI3AKxFLSfK1N0ISTBrNMrU3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAANTMgQMCAAAABjI4MC4yNwCsRS0nytTdCEkwazTK1N0II0NJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALA8ZBACAAAABjIwNS4wMgCsRS0nytTdCEkwazTK1N0II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOdWAAACAAAABjI0NC40MgCsRS0nytTdCEkwazTK1N0II0NJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAMPb/AECAAAABjExNy41NwCsRS0nytTdCEkwazTK1N0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAANMkGQIAAAAFNTQuODkArEUtJ8rU3QhJMGs0ytTdCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAABmkEAAIAAAAGMTA0Ljg4AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLkVTVEMuSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzgvMS5VU0QBAAAAgIRbDQIAAAAFNzkuNTgArEUtJ8rU3Qgv9Go0ytTdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAo7wUAAgAAAAY2ODkuODIArEUtJ8rU3QhJMGs0ytTdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAJ16DQACAAAACjE4NS42NzgyMTQArEUtJ8rU3QihjGg0ytTdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAQxqIBAgAAAAYzMDIuNjMArEUtJ8rU3QihjGg0ytTdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABLVQAAAgAAAAY1MjQuMTEArEUtJ8rU3QhJMGs0ytTdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALo+/BECAAAABTM2LjAxAKxFLSfK1N0IoYxoNMrU3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAJgF6EAIAAAAEMTcuMgCsRS0nytTdCC/0ajTK1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACP3AHACAAAABzMxLjM5MDEArEUtJ8rU3Qgv9Go0ytTdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADVggAAAgAAAAYxNDguMTkArEUtJ8rU3Qgv9Go0ytTdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEA</t>
+  </si>
+  <si>
+    <t>AAC4yqUGAgAAAAU1NC41MQCsRS0nytTdCEkwazTK1N0II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAL/7GQMCAAAAAjUyAKxFLSfK1N0ISTBrNMrU3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAKhxAAACAAAABjE4OS4xMwCsRS0nytTdCEkwazTK1N0IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAALOfFJwIAAAAGMTM3LjU4AKxFLSfK1N0IoYxoNMrU3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA8LZ9AQIAAAAGMjg4LjY0AKxFLSfK1N0IoYxoNMrU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAA9N1wAAgAAAAk0NS4zOTc5ODkArEUtJ8rU3QihjGg0ytTdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAESbhyICAAAABjE0MS41OQCsRS0nytTdCKGMaDTK1N0II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGlV9AECAAAABjEyNS4wMwCsRS0nytTdCKGMaDTK1N0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAANPXgBAIAAAAGMjAwLjExAKxFLSfK1N0IoYxoNMrU3QgjQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAzYQXEQIAAAAFNDEuODIArEUtJ8rU</t>
+  </si>
+  <si>
+    <t>3QihjGg0ytTdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAvuAQACAAAADzI4Mi40NzMxNTU0NDUyNQCsRS0nytTdCKGMaDTK1N0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAv3ReAQIAAAAGOTE0LjM3AKxFLSfK1N0IoYxoNMrU3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAh2NrAQIAAAAGMjI0Ljk4AHmni0HK1N0IH0LEQcrU3QgiQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABEm4ciAgAAAAYxMzguNzYAeaeLQcrU3QgbacVBytTdCCNDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAGKwQFAgAAAAMxMjcAeaeLQcrU3QjM18VBytTdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABpVfQBAgAAAAYxMjcuMTEAeaeLQcrU3QjM18VBytTdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAzfgAAAgAAAAYxNzguMjYAxpCLQcrU3Qi0QcZBytTdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAADT14AQCAAAABjIwNy44MQDGkItBytTdCLRBxkHK1N0IIkNJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA4m7MAgIAAAAGMjI4LjI1AMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkdUTEIuSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzgvNS5VU0QBAAAAzYQXEQIAAAACNDQAxpCLQcrU3Qi0QcZBytTdCCJDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACXgAQACAAAABjI0Ny40OQDGkItBytTdCLRBxkHK1N0II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAPC2fQECAAAABjI5Mi45MwDGkItBytTdCLRBxkHK1N0IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAPTdcAAIAAAALNDQuODI5NTQ3MjQAxpCLQcrU3Qizp8dBytTdCCNDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAj9wBwAgAAAAczMS45NTMxAMaQi0HK1N0IU8zHQcrU3QgjQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA1IgAAAIAAAAFNjI4LjUAeaeLQcrU3QgbacVBytTdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACDfYQBAgAAAAYxNjkuMDkAeaeLQcrU3QjM18VBytTdCCNDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC2eQAAAgAAAAU3Ni42MwDGkItBytTdCLRBxkHK1N0IIkNJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA2rnODQIAAAAGMzc3LjkzAMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAaWEAAAIAAAAGMjAy</t>
+  </si>
+  <si>
+    <t>LjkyAMaQi0HK1N0IU8zHQcrU3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAPUkAAAIAAAAGMjEzLjc1AMaQi0HK1N0ItEHGQcrU3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACrzAUAAgAAAAozOC40NzMxMTg5AMaQi0HK1N0IDwvIQcrU3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAANTMgQMCAAAABjI4MS45NgB5p4tBytTdCBtpxUHK1N0II0NJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALA8ZBACAAAABjIwNS43NwB5p4tBytTdCMzXxUHK1N0II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAOdWAAACAAAABjI1NS42NwDGkItBytTdCLRBxkHK1N0II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAABfbPAECAAAABjc2My40NgDGkItBytTdCLRBxkHK1N0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALuhBAgCAAAABjEzMi45NADGkItBytTdCLRBxkHK1N0II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAFITIg8CAAAABjE4NS40NAB5p4tBytTdCBtpxUHK1N0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAGX6mAICAAAABjE3My4yNwB5p4tBytTdCMzXxUHK1N0II0NJUS5N</t>
+  </si>
+  <si>
+    <t>U0ZULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAEtVAAACAAAABjUyNy43NQDGkItBytTdCLRBxkHK1N0II0NJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALDwhwwCAAAABjM0MC4zMQDGkItBytTdCLRBxkHK1N0II0NJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAAFfAAACAAAABjMzOC43NADGkItBytTdCFPMx0HK1N0II0NJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAMPb/AECAAAABjExOC4xMgDGkItBytTdCLOnx0HK1N0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAANMkGQIAAAAFNTcuNzQAeaeLQcrU3QgbacVBytTdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC4yqUGAgAAAAU1NS45NwB5p4tBytTdCLRBxkHK1N0IIUNJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAGaQQAAgAAAAYxMDkuMDYAxpCLQcrU3Qi0QcZBytTdCCNDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACAhFsNAgAAAAU4MC4wOQDGkItBytTdCLRBxkHK1N0IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAALOfFJwIAAAAGMTM3LjIzAMaQi0HK1N0Is6fHQcrU3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAv/sZAwIA</t>
+  </si>
+  <si>
+    <t>AAAFNTUuMTcAxpCLQcrU3Qi0QcZBytTdCC1DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAqHEAAAIAAAAGMTk0LjY3AMaQi0HK1N0ItEHGQcrU3QgsQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAKO8FAAIAAAAGNjg5LjYzAMaQi0HK1N0ItEHGQcrU3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACdeg0AAgAAAAsxOTAuMDgzODkzNQDGkItBytTdCFPMx0HK1N0II0NJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAABDGogECAAAABjMwOC43MgB5p4tBytTdCBtpxUHK1N0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAANWCAAACAAAABjE0Ni43MQB5p4tBytTdCMzXxUHK1N0II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACYBehACAAAABTE3LjE1AMaQi0HK1N0ItEHGQcrU3QgiQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAL7gEAAgAAAA8yODUuNTczNjk0Njc2MjUAeaeLQcrU3QjM18VBytTdCCJDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAL90XgECAAAABjkwNS4xMgDGkItBytTdCLRBxkHK1N0IIkNJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAuj78</t>
+  </si>
+  <si>
+    <t>EQIAAAAFMzUuOTEAxpCLQcrU3Qi0QcZBytTdCA==</t>
   </si>
 </sst>
 </file>
@@ -1292,42 +1307,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EE19EC-66B3-4080-9290-F9D26728C2BC}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>137</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>138</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>140</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>141</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>142</v>
-      </c>
-      <c r="J1" t="s">
-        <v>143</v>
       </c>
       <c r="K1" t="s">
         <v>148</v>
@@ -1348,16 +1363,16 @@
         <v>153</v>
       </c>
       <c r="Q1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" t="s">
         <v>144</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>145</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>146</v>
-      </c>
-      <c r="T1" t="s">
-        <v>147</v>
       </c>
       <c r="U1" t="s">
         <v>154</v>
@@ -1376,6 +1391,21 @@
       </c>
       <c r="Z1" t="s">
         <v>159</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1419,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1463,20 +1493,20 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP(A2,CHOOSE({1,2},F2:F45,J2:J45),2,FALSE)</f>
-        <v>3.1273463976408968E-3</v>
+        <v>1.6628180554136228E-3</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="13">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.66539000000000215</v>
+        <v>3.7402899999999875</v>
       </c>
       <c r="H2" s="9">
         <f>VLOOKUP(F2,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1484,30 +1514,30 @@
       </c>
       <c r="I2" s="2">
         <f>G2*H2</f>
-        <v>2.3831570109487899E-3</v>
+        <v>1.3396201230077986E-2</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J45" si="0">$P$7*H2</f>
-        <v>3.1273463976408968E-3</v>
+        <v>1.6628180554136228E-3</v>
       </c>
       <c r="K2" s="6" cm="1">
         <f t="array" ref="K2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>186.34360000000001</v>
+        <v>190.08389</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L45" si="1">K2*H2</f>
-        <v>0.66740716990852811</v>
+        <v>0.68080337113860612</v>
       </c>
       <c r="M2" s="2">
         <f>J2*K2</f>
-        <v>0.58276098618343619</v>
+        <v>0.31607492433525697</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>126</v>
       </c>
       <c r="O2" s="6" cm="1">
         <f t="array" ref="O2">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.0227</v>
+        <v>31.953099999999999</v>
       </c>
       <c r="P2" s="2">
         <v>1250002</v>
@@ -1522,20 +1552,20 @@
       </c>
       <c r="C3" s="7">
         <f>VLOOKUP(A3,CHOOSE({1,2},F3:F47,J3:J47),2,FALSE)</f>
-        <v>1.886047637621269E-2</v>
+        <v>1.002816338980742E-2</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" ref="G3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.36859000000000464</v>
+        <v>0.50563000000000358</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP(F3,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1543,30 +1573,30 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I45" si="2">G3*H3</f>
-        <v>-7.9615312615500811E-3</v>
+        <v>1.0921590525455237E-2</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>1.886047637621269E-2</v>
+        <v>1.002816338980742E-2</v>
       </c>
       <c r="K3" s="6" cm="1">
         <f t="array" ref="K3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>37.967489999999998</v>
+        <v>38.473120000000002</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>0.82009647184564505</v>
+        <v>0.83101806237110021</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M45" si="3">J3*K3</f>
-        <v>0.71608494820909152</v>
+        <v>0.38581473347566769</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>127</v>
       </c>
       <c r="O3" s="12">
         <f>SUM(M2:M45)</f>
-        <v>29.314209861095613</v>
+        <v>15.5168401442654</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -1579,7 +1609,7 @@
       </c>
       <c r="C4" s="7">
         <f>VLOOKUP(A4,CHOOSE({1,2},F4:F48,J4:J48),2,FALSE)</f>
-        <v>4.1912169724917089E-3</v>
+        <v>2.2284807532905377E-3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1592,7 +1622,7 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.90746000000000038</v>
+        <v>0.33901999999999788</v>
       </c>
       <c r="H4" s="9">
         <f>VLOOKUP(F4,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1600,30 +1630,30 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3558010307183526E-3</v>
+        <v>1.6272933963305555E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.1912169724917089E-3</v>
+        <v>2.2284807532905377E-3</v>
       </c>
       <c r="K4" s="6" cm="1">
         <f t="array" ref="K4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>44.49053</v>
+        <v>44.829549999999998</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="1"/>
-        <v>0.21355420231327629</v>
+        <v>0.21518149570960685</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="3"/>
-        <v>0.18646946445115156</v>
+        <v>9.9901789353675816E-2</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>130</v>
       </c>
       <c r="O4" s="6">
         <f>SUM(L2:L45)</f>
-        <v>33.572106413005734</v>
+        <v>33.422192860923424</v>
       </c>
       <c r="P4" s="2"/>
     </row>
@@ -1636,7 +1666,7 @@
       </c>
       <c r="C5" s="7">
         <f>VLOOKUP(A5,CHOOSE({1,2},F5:F49,J5:J49),2,FALSE)</f>
-        <v>4.6473610863312226E-3</v>
+        <v>2.4710137419403245E-3</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1647,7 +1677,7 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.96999999999999886</v>
+        <v>-0.43000000000000682</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP(F5,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1655,23 +1685,23 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>5.1627197396484099E-3</v>
+        <v>-2.2886283381946949E-3</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>4.6473610863312226E-3</v>
+        <v>2.4710137419403245E-3</v>
       </c>
       <c r="K5" s="6" cm="1">
         <f t="array" ref="K5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>203.35</v>
+        <v>202.92</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>1.0823083083067067</v>
+        <v>1.080019679968512</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>0.94504087690545413</v>
+        <v>0.50141810851453061</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>129</v>
@@ -1688,7 +1718,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,CHOOSE({1,2},F6:F50,J6:J50),2,FALSE)</f>
-        <v>1.5165220078799167E-3</v>
+        <v>8.0633861923229291E-4</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -1699,7 +1729,7 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-8.9499999999999886</v>
+        <v>-0.11000000000001364</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP(F6,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1707,23 +1737,23 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5544335129063775E-2</v>
+        <v>-1.9104769432371277E-4</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.5165220078799167E-3</v>
+        <v>8.0633861923229291E-4</v>
       </c>
       <c r="K6" s="6" cm="1">
         <f t="array" ref="K6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>338.85</v>
+        <v>338.74</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>0.58851373837801868</v>
+        <v>0.58832269068369492</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>0.51387348237010977</v>
+        <v>0.27313914387874688</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="5" t="s">
@@ -1745,7 +1775,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,CHOOSE({1,2},F7:F51,J7:J51),2,FALSE)</f>
-        <v>6.8889636304522057E-3</v>
+        <v>3.6628795314918808E-3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
@@ -1756,7 +1786,7 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-3.0999999999999943</v>
+        <v>2.0999999999999943</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP(F7,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1764,38 +1794,38 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4457720867646568E-2</v>
+        <v>1.6568133490986372E-2</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8889636304522057E-3</v>
+        <v>3.6628795314918808E-3</v>
       </c>
       <c r="K7" s="6" cm="1">
         <f t="array" ref="K7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>211.65</v>
+        <v>213.75</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>1.669831168270131</v>
+        <v>1.6863993017611172</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>1.4580491523852095</v>
+        <v>0.78294049985638958</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>114</v>
       </c>
       <c r="O7" s="2" cm="1">
         <f t="array" ref="O7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.63260000000000005</v>
+        <v>-6.9600000000001216E-2</v>
       </c>
       <c r="P7" s="6">
         <f>O7/SUM(I2:I45)</f>
-        <v>0.87317159967476354</v>
+        <v>0.46426756642911315</v>
       </c>
       <c r="Q7" s="6" cm="1">
         <f t="array" ref="Q7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.0227</v>
+        <v>31.953099999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1807,7 +1837,7 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,CHOOSE({1,2},F8:F52,J8:J52),2,FALSE)</f>
-        <v>3.5513578480246416E-3</v>
+        <v>1.8882660249548492E-3</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1818,7 +1848,7 @@
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" ref="G8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.7800000000000011</v>
+        <v>-2.2299999999999898</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP(F8,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1826,23 +1856,23 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>1.1306797909123352E-2</v>
+        <v>-9.0698414882535786E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>3.5513578480246416E-3</v>
+        <v>1.8882660249548492E-3</v>
       </c>
       <c r="K8" s="6" cm="1">
         <f t="array" ref="K8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>120.35</v>
+        <v>118.12</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>0.48948673682122112</v>
+        <v>0.48041689533296755</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>0.4274059170097656</v>
+        <v>0.2230419828676668</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1857,7 +1887,7 @@
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,CHOOSE({1,2},F9:F53,J9:J53),2,FALSE)</f>
-        <v>1.9104964032941373E-3</v>
+        <v>1.0158158100416034E-3</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -1868,7 +1898,7 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.4699999999999989</v>
+        <v>-2.8200000000000216</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP(F9,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1876,23 +1906,23 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>5.4043513530378324E-3</v>
+        <v>-6.1701501277598427E-3</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.9104964032941373E-3</v>
+        <v>1.0158158100416034E-3</v>
       </c>
       <c r="K9" s="6" cm="1">
         <f t="array" ref="K9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>140.05000000000001</v>
+        <v>137.22999999999999</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>0.30642890971374448</v>
+        <v>0.30025875958598464</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.26756502128134396</v>
+        <v>0.13940040361200923</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1907,7 +1937,7 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,CHOOSE({1,2},F10:F54,J10:J54),2,FALSE)</f>
-        <v>5.4206406177559438E-4</v>
+        <v>2.8821684409224287E-4</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
@@ -1918,7 +1948,7 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>9.5399999999999636</v>
+        <v>-9.7300000000000182</v>
       </c>
       <c r="H10" s="9">
         <f>VLOOKUP(F10,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1926,23 +1956,23 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>5.9224225241239388E-3</v>
+        <v>-6.0403743354010744E-3</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>5.4206406177559438E-4</v>
+        <v>2.8821684409224287E-4</v>
       </c>
       <c r="K10" s="6" cm="1">
         <f t="array" ref="K10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>699.36</v>
+        <v>689.63</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>0.43416199334081063</v>
+        <v>0.42812161900540957</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>0.37909792224337968</v>
+        <v>0.19876298219133345</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1957,7 +1987,7 @@
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,CHOOSE({1,2},F11:F55,J11:J55),2,FALSE)</f>
-        <v>2.9722713696587037E-3</v>
+        <v>1.5803642675418731E-3</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -1968,7 +1998,7 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>9.0800000000000409</v>
+        <v>-4.7900000000000205</v>
       </c>
       <c r="H11" s="9">
         <f>VLOOKUP(F11,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -1976,23 +2006,23 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>3.0908270546767262E-2</v>
+        <v>-1.6305133911785809E-2</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>2.9722713696587037E-3</v>
+        <v>1.5803642675418731E-3</v>
       </c>
       <c r="K11" s="6" cm="1">
         <f t="array" ref="K11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>297.72000000000003</v>
+        <v>292.93</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>1.0134372585003864</v>
+        <v>0.99713212458860068</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>0.88490463217478932</v>
+        <v>0.46293610489104092</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2007,7 +2037,7 @@
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,CHOOSE({1,2},F12:F56,J12:J56),2,FALSE)</f>
-        <v>1.3355312882844831E-2</v>
+        <v>7.1010539203602988E-3</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>27</v>
@@ -2018,7 +2048,7 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-7.9999999999998295E-2</v>
+        <v>2.9999999999997584E-2</v>
       </c>
       <c r="H12" s="9">
         <f>VLOOKUP(F12,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2026,23 +2056,23 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2236140422175064E-3</v>
+        <v>4.588552658315377E-4</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.3355312882844831E-2</v>
+        <v>7.1010539203602988E-3</v>
       </c>
       <c r="K12" s="6" cm="1">
         <f t="array" ref="K12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>17.12</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>0.26185340503455196</v>
+        <v>0.26231226030038352</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>0.22864295655430353</v>
+        <v>0.12178307473417911</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2057,7 +2087,7 @@
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,CHOOSE({1,2},F13:F57,J13:J57),2,FALSE)</f>
-        <v>2.9953230630074081E-3</v>
+        <v>1.5926209116849711E-3</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>29</v>
@@ -2068,7 +2098,7 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.5799999999999841</v>
+        <v>-4.8299999999999841</v>
       </c>
       <c r="H13" s="9">
         <f>VLOOKUP(F13,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2076,23 +2106,23 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>5.420023327962621E-3</v>
+        <v>-1.6568805489911163E-2</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>2.9953230630074081E-3</v>
+        <v>1.5926209116849711E-3</v>
       </c>
       <c r="K13" s="6" cm="1">
         <f t="array" ref="K13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>252.32</v>
+        <v>247.49</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>0.86555714310857101</v>
+        <v>0.84898833761865988</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.75577991525802923</v>
+        <v>0.39415774943291354</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2107,7 +2137,7 @@
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,CHOOSE({1,2},F14:F58,J14:J58),2,FALSE)</f>
-        <v>4.1339370072009897E-3</v>
+        <v>2.198024849662234E-3</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>31</v>
@@ -2118,7 +2148,7 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.5300000000000011</v>
+        <v>-6.1899999999999977</v>
       </c>
       <c r="H14" s="9">
         <f>VLOOKUP(F14,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2126,23 +2156,23 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>1.6712405260151591E-2</v>
+        <v>-2.9305889110577413E-2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>4.1339370072009897E-3</v>
+        <v>2.198024849662234E-3</v>
       </c>
       <c r="K14" s="6" cm="1">
         <f t="array" ref="K14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>139.13</v>
+        <v>132.94</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>0.65869601808637113</v>
+        <v>0.62939012897579372</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>0.57515465581187364</v>
+        <v>0.2922054235140974</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2157,7 +2187,7 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,CHOOSE({1,2},F15:F59,J15:J59),2,FALSE)</f>
-        <v>1.253872410937103E-3</v>
+        <v>6.6668715869275252E-4</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>33</v>
@@ -2168,7 +2198,7 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>15.839999999999975</v>
+        <v>-17.079999999999984</v>
       </c>
       <c r="H15" s="9">
         <f>VLOOKUP(F15,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2176,23 +2206,23 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>2.2746203606074194E-2</v>
+        <v>-2.4526840757054764E-2</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1.253872410937103E-3</v>
+        <v>6.6668715869275252E-4</v>
       </c>
       <c r="K15" s="6" cm="1">
         <f t="array" ref="K15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>395.01</v>
+        <v>377.93</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="1"/>
-        <v>0.56723345242647605</v>
+        <v>0.54270661166942136</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>0.49529214104426506</v>
+        <v>0.25196107788475197</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2207,7 +2237,7 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,CHOOSE({1,2},F16:F60,J16:J60),2,FALSE)</f>
-        <v>1.3803074562739363E-3</v>
+        <v>7.3391299475035054E-4</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>35</v>
@@ -2218,7 +2248,7 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>13.370000000000005</v>
+        <v>-12.050000000000011</v>
       </c>
       <c r="H16" s="9">
         <f>VLOOKUP(F16,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2226,23 +2256,23 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>2.1135262183580514E-2</v>
+        <v>-1.9048609522224782E-2</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>1.3803074562739363E-3</v>
+        <v>7.3391299475035054E-4</v>
       </c>
       <c r="K16" s="6" cm="1">
         <f t="array" ref="K16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>352.36</v>
+        <v>340.31</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="1"/>
-        <v>0.55700979678432516</v>
+        <v>0.5379611872621004</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>0.48636513529268421</v>
+        <v>0.2497579312434918</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2257,7 +2287,7 @@
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,CHOOSE({1,2},F17:F61,J17:J61),2,FALSE)</f>
-        <v>6.0835514355717163E-3</v>
+        <v>3.2346398134012158E-3</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>37</v>
@@ -2268,7 +2298,7 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.95000000000000284</v>
+        <v>-0.43999999999999773</v>
       </c>
       <c r="H17" s="9">
         <f>VLOOKUP(F17,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2276,23 +2306,23 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>6.6188294098729642E-3</v>
+        <v>-3.0655630950990323E-3</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>6.0835514355717163E-3</v>
+        <v>3.2346398134012158E-3</v>
       </c>
       <c r="K17" s="6" cm="1">
         <f t="array" ref="K17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>80.53</v>
+        <v>80.09</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>0.56106771829165081</v>
+        <v>0.55800215519655172</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>0.48990839710659034</v>
+        <v>0.25906230265530339</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2307,7 +2337,7 @@
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,CHOOSE({1,2},F18:F62,J18:J62),2,FALSE)</f>
-        <v>5.6770033892400203E-3</v>
+        <v>3.0184771803320339E-3</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>39</v>
@@ -2318,7 +2348,7 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>5.9099999999999966</v>
+        <v>-0.37000000000000455</v>
       </c>
       <c r="H18" s="9">
         <f>VLOOKUP(F18,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2326,23 +2356,23 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="2"/>
-        <v>3.8424394520968748E-2</v>
+        <v>-2.405588151058988E-3</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>5.6770033892400203E-3</v>
+        <v>3.0184771803320339E-3</v>
       </c>
       <c r="K18" s="6" cm="1">
         <f t="array" ref="K18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>195.04</v>
+        <v>194.67</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="1"/>
-        <v>1.2680700350879439</v>
+        <v>1.265664446936885</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>1.1072427410373735</v>
+        <v>0.58760695269523699</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2357,7 +2387,7 @@
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,CHOOSE({1,2},F19:F63,J19:J63),2,FALSE)</f>
-        <v>7.8201123345074466E-3</v>
+        <v>4.1579736721812617E-3</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>41</v>
@@ -2368,7 +2398,7 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.3299999999999983</v>
+        <v>-0.14999999999999858</v>
       </c>
       <c r="H19" s="9">
         <f>VLOOKUP(F19,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2376,23 +2406,23 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="2"/>
-        <v>2.0867446612085404E-2</v>
+        <v>-1.3433978505634264E-3</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>7.8201123345074466E-3</v>
+        <v>4.1579736721812617E-3</v>
       </c>
       <c r="K19" s="6" cm="1">
         <f t="array" ref="K19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>44.15</v>
+        <v>44</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>0.39540676734917218</v>
+        <v>0.39406336949860876</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>0.34525795956850375</v>
+        <v>0.18295084157597552</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2407,7 +2437,7 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,CHOOSE({1,2},F20:F64,J20:J64),2,FALSE)</f>
-        <v>1.2116109731311449E-2</v>
+        <v>6.4421664443040632E-3</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>43</v>
@@ -2418,7 +2448,7 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.5900000000000034</v>
+        <v>-1.6900000000000048</v>
       </c>
       <c r="H20" s="9">
         <f>VLOOKUP(F20,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2426,23 +2456,23 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>2.2062804699512526E-2</v>
+        <v>-2.3450402479356099E-2</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1.2116109731311449E-2</v>
+        <v>6.4421664443040632E-3</v>
       </c>
       <c r="K20" s="6" cm="1">
         <f t="array" ref="K20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>37.6</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="1"/>
-        <v>0.52173676522117562</v>
+        <v>0.49828636274181953</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>0.45556572589731048</v>
+        <v>0.23133819701495889</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2457,7 +2487,7 @@
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,CHOOSE({1,2},F21:F65,J21:J65),2,FALSE)</f>
-        <v>1.9489158922086447E-3</v>
+        <v>1.0362435502801002E-3</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>45</v>
@@ -2468,7 +2498,7 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>5.5900000000000034</v>
+        <v>1.6899999999999977</v>
       </c>
       <c r="H21" s="9">
         <f>VLOOKUP(F21,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2476,23 +2506,23 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>1.2476860037023949E-2</v>
+        <v>3.7720739646816518E-3</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1.9489158922086447E-3</v>
+        <v>1.0362435502801002E-3</v>
       </c>
       <c r="K21" s="6" cm="1">
         <f t="array" ref="K21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>226.56</v>
+        <v>228.25</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>0.50568111091022261</v>
+        <v>0.50945318487490421</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.44154638453879053</v>
+        <v>0.23652259035143286</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2507,7 +2537,7 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,CHOOSE({1,2},F22:F66,J22:J66),2,FALSE)</f>
-        <v>3.1776410013107971E-3</v>
+        <v>1.6895598244531093E-3</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>47</v>
@@ -2518,7 +2548,7 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>26.360000000000014</v>
+        <v>-12.909999999999968</v>
       </c>
       <c r="H22" s="9">
         <f>VLOOKUP(F22,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2526,23 +2556,23 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="2"/>
-        <v>9.5929158513346421E-2</v>
+        <v>-4.6981996828804953E-2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>3.1776410013107971E-3</v>
+        <v>1.6895598244531093E-3</v>
       </c>
       <c r="K22" s="6" cm="1">
         <f t="array" ref="K22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>776.37</v>
+        <v>763.46</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>2.8253611834221064</v>
+        <v>2.7783791865933014</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>2.4670251441876636</v>
+        <v>1.2899113435769709</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2557,7 +2587,7 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,CHOOSE({1,2},F23:F67,J23:J67),2,FALSE)</f>
-        <v>6.344803960190366E-3</v>
+        <v>3.3735484470229925E-3</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>49</v>
@@ -2568,7 +2598,7 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.0799999999999983</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="H23" s="9">
         <f>VLOOKUP(F23,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2576,23 +2606,23 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="2"/>
-        <v>1.511408781745948E-2</v>
+        <v>7.2663883737781893E-4</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>6.344803960190366E-3</v>
+        <v>3.3735484470229925E-3</v>
       </c>
       <c r="K23" s="6" cm="1">
         <f t="array" ref="K23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>76.53</v>
+        <v>76.63</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>0.55609670224527641</v>
+        <v>0.5568233410826543</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>0.4855678470733687</v>
+        <v>0.25851501749537192</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2607,7 +2637,7 @@
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,CHOOSE({1,2},F24:F68,J24:J68),2,FALSE)</f>
-        <v>3.2125678094148949E-3</v>
+        <v>1.7081304973971974E-3</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>51</v>
@@ -2618,7 +2648,7 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>11.529999999999973</v>
+        <v>-7.8899999999999864</v>
       </c>
       <c r="H24" s="9">
         <f>VLOOKUP(F24,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2626,23 +2656,23 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>4.2421108126226896E-2</v>
+        <v>-2.9028841553853466E-2</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>3.2125678094148949E-3</v>
+        <v>1.7081304973971974E-3</v>
       </c>
       <c r="K24" s="6" cm="1">
         <f t="array" ref="K24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>535.64</v>
+        <v>527.75</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="1"/>
-        <v>1.9707235348423442</v>
+        <v>1.9416946932884909</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>1.7207798214349943</v>
+        <v>0.90146587000137091</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2657,7 +2687,7 @@
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,CHOOSE({1,2},F25:F69,J25:J69),2,FALSE)</f>
-        <v>3.2453990090327467E-3</v>
+        <v>1.7255869299646399E-3</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>53</v>
@@ -2668,7 +2698,7 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.8900000000000006</v>
+        <v>1.2900000000000063</v>
       </c>
       <c r="H25" s="9">
         <f>VLOOKUP(F25,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2676,23 +2706,23 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="2"/>
-        <v>1.07415348135443E-2</v>
+        <v>4.7946643285370974E-3</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>3.2453990090327467E-3</v>
+        <v>1.7255869299646399E-3</v>
       </c>
       <c r="K25" s="6" cm="1">
         <f t="array" ref="K25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>107.77</v>
+        <v>109.06</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>0.40055889510576781</v>
+        <v>0.4053535594343049</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>0.34975665120345911</v>
+        <v>0.18819251058194364</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2707,7 +2737,7 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,CHOOSE({1,2},F26:F70,J26:J70),2,FALSE)</f>
-        <v>1.7891606719405023E-2</v>
+        <v>9.5130129223384239E-3</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>55</v>
@@ -2718,7 +2748,7 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.1700000000000017</v>
+        <v>1</v>
       </c>
       <c r="H26" s="9">
         <f>VLOOKUP(F26,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2726,23 +2756,23 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>4.4464096857445061E-2</v>
+        <v>2.0490367215412454E-2</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>1.7891606719405023E-2</v>
+        <v>9.5130129223384239E-3</v>
       </c>
       <c r="K26" s="6" cm="1">
         <f t="array" ref="K26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>54.17</v>
+        <v>55.17</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="1"/>
-        <v>1.1099631920588926</v>
+        <v>1.130453559274305</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>0.96918833599017007</v>
+        <v>0.52483292292541084</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2757,7 +2787,7 @@
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,CHOOSE({1,2},F27:F71,J27:J71),2,FALSE)</f>
-        <v>3.5737110052112644E-3</v>
+        <v>1.9001512556390654E-3</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>57</v>
@@ -2768,7 +2798,7 @@
       </c>
       <c r="G27" s="2" cm="1">
         <f t="array" ref="G27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>8.6899999999999977</v>
+        <v>-0.99000000000000909</v>
       </c>
       <c r="H27" s="9">
         <f>VLOOKUP(F27,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2776,23 +2806,23 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>3.556637509379984E-2</v>
+        <v>-4.0518655170152101E-3</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>3.5737110052112644E-3</v>
+        <v>1.9001512556390654E-3</v>
       </c>
       <c r="K27" s="6" cm="1">
         <f t="array" ref="K27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>208.8</v>
+        <v>207.81</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="1"/>
-        <v>0.85457527267956379</v>
+        <v>0.85052340716254859</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>0.74619085788811201</v>
+        <v>0.39487043243435416</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2807,7 +2837,7 @@
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,CHOOSE({1,2},F28:F72,J28:J72),2,FALSE)</f>
-        <v>7.9842683325967055E-4</v>
+        <v>4.2452558350184746E-4</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
@@ -2818,7 +2848,7 @@
       </c>
       <c r="G28" s="2" cm="1">
         <f t="array" ref="G28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>8.6299999999999955</v>
+        <v>-17.879999999999995</v>
       </c>
       <c r="H28" s="9">
         <f>VLOOKUP(F28,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2826,23 +2856,23 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="2"/>
-        <v>7.8912593739849969E-3</v>
+        <v>-1.6349445840886649E-2</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>7.9842683325967055E-4</v>
+        <v>4.2452558350184746E-4</v>
       </c>
       <c r="K28" s="6" cm="1">
         <f t="array" ref="K28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>923</v>
+        <v>905.12</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="1"/>
-        <v>0.84398984961624068</v>
+        <v>0.82764040377535397</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>0.73694796709867594</v>
+        <v>0.38424659613919215</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2857,7 +2887,7 @@
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,CHOOSE({1,2},F29:F73,J29:J73),2,FALSE)</f>
-        <v>8.4795304715128087E-3</v>
+        <v>4.5085879773656403E-3</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>61</v>
@@ -2868,7 +2898,7 @@
       </c>
       <c r="G29" s="2" cm="1">
         <f t="array" ref="G29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.2800000000000011</v>
+        <v>-1.7400000000000091</v>
       </c>
       <c r="H29" s="9">
         <f>VLOOKUP(F29,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2876,23 +2906,23 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" si="2"/>
-        <v>6.0986238422018536E-2</v>
+        <v>-1.6897460964062545E-2</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>8.4795304715128087E-3</v>
+        <v>4.5085879773656403E-3</v>
       </c>
       <c r="K29" s="6" cm="1">
         <f t="array" ref="K29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>180</v>
+        <v>178.26</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="1"/>
-        <v>1.7480132031788749</v>
+        <v>1.7311157422148125</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>1.5263154848723055</v>
+        <v>0.80370089284519897</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2907,7 +2937,7 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,CHOOSE({1,2},F30:F74,J30:J74),2,FALSE)</f>
-        <v>3.6261012173674102E-3</v>
+        <v>1.928007265055197E-3</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>63</v>
@@ -2918,7 +2948,7 @@
       </c>
       <c r="G30" s="2" cm="1">
         <f t="array" ref="G30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>8.1100000000000136</v>
+        <v>3.1399999999999864</v>
       </c>
       <c r="H30" s="9">
         <f>VLOOKUP(F30,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2926,23 +2956,23 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>3.3679154113353475E-2</v>
+        <v>1.3039771136366125E-2</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>3.6261012173674102E-3</v>
+        <v>1.928007265055197E-3</v>
       </c>
       <c r="K30" s="6" cm="1">
         <f t="array" ref="K30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>252.53</v>
+        <v>255.67</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="1"/>
-        <v>1.0487049060721503</v>
+        <v>1.0617446772085164</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>0.91569934042179213</v>
+        <v>0.4929336174566622</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2957,7 +2987,7 @@
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,CHOOSE({1,2},F31:F75,J31:J75),2,FALSE)</f>
-        <v>2.0061958574993646E-3</v>
+        <v>1.0666994539084041E-3</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>65</v>
@@ -2968,7 +2998,7 @@
       </c>
       <c r="G31" s="2" cm="1">
         <f t="array" ref="G31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.8799999999999955</v>
+        <v>-1.9099999999999966</v>
       </c>
       <c r="H31" s="9">
         <f>VLOOKUP(F31,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -2976,23 +3006,23 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>-4.319481088830247E-3</v>
+        <v>-4.3884089785456264E-3</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>2.0061958574993646E-3</v>
+        <v>1.0666994539084041E-3</v>
       </c>
       <c r="K31" s="6" cm="1">
         <f t="array" ref="K31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>171</v>
+        <v>169.09</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="1"/>
-        <v>0.39288897137764578</v>
+        <v>0.38850056239910014</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>0.34305949163239136</v>
+        <v>0.18036821066137204</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3007,7 +3037,7 @@
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,CHOOSE({1,2},F32:F76,J32:J76),2,FALSE)</f>
-        <v>5.6078483091939069E-3</v>
+        <v>2.9817072479027397E-3</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>67</v>
@@ -3018,7 +3048,7 @@
       </c>
       <c r="G32" s="2" cm="1">
         <f t="array" ref="G32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.3899999999999864</v>
+        <v>12.610000000000014</v>
       </c>
       <c r="H32" s="9">
         <f>VLOOKUP(F32,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3026,23 +3056,23 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>4.1039070337487375E-2</v>
+        <v>8.0986334421865022E-2</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>5.6078483091939069E-3</v>
+        <v>2.9817072479027397E-3</v>
       </c>
       <c r="K32" s="6" cm="1">
         <f t="array" ref="K32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>160.66</v>
+        <v>173.27</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="1"/>
-        <v>1.0318211330861871</v>
+        <v>1.1128074675080522</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>0.90095690935509309</v>
+        <v>0.51664041484410772</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3057,7 +3087,7 @@
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,CHOOSE({1,2},F33:F77,J33:J77),2,FALSE)</f>
-        <v>6.5250262900075091E-3</v>
+        <v>3.4693731194144857E-3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>69</v>
@@ -3068,7 +3098,7 @@
       </c>
       <c r="G33" s="2" cm="1">
         <f t="array" ref="G33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.740000000000002</v>
+        <v>-0.28000000000000114</v>
       </c>
       <c r="H33" s="9">
         <f>VLOOKUP(F33,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3076,23 +3106,23 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>1.3002651195758101E-2</v>
+        <v>-2.0923806521909649E-3</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>6.5250262900075091E-3</v>
+        <v>3.4693731194144857E-3</v>
       </c>
       <c r="K33" s="6" cm="1">
         <f t="array" ref="K33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>56.25</v>
+        <v>55.97</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="1"/>
-        <v>0.42034432744907607</v>
+        <v>0.4182519467968851</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.36703272881292237</v>
+        <v>0.19418081349362876</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3107,7 +3137,7 @@
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,CHOOSE({1,2},F34:F78,J34:J78),2,FALSE)</f>
-        <v>1.7610096646085995E-3</v>
+        <v>9.3633332984090754E-4</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>71</v>
@@ -3118,7 +3148,7 @@
       </c>
       <c r="G34" s="2" cm="1">
         <f t="array" ref="G34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.68000000000000682</v>
+        <v>-0.79999999999998295</v>
       </c>
       <c r="H34" s="9">
         <f>VLOOKUP(F34,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3126,23 +3156,23 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3714218057251245E-3</v>
+        <v>-1.6134374185000958E-3</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>1.7610096646085995E-3</v>
+        <v>9.3633332984090754E-4</v>
       </c>
       <c r="K34" s="6" cm="1">
         <f t="array" ref="K34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>147.51</v>
+        <v>146.71</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="1"/>
-        <v>0.29749769200369275</v>
+        <v>0.29588425458519263</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>0.2597665356264145</v>
+        <v>0.13736946282095955</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3157,7 +3187,7 @@
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,CHOOSE({1,2},F35:F79,J35:J79),2,FALSE)</f>
-        <v>6.1687728473457139E-3</v>
+        <v>3.2799522553847902E-3</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>73</v>
@@ -3168,7 +3198,7 @@
       </c>
       <c r="G35" s="2" cm="1">
         <f t="array" ref="G35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>5.6699999999999875</v>
+        <v>-3.5899999999999892</v>
       </c>
       <c r="H35" s="9">
         <f>VLOOKUP(F35,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3176,23 +3206,23 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>4.0057351908236859E-2</v>
+        <v>-2.5362591419853652E-2</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>6.1687728473457139E-3</v>
+        <v>3.2799522553847902E-3</v>
       </c>
       <c r="K35" s="6" cm="1">
         <f t="array" ref="K35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>130.69999999999999</v>
+        <v>127.11</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="1"/>
-        <v>0.9233678826113878</v>
+        <v>0.89800529119153405</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>0.80625861114808473</v>
+        <v>0.41691473118196065</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3207,7 +3237,7 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,CHOOSE({1,2},F36:F80,J36:J80),2,FALSE)</f>
-        <v>2.2555732673626211E-3</v>
+        <v>1.1992940587291911E-3</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>75</v>
@@ -3218,7 +3248,7 @@
       </c>
       <c r="G36" s="2" cm="1">
         <f t="array" ref="G36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.63846999999998388</v>
+        <v>2.4620600000000081</v>
       </c>
       <c r="H36" s="9">
         <f>VLOOKUP(F36,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3226,23 +3256,23 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="2"/>
-        <v>1.649293065131054E-3</v>
+        <v>6.3599832160268748E-3</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>2.2555732673626211E-3</v>
+        <v>1.1992940587291911E-3</v>
       </c>
       <c r="K36" s="6" cm="1">
         <f t="array" ref="K36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>283.11162999999999</v>
+        <v>285.57369</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="1"/>
-        <v>0.73133279248353189</v>
+        <v>0.73769277569955882</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>0.63857902430745739</v>
+        <v>0.34248682974637179</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3257,7 +3287,7 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,CHOOSE({1,2},F37:F81,J37:J81),2,FALSE)</f>
-        <v>4.2973944691281655E-3</v>
+        <v>2.2849355990405651E-3</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>77</v>
@@ -3268,7 +3298,7 @@
       </c>
       <c r="G37" s="2" cm="1">
         <f t="array" ref="G37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.6099999999999994</v>
+        <v>1.7900000000000063</v>
       </c>
       <c r="H37" s="9">
         <f>VLOOKUP(F37,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3276,23 +3306,23 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="2"/>
-        <v>3.2531723949241677E-2</v>
+        <v>8.8096499045601847E-3</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>4.2973944691281655E-3</v>
+        <v>2.2849355990405651E-3</v>
       </c>
       <c r="K37" s="6" cm="1">
         <f t="array" ref="K37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>125.21</v>
+        <v>127</v>
       </c>
       <c r="L37" s="6">
         <f t="shared" si="1"/>
-        <v>0.61623255002791999</v>
+        <v>0.62504219993248011</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.53807676147953754</v>
+        <v>0.29018682107815175</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3307,7 +3337,7 @@
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,CHOOSE({1,2},F38:F82,J38:J82),2,FALSE)</f>
-        <v>2.7815709974103311E-3</v>
+        <v>1.4789683932671536E-3</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>79</v>
@@ -3318,7 +3348,7 @@
       </c>
       <c r="G38" s="2" cm="1">
         <f t="array" ref="G38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.4599999999999795</v>
+        <v>-2.7099999999999795</v>
       </c>
       <c r="H38" s="9">
         <f>VLOOKUP(F38,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3326,23 +3356,23 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>1.1022158364546552E-2</v>
+        <v>-8.6329621872604356E-3</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>2.7815709974103311E-3</v>
+        <v>1.4789683932671536E-3</v>
       </c>
       <c r="K38" s="6" cm="1">
         <f t="array" ref="K38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>208.48</v>
+        <v>205.77</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="1"/>
-        <v>0.66413282538747942</v>
+        <v>0.65549986320021891</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>0.57990192154010578</v>
+        <v>0.30432732628258224</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3357,7 +3387,7 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,CHOOSE({1,2},F39:F83,J39:J83),2,FALSE)</f>
-        <v>5.3857138096518459E-4</v>
+        <v>2.8635977679783415E-4</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>81</v>
@@ -3368,7 +3398,7 @@
       </c>
       <c r="G39" s="2" cm="1">
         <f t="array" ref="G39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>17.370000000000005</v>
+        <v>-7.5199999999999818</v>
       </c>
       <c r="H39" s="9">
         <f>VLOOKUP(F39,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3376,23 +3406,23 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" si="2"/>
-        <v>1.0713798857921831E-2</v>
+        <v>-4.6383285786742627E-3</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>5.3857138096518459E-4</v>
+        <v>2.8635977679783415E-4</v>
       </c>
       <c r="K39" s="6" cm="1">
         <f t="array" ref="K39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>636.02</v>
+        <v>628.5</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="1"/>
-        <v>0.39229650832558671</v>
+        <v>0.38765817974691241</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>0.34254216972147672</v>
+        <v>0.17997711971743877</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3407,7 +3437,7 @@
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,CHOOSE({1,2},F40:F84,J40:J84),2,FALSE)</f>
-        <v>2.0117841467960202E-3</v>
+        <v>1.0696707615794581E-3</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>83</v>
@@ -3418,7 +3448,7 @@
       </c>
       <c r="G40" s="2" cm="1">
         <f t="array" ref="G40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.7299999999999898</v>
+        <v>-0.25</v>
       </c>
       <c r="H40" s="9">
         <f>VLOOKUP(F40,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3426,23 +3456,23 @@
       </c>
       <c r="I40" s="2">
         <f t="shared" si="2"/>
-        <v>6.2899099361440787E-3</v>
+        <v>-5.7599907840147455E-4</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>2.0117841467960202E-3</v>
+        <v>1.0696707615794581E-3</v>
       </c>
       <c r="K40" s="6" cm="1">
         <f t="array" ref="K40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>185.69</v>
+        <v>185.44</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="1"/>
-        <v>0.4278290754734792</v>
+        <v>0.42725307639507776</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>0.37356819821855297</v>
+        <v>0.19835974602729473</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3457,7 +3487,7 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,CHOOSE({1,2},F41:F85,J41:J85),2,FALSE)</f>
-        <v>8.2161823384079135E-3</v>
+        <v>4.368565103367218E-3</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>85</v>
@@ -3468,7 +3498,7 @@
       </c>
       <c r="G41" s="2" cm="1">
         <f t="array" ref="G41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.6300000000000026</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="H41" s="9">
         <f>VLOOKUP(F41,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3476,23 +3506,23 @@
       </c>
       <c r="I41" s="2">
         <f t="shared" si="2"/>
-        <v>2.4747208404466578E-2</v>
+        <v>2.0701086878260888E-3</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>8.2161823384079135E-3</v>
+        <v>4.368565103367218E-3</v>
       </c>
       <c r="K41" s="6" cm="1">
         <f t="array" ref="K41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>57.52</v>
+        <v>57.74</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="1"/>
-        <v>0.54123932601707836</v>
+        <v>0.54330943470490445</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>0.4725948081052232</v>
+        <v>0.2522409490684232</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3507,7 +3537,7 @@
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,CHOOSE({1,2},F42:F86,J42:J86),2,FALSE)</f>
-        <v>2.5161272558191896E-3</v>
+        <v>1.3378312788920863E-3</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>87</v>
@@ -3518,7 +3548,7 @@
       </c>
       <c r="G42" s="2" cm="1">
         <f t="array" ref="G42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.6299999999999955</v>
+        <v>-0.53999999999996362</v>
       </c>
       <c r="H42" s="9">
         <f>VLOOKUP(F42,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3526,23 +3556,23 @@
       </c>
       <c r="I42" s="2">
         <f t="shared" si="2"/>
-        <v>1.9104977432036097E-2</v>
+        <v>-1.5560615103014787E-3</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>2.5161272558191896E-3</v>
+        <v>1.3378312788920863E-3</v>
       </c>
       <c r="K42" s="6" cm="1">
         <f t="array" ref="K42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>309.26</v>
+        <v>308.72000000000003</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="1"/>
-        <v>0.8911621901404958</v>
+        <v>0.88960612863019428</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>0.77813751513464258</v>
+        <v>0.41301527241956493</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3557,7 +3587,7 @@
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,CHOOSE({1,2},F43:F87,J43:J87),2,FALSE)</f>
-        <v>3.3613560119383507E-3</v>
+        <v>1.7872415641390113E-3</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>89</v>
@@ -3568,7 +3598,7 @@
       </c>
       <c r="G43" s="2" cm="1">
         <f t="array" ref="G43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.3900000000000148</v>
+        <v>-1.4399999999999977</v>
       </c>
       <c r="H43" s="9">
         <f>VLOOKUP(F43,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3576,23 +3606,23 @@
       </c>
       <c r="I43" s="2">
         <f t="shared" si="2"/>
-        <v>-5.3509354385033554E-3</v>
+        <v>-5.5434151305357822E-3</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>3.3613560119383507E-3</v>
+        <v>1.7872415641390113E-3</v>
       </c>
       <c r="K43" s="6" cm="1">
         <f t="array" ref="K43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>140.19999999999999</v>
+        <v>138.76</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="1"/>
-        <v>0.53971305645910961</v>
+        <v>0.53416964132857381</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>0.47126211287375674</v>
+        <v>0.2479976394399292</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3607,7 +3637,7 @@
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,CHOOSE({1,2},F44:F88,J44:J88),2,FALSE)</f>
-        <v>1.7253843203424203E-3</v>
+        <v>9.1739124343793814E-4</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>91</v>
@@ -3618,7 +3648,7 @@
       </c>
       <c r="G44" s="2" cm="1">
         <f t="array" ref="G44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.9000000000000057</v>
+        <v>-0.14000000000001478</v>
       </c>
       <c r="H44" s="9">
         <f>VLOOKUP(F44,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3626,23 +3656,23 @@
       </c>
       <c r="I44" s="2">
         <f t="shared" si="2"/>
-        <v>5.7303908313746819E-3</v>
+        <v>-2.7663955737673745E-4</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>1.7253843203424203E-3</v>
+        <v>9.1739124343793814E-4</v>
       </c>
       <c r="K44" s="6" cm="1">
         <f t="array" ref="K44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>225.12</v>
+        <v>224.98</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="1"/>
-        <v>0.44483640826174681</v>
+        <v>0.44455976870437008</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.38841851819548567</v>
+        <v>0.20639468194866731</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3657,7 +3687,7 @@
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,CHOOSE({1,2},F45:F89,J45:J89),2,FALSE)</f>
-        <v>1.3803074562739363E-3</v>
+        <v>7.3391299475035054E-4</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>93</v>
@@ -3668,7 +3698,7 @@
       </c>
       <c r="G45" s="2" cm="1">
         <f t="array" ref="G45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>5.5900000000000318</v>
+        <v>-3.9000000000000341</v>
       </c>
       <c r="H45" s="9">
         <f>VLOOKUP(F45,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
@@ -3676,23 +3706,23 @@
       </c>
       <c r="I45" s="2">
         <f t="shared" si="2"/>
-        <v>8.836657861347472E-3</v>
+        <v>-6.1651101358238371E-3</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>1.3803074562739363E-3</v>
+        <v>7.3391299475035054E-4</v>
       </c>
       <c r="K45" s="6" cm="1">
         <f t="array" ref="K45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>285.86</v>
+        <v>281.95999999999998</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="1"/>
-        <v>0.45188676498117608</v>
+        <v>0.4457216548453522</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>0.39457468945046742</v>
+        <v>0.20693410799980883</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>

--- a/ciq reference/data/Shares.xlsx
+++ b/ciq reference/data/Shares.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18613\Desktop\cursor\FundsMonitor-CIQ\ciq reference\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CE61F2-3B41-4D2F-A1E4-BEC9D468AF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F5586-1306-45CA-A52A-D5DF0D517D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="23" state="veryHidden" r:id="rId1"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="34" state="veryHidden" r:id="rId1"/>
     <sheet name="shares" sheetId="1" r:id="rId2"/>
-    <sheet name="07_30_2025_agix_holdings" sheetId="15" r:id="rId3"/>
+    <sheet name="08_05_2025_agix_holdings" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" localSheetId="2" hidden="1">"244e8b9b-9555-43d4-a766-55f71f6305a6"</definedName>
-    <definedName name="CIQWBGuid" hidden="1">"3ee75ae5-6867-462f-b712-6ce6ed08c8f4"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"f0f43c21-291a-463a-8d66-7e280ebf2dc8"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -92,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="213">
   <si>
     <t>Ticker</t>
   </si>
@@ -459,9 +458,6 @@
     <t>AGIX Holdings</t>
   </si>
   <si>
-    <t>As of 2025-07-30</t>
-  </si>
-  <si>
     <t>Holdings Are Subject To Change</t>
   </si>
   <si>
@@ -517,94 +513,242 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAaWEAAAIAAAAGMjA3LjU3ABgvV1Qz1N0IlbO9VDPU3QgkQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAGlhAAACAAAABjIwOS4wNQAYL1dUM9TdCDAmwmMz1N0IJENJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAABXwAAAgAAAAYzNTcuNjkAGC9XVDPU3QhU7r1UM9TdCCRDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAAV8AAAIAAAADMzY0ABgvV1Qz1N0I84rBYzPU3QgkQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAD1JAAACAAAABjIzNC4xMQAYL1dUM9TdCJWzvVQz1N0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAA9SQAAAgAAAAYyMzAuMTkAGC9XVDPU3QgvTcJjM9TdCCRDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAw9v8AQIAAAAGMTIzLjIyABgvV1Qz1N0Ix2O+VDPU3QgkQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAMPb/AECAAAABjEyMi4wOQAYL1dUM9TdCIvPwGMz1N0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACznxScCAAAABzE0MS4zNzUAGC9XVDPU3QjHY75UM9TdCCNDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVT</t>
-  </si>
-  <si>
-    <t>RAEAAAAs58UnAgAAAAcxNjMuMzI1ABgvV1Qz1N0Ii8/AYzPU3QgtQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACjvBQACAAAABjY5NC43MQAYL1dUM9TdCOWKvlQz1N0ILUNJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAo7wUAAgAAAAY3MjEuNDUAGC9XVDPU3QjWB8FjM9TdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA8LZ9AQIAAAAFMjkzLjcAGC9XVDPU3Qjmsb5UM9TdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA8LZ9AQIAAAAGMzAyLjYyABgvV1Qz1N0Isd6/YzPU3QgkQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACYBehACAAAABjE3LjcyNQAYL1dUM9TdCOaxvlQz1N0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAmAXoQAgAAAAQyNi40ABgvV1Qz1N0ILXfAYzPU3QgjQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAJeABAAIAAAAGMjU4LjMzABgvV1Qz1N0Id2W9VDPU3QgjQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAJeABAAIAAAAGMjY0LjgxABgvV1Qz1N0IL03CYzPU3QgkQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALuhBAgC</t>
-  </si>
-  <si>
-    <t>AAAABjEzOS45OAAYL1dUM9TdCJfavVQz1N0IJENJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAC7oQQIAgAAAAYxNDguODgAGC9XVDPU3QjzisFjM9TdCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADauc4NAgAAAAUzOTAuNwAYL1dUM9TdCHGMvVQz1N0II0NJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAANq5zg0CAAAABjM2My4zMQAYL1dUM9TdCGOfwmMz1N0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACw8IcMAgAAAAYzNDYuNTUAGC9XVDPU3QhU7r1UM9TdCCRDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAsPCHDAIAAAAGMzQxLjM0ABgvV1Qz1N0I6GPBYzPU3QgkQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAICEWw0CAAAABDgzLjcAGC9XVDPU3Qi6Fb5UM9TdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAgIRbDQIAAAAFODcuOTkAGC9XVDPU3QjWB8FjM9TdCC5DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAKhxAAACAAAABTE5MS45ABgvV1Qz1N0Ix2O+VDPU3QguQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACocQAAAgAAAAYxOTYuNTMA</t>
-  </si>
-  <si>
-    <t>GC9XVDPU3QhQnsBjM9TdCCRDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAzYQXEQIAAAAFNDMuODEAGC9XVDPU3Qjmsb5UM9TdCCRDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAzYQXEQIAAAAFNDYuMTcAGC9XVDPU3QhvFMBjM9TdCCNDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAC6PvwRAgAAAAUzOC4wMwAYL1dUM9TdCOaxvlQz1N0II0NJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAALo+/BECAAAABTM4LjUzABgvV1Qz1N0ILXfAYzPU3QgjQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA4m7MAgIAAAAGMjM3Ljg5ABgvV1Qz1N0Id2W9VDPU3QgjQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA4m7MAgIAAAAGMjQ0LjM2ABgvV1Qz1N0Ie8rCYzPU3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAABfbPAECAAAABjc3My40NAAYL1dUM9TdCJfavVQz1N0IJENJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAX2zwBAgAAAAY2OTUuMjEAGC9XVDPU3Qg0/cFjM9TdCCRDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAtnkAAAIAAAAFODAuMzcAGC9XVDPU3QhxjL1UM9TdCCRDSVEuTVJWTC5JUV9DTE9T</t>
-  </si>
-  <si>
-    <t>RVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAtnkAAAIAAAAFODEuNzQAGC9XVDPU3QgwJsJjM9TdCCRDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAS1UAAAIAAAAFNTMzLjUAGC9XVDPU3QhU7r1UM9TdCCRDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAS1UAAAIAAAAGNTEzLjI0ABgvV1Qz1N0I6GPBYzPU3QgiQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAGaQQAAgAAAAYxMDkuMTQAGC9XVDPU3Qi6Fb5UM9TdCCJDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAAZpBAACAAAABjExNC43NAAYL1dUM9TdCIvPwGMz1N0IJENJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAC/+xkDAgAAAAU1NC40MwAYL1dUM9TdCMdjvlQz1N0IJENJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAC/+xkDAgAAAAU1MS4yOQAYL1dUM9TdCFCewGMz1N0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAADT14AQCAAAABjIwNy42OAAYL1dUM9TdCOaxvlQz1N0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAADT14AQCAAAABjIwMC44NQAYL1dUM9TdCG8UwGMz1N0II0NJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAL90XgECAAAABjk0</t>
-  </si>
-  <si>
-    <t>My4xMgAYL1dUM9TdCOaxvlQz1N0II0NJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAL90XgECAAAABjk3Ny40OAAYL1dUM9TdCGtKwGMz1N0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAzfgAAAgAAAAYxNzcuODcAGC9XVDPU3QhSPr1UM9TdCCRDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAM34AAAIAAAAGMTc5LjI3ABgvV1Qz1N0Ie8rCYzPU3QgkQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAOdWAAACAAAABjI1My43NwAYL1dUM9TdCJWzvVQz1N0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADnVgAAAgAAAAUyNTAuNgAYL1dUM9TdCDT9wWMz1N0IJENJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACDfYQBAgAAAAUxNzMuNgAYL1dUM9TdCHGMvVQz1N0IJENJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACDfYQBAgAAAAYxODMuMDMAGC9XVDPU3QgadsJjM9TdCCRDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAZfqYAgIAAAAGMTU4LjM1ABgvV1Qz1N0IVO69VDPU3QgkQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAGX6mAICAAAABjE1OC42MQAYL1dUM9TdCJ3AwWMz1N0IJENJUS5Q</t>
-  </si>
-  <si>
-    <t>U1RHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAC4yqUGAgAAAAU1OS41MgAYL1dUM9TdCMU8vlQz1N0IJENJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAC4yqUGAgAAAAU1OS4yMwAYL1dUM9TdCFCewGMz1N0IJENJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADVggAAAgAAAAYxNDYuNzYAGC9XVDPU3QjHY75UM9TdCCRDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA1YIAAAIAAAAGMTU5LjA2ABgvV1Qz1N0ILXfAYzPU3QgkQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAGlV9AECAAAABjEzNy43OQAYL1dUM9TdCOWKvlQz1N0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABpVfQBAgAAAAYxMjQuOTQAGC9XVDPU3QhvFMBjM9TdCCNDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAL7gEAAgAAAA4yODYuODkwODcxNjQ3NgAYL1dUM9TdCOWKvlQz1N0II0NJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAAvuAQACAAAADTI5MC41MDQwNzYzNjgAGC9XVDPU3QhrSsBjM9TdCCRDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAABisEBQIAAAAGMTIyLjIxABgvV1Qz1N0IUj69VDPU3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQ</t>
-  </si>
-  <si>
-    <t>UklDRS4yMDI1LzcvMzAuVVNEAQAAAAYrBAUCAAAABjEyMy4wMQAYL1dUM9TdCGOfwmMz1N0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACwPGQQAgAAAAUyMjMuNQAYL1dUM9TdCJWzvVQz1N0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACwPGQQAgAAAAYyMjAuMjgAGC9XVDPU3Qhk6MFjM9TdCCRDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA1IgAAAIAAAAGNjMzLjQ3ABgvV1Qz1N0Id2W9VDPU3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAANSIAAACAAAABjY0NS4zNQAYL1dUM9TdCBp2wmMz1N0IJENJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABSEyIPAgAAAAYxOTEuNzgAGC9XVDPU3QhU7r1UM9TdCCRDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAUhMiDwIAAAAGMTk3LjE5ABgvV1Qz1N0IncDBYzPU3QgjQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAANMkGQIAAAAFNTYuNTkAGC9XVDPU3Qi6Fb5UM9TdCCNDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAA0yQZAgAAAAU1Ny44MQAYL1dUM9TdCIvPwGMz1N0IJENJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAQxqIBAgAA</t>
-  </si>
-  <si>
-    <t>CJjRcWcz1N0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAADT14AQCAAAABTIwOC44AAjPWGcz1N0ImNFxZzPU3QgkQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAM2EFxECAAAABTQ0LjE1AAjPWGcz1N0ImNFxZzPU3QgjQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAC+4BAAIAAAAPMjgzLjExMTYyNTI1NTI1AAjPWGcz1N0In/hxZzPU3QgjQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAv3ReAQIAAAADOTIzAAjPWGcz1N0In/hxZzPU3QgjQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAuj78EQIAAAAEMzcuNgAIz1hnM9TdCGxccWcz1N0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAmAXoQAgAAAAUxNy4xMgAIz1hnM9TdCGxccWcz1N0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAj9wBwAgAAAAczMi4wMjI3AAjPWGcz1N0IbFxxZzPU3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAANWCAAACAAAABjE0Ny41MQAIz1hnM9TdCHmDcWcz1N0IJENJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAC4yqUGAgAAAAU1Ni4yNQAIz1hnM9TdCHmDcWcz1N0IJENJUS5OQklTLklRX0NMT1NF</t>
-  </si>
-  <si>
-    <t>UFJJQ0UuMjAyNS84LzMxLlVTRAEAAAC/+xkDAgAAAAU1NC4xNwAIz1hnM9TdCHmDcWcz1N0ILkNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAqHEAAAIAAAAGMTk1LjA0AAjPWGcz1N0IeYNxZzPU3QgjQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAALOfFJwIAAAAGMTQwLjA1AAjPWGcz1N0ImapxZzPU3QgkQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAMPb/AECAAAABjEyMC4zNQAIz1hnM9TdCDwOcWcz1N0II0NJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAADTJBkCAAAABTU3LjUyAAjPWGcz1N0IPA5xZzPU3QgiQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAGaQQAAgAAAAYxMDcuNzcACM9YZzPU3Qg8DnFnM9TdCCRDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAgIRbDQIAAAAFODAuNTMACM9YZzPU3QhJNXFnM9TdCC1DSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAKO8FAAIAAAAGNjk5LjM2AAjPWGcz1N0ISTVxZzPU3QgsQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAnXoNAAIAAAAKMTkwLjMxNjAzNwAIz1hnM9TdCEk1cWcz1N0IJENJUS5UU0xBLklRX0NMT1NF</t>
-  </si>
-  <si>
-    <t>UFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAQxqIBAgAAAAYzMDkuMjYACM9YZzPU3QhJNXFnM9TdCCRDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAS1UAAAIAAAAGNTM1LjY0AAjPWGcz1N0IbFxxZzPU3QgkQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAALDwhwwCAAAABjM1Mi4zNgAIz1hnM9TdCCDAcGcz1N0IJENJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAABXwAAAgAAAAYzMzguODUACM9YZzPU3QggwHBnM9TdCCRDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAu6EECAIAAAAGMTM5LjEzAAjPWGcz1N0IIMBwZzPU3QgkQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAFITIg8CAAAABjE4NS42OQAIz1hnM9TdCC7ncGcz1N0IJENJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABl+pgCAgAAAAYxNjAuNjYACM9YZzPU3Qgu53BnM9TdCCJDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAANTMgQMCAAAABjI4NS44NgAIz1hnM9TdCC7ncGcz1N0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAACwPGQQAgAAAAYyMDguNDgACM9YZzPU3Qgu53BnM9TdCCRDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAA51YA</t>
-  </si>
-  <si>
-    <t>AAIAAAAGMjUyLjUzAAjPWGcz1N0IPA5xZzPU3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAABfbPAECAAAABjc3Ni4zNwAIz1hnM9TdCO1KcGcz1N0IJENJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABpYQAAAgAAAAYyMDMuMzUACM9YZzPU3QgLcnBnM9TdCCRDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAtnkAAAIAAAAFNzYuNTMACM9YZzPU3QgLcnBnM9TdCCRDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAPUkAAAIAAAAGMjExLjY1AAjPWGcz1N0IC3JwZzPU3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAq8wFAAIAAAALMzguNDY5MjU4MzUACM9YZzPU3QgLcnBnM9TdCCNDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAAAl4AEAAgAAAAYyNTIuMzIACM9YZzPU3QgdmXBnM9TdCCRDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAA1IgAAAIAAAAGNjM2LjAyAAjPWGcz1N0IHZlwZzPU3QgkQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAIN9hAECAAAAAzE3MQAIz1hnM9TdCB2ZcGcz1N0II0NJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAANq5zg0CAAAABjM5NS4wMQAIz1hnM9Td</t>
-  </si>
-  <si>
-    <t>BAABTAVMT0NBTAFI/////wFQDgEAACxDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACdeg0AAgAAAAsxOTUuOTYxOTI5NQAYL1dUM9TdCOaxvlQz1N0ILENJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAJ16DQACAAAACzE4OS40NTUxODI1ABgvV1Qz1N0I1gfBYzPU3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACP3AHACAAAABzMyLjQ1OTUAGC9XVDPU3Qjlir5UM9TdCCRDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAI/cAcAIAAAAHMzIuNDE2MgAYL1dUM9TdCC13wGMz1N0IKUNJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAKvMBQACAAAACzM4Ljc1MDYyNTkyABgvV1Qz1N0IlbO9VDPU3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAq8wFAAIAAAALMzguNzM0OTkyNDUAGC9XVDPU3QgvTcJjM9TdCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAA9N1wAAgAAAAs0NS43NjU4MjU0NAAYL1dUM9TdCOaxvlQz1N0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAD03XAACAAAACjQ2LjI4MDc3MDIAGC9XVDPU3Qix3r9jM9TdCCRDSVEuQUFQ</t>
-  </si>
-  <si>
-    <t>AAYzMDguMjcAGC9XVDPU3QjHY75UM9TdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAEMaiAQIAAAAGMzE5LjA0ABgvV1Qz1N0I1gfBYzPU3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAARJuHIgIAAAAFMTQ1LjYAGC9XVDPU3Qjlir5UM9TdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABEm4ciAgAAAAYxNDQuMTcAGC9XVDPU3Qix3r9jM9TdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAh2NrAQIAAAAGMjI5LjM4ABgvV1Qz1N0IUj69VDPU3QgkQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAIdjawECAAAABjIzNy42OAAYL1dUM9TdCGOfwmMz1N0IIkNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA1MyBAwIAAAAGMjg1LjU2ABgvV1Qz1N0IlbO9VDPU3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADUzIEDAgAAAAYyODcuNzMAGC9XVDPU3Qhk6MFjM9TdCCNDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACHY2sBAgAAAAYyMjUuMTIAeaeLQcrU3QgfQsRBytTdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAESbhyICAAAABTE0MC4yAHmni0HK1N0IG2nFQcrU3QgjQ0lRLlNIT1Au</t>
-  </si>
-  <si>
-    <t>SVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAABisEBQIAAAAGMTI1LjIxAHmni0HK1N0IzNfFQcrU3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAaVX0AQIAAAAFMTMwLjcAeaeLQcrU3QjM18VBytTdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAzfgAAAgAAAAMxODAAxpCLQcrU3Qi0QcZBytTdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAADT14AQCAAAABTIwOC44AMaQi0HK1N0ItEHGQcrU3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADibswCAgAAAAYyMjYuNTYAxpCLQcrU3Qi0QcZBytTdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADNhBcRAgAAAAU0NC4xNQDGkItBytTdCLRBxkHK1N0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJeABAAIAAAAGMjUyLjMyAMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA8LZ9AQIAAAAGMjk3LjcyAMaQi0HK1N0ItEHGQcrU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAA9N1wAAgAAAAs0NC40OTA1MzM1NwDGkItBytTdCLOnx0HK1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAACP3</t>
-  </si>
-  <si>
-    <t>AHACAAAABzMyLjAyMjcAxpCLQcrU3QhTzMdBytTdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADUiAAAAgAAAAY2MzYuMDIAeaeLQcrU3QgbacVBytTdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACDfYQBAgAAAAMxNzEAxpCLQcrU3QjM18VBytTdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAANq5zg0CAAAABjM5NS4wMQDGkItBytTdCLRBxkHK1N0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAGlhAAACAAAABjIwMy4zNQDGkItBytTdCFPMx0HK1N0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAALZ5AAACAAAABTc2LjUzAMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAPUkAAAIAAAAGMjExLjY1AMaQi0HK1N0ItEHGQcrU3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACrzAUAAgAAAAwzNy45Njc0ODU0MTUAxpCLQcrU3QgPC8hBytTdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA1MyBAwIAAAAGMjg1Ljg2AHmni0HK1N0IH0LEQcrU3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsDxkEAIAAAAGMjA4LjQ4AHmni0HK1N0IzNfFQcrU</t>
-  </si>
-  <si>
-    <t>3QgjQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA51YAAAIAAAAGMjUyLjUzAMaQi0HK1N0ItEHGQcrU3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAF9s8AQIAAAAGNzc2LjM3AMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAu6EECAIAAAAGMTM5LjEzAMaQi0HK1N0ItEHGQcrU3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAUhMiDwIAAAAGMTg1LjY5AHmni0HK1N0IG2nFQcrU3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAZfqYAgIAAAAGMTYwLjY2AHmni0HK1N0IzNfFQcrU3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAS1UAAAIAAAAGNTM1LjY0AMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsPCHDAIAAAAGMzUyLjM2AMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAAV8AAAIAAAAGMzM4Ljg1AMaQi0HK1N0IU8zHQcrU3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAZpBAACAAAABjEwNy43NwDGkItBytTdCLRBxkHK1N0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5V</t>
-  </si>
-  <si>
-    <t>U0QBAAAAANMkGQIAAAAFNTcuNTIAeaeLQcrU3QgbacVBytTdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC4yqUGAgAAAAU1Ni4yNQB5p4tBytTdCLRBxkHK1N0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAICEWw0CAAAABTgwLjUzAMaQi0HK1N0ItEHGQcrU3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAs58UnAgAAAAYxNDAuMDUAxpCLQcrU3Qizp8dBytTdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADD2/wBAgAAAAYxMjAuMzUAxpCLQcrU3Qizp8dBytTdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAo7wUAAgAAAAY2OTkuMzYAxpCLQcrU3Qi0QcZBytTdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAJ16DQACAAAACjE4Ni4zNDM1OTYAxpCLQcrU3QhTzMdBytTdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAQxqIBAgAAAAYzMDkuMjYAeaeLQcrU3QgbacVBytTdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADVggAAAgAAAAYxNDcuNTEAeaeLQcrU3QjM18VBytTdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC/+xkDAgAAAAU1</t>
-  </si>
-  <si>
-    <t>NC4xNwDGkItBytTdCLRBxkHK1N0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACocQAAAgAAAAYxOTUuMDQAxpCLQcrU3Qi0QcZBytTdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAvuAQACAAAADzI4My4xMTE2MjUyNTUyNQB5p4tBytTdCBtpxUHK1N0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAv3ReAQIAAAADOTIzAMaQi0HK1N0ItEHGQcrU3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC6PvwRAgAAAAQzNy42AMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJgF6EAIAAAAFMTcuMTIAxpCLQcrU3Qi0QcZBytTdCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAA8LZ9AQIAAAAGMjk3LjcyAAjPWGcz1N0ImapxZzPU3QgpQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAAPTdcAAIAAAALNDQuODI1MDQ4ODYACM9YZzPU3QiZqnFnM9TdCCNDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABEm4ciAgAAAAUxNDAuMgAIz1hnM9TdCJjRcWcz1N0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAABpVfQBAgAAAAUxMzAuNwAIz1hnM9Td</t>
-  </si>
-  <si>
-    <t>CN8jcGcz1N0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzMxLlVTRAEAAACHY2sBAgAAAAYyMjUuMTIACM9YZzPU3QjfI3BnM9TdCCRDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8zMS5VU0QBAAAABisEBQIAAAAGMTI1LjIxAAjPWGcz1N0I3yNwZzPU3QgkQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAADN+AAACAAAAAzE4MAAIz1hnM9TdCO1KcGcz1N0II0NJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMzEuVVNEAQAAAOJuzAICAAAABjIyNi41NgAIz1hnM9TdCO1KcGcz1N0IIkNJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA2rnODQIAAAAGMzc5LjE3AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAh2NrAQIAAAAGMjIyLjIyAKxFLSfK1N0IlahsNMrU3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAABisEBQIAAAAFMTE4LjYArEUtJ8rU3QiVqGw0ytTdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAzfgAAAgAAAAYxNzMuNzIArEUtJ8rU3QiVqGw0ytTdCCJDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOJuzAICAAAABjIyMC45NwCsRS0nytTdCJWobDTK1N0II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAy</t>
-  </si>
-  <si>
-    <t>NS84LzEuVVNEAQAAABfbPAECAAAABjc1MC4wMQCsRS0nytTdCEkwazTK1N0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGlhAAACAAAABjIwMi4zOACsRS0nytTdCEkwazTK1N0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALZ5AAACAAAABTc0LjQ1AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAPUkAAAIAAAAGMjE0Ljc1AKxFLSfK1N0ISHNsNMrU3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACrzAUAAgAAAAozOC4zMzYwNzk2AKxFLSfK1N0ISHNsNMrU3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAl4AEAAgAAAAYyNTAuNzQArEUtJ8rU3QhIc2w0ytTdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADUiAAAAgAAAAY2MTguNjUArEUtJ8rU3QhIc2w0ytTdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACDfYQBAgAAAAYxNzIuODgArEUtJ8rU3QiVqGw0ytTdCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACw8IcMAgAAAAYzMzguOTkArEUtJ8rU3QhJMGs0ytTdCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAABXwAAAgAAAAUzNDcu</t>
-  </si>
-  <si>
-    <t>OACsRS0nytTdCEkwazTK1N0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALuhBAgCAAAABTEzNS42AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAUhMiDwIAAAAGMTgyLjk2AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAZfqYAgIAAAAGMTU0LjI3AKxFLSfK1N0ISTBrNMrU3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAANTMgQMCAAAABjI4MC4yNwCsRS0nytTdCEkwazTK1N0II0NJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALA8ZBACAAAABjIwNS4wMgCsRS0nytTdCEkwazTK1N0II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOdWAAACAAAABjI0NC40MgCsRS0nytTdCEkwazTK1N0II0NJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAMPb/AECAAAABjExNy41NwCsRS0nytTdCEkwazTK1N0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAANMkGQIAAAAFNTQuODkArEUtJ8rU3QhJMGs0ytTdCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAABmkEAAIAAAAGMTA0Ljg4AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLkVTVEMuSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI1LzgvMS5VU0QBAAAAgIRbDQIAAAAFNzkuNTgArEUtJ8rU3Qgv9Go0ytTdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAo7wUAAgAAAAY2ODkuODIArEUtJ8rU3QhJMGs0ytTdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAJ16DQACAAAACjE4NS42NzgyMTQArEUtJ8rU3QihjGg0ytTdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAQxqIBAgAAAAYzMDIuNjMArEUtJ8rU3QihjGg0ytTdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABLVQAAAgAAAAY1MjQuMTEArEUtJ8rU3QhJMGs0ytTdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALo+/BECAAAABTM2LjAxAKxFLSfK1N0IoYxoNMrU3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAJgF6EAIAAAAEMTcuMgCsRS0nytTdCC/0ajTK1N0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACP3AHACAAAABzMxLjM5MDEArEUtJ8rU3Qgv9Go0ytTdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADVggAAAgAAAAYxNDguMTkArEUtJ8rU3Qgv9Go0ytTdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEA</t>
-  </si>
-  <si>
-    <t>AAC4yqUGAgAAAAU1NC41MQCsRS0nytTdCEkwazTK1N0II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAL/7GQMCAAAAAjUyAKxFLSfK1N0ISTBrNMrU3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAKhxAAACAAAABjE4OS4xMwCsRS0nytTdCEkwazTK1N0IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAALOfFJwIAAAAGMTM3LjU4AKxFLSfK1N0IoYxoNMrU3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA8LZ9AQIAAAAGMjg4LjY0AKxFLSfK1N0IoYxoNMrU3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAA9N1wAAgAAAAk0NS4zOTc5ODkArEUtJ8rU3QihjGg0ytTdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAESbhyICAAAABjE0MS41OQCsRS0nytTdCKGMaDTK1N0II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGlV9AECAAAABjEyNS4wMwCsRS0nytTdCKGMaDTK1N0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAANPXgBAIAAAAGMjAwLjExAKxFLSfK1N0IoYxoNMrU3QgjQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAzYQXEQIAAAAFNDEuODIArEUtJ8rU</t>
-  </si>
-  <si>
-    <t>3QihjGg0ytTdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAvuAQACAAAADzI4Mi40NzMxNTU0NDUyNQCsRS0nytTdCKGMaDTK1N0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAv3ReAQIAAAAGOTE0LjM3AKxFLSfK1N0IoYxoNMrU3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAh2NrAQIAAAAGMjI0Ljk4AHmni0HK1N0IH0LEQcrU3QgiQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABEm4ciAgAAAAYxMzguNzYAeaeLQcrU3QgbacVBytTdCCNDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAGKwQFAgAAAAMxMjcAeaeLQcrU3QjM18VBytTdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABpVfQBAgAAAAYxMjcuMTEAeaeLQcrU3QjM18VBytTdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAzfgAAAgAAAAYxNzguMjYAxpCLQcrU3Qi0QcZBytTdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAADT14AQCAAAABjIwNy44MQDGkItBytTdCLRBxkHK1N0IIkNJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA4m7MAgIAAAAGMjI4LjI1AMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkdUTEIuSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI1LzgvNS5VU0QBAAAAzYQXEQIAAAACNDQAxpCLQcrU3Qi0QcZBytTdCCJDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACXgAQACAAAABjI0Ny40OQDGkItBytTdCLRBxkHK1N0II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAPC2fQECAAAABjI5Mi45MwDGkItBytTdCLRBxkHK1N0IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAPTdcAAIAAAALNDQuODI5NTQ3MjQAxpCLQcrU3Qizp8dBytTdCCNDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAj9wBwAgAAAAczMS45NTMxAMaQi0HK1N0IU8zHQcrU3QgjQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA1IgAAAIAAAAFNjI4LjUAeaeLQcrU3QgbacVBytTdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACDfYQBAgAAAAYxNjkuMDkAeaeLQcrU3QjM18VBytTdCCNDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC2eQAAAgAAAAU3Ni42MwDGkItBytTdCLRBxkHK1N0IIkNJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA2rnODQIAAAAGMzc3LjkzAMaQi0HK1N0ItEHGQcrU3QgjQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAaWEAAAIAAAAGMjAy</t>
-  </si>
-  <si>
-    <t>LjkyAMaQi0HK1N0IU8zHQcrU3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAPUkAAAIAAAAGMjEzLjc1AMaQi0HK1N0ItEHGQcrU3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACrzAUAAgAAAAozOC40NzMxMTg5AMaQi0HK1N0IDwvIQcrU3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAANTMgQMCAAAABjI4MS45NgB5p4tBytTdCBtpxUHK1N0II0NJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALA8ZBACAAAABjIwNS43NwB5p4tBytTdCMzXxUHK1N0II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAOdWAAACAAAABjI1NS42NwDGkItBytTdCLRBxkHK1N0II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAABfbPAECAAAABjc2My40NgDGkItBytTdCLRBxkHK1N0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALuhBAgCAAAABjEzMi45NADGkItBytTdCLRBxkHK1N0II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAFITIg8CAAAABjE4NS40NAB5p4tBytTdCBtpxUHK1N0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAGX6mAICAAAABjE3My4yNwB5p4tBytTdCMzXxUHK1N0II0NJUS5N</t>
-  </si>
-  <si>
-    <t>U0ZULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAEtVAAACAAAABjUyNy43NQDGkItBytTdCLRBxkHK1N0II0NJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALDwhwwCAAAABjM0MC4zMQDGkItBytTdCLRBxkHK1N0II0NJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAAFfAAACAAAABjMzOC43NADGkItBytTdCFPMx0HK1N0II0NJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAMPb/AECAAAABjExOC4xMgDGkItBytTdCLOnx0HK1N0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAANMkGQIAAAAFNTcuNzQAeaeLQcrU3QgbacVBytTdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC4yqUGAgAAAAU1NS45NwB5p4tBytTdCLRBxkHK1N0IIUNJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAGaQQAAgAAAAYxMDkuMDYAxpCLQcrU3Qi0QcZBytTdCCNDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACAhFsNAgAAAAU4MC4wOQDGkItBytTdCLRBxkHK1N0IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAALOfFJwIAAAAGMTM3LjIzAMaQi0HK1N0Is6fHQcrU3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAv/sZAwIA</t>
-  </si>
-  <si>
-    <t>AAAFNTUuMTcAxpCLQcrU3Qi0QcZBytTdCC1DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAqHEAAAIAAAAGMTk0LjY3AMaQi0HK1N0ItEHGQcrU3QgsQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAKO8FAAIAAAAGNjg5LjYzAMaQi0HK1N0ItEHGQcrU3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACdeg0AAgAAAAsxOTAuMDgzODkzNQDGkItBytTdCFPMx0HK1N0II0NJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAABDGogECAAAABjMwOC43MgB5p4tBytTdCBtpxUHK1N0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAANWCAAACAAAABjE0Ni43MQB5p4tBytTdCMzXxUHK1N0II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACYBehACAAAABTE3LjE1AMaQi0HK1N0ItEHGQcrU3QgiQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAL7gEAAgAAAA8yODUuNTczNjk0Njc2MjUAeaeLQcrU3QjM18VBytTdCCJDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAL90XgECAAAABjkwNS4xMgDGkItBytTdCLRBxkHK1N0IIkNJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAuj78</t>
-  </si>
-  <si>
-    <t>EQIAAAAFMzUuOTEAxpCLQcrU3Qi0QcZBytTdCA==</t>
+    <t>BAABTAVMT0NBTAFI/////wFQtAAAACNDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACHY2sBAgAAAAYyMjUuMTIApl2x6YzV3QiCF2byjNXdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAESbhyICAAAABTE0MC4yAKZdsemM1d0I3Ddj8ozV3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAABisEBQIAAAAGMTI1LjIxAKZdsemM1d0I+z9m8ozV3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAaVX0AQIAAAAFMTMwLjcApl2x6YzV3QhScmPyjNXdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAzfgAAAgAAAAMxODAApl2x6YzV3Qj7P2byjNXdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAADT14AQCAAAABTIwOC44AKZdsemM1d0IRIhj8ozV3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADibswCAgAAAAYyMjYuNTYApl2x6YzV3QjsZ2byjNXdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADNhBcRAgAAAAU0NC4xNQCmXbHpjNXdCCX/YvKM1d0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJeABAAIAAAAGMjUyLjMyAKZdsemM1d0IL+5l8ozV3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzgvNC5VU0QBAAAA8LZ9AQIAAAAGMjk3LjcyAKZdsemM1d0IJf9i8ozV3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAA9N1wAAgAAAAs0NC40OTA1MzM1NwCmXbHpjNXdCCX/YvKM1d0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAACP3AHACAAAABzMyLjAyMjcApl2x6YzV3QiNr2PyjNXdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADUiAAAAgAAAAY2MzYuMDIApl2x6YzV3Qgv7mXyjNXdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACDfYQBAgAAAAMxNzEApl2x6YzV3QjlwWXyjNXdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAANq5zg0CAAAABjM5NS4wMQCmXbHpjNXdCOXBZfKM1d0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAGlhAAACAAAABjIwMy4zNQCmXbHpjNXdCGqXZfKM1d0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAALZ5AAACAAAABTc2LjUzAKZdsemM1d0Ighdm8ozV3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAPUkAAAIAAAAGMjExLjY1AKZdsemM1d0I5cFl8ozV3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACrzAUA</t>
+  </si>
+  <si>
+    <t>AgAAAAwzNy45Njc0ODU0MTUApl2x6YzV3Qhql2XyjNXdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA1MyBAwIAAAAGMjg1Ljg2AKZdsemM1d0Iuzll8ozV3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsDxkEAIAAAAGMjA4LjQ4AKZdsemM1d0Iuzll8ozV3QgjQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA51YAAAIAAAAGMjUyLjUzAKZdsemM1d0IHGpl8ozV3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAF9s8AQIAAAAGNzc2LjM3AKZdsemM1d0IHGpl8ozV3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAu6EECAIAAAAGMTM5LjEzAKZdsemM1d0IBAhl8ozV3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAUhMiDwIAAAAGMTg1LjY5AKZdsemM1d0IBAhl8ozV3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAZfqYAgIAAAAGMTYwLjY2AKZdsemM1d0Iuzll8ozV3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAS1UAAAIAAAAGNTM1LjY0AKZdsemM1d0I/K1k8ozV3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsPCHDAIAAAAGMzUyLjM2AKZdsemM1d0Iidhk8ozV3Qgj</t>
+  </si>
+  <si>
+    <t>Q0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAAV8AAAIAAAAGMzM4Ljg1AKZdsemM1d0Iidhk8ozV3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAZpBAACAAAABjEwNy43NwCmXbHpjNXdCGp5ZPKM1d0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAANMkGQIAAAAFNTcuNTIApl2x6YzV3QhbS2TyjNXdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC4yqUGAgAAAAU1Ni4yNQCmXbHpjNXdCFtLZPKM1d0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAICEWw0CAAAABTgwLjUzAKZdsemM1d0Iq99j8ozV3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAs58UnAgAAAAYxNDAuMDUApl2x6YzV3QgiEGTyjNXdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADD2/wBAgAAAAYxMjAuMzUApl2x6YzV3QhqeWTyjNXdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAo7wUAAgAAAAY2OTkuMzYApl2x6YzV3Qir32PyjNXdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAJ16DQACAAAACjE4Ni4zNDM1OTYApl2x6YzV3Qir32PyjNXdCCNDSVEuVFNMQS5JUV9DTE9TRVBS</t>
+  </si>
+  <si>
+    <t>SUNFLjIwMjUvOC80LlVTRAEAAAAQxqIBAgAAAAYzMDkuMjYApl2x6YzV3Qir32PyjNXdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADVggAAAgAAAAYxNDcuNTEApl2x6YzV3QhbS2TyjNXdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC/+xkDAgAAAAU1NC4xNwCmXbHpjNXdCFtLZPKM1d0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACocQAAAgAAAAYxOTUuMDQApl2x6YzV3QhqeWTyjNXdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAvuAQACAAAADzI4My4xMTE2MjUyNTUyNQCmXbHpjNXdCESIY/KM1d0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAv3ReAQIAAAADOTIzAKZdsemM1d0IRIhj8ozV3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC6PvwRAgAAAAQzNy42AKZdsemM1d0IIhBk8ozV3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJgF6EAIAAAAFMTcuMTIApl2x6YzV3QiNr2PyjNXdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAANq5zg0CAAAABjM3OS4xNwCsRS0nytTdCEkwazTK1N0II0NJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAIdjawEC</t>
+  </si>
+  <si>
+    <t>AAAABjIyMi4yMgCsRS0nytTdCJWobDTK1N0II0NJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAYrBAUCAAAABTExOC42AKxFLSfK1N0IlahsNMrU3QgjQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAM34AAAIAAAAGMTczLjcyAKxFLSfK1N0IlahsNMrU3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADibswCAgAAAAYyMjAuOTcArEUtJ8rU3QiVqGw0ytTdCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAX2zwBAgAAAAY3NTAuMDEArEUtJ8rU3QhJMGs0ytTdCCNDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABpYQAAAgAAAAYyMDIuMzgArEUtJ8rU3QhJMGs0ytTdCCNDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAC2eQAAAgAAAAU3NC40NQCsRS0nytTdCEkwazTK1N0II0NJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAD1JAAACAAAABjIxNC43NQCsRS0nytTdCEhzbDTK1N0IKENJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAq8wFAAIAAAAKMzguMzM2MDc5NgCsRS0nytTdCEhzbDTK1N0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAJeABAAIAAAAGMjUwLjc0AKxFLSfK1N0ISHNsNMrU3Qgj</t>
+  </si>
+  <si>
+    <t>Q0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA1IgAAAIAAAAGNjE4LjY1AKxFLSfK1N0ISHNsNMrU3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAg32EAQIAAAAGMTcyLjg4AKxFLSfK1N0IlahsNMrU3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAsPCHDAIAAAAGMzM4Ljk5AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAAV8AAAIAAAAFMzQ3LjgArEUtJ8rU3QhJMGs0ytTdCCNDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAC7oQQIAgAAAAUxMzUuNgCsRS0nytTdCEkwazTK1N0II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAFITIg8CAAAABjE4Mi45NgCsRS0nytTdCEkwazTK1N0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGX6mAICAAAABjE1NC4yNwCsRS0nytTdCEkwazTK1N0IIUNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADUzIEDAgAAAAYyODAuMjcArEUtJ8rU3QhJMGs0ytTdCCNDSVEuU05PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACwPGQQAgAAAAYyMDUuMDIArEUtJ8rU3QhJMGs0ytTdCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEA</t>
+  </si>
+  <si>
+    <t>AADnVgAAAgAAAAYyNDQuNDIArEUtJ8rU3QhJMGs0ytTdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADD2/wBAgAAAAYxMTcuNTcArEUtJ8rU3QhJMGs0ytTdCCJDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAADTJBkCAAAABTU0Ljg5AKxFLSfK1N0ISTBrNMrU3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAZpBAACAAAABjEwNC44OACsRS0nytTdCEkwazTK1N0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAICEWw0CAAAABTc5LjU4AKxFLSfK1N0IL/RqNMrU3QgsQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAKO8FAAIAAAAGNjg5LjgyAKxFLSfK1N0ISTBrNMrU3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACdeg0AAgAAAAoxODUuNjc4MjE0AKxFLSfK1N0IoYxoNMrU3QgjQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAEMaiAQIAAAAGMzAyLjYzAKxFLSfK1N0IoYxoNMrU3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAS1UAAAIAAAAGNTI0LjExAKxFLSfK1N0ISTBrNMrU3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAC6PvwRAgAAAAUzNi4wMQCs</t>
+  </si>
+  <si>
+    <t>RS0nytTdCKGMaDTK1N0II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACYBehACAAAABDE3LjIArEUtJ8rU3Qgv9Go0ytTdCCNDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAj9wBwAgAAAAczMS4zOTAxAKxFLSfK1N0IL/RqNMrU3QgjQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA1YIAAAIAAAAGMTQ4LjE5AKxFLSfK1N0IL/RqNMrU3QgjQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAuMqlBgIAAAAFNTQuNTEArEUtJ8rU3QhJMGs0ytTdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAC/+xkDAgAAAAI1MgCsRS0nytTdCEkwazTK1N0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACocQAAAgAAAAYxODkuMTMArEUtJ8rU3QhJMGs0ytTdCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACznxScCAAAABjEzNy41OACsRS0nytTdCKGMaDTK1N0II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAPC2fQECAAAABjI4OC42NACsRS0nytTdCKGMaDTK1N0IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAPTdcAAIAAAAJNDUuMzk3OTg5AKxFLSfK1N0IoYxoNMrU3QgiQ0lRLlZS</t>
+  </si>
+  <si>
+    <t>As of 2025-08-05</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>US30303M1027</t>
+  </si>
+  <si>
+    <t>US5949181045</t>
+  </si>
+  <si>
+    <t>US67066G1040</t>
+  </si>
+  <si>
+    <t>US0231351067</t>
+  </si>
+  <si>
+    <t>US02079K3059</t>
+  </si>
+  <si>
+    <t>1892140D</t>
+  </si>
+  <si>
+    <t>鈥?"17</t>
+  </si>
+  <si>
+    <t>829"</t>
+  </si>
+  <si>
+    <t>鈥?"41</t>
+  </si>
+  <si>
+    <t>029"</t>
+  </si>
+  <si>
+    <t>NL0009805522</t>
+  </si>
+  <si>
+    <t>US69608A1088</t>
+  </si>
+  <si>
+    <t>US0378331005</t>
+  </si>
+  <si>
+    <t>US68389X1054</t>
+  </si>
+  <si>
+    <t>US11135F1012</t>
+  </si>
+  <si>
+    <t>US7710491033</t>
+  </si>
+  <si>
+    <t>US88160R1014</t>
+  </si>
+  <si>
+    <t>US18915M1071</t>
+  </si>
+  <si>
+    <t>US79466L3024</t>
+  </si>
+  <si>
+    <t>TW0002330008</t>
+  </si>
+  <si>
+    <t>US81762P1021</t>
+  </si>
+  <si>
+    <t>DE0007164600</t>
+  </si>
+  <si>
+    <t>KR7000660001</t>
+  </si>
+  <si>
+    <t>US8334451098</t>
+  </si>
+  <si>
+    <t>US23804L1035</t>
+  </si>
+  <si>
+    <t>CA82509L1076</t>
+  </si>
+  <si>
+    <t>US00724F1012</t>
+  </si>
+  <si>
+    <t>NL0013056914</t>
+  </si>
+  <si>
+    <t>US5738741041</t>
+  </si>
+  <si>
+    <t>US88023B1035</t>
+  </si>
+  <si>
+    <t>US03831W1080</t>
+  </si>
+  <si>
+    <t>US26603R1068</t>
+  </si>
+  <si>
+    <t>US92537N1081</t>
+  </si>
+  <si>
+    <t>US60937P1066</t>
+  </si>
+  <si>
+    <t>US79589L1061</t>
+  </si>
+  <si>
+    <t>US0404132054</t>
+  </si>
+  <si>
+    <t>US98980G1022</t>
+  </si>
+  <si>
+    <t>US98138H1014</t>
+  </si>
+  <si>
+    <t>NL0010273215</t>
+  </si>
+  <si>
+    <t>US0494681010</t>
+  </si>
+  <si>
+    <t>US74624M1027</t>
+  </si>
+  <si>
+    <t>US5951121038</t>
+  </si>
+  <si>
+    <t>US37637K1088</t>
+  </si>
+  <si>
+    <t>US6974351057</t>
+  </si>
+  <si>
+    <t>US8716071076</t>
+  </si>
+  <si>
+    <t>US0420682058</t>
+  </si>
+  <si>
+    <t>US7475251036</t>
+  </si>
+  <si>
+    <t>US20717M1036</t>
+  </si>
+  <si>
+    <t>TW0002454006</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>鈥?"86</t>
+  </si>
+  <si>
+    <t>477"</t>
+  </si>
+  <si>
+    <t>EURO</t>
+  </si>
+  <si>
+    <t>鈥?44</t>
+  </si>
+  <si>
+    <t>CANADIAN DOLLAR</t>
+  </si>
+  <si>
+    <t>鈥?5</t>
+  </si>
+  <si>
+    <t>VC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABEm4ciAgAAAAYxNDEuNTkArEUtJ8rU3QihjGg0ytTdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABpVfQBAgAAAAYxMjUuMDMArEUtJ8rU3QihjGg0ytTdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAADT14AQCAAAABjIwMC4xMQCsRS0nytTdCKGMaDTK1N0II0NJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAM2EFxECAAAABTQxLjgyAKxFLSfK1N0IoYxoNMrU3QgiQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAL7gEAAgAAAA8yODIuNDczMTU1NDQ1MjUArEUtJ8rU3QihjGg0ytTdCCJDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAL90XgECAAAABjkxNC4zNwCsRS0nytTdCKGMaDTK1N0II0NJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAIdjawECAAAABjIyNC45OACnFu4IkNXdCNhtLQmQ1d0IIkNJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAARJuHIgIAAAAGMTM4Ljc2AKcW7giQ1d0IUgUvCZDV3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAABisEBQIAAAADMTI3AKcW7giQ1d0I2G0tCZDV3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA</t>
+  </si>
+  <si>
+    <t>aVX0AQIAAAAGMTI3LjExAKcW7giQ1d0InRovCZDV3QgjQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAM34AAAIAAAAGMTc4LjI2AKcW7giQ1d0I2G0tCZDV3QgiQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAA09eAEAgAAAAYyMDcuODEApxbuCJDV3QidGi8JkNXdCCJDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAOJuzAICAAAABjIyOC4yNQCnFu4IkNXdCNhtLQmQ1d0II0NJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAM2EFxECAAAAAjQ0AKcW7giQ1d0IMi8vCZDV3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAl4AEAAgAAAAYyNDcuNDkApxbuCJDV3QjElC0JkNXdCCNDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADwtn0BAgAAAAYyOTIuOTMApxbuCJDV3QgyLy8JkNXdCChDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAD03XAACAAAACzQ0LjgyOTU0NzI0AHcC7giQ1d0IWEQvCZDV3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAI/cAcAIAAAAHMzEuOTUzMQB3Au4IkNXdCFIFLwmQ1d0II0NJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAANSIAAACAAAABTYyOC41AKcW7giQ1d0IxJQtCZDV</t>
+  </si>
+  <si>
+    <t>3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAg32EAQIAAAAGMTY5LjA5AKcW7giQ1d0IDL0tCZDV3QgjQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAtnkAAAIAAAAFNzYuNjMApxbuCJDV3QgMvS0JkNXdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAANq5zg0CAAAABjM3Ny45MwCnFu4IkNXdCNrOLQmQ1d0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAGlhAAACAAAABjIwMi45MgB3Au4IkNXdCKziLQmQ1d0II0NJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAD1JAAACAAAABjIxMy43NQB3Au4IkNXdCNrOLQmQ1d0IKENJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAq8wFAAIAAAAKMzguNDczMTE4OQB3Au4IkNXdCKziLQmQ1d0IIUNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADUzIEDAgAAAAYyODEuOTYApxbuCJDV3Qis4i0JkNXdCCNDSVEuU05PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACwPGQQAgAAAAYyMDUuNzcApxbuCJDV3QjZ9y0JkNXdCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADnVgAAAgAAAAYyNTUuNjcApxbuCJDV3QjZ9y0JkNXdCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvOC81LlVTRAEAAAAX2zwBAgAAAAY3NjMuNDYApxbuCJDV3QjHDC4JkNXdCCNDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC7oQQIAgAAAAYxMzIuOTQApxbuCJDV3QjHDC4JkNXdCCNDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABSEyIPAgAAAAYxODUuNDQApxbuCJDV3QglIS4JkNXdCCNDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABl+pgCAgAAAAYxNzMuMjcApxbuCJDV3QjfNS4JkNXdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABLVQAAAgAAAAY1MjcuNzUApxbuCJDV3QjgSi4JkNXdCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACw8IcMAgAAAAYzNDAuMzEApxbuCJDV3QjgSi4JkNXdCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAABXwAAAgAAAAYzMzguNzQAdwLuCJDV3QikXy4JkNXdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADD2/wBAgAAAAYxMTguMTIAdwLuCJDV3Qg+iS4JkNXdCCJDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAADTJBkCAAAABTU3Ljc0AKcW7giQ1d0IO54uCZDV3QgjQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAuMqlBgIAAAAFNTUuOTcApxbuCJDV</t>
+  </si>
+  <si>
+    <t>3Qg7ni4JkNXdCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAABmkEAAIAAAAGMTA5LjA2AKcW7giQ1d0IDbMuCZDV3QgjQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAgIRbDQIAAAAFODAuMDkApxbuCJDV3Qg+iS4JkNXdCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACznxScCAAAABjEzNy4yMwB3Au4IkNXdCLXcLgmQ1d0II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAL/7GQMCAAAABTU1LjE3AKcW7giQ1d0IDbMuCZDV3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAKhxAAACAAAABjE5NC42NwCnFu4IkNXdCA2zLgmQ1d0ILENJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACjvBQACAAAABjY4OS42MwCnFu4IkNXdCOTHLgmQ1d0IK0NJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAnXoNAAIAAAALMTkwLjA4Mzg5MzUAdwLuCJDV3Qjkxy4JkNXdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAQxqIBAgAAAAYzMDguNzIApxbuCJDV3Qg7ni4JkNXdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADVggAAAgAAAAYxNDYuNzEApxbuCJDV3Qg7ni4J</t>
+  </si>
+  <si>
+    <t>kNXdCCNDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAmAXoQAgAAAAUxNy4xNQCnFu4IkNXdCFIFLwmQ1d0IIkNJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAC+4BAAIAAAAPMjg1LjU3MzY5NDY3NjI1AKcW7giQ1d0ItdwuCZDV3QgiQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC/dF4BAgAAAAY5MDUuMTIApxbuCJDV3Qj78C4JkNXdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALo+/BECAAAABTM1LjkxAKcW7giQ1d0I+/AuCZDV3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAh2NrAQIAAAAGMjI5LjA4AKcW7giQ1d0IxJQtCZDV3QgiQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABEm4ciAgAAAAYxMzkuNzUApxbuCJDV3QhSBS8JkNXdCCNDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAGKwQFAgAAAAUxNTQuOQCnFu4IkNXdCMSULQmQ1d0II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAGlV9AECAAAABjEzNC4xNACnFu4IkNXdCJ0aLwmQ1d0II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAADN+AAACAAAABjE3OS40MgCnFu4IkNXdCAy9LQmQ1d0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1</t>
+  </si>
+  <si>
+    <t>LzgvNi5VU0QBAAAANPXgBAIAAAAGMjE1LjUzAKcW7giQ1d0InRovCZDV3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADibswCAgAAAAYyMzUuODIApxbuCJDV3QgMvS0JkNXdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADNhBcRAgAAAAU0My43NgCnFu4IkNXdCDIvLwmQ1d0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAJeABAAIAAAAGMjQ5LjE3AKcW7giQ1d0I2s4tCZDV3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA8LZ9AQIAAAAGMzAxLjY3AKcW7giQ1d0IMi8vCZDV3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAA9N1wAAgAAAAs0NC4wODY3MDM3NgB3Au4IkNXdCFhELwmQ1d0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACP3AHACAAAABzMyLjcwMDIAdwLuCJDV3QhSBS8JkNXdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADUiAAAAgAAAAY2MjUuODgApxbuCJDV3Qis4i0JkNXdCCNDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAC2eQAAAgAAAAU3NS4zMgCnFu4IkNXdCNn3LQmQ1d0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAGlhAAACAAAABjIxMy4y</t>
+  </si>
+  <si>
+    <t>NQB3Au4IkNXdCCUhLgmQ1d0IKENJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAq8wFAAIAAAALMzcuNTczODk1MjUAdwLuCJDV3QglIS4JkNXdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACDfYQBAgAAAAYxNzIuODkApxbuCJDV3QjZ9y0JkNXdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAANq5zg0CAAAABjM5MC41NwCnFu4IkNXdCMcMLgmQ1d0II0NJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAD1JAAACAAAABjIyMi4zMQB3Au4IkNXdCCUhLgmQ1d0IIUNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADUzIEDAgAAAAYyODkuMzIApxbuCJDV3QglIS4JkNXdCCNDSVEuU05PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACwPGQQAgAAAAYyMTAuNTQApxbuCJDV3QjfNS4JkNXdCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADnVgAAAgAAAAYyNTYuNDMApxbuCJDV3QjfNS4JkNXdCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAX2zwBAgAAAAY3NzEuOTkApxbuCJDV3QjgSi4JkNXdCCNDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAC7oQQIAgAAAAYxMzYuOTYApxbuCJDV3QjgSi4JkNXdCCNDSVEuVEVB</t>
+  </si>
+  <si>
+    <t>TS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABSEyIPAgAAAAUxODUuNQCnFu4IkNXdCKRfLgmQ1d0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAGX6mAICAAAABjE3OS41NACnFu4IkNXdCBt0LgmQ1d0II0NJUS5NU0ZULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAEtVAAACAAAABjUyNC45NACnFu4IkNXdCBt0LgmQ1d0II0NJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALDwhwwCAAAABjM0My42MQCnFu4IkNXdCBt0LgmQ1d0II0NJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAAFfAAACAAAABjM0NS42MgB3Au4IkNXdCD6JLgmQ1d0II0NJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALjKpQYCAAAABTU3LjQzAKcW7giQ1d0IO54uCZDV3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAAZpBAACAAAABjEwOC43OACnFu4IkNXdCA2zLgmQ1d0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAICEWw0CAAAABTgwLjY0AKcW7giQ1d0IPokuCZDV3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAs58UnAgAAAAYxMzYuMTIAdwLuCJDV3Qjkxy4JkNXdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADD2/wBAgAA</t>
+  </si>
+  <si>
+    <t>AAYxMzguNzgAdwLuCJDV3Qjkxy4JkNXdCCJDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAADTJBkCAAAABTU1LjUzAKcW7giQ1d0IO54uCZDV3QgjQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA1YIAAAIAAAAGMTQ1Ljg0AKcW7giQ1d0ItdwuCZDV3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAv/sZAwIAAAAFNTUuMDkApxbuCJDV3Qj78C4JkNXdCC1DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAqHEAAAIAAAAGMTk2LjA5AKcW7giQ1d0I+/AuCZDV3QgsQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAKO8FAAIAAAAGNjkwLjk2AKcW7giQ1d0IUgUvCZDV3QgjQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAEMaiAQIAAAAGMzE5LjkxAKcW7giQ1d0ItdwuCZDV3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACdeg0AAgAAAAsxODYuNTgxOTM5NQB3Au4IkNXdCFhELwmQ1d0IIkNJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAuj78EQIAAAAFMzYuNzcApxbuCJDV3QgyLy8JkNXdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAAvuAQACAAAADjI4OS41</t>
+  </si>
+  <si>
+    <t>OTYxODI4ODUxAKcW7giQ1d0InRovCZDV3QgiQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAC/dF4BAgAAAAY5MTIuMzEApxbuCJDV3QidGi8JkNXdCCNDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAmAXoQAgAAAAUxNy4yNACnFu4IkNXdCDIvLwmQ1d0I</t>
+  </si>
+  <si>
+    <t>META</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -628,13 +772,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,6 +814,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -698,7 +843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -733,95 +878,77 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFDEE0E3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDEE0E3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDEE0E3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDEE0E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,19 +1433,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EE19EC-66B3-4080-9290-F9D26728C2BC}">
-  <dimension ref="A1:AE1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E87A527-8DDE-43AA-AD32-3F38F62A2CD0}">
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
         <v>135</v>
@@ -1345,71 +1472,41 @@
         <v>142</v>
       </c>
       <c r="K1" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="M1" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="N1" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="O1" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="P1" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="Q1" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="R1" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="S1" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="T1" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="U1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V1" t="s">
-        <v>155</v>
-      </c>
-      <c r="W1" t="s">
-        <v>156</v>
-      </c>
-      <c r="X1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1419,7 +1516,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1525,7 @@
     <col min="2" max="2" width="14.453125" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" customWidth="1"/>
     <col min="4" max="4" width="49.36328125" customWidth="1"/>
-    <col min="5" max="5" width="53.54296875" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
     <col min="6" max="6" width="17.36328125" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" customWidth="1"/>
     <col min="8" max="8" width="13.453125" style="1" customWidth="1"/>
@@ -1462,22 +1559,22 @@
         <v>117</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="16" t="s">
@@ -1493,51 +1590,51 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP(A2,CHOOSE({1,2},F2:F45,J2:J45),2,FALSE)</f>
-        <v>1.6628180554136228E-3</v>
+        <v>4.0145851378449145E-3</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="13">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.7402899999999875</v>
+        <v>-3.5019499999999937</v>
       </c>
       <c r="H2" s="9">
-        <f>VLOOKUP(F2,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>3.5815942694491687E-3</v>
+        <f>VLOOKUP(F2,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>3.7159940544095132E-3</v>
       </c>
       <c r="I2" s="2">
         <f>G2*H2</f>
-        <v>1.3396201230077986E-2</v>
+        <v>-1.3013225378839371E-2</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J45" si="0">$P$7*H2</f>
-        <v>1.6628180554136228E-3</v>
+        <v>4.0145851378449145E-3</v>
       </c>
       <c r="K2" s="6" cm="1">
         <f t="array" ref="K2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>190.08389</v>
+        <v>186.58194</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L45" si="1">K2*H2</f>
-        <v>0.68080337113860612</v>
+        <v>0.69333737970019249</v>
       </c>
       <c r="M2" s="2">
         <f>J2*K2</f>
-        <v>0.31607492433525697</v>
+        <v>0.74904908331427156</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O2" s="6" cm="1">
         <f t="array" ref="O2">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>31.953099999999999</v>
+        <v>32.700200000000002</v>
       </c>
       <c r="P2" s="2">
         <v>1250002</v>
@@ -1552,51 +1649,51 @@
       </c>
       <c r="C3" s="7">
         <f>VLOOKUP(A3,CHOOSE({1,2},F3:F47,J3:J47),2,FALSE)</f>
-        <v>1.002816338980742E-2</v>
+        <v>2.4199867354070526E-2</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" ref="G3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.50563000000000358</v>
+        <v>-0.89921999999999969</v>
       </c>
       <c r="H3" s="9">
-        <f>VLOOKUP(F3,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>2.1599965440055297E-2</v>
+        <f>VLOOKUP(F3,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>2.2399964160057344E-2</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I45" si="2">G3*H3</f>
-        <v>1.0921590525455237E-2</v>
+        <v>-2.0142495772006757E-2</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>1.002816338980742E-2</v>
+        <v>2.4199867354070526E-2</v>
       </c>
       <c r="K3" s="6" cm="1">
         <f t="array" ref="K3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>38.473120000000002</v>
+        <v>37.573900000000002</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>0.83101806237110021</v>
+        <v>0.8416540133535787</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M45" si="3">J3*K3</f>
-        <v>0.38581473347566769</v>
+        <v>0.90928339597511054</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O3" s="12">
         <f>SUM(M2:M45)</f>
-        <v>15.5168401442654</v>
+        <v>38.227447629972197</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -1609,51 +1706,51 @@
       </c>
       <c r="C4" s="7">
         <f>VLOOKUP(A4,CHOOSE({1,2},F4:F48,J4:J48),2,FALSE)</f>
-        <v>2.2284807532905377E-3</v>
+        <v>5.1856858615865415E-3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.33901999999999788</v>
+        <v>-0.74284999999999712</v>
       </c>
       <c r="H4" s="9">
-        <f>VLOOKUP(F4,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
+        <f>VLOOKUP(F4,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
         <v>4.7999923200122878E-3</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>1.6272933963305555E-3</v>
+        <v>-3.565674294921114E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>2.2284807532905377E-3</v>
+        <v>5.1856858615865415E-3</v>
       </c>
       <c r="K4" s="6" cm="1">
         <f t="array" ref="K4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>44.829549999999998</v>
+        <v>44.0867</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="1"/>
-        <v>0.21518149570960685</v>
+        <v>0.21161582141468574</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="3"/>
-        <v>9.9901789353675816E-2</v>
+        <v>0.22861977687400739</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O4" s="6">
         <f>SUM(L2:L45)</f>
-        <v>33.422192860923424</v>
+        <v>35.384221091518256</v>
       </c>
       <c r="P4" s="2"/>
     </row>
@@ -1666,7 +1763,7 @@
       </c>
       <c r="C5" s="7">
         <f>VLOOKUP(A5,CHOOSE({1,2},F5:F49,J5:J49),2,FALSE)</f>
-        <v>2.4710137419403245E-3</v>
+        <v>5.9704529886399713E-3</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1677,34 +1774,34 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.43000000000000682</v>
+        <v>10.330000000000013</v>
       </c>
       <c r="H5" s="9">
-        <f>VLOOKUP(F5,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>5.3223914841736249E-3</v>
+        <f>VLOOKUP(F5,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>5.5263911577741473E-3</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>-2.2886283381946949E-3</v>
+        <v>5.7087620659807013E-2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>2.4710137419403245E-3</v>
+        <v>5.9704529886399713E-3</v>
       </c>
       <c r="K5" s="6" cm="1">
         <f t="array" ref="K5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>202.92</v>
+        <v>213.25</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>1.080019679968512</v>
+        <v>1.1785029143953369</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>0.50141810851453061</v>
+        <v>1.2731990998274738</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1718,7 +1815,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,CHOOSE({1,2},F6:F50,J6:J50),2,FALSE)</f>
-        <v>8.0633861923229291E-4</v>
+        <v>1.9472250410257463E-3</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -1729,41 +1826,41 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.11000000000001364</v>
+        <v>6.8799999999999955</v>
       </c>
       <c r="H6" s="9">
-        <f>VLOOKUP(F6,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>1.7367972211244462E-3</v>
+        <f>VLOOKUP(F6,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>1.8023971161646142E-3</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9104769432371277E-4</v>
+        <v>1.2400492159212538E-2</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>8.0633861923229291E-4</v>
+        <v>1.9472250410257463E-3</v>
       </c>
       <c r="K6" s="6" cm="1">
         <f t="array" ref="K6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>338.74</v>
+        <v>345.62</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>0.58832269068369492</v>
+        <v>0.62294449128881402</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>0.27313914387874688</v>
+        <v>0.67299991867931841</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="5" t="s">
         <v>116</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1775,7 +1872,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,CHOOSE({1,2},F7:F51,J7:J51),2,FALSE)</f>
-        <v>3.6628795314918808E-3</v>
+        <v>8.8450515179127782E-3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
@@ -1786,46 +1883,46 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.0999999999999943</v>
+        <v>8.5600000000000023</v>
       </c>
       <c r="H7" s="9">
-        <f>VLOOKUP(F7,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>7.8895873766601978E-3</v>
+        <f>VLOOKUP(F7,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>8.1871869005009593E-3</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>1.6568133490986372E-2</v>
+        <v>7.0082319868288237E-2</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>3.6628795314918808E-3</v>
+        <v>8.8450515179127782E-3</v>
       </c>
       <c r="K7" s="6" cm="1">
         <f t="array" ref="K7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>213.75</v>
+        <v>222.31</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>1.6863993017611172</v>
+        <v>1.8200935198503683</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>0.78294049985638958</v>
+        <v>1.9663434029471898</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>114</v>
       </c>
       <c r="O7" s="2" cm="1">
         <f t="array" ref="O7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-6.9600000000001216E-2</v>
+        <v>0.74710000000000321</v>
       </c>
       <c r="P7" s="6">
         <f>O7/SUM(I2:I45)</f>
-        <v>0.46426756642911315</v>
+        <v>1.0803529497258166</v>
       </c>
       <c r="Q7" s="6" cm="1">
         <f t="array" ref="Q7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>31.953099999999999</v>
+        <v>32.700200000000002</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1837,7 +1934,7 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,CHOOSE({1,2},F8:F52,J8:J52),2,FALSE)</f>
-        <v>1.8882660249548492E-3</v>
+        <v>4.5634035581961566E-3</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1848,31 +1945,31 @@
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" ref="G8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.2299999999999898</v>
+        <v>20.659999999999997</v>
       </c>
       <c r="H8" s="9">
-        <f>VLOOKUP(F8,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>4.0671934924904124E-3</v>
+        <f>VLOOKUP(F8,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>4.2239932416108135E-3</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>-9.0698414882535786E-3</v>
+        <v>8.7267700371679399E-2</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.8882660249548492E-3</v>
+        <v>4.5634035581961566E-3</v>
       </c>
       <c r="K8" s="6" cm="1">
         <f t="array" ref="K8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>118.12</v>
+        <v>138.78</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>0.48041689533296755</v>
+        <v>0.58620578207074869</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>0.2230419828676668</v>
+        <v>0.63330914580646258</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1887,7 +1984,7 @@
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,CHOOSE({1,2},F9:F53,J9:J53),2,FALSE)</f>
-        <v>1.0158158100416034E-3</v>
+        <v>2.4580150983920207E-3</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -1898,31 +1995,31 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.8200000000000216</v>
+        <v>-1.1099999999999852</v>
       </c>
       <c r="H9" s="9">
-        <f>VLOOKUP(F9,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>2.1879964992056011E-3</v>
+        <f>VLOOKUP(F9,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>2.2751963596858247E-3</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>-6.1701501277598427E-3</v>
+        <v>-2.5254679592512318E-3</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.0158158100416034E-3</v>
+        <v>2.4580150983920207E-3</v>
       </c>
       <c r="K9" s="6" cm="1">
         <f t="array" ref="K9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>137.22999999999999</v>
+        <v>136.12</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>0.30025875958598464</v>
+        <v>0.30969972848043448</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.13940040361200923</v>
+        <v>0.33458501519312189</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1937,42 +2034,42 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,CHOOSE({1,2},F10:F54,J10:J54),2,FALSE)</f>
-        <v>2.8821684409224287E-4</v>
+        <v>6.9488190545259653E-4</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-9.7300000000000182</v>
+        <v>1.3300000000000409</v>
       </c>
       <c r="H10" s="9">
-        <f>VLOOKUP(F10,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>6.2079900672158922E-4</v>
+        <f>VLOOKUP(F10,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>6.4319897088164655E-4</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>-6.0403743354010744E-3</v>
+        <v>8.5545463127261628E-4</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>2.8821684409224287E-4</v>
+        <v>6.9488190545259653E-4</v>
       </c>
       <c r="K10" s="6" cm="1">
         <f t="array" ref="K10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>689.63</v>
+        <v>690.96</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>0.42812161900540957</v>
+        <v>0.44442476092038252</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>0.19876298219133345</v>
+        <v>0.48013560139152611</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1987,7 +2084,7 @@
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,CHOOSE({1,2},F11:F55,J11:J55),2,FALSE)</f>
-        <v>1.5803642675418731E-3</v>
+        <v>3.8183933560815564E-3</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -1998,31 +2095,31 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.7900000000000205</v>
+        <v>8.7400000000000091</v>
       </c>
       <c r="H11" s="9">
-        <f>VLOOKUP(F11,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>3.403994553608714E-3</v>
+        <f>VLOOKUP(F11,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>3.5343943449690478E-3</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6305133911785809E-2</v>
+        <v>3.0890606575029511E-2</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>1.5803642675418731E-3</v>
+        <v>3.8183933560815564E-3</v>
       </c>
       <c r="K11" s="6" cm="1">
         <f t="array" ref="K11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>292.93</v>
+        <v>301.67</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>0.99713212458860068</v>
+        <v>1.0662207420468128</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>0.46293610489104092</v>
+        <v>1.1518947237291233</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2037,7 +2134,7 @@
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,CHOOSE({1,2},F12:F56,J12:J56),2,FALSE)</f>
-        <v>7.1010539203602988E-3</v>
+        <v>1.7169805887713038E-2</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>27</v>
@@ -2048,31 +2145,31 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.9999999999997584E-2</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="H12" s="9">
-        <f>VLOOKUP(F12,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>1.5295175527719156E-2</v>
+        <f>VLOOKUP(F12,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>1.5892774571560686E-2</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>4.588552658315377E-4</v>
+        <v>1.4303497114404595E-3</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>7.1010539203602988E-3</v>
+        <v>1.7169805887713038E-2</v>
       </c>
       <c r="K12" s="6" cm="1">
         <f t="array" ref="K12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>17.149999999999999</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>0.26231226030038352</v>
+        <v>0.2739914336137062</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>0.12178307473417911</v>
+        <v>0.29600745350417274</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2087,7 +2184,7 @@
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,CHOOSE({1,2},F13:F57,J13:J57),2,FALSE)</f>
-        <v>1.5926209116849711E-3</v>
+        <v>3.8469146283202824E-3</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>29</v>
@@ -2098,31 +2195,31 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.8299999999999841</v>
+        <v>1.6799999999999784</v>
       </c>
       <c r="H13" s="9">
-        <f>VLOOKUP(F13,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>3.4303945113687818E-3</v>
+        <f>VLOOKUP(F13,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>3.5607943027291156E-3</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6568805489911163E-2</v>
+        <v>5.982134428584837E-3</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>1.5926209116849711E-3</v>
+        <v>3.8469146283202824E-3</v>
       </c>
       <c r="K13" s="6" cm="1">
         <f t="array" ref="K13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>247.49</v>
+        <v>249.17</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>0.84898833761865988</v>
+        <v>0.88724311641101372</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.39415774943291354</v>
+        <v>0.95853571793856474</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2137,7 +2234,7 @@
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,CHOOSE({1,2},F14:F58,J14:J58),2,FALSE)</f>
-        <v>2.198024849662234E-3</v>
+        <v>5.3101423222646181E-3</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>31</v>
@@ -2148,31 +2245,31 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-6.1899999999999977</v>
+        <v>4.0200000000000102</v>
       </c>
       <c r="H14" s="9">
-        <f>VLOOKUP(F14,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>4.7343924249721205E-3</v>
+        <f>VLOOKUP(F14,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>4.9151921356925827E-3</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9305889110577413E-2</v>
+        <v>1.9759072385484234E-2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>2.198024849662234E-3</v>
+        <v>5.3101423222646181E-3</v>
       </c>
       <c r="K14" s="6" cm="1">
         <f t="array" ref="K14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>132.94</v>
+        <v>136.96</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>0.62939012897579372</v>
+        <v>0.67318471490445619</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>0.2922054235140974</v>
+        <v>0.72727709245736216</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2187,7 +2284,7 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,CHOOSE({1,2},F15:F59,J15:J59),2,FALSE)</f>
-        <v>6.6668715869275252E-4</v>
+        <v>1.6110197409995523E-3</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>33</v>
@@ -2198,31 +2295,31 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-17.079999999999984</v>
+        <v>12.639999999999986</v>
       </c>
       <c r="H15" s="9">
-        <f>VLOOKUP(F15,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>1.4359977024036761E-3</v>
+        <f>VLOOKUP(F15,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>1.4911976140838175E-3</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4526840757054764E-2</v>
+        <v>1.8848737842019434E-2</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>6.6668715869275252E-4</v>
+        <v>1.6110197409995523E-3</v>
       </c>
       <c r="K15" s="6" cm="1">
         <f t="array" ref="K15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>377.93</v>
+        <v>390.57</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="1"/>
-        <v>0.54270661166942136</v>
+        <v>0.58241705213271655</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>0.25196107788475197</v>
+        <v>0.62921598024219516</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2237,7 +2334,7 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,CHOOSE({1,2},F16:F60,J16:J60),2,FALSE)</f>
-        <v>7.3391299475035054E-4</v>
+        <v>1.7700474407548728E-3</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>35</v>
@@ -2248,31 +2345,31 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-12.050000000000011</v>
+        <v>3.3000000000000114</v>
       </c>
       <c r="H16" s="9">
-        <f>VLOOKUP(F16,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>1.5807974707240469E-3</v>
+        <f>VLOOKUP(F16,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>1.6383973785641943E-3</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9048609522224782E-2</v>
+        <v>5.4067113492618597E-3</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>7.3391299475035054E-4</v>
+        <v>1.7700474407548728E-3</v>
       </c>
       <c r="K16" s="6" cm="1">
         <f t="array" ref="K16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>340.31</v>
+        <v>343.61</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="1"/>
-        <v>0.5379611872621004</v>
+        <v>0.56296972324844285</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>0.2497579312434918</v>
+        <v>0.60820600111778189</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2287,7 +2384,7 @@
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,CHOOSE({1,2},F17:F61,J17:J61),2,FALSE)</f>
-        <v>3.2346398134012158E-3</v>
+        <v>7.8174214363417108E-3</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>37</v>
@@ -2298,31 +2395,31 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.43999999999999773</v>
+        <v>0.54999999999999716</v>
       </c>
       <c r="H17" s="9">
-        <f>VLOOKUP(F17,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>6.9671888524978362E-3</v>
+        <f>VLOOKUP(F17,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>7.2359884224185243E-3</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0655630950990323E-3</v>
+        <v>3.979793632330168E-3</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>3.2346398134012158E-3</v>
+        <v>7.8174214363417108E-3</v>
       </c>
       <c r="K17" s="6" cm="1">
         <f t="array" ref="K17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>80.09</v>
+        <v>80.64</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>0.55800215519655172</v>
+        <v>0.58351010638382983</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>0.25906230265530339</v>
+        <v>0.63039686462659561</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2337,7 +2434,7 @@
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,CHOOSE({1,2},F18:F62,J18:J62),2,FALSE)</f>
-        <v>3.0184771803320339E-3</v>
+        <v>7.2945314452984023E-3</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>39</v>
@@ -2348,31 +2445,31 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.37000000000000455</v>
+        <v>1.4200000000000159</v>
       </c>
       <c r="H18" s="9">
-        <f>VLOOKUP(F18,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>6.5015895974566444E-3</v>
+        <f>VLOOKUP(F18,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>6.7519891968172855E-3</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="2"/>
-        <v>-2.405588151058988E-3</v>
+        <v>9.5878246594806524E-3</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>3.0184771803320339E-3</v>
+        <v>7.2945314452984023E-3</v>
       </c>
       <c r="K18" s="6" cm="1">
         <f t="array" ref="K18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>194.67</v>
+        <v>196.09</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="1"/>
-        <v>1.265664446936885</v>
+        <v>1.3239975616039015</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>0.58760695269523699</v>
+        <v>1.4303846711085637</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2387,7 +2484,7 @@
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,CHOOSE({1,2},F19:F63,J19:J63),2,FALSE)</f>
-        <v>4.1579736721812617E-3</v>
+        <v>1.0045537794870061E-2</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>41</v>
@@ -2398,31 +2495,31 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.14999999999999858</v>
+        <v>-0.24000000000000199</v>
       </c>
       <c r="H19" s="9">
-        <f>VLOOKUP(F19,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>8.9559856704229269E-3</v>
+        <f>VLOOKUP(F19,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>9.2983851225838035E-3</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3433978505634264E-3</v>
+        <v>-2.2316124294201314E-3</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>4.1579736721812617E-3</v>
+        <v>1.0045537794870061E-2</v>
       </c>
       <c r="K19" s="6" cm="1">
         <f t="array" ref="K19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>44</v>
+        <v>43.76</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>0.39406336949860876</v>
+        <v>0.40689733296426722</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>0.18295084157597552</v>
+        <v>0.43959273390351383</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2437,7 +2534,7 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,CHOOSE({1,2},F20:F64,J20:J64),2,FALSE)</f>
-        <v>6.4421664443040632E-3</v>
+        <v>1.5564836113552003E-2</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>43</v>
@@ -2448,31 +2545,31 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.6900000000000048</v>
+        <v>0.86000000000000654</v>
       </c>
       <c r="H20" s="9">
-        <f>VLOOKUP(F20,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>1.3875977798435522E-2</v>
+        <f>VLOOKUP(F20,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>1.4407176948516882E-2</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3450402479356099E-2</v>
+        <v>1.2390172175724613E-2</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>6.4421664443040632E-3</v>
+        <v>1.5564836113552003E-2</v>
       </c>
       <c r="K20" s="6" cm="1">
         <f t="array" ref="K20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>35.909999999999997</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="1"/>
-        <v>0.49828636274181953</v>
+        <v>0.52975189639696585</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>0.23133819701495889</v>
+        <v>0.5723190238953072</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2487,7 +2584,7 @@
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,CHOOSE({1,2},F21:F65,J21:J65),2,FALSE)</f>
-        <v>1.0362435502801002E-3</v>
+        <v>2.5038219901693686E-3</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>45</v>
@@ -2498,31 +2595,31 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.6899999999999977</v>
+        <v>7.5699999999999932</v>
       </c>
       <c r="H21" s="9">
-        <f>VLOOKUP(F21,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>2.231996428805714E-3</v>
+        <f>VLOOKUP(F21,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>2.3175962918459332E-3</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>3.7720739646816518E-3</v>
+        <v>1.7544203929273697E-2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1.0362435502801002E-3</v>
+        <v>2.5038219901693686E-3</v>
       </c>
       <c r="K21" s="6" cm="1">
         <f t="array" ref="K21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>228.25</v>
+        <v>235.82</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>0.50945318487490421</v>
+        <v>0.5465355575431079</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.23652259035143286</v>
+        <v>0.59045130172174054</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2537,7 +2634,7 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,CHOOSE({1,2},F22:F66,J22:J66),2,FALSE)</f>
-        <v>1.6895598244531093E-3</v>
+        <v>4.0802704920916769E-3</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>47</v>
@@ -2548,31 +2645,31 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-12.909999999999968</v>
+        <v>8.5299999999999727</v>
       </c>
       <c r="H22" s="9">
-        <f>VLOOKUP(F22,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>3.6391941772893161E-3</v>
+        <f>VLOOKUP(F22,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>3.7767939571296686E-3</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="2"/>
-        <v>-4.6981996828804953E-2</v>
+        <v>3.2216052454315969E-2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>1.6895598244531093E-3</v>
+        <v>4.0802704920916769E-3</v>
       </c>
       <c r="K22" s="6" cm="1">
         <f t="array" ref="K22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>763.46</v>
+        <v>771.99</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>2.7783791865933014</v>
+        <v>2.9156471669645327</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>1.2899113435769709</v>
+        <v>3.1499280171898536</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2587,7 +2684,7 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,CHOOSE({1,2},F23:F67,J23:J67),2,FALSE)</f>
-        <v>3.3735484470229925E-3</v>
+        <v>8.1475767695293865E-3</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>49</v>
@@ -2598,31 +2695,31 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>9.9999999999994316E-2</v>
+        <v>-1.3100000000000023</v>
       </c>
       <c r="H23" s="9">
-        <f>VLOOKUP(F23,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>7.2663883737786022E-3</v>
+        <f>VLOOKUP(F23,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>7.5415879334593061E-3</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="2"/>
-        <v>7.2663883737781893E-4</v>
+        <v>-9.8794801928317084E-3</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>3.3735484470229925E-3</v>
+        <v>8.1475767695293865E-3</v>
       </c>
       <c r="K23" s="6" cm="1">
         <f t="array" ref="K23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>76.63</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>0.5568233410826543</v>
+        <v>0.56803240314815484</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>0.25851501749537192</v>
+        <v>0.61367548228095337</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2637,7 +2734,7 @@
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,CHOOSE({1,2},F24:F68,J24:J68),2,FALSE)</f>
-        <v>1.7081304973971974E-3</v>
+        <v>4.1260773838690248E-3</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>51</v>
@@ -2648,31 +2745,31 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-7.8899999999999864</v>
+        <v>-2.8099999999999454</v>
       </c>
       <c r="H24" s="9">
-        <f>VLOOKUP(F24,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>3.6791941132894189E-3</v>
+        <f>VLOOKUP(F24,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>3.819193889289777E-3</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9028841553853466E-2</v>
+        <v>-1.0731934828904065E-2</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>1.7081304973971974E-3</v>
+        <v>4.1260773838690248E-3</v>
       </c>
       <c r="K24" s="6" cm="1">
         <f t="array" ref="K24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>527.75</v>
+        <v>524.94000000000005</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="1"/>
-        <v>1.9416946932884909</v>
+        <v>2.0048476402437756</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>0.90146587000137091</v>
+        <v>2.1659430618882061</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2687,7 +2784,7 @@
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,CHOOSE({1,2},F25:F69,J25:J69),2,FALSE)</f>
-        <v>1.7255869299646399E-3</v>
+        <v>4.1675628707617167E-3</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>53</v>
@@ -2698,31 +2795,31 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.2900000000000063</v>
+        <v>-0.28000000000000114</v>
       </c>
       <c r="H25" s="9">
-        <f>VLOOKUP(F25,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>3.7167940531295149E-3</v>
+        <f>VLOOKUP(F25,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>3.8575938278498753E-3</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="2"/>
-        <v>4.7946643285370974E-3</v>
+        <v>-1.0801262717979694E-3</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>1.7255869299646399E-3</v>
+        <v>4.1675628707617167E-3</v>
       </c>
       <c r="K25" s="6" cm="1">
         <f t="array" ref="K25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>109.06</v>
+        <v>108.78</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>0.4053535594343049</v>
+        <v>0.41962905659350946</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>0.18819251058194364</v>
+        <v>0.45334748908145955</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2737,7 +2834,7 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,CHOOSE({1,2},F26:F70,J26:J70),2,FALSE)</f>
-        <v>9.5130129223384239E-3</v>
+        <v>2.2982095457574622E-2</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>55</v>
@@ -2748,31 +2845,31 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1</v>
+        <v>-7.9999999999998295E-2</v>
       </c>
       <c r="H26" s="9">
-        <f>VLOOKUP(F26,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>2.0490367215412454E-2</v>
+        <f>VLOOKUP(F26,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>2.1272765963574459E-2</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>2.0490367215412454E-2</v>
+        <v>-1.7018212770859205E-3</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>9.5130129223384239E-3</v>
+        <v>2.2982095457574622E-2</v>
       </c>
       <c r="K26" s="6" cm="1">
         <f t="array" ref="K26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>55.17</v>
+        <v>55.09</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="1"/>
-        <v>1.130453559274305</v>
+        <v>1.1719166769333169</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>0.52483292292541084</v>
+        <v>1.2660836387577861</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2787,7 +2884,7 @@
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,CHOOSE({1,2},F27:F71,J27:J71),2,FALSE)</f>
-        <v>1.9001512556390654E-3</v>
+        <v>4.5910605494579515E-3</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>57</v>
@@ -2798,31 +2895,31 @@
       </c>
       <c r="G27" s="2" cm="1">
         <f t="array" ref="G27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.99000000000000909</v>
+        <v>7.7199999999999989</v>
       </c>
       <c r="H27" s="9">
-        <f>VLOOKUP(F27,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>4.0927934515304779E-3</v>
+        <f>VLOOKUP(F27,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>4.249593200650879E-3</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>-4.0518655170152101E-3</v>
+        <v>3.2806859509024781E-2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>1.9001512556390654E-3</v>
+        <v>4.5910605494579515E-3</v>
       </c>
       <c r="K27" s="6" cm="1">
         <f t="array" ref="K27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>207.81</v>
+        <v>215.53</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="1"/>
-        <v>0.85052340716254859</v>
+        <v>0.91591482253628398</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>0.39487043243435416</v>
+        <v>0.98951128022467227</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2837,7 +2934,7 @@
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,CHOOSE({1,2},F28:F72,J28:J72),2,FALSE)</f>
-        <v>4.2452558350184746E-4</v>
+        <v>1.0259015196172042E-3</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
@@ -2848,31 +2945,31 @@
       </c>
       <c r="G28" s="2" cm="1">
         <f t="array" ref="G28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-17.879999999999995</v>
+        <v>7.1899999999999409</v>
       </c>
       <c r="H28" s="9">
-        <f>VLOOKUP(F28,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>9.1439853696234088E-4</v>
+        <f>VLOOKUP(F28,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>9.4959848064243098E-4</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6349445840886649E-2</v>
+        <v>6.8276130758190227E-3</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>4.2452558350184746E-4</v>
+        <v>1.0259015196172042E-3</v>
       </c>
       <c r="K28" s="6" cm="1">
         <f t="array" ref="K28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>905.12</v>
+        <v>912.31</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="1"/>
-        <v>0.82764040377535397</v>
+        <v>0.86632818987489613</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>0.38424659613919215</v>
+        <v>0.93594021536197147</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2887,7 +2984,7 @@
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,CHOOSE({1,2},F29:F73,J29:J73),2,FALSE)</f>
-        <v>4.5085879773656403E-3</v>
+        <v>1.0898583119101048E-2</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>61</v>
@@ -2898,31 +2995,31 @@
       </c>
       <c r="G29" s="2" cm="1">
         <f t="array" ref="G29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.7400000000000091</v>
+        <v>1.1599999999999966</v>
       </c>
       <c r="H29" s="9">
-        <f>VLOOKUP(F29,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>9.7111844621048608E-3</v>
+        <f>VLOOKUP(F29,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>1.0087983859225826E-2</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6897460964062545E-2</v>
+        <v>1.1702061276701923E-2</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>4.5085879773656403E-3</v>
+        <v>1.0898583119101048E-2</v>
       </c>
       <c r="K29" s="6" cm="1">
         <f t="array" ref="K29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>178.26</v>
+        <v>179.42</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="1"/>
-        <v>1.7311157422148125</v>
+        <v>1.8099860640222976</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>0.80370089284519897</v>
+        <v>1.9554237832291099</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2937,7 +3034,7 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,CHOOSE({1,2},F30:F74,J30:J74),2,FALSE)</f>
-        <v>1.928007265055197E-3</v>
+        <v>4.6602030276124383E-3</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>63</v>
@@ -2948,31 +3045,31 @@
       </c>
       <c r="G30" s="2" cm="1">
         <f t="array" ref="G30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.1399999999999864</v>
+        <v>0.76000000000001933</v>
       </c>
       <c r="H30" s="9">
-        <f>VLOOKUP(F30,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>4.1527933555306311E-3</v>
+        <f>VLOOKUP(F30,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>4.3135930982510428E-3</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>1.3039771136366125E-2</v>
+        <v>3.278330754670876E-3</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>1.928007265055197E-3</v>
+        <v>4.6602030276124383E-3</v>
       </c>
       <c r="K30" s="6" cm="1">
         <f t="array" ref="K30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>255.67</v>
+        <v>256.43</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="1"/>
-        <v>1.0617446772085164</v>
+        <v>1.1061346781845149</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>0.4929336174566622</v>
+        <v>1.1950158623706575</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2987,7 +3084,7 @@
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,CHOOSE({1,2},F31:F75,J31:J75),2,FALSE)</f>
-        <v>1.0666994539084041E-3</v>
+        <v>2.577285873208511E-3</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>65</v>
@@ -2998,31 +3095,31 @@
       </c>
       <c r="G31" s="2" cm="1">
         <f t="array" ref="G31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.9099999999999966</v>
+        <v>3.7999999999999829</v>
       </c>
       <c r="H31" s="9">
-        <f>VLOOKUP(F31,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>2.2975963238458818E-3</v>
+        <f>VLOOKUP(F31,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>2.3855961830461072E-3</v>
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3884089785456264E-3</v>
+        <v>9.0652654955751671E-3</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>1.0666994539084041E-3</v>
+        <v>2.577285873208511E-3</v>
       </c>
       <c r="K31" s="6" cm="1">
         <f t="array" ref="K31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>169.09</v>
+        <v>172.89</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="1"/>
-        <v>0.38850056239910014</v>
+        <v>0.41244572408684144</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>0.18036821066137204</v>
+        <v>0.44558695461901943</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3037,7 +3134,7 @@
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,CHOOSE({1,2},F32:F76,J32:J76),2,FALSE)</f>
-        <v>2.9817072479027397E-3</v>
+        <v>7.2063747856514308E-3</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>67</v>
@@ -3048,31 +3145,31 @@
       </c>
       <c r="G32" s="2" cm="1">
         <f t="array" ref="G32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>12.610000000000014</v>
+        <v>6.2699999999999818</v>
       </c>
       <c r="H32" s="9">
-        <f>VLOOKUP(F32,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>6.4223897241764416E-3</v>
+        <f>VLOOKUP(F32,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>6.6703893273770765E-3</v>
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>8.0986334421865022E-2</v>
+        <v>4.1823341082654147E-2</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>2.9817072479027397E-3</v>
+        <v>7.2063747856514308E-3</v>
       </c>
       <c r="K32" s="6" cm="1">
         <f t="array" ref="K32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>173.27</v>
+        <v>179.54</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="1"/>
-        <v>1.1128074675080522</v>
+        <v>1.1976016998372803</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>0.51664041484410772</v>
+        <v>1.2938325290158579</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3087,7 +3184,7 @@
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,CHOOSE({1,2},F33:F77,J33:J77),2,FALSE)</f>
-        <v>3.4693731194144857E-3</v>
+        <v>8.3843897572085067E-3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>69</v>
@@ -3098,31 +3195,31 @@
       </c>
       <c r="G33" s="2" cm="1">
         <f t="array" ref="G33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.28000000000000114</v>
+        <v>1.4600000000000009</v>
       </c>
       <c r="H33" s="9">
-        <f>VLOOKUP(F33,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>7.4727880435391299E-3</v>
+        <f>VLOOKUP(F33,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>7.7607875827398675E-3</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0923806521909649E-3</v>
+        <v>1.1330749870800213E-2</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>3.4693731194144857E-3</v>
+        <v>8.3843897572085067E-3</v>
       </c>
       <c r="K33" s="6" cm="1">
         <f t="array" ref="K33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>55.97</v>
+        <v>57.43</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="1"/>
-        <v>0.4182519467968851</v>
+        <v>0.44570203087675059</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.19418081349362876</v>
+        <v>0.48151550375648455</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3137,7 +3234,7 @@
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,CHOOSE({1,2},F34:F78,J34:J78),2,FALSE)</f>
-        <v>9.3633332984090754E-4</v>
+        <v>2.2626875976055941E-3</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>71</v>
@@ -3148,31 +3245,31 @@
       </c>
       <c r="G34" s="2" cm="1">
         <f t="array" ref="G34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.79999999999998295</v>
+        <v>-0.87000000000000455</v>
       </c>
       <c r="H34" s="9">
-        <f>VLOOKUP(F34,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>2.0167967731251628E-3</v>
+        <f>VLOOKUP(F34,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>2.0943966489653616E-3</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6134374185000958E-3</v>
+        <v>-1.8221250845998742E-3</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>9.3633332984090754E-4</v>
+        <v>2.2626875976055941E-3</v>
       </c>
       <c r="K34" s="6" cm="1">
         <f t="array" ref="K34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>146.71</v>
+        <v>145.84</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="1"/>
-        <v>0.29588425458519263</v>
+        <v>0.30544680728510837</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>0.13736946282095955</v>
+        <v>0.32999035923479986</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3187,7 +3284,7 @@
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,CHOOSE({1,2},F35:F79,J35:J79),2,FALSE)</f>
-        <v>3.2799522553847902E-3</v>
+        <v>7.9349636492043393E-3</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>73</v>
@@ -3198,31 +3295,31 @@
       </c>
       <c r="G35" s="2" cm="1">
         <f t="array" ref="G35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-3.5899999999999892</v>
+        <v>7.0299999999999869</v>
       </c>
       <c r="H35" s="9">
-        <f>VLOOKUP(F35,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>7.0647886963380859E-3</v>
+        <f>VLOOKUP(F35,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>7.3447882483388023E-3</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>-2.5362591419853652E-2</v>
+        <v>5.1633861385821683E-2</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>3.2799522553847902E-3</v>
+        <v>7.9349636492043393E-3</v>
       </c>
       <c r="K35" s="6" cm="1">
         <f t="array" ref="K35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>127.11</v>
+        <v>134.13999999999999</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="1"/>
-        <v>0.89800529119153405</v>
+        <v>0.9852298956321669</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>0.41691473118196065</v>
+        <v>1.06439602390427</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3237,7 +3334,7 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,CHOOSE({1,2},F36:F80,J36:J80),2,FALSE)</f>
-        <v>1.1992940587291911E-3</v>
+        <v>2.8979341156499454E-3</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>75</v>
@@ -3248,31 +3345,31 @@
       </c>
       <c r="G36" s="2" cm="1">
         <f t="array" ref="G36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.4620600000000081</v>
+        <v>4.0224900000000048</v>
       </c>
       <c r="H36" s="9">
-        <f>VLOOKUP(F36,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>2.5831958668866128E-3</v>
+        <f>VLOOKUP(F36,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>2.6823957081668669E-3</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" si="2"/>
-        <v>6.3599832160268748E-3</v>
+        <v>1.0789909912144154E-2</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>1.1992940587291911E-3</v>
+        <v>2.8979341156499454E-3</v>
       </c>
       <c r="K36" s="6" cm="1">
         <f t="array" ref="K36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>285.57369</v>
+        <v>289.59618</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="1"/>
-        <v>0.73769277569955882</v>
+        <v>0.77681155033351945</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>0.34248682974637179</v>
+        <v>0.83923064978390238</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3287,7 +3384,7 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,CHOOSE({1,2},F37:F81,J37:J81),2,FALSE)</f>
-        <v>2.2849355990405651E-3</v>
+        <v>5.5253482855204599E-3</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>77</v>
@@ -3298,31 +3395,31 @@
       </c>
       <c r="G37" s="2" cm="1">
         <f t="array" ref="G37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.7900000000000063</v>
+        <v>27.900000000000006</v>
       </c>
       <c r="H37" s="9">
-        <f>VLOOKUP(F37,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>4.9215921254525995E-3</v>
+        <f>VLOOKUP(F37,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>5.1143918169730927E-3</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="2"/>
-        <v>8.8096499045601847E-3</v>
+        <v>0.14269153169354931</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>2.2849355990405651E-3</v>
+        <v>5.5253482855204599E-3</v>
       </c>
       <c r="K37" s="6" cm="1">
         <f t="array" ref="K37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>127</v>
+        <v>154.9</v>
       </c>
       <c r="L37" s="6">
         <f t="shared" si="1"/>
-        <v>0.62504219993248011</v>
+        <v>0.79221929244913214</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.29018682107815175</v>
+        <v>0.85587644942711927</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3337,7 +3434,7 @@
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,CHOOSE({1,2},F38:F82,J38:J82),2,FALSE)</f>
-        <v>1.4789683932671536E-3</v>
+        <v>3.5729375586331272E-3</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>79</v>
@@ -3348,31 +3445,31 @@
       </c>
       <c r="G38" s="2" cm="1">
         <f t="array" ref="G38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.7099999999999795</v>
+        <v>4.7699999999999818</v>
       </c>
       <c r="H38" s="9">
-        <f>VLOOKUP(F38,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>3.1855949030481553E-3</v>
+        <f>VLOOKUP(F38,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>3.3071947084884665E-3</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>-8.6329621872604356E-3</v>
+        <v>1.5775318759489926E-2</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>1.4789683932671536E-3</v>
+        <v>3.5729375586331272E-3</v>
       </c>
       <c r="K38" s="6" cm="1">
         <f t="array" ref="K38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>205.77</v>
+        <v>210.54</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="1"/>
-        <v>0.65549986320021891</v>
+        <v>0.69629677392516176</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>0.30432732628258224</v>
+        <v>0.7522462735946186</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3387,7 +3484,7 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,CHOOSE({1,2},F39:F83,J39:J83),2,FALSE)</f>
-        <v>2.8635977679783415E-4</v>
+        <v>6.9228906252180328E-4</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>81</v>
@@ -3398,31 +3495,31 @@
       </c>
       <c r="G39" s="2" cm="1">
         <f t="array" ref="G39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-7.5199999999999818</v>
+        <v>-2.6200000000000045</v>
       </c>
       <c r="H39" s="9">
-        <f>VLOOKUP(F39,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>6.1679901312157903E-4</v>
+        <f>VLOOKUP(F39,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>6.4079897472164046E-4</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="2"/>
-        <v>-4.6383285786742627E-3</v>
+        <v>-1.6788933137707009E-3</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>2.8635977679783415E-4</v>
+        <v>6.9228906252180328E-4</v>
       </c>
       <c r="K39" s="6" cm="1">
         <f t="array" ref="K39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>628.5</v>
+        <v>625.88</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="1"/>
-        <v>0.38765817974691241</v>
+        <v>0.40106326229878031</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>0.17997711971743877</v>
+        <v>0.43328987845114625</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3437,7 +3534,7 @@
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,CHOOSE({1,2},F40:F84,J40:J84),2,FALSE)</f>
-        <v>1.0696707615794581E-3</v>
+        <v>2.5850644020008911E-3</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>83</v>
@@ -3448,31 +3545,31 @@
       </c>
       <c r="G40" s="2" cm="1">
         <f t="array" ref="G40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.25</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="H40" s="9">
-        <f>VLOOKUP(F40,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>2.3039963136058982E-3</v>
+        <f>VLOOKUP(F40,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>2.3927961715261258E-3</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="2"/>
-        <v>-5.7599907840147455E-4</v>
+        <v>1.4356777029157297E-4</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>1.0696707615794581E-3</v>
+        <v>2.5850644020008911E-3</v>
       </c>
       <c r="K40" s="6" cm="1">
         <f t="array" ref="K40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>185.44</v>
+        <v>185.5</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="1"/>
-        <v>0.42725307639507776</v>
+        <v>0.44386368981809632</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>0.19835974602729473</v>
+        <v>0.47952944657116531</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3487,7 +3584,7 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,CHOOSE({1,2},F41:F85,J41:J85),2,FALSE)</f>
-        <v>4.368565103367218E-3</v>
+        <v>1.0571020628844165E-2</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>85</v>
@@ -3498,31 +3595,31 @@
       </c>
       <c r="G41" s="2" cm="1">
         <f t="array" ref="G41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.21999999999999886</v>
+        <v>-2.2100000000000009</v>
       </c>
       <c r="H41" s="9">
-        <f>VLOOKUP(F41,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>9.4095849446640886E-3</v>
+        <f>VLOOKUP(F41,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>9.7847843443450485E-3</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="2"/>
-        <v>2.0701086878260888E-3</v>
+        <v>-2.1624373401002567E-2</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>4.368565103367218E-3</v>
+        <v>1.0571020628844165E-2</v>
       </c>
       <c r="K41" s="6" cm="1">
         <f t="array" ref="K41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>57.74</v>
+        <v>55.53</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="1"/>
-        <v>0.54330943470490445</v>
+        <v>0.54334907464148052</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>0.2522409490684232</v>
+        <v>0.58700877551971653</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3537,7 +3634,7 @@
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,CHOOSE({1,2},F42:F86,J42:J86),2,FALSE)</f>
-        <v>1.3378312788920863E-3</v>
+        <v>3.2341394156761394E-3</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>87</v>
@@ -3548,31 +3645,31 @@
       </c>
       <c r="G42" s="2" cm="1">
         <f t="array" ref="G42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.53999999999996362</v>
+        <v>11.189999999999998</v>
       </c>
       <c r="H42" s="9">
-        <f>VLOOKUP(F42,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>2.8815953894473769E-3</v>
+        <f>VLOOKUP(F42,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>2.9935952102476634E-3</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5560615103014787E-3</v>
+        <v>3.3498330402671347E-2</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>1.3378312788920863E-3</v>
+        <v>3.2341394156761394E-3</v>
       </c>
       <c r="K42" s="6" cm="1">
         <f t="array" ref="K42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>308.72000000000003</v>
+        <v>319.91000000000003</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="1"/>
-        <v>0.88960612863019428</v>
+        <v>0.95768104371033003</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>0.41301527241956493</v>
+        <v>1.0346335404689537</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3587,7 +3684,7 @@
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,CHOOSE({1,2},F43:F87,J43:J87),2,FALSE)</f>
-        <v>1.7872415641390113E-3</v>
+        <v>4.3179477607477269E-3</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>89</v>
@@ -3598,31 +3695,31 @@
       </c>
       <c r="G43" s="2" cm="1">
         <f t="array" ref="G43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.4399999999999977</v>
+        <v>0.99000000000000909</v>
       </c>
       <c r="H43" s="9">
-        <f>VLOOKUP(F43,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>3.849593840649855E-3</v>
+        <f>VLOOKUP(F43,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>3.9967936051302317E-3</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="2"/>
-        <v>-5.5434151305357822E-3</v>
+        <v>3.9568256690789656E-3</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>1.7872415641390113E-3</v>
+        <v>4.3179477607477269E-3</v>
       </c>
       <c r="K43" s="6" cm="1">
         <f t="array" ref="K43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>138.76</v>
+        <v>139.75</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="1"/>
-        <v>0.53416964132857381</v>
+        <v>0.55855190631694984</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>0.2479976394399292</v>
+        <v>0.60343319956449482</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3637,7 +3734,7 @@
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,CHOOSE({1,2},F44:F88,J44:J88),2,FALSE)</f>
-        <v>9.1739124343793814E-4</v>
+        <v>2.2168807058282466E-3</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>91</v>
@@ -3648,31 +3745,31 @@
       </c>
       <c r="G44" s="2" cm="1">
         <f t="array" ref="G44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.14000000000001478</v>
+        <v>4.1000000000000227</v>
       </c>
       <c r="H44" s="9">
-        <f>VLOOKUP(F44,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>1.9759968384050587E-3</v>
+        <f>VLOOKUP(F44,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>2.0519967168052531E-3</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7663955737673745E-4</v>
+        <v>8.4131865389015844E-3</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>9.1739124343793814E-4</v>
+        <v>2.2168807058282466E-3</v>
       </c>
       <c r="K44" s="6" cm="1">
         <f t="array" ref="K44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>224.98</v>
+        <v>229.08</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="1"/>
-        <v>0.44455976870437008</v>
+        <v>0.47007140788574742</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.20639468194866731</v>
+        <v>0.50784303209113479</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3687,7 +3784,7 @@
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,CHOOSE({1,2},F45:F89,J45:J89),2,FALSE)</f>
-        <v>7.3391299475035054E-4</v>
+        <v>1.7709117217318039E-3</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>93</v>
@@ -3698,31 +3795,31 @@
       </c>
       <c r="G45" s="2" cm="1">
         <f t="array" ref="G45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-3.9000000000000341</v>
+        <v>7.3600000000000136</v>
       </c>
       <c r="H45" s="9">
-        <f>VLOOKUP(F45,'07_30_2025_agix_holdings'!$D$3:$E$48,2,FALSE)/$P$2</f>
-        <v>1.5807974707240469E-3</v>
+        <f>VLOOKUP(F45,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
+        <v>1.6391973772841963E-3</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="2"/>
-        <v>-6.1651101358238371E-3</v>
+        <v>1.2064492696811707E-2</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>7.3391299475035054E-4</v>
+        <v>1.7709117217318039E-3</v>
       </c>
       <c r="K45" s="6" cm="1">
         <f t="array" ref="K45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>281.95999999999998</v>
+        <v>289.32</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="1"/>
-        <v>0.4457216548453522</v>
+        <v>0.47425258519586366</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>0.20693410799980883</v>
+        <v>0.51236017933144551</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3749,962 +3846,1163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69862999-B0FF-44F5-A747-2A793E7FABEE}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="17"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="17">
-        <v>6.98</v>
+      <c r="C3">
+        <v>7.76</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="17">
+        <v>4721</v>
+      </c>
+      <c r="G3" s="17">
+        <v>3604295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>5.42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="17">
+        <v>4774</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2519479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>4.84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="17">
+        <v>12610</v>
+      </c>
+      <c r="G5" s="17">
+        <v>2247859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>4.71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="17">
+        <v>10234</v>
+      </c>
+      <c r="G6" s="17">
+        <v>2187518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>3.54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="17">
+        <v>8440</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1643015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>3.26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1515465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>3.23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1500020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>3.16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="17">
+        <v>26591</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1467025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>3.11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="17">
+        <v>8338</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1444725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>3.02</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="17">
+        <v>6908</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1401771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>2.97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="17">
+        <v>5392</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1378573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>2.79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="17">
+        <v>4418</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1294165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="17">
+        <v>9181</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1166997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3742</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1155230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>2.38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="17">
+        <v>5312</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1103887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>2.37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="17">
+        <v>4451</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1101578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="17">
+        <v>28000</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1076401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>2.31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1187</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1074377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>2.06</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="17">
+        <v>3353</v>
+      </c>
+      <c r="G21" s="17">
+        <v>956532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1.9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="17">
+        <v>4645</v>
+      </c>
+      <c r="G22" s="17">
+        <v>881687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23">
+        <v>1.83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="17">
+        <v>4134</v>
+      </c>
+      <c r="G23" s="17">
+        <v>850653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24">
+        <v>1.76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="17">
+        <v>6144</v>
+      </c>
+      <c r="G24" s="17">
+        <v>816783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25">
+        <v>1.75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="17">
+        <v>6393</v>
+      </c>
+      <c r="G25" s="17">
+        <v>812301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>1.64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="17">
+        <v>2253</v>
+      </c>
+      <c r="G26" s="17">
+        <v>763181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>1.56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="17">
+        <v>9045</v>
+      </c>
+      <c r="G27" s="17">
+        <v>724414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>1.55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="17">
+        <v>9427</v>
+      </c>
+      <c r="G28" s="17">
+        <v>722391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29">
+        <v>1.52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="17">
+        <v>12231</v>
+      </c>
+      <c r="G29" s="17">
+        <v>706218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>1.52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="17">
+        <v>1864</v>
+      </c>
+      <c r="G30" s="17">
+        <v>704462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31">
+        <v>1.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="17">
+        <v>2048</v>
+      </c>
+      <c r="G31" s="17">
+        <v>696955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32">
+        <v>1.49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4996</v>
+      </c>
+      <c r="G32" s="17">
+        <v>693245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>1.42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="17">
+        <v>2897</v>
+      </c>
+      <c r="G33" s="17">
+        <v>661240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34">
+        <v>1.39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="17">
+        <v>18009</v>
+      </c>
+      <c r="G34" s="17">
+        <v>646703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>1.34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="17">
+        <v>5280</v>
+      </c>
+      <c r="G35" s="17">
+        <v>623674</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36">
+        <v>1.24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="17">
+        <v>2049</v>
+      </c>
+      <c r="G36" s="17">
+        <v>577736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37">
+        <v>1.24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="17">
+        <v>2565</v>
+      </c>
+      <c r="G37" s="17">
+        <v>577074</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>1.19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38">
+        <v>804</v>
+      </c>
+      <c r="G38" s="17">
+        <v>555249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39">
+        <v>1.19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="17">
+        <v>2991</v>
+      </c>
+      <c r="G39" s="17">
+        <v>554651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40">
+        <v>1.17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="17">
+        <v>9701</v>
+      </c>
+      <c r="G40" s="17">
+        <v>542965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="17">
+        <v>4822</v>
+      </c>
+      <c r="G41" s="17">
+        <v>525887</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="17">
+        <v>11623</v>
+      </c>
+      <c r="G42" s="17">
+        <v>511412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="17">
+        <v>2982</v>
+      </c>
+      <c r="G43" s="17">
+        <v>504226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44">
+        <v>1.08</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44">
+        <v>801</v>
+      </c>
+      <c r="G44" s="17">
+        <v>503429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45">
+        <v>0.84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="17">
+        <v>2844</v>
+      </c>
+      <c r="G45" s="17">
+        <v>390282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>0.83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="17">
+        <v>2618</v>
+      </c>
+      <c r="G46" s="17">
+        <v>384087</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <v>0.73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="17">
+        <v>19866</v>
+      </c>
+      <c r="G47" s="17">
+        <v>340702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="E3" s="19">
-        <v>4549</v>
-      </c>
-      <c r="F3" s="19">
-        <v>3162510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="17">
-        <v>5.21</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="17">
+        <v>6000</v>
+      </c>
+      <c r="G48" s="17">
+        <v>268766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49">
+        <v>0.19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="17">
+        <v>86477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50">
         <v>50</v>
       </c>
-      <c r="E4" s="19">
-        <v>4599</v>
-      </c>
-      <c r="F4" s="19">
-        <v>2360391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="17">
-        <v>5.01</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="19">
-        <v>9862</v>
-      </c>
-      <c r="F5" s="19">
-        <v>2270134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51">
         <v>4</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="17">
-        <v>4.8</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="19">
-        <v>12139</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2176159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="17">
-        <v>3.52</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="19">
-        <v>8127</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1597199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="17">
-        <v>3.31</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="F8" s="19">
-        <v>1500020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="17">
-        <v>3.07</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="19">
-        <v>6653</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1390810</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2.9</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="19">
-        <v>25613</v>
-      </c>
-      <c r="F10" s="19">
-        <v>1313691</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2.87</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="19">
-        <v>5191</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1300865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="17">
-        <v>2.84</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="19">
-        <v>4255</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1287648</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="17">
-        <v>2.81</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="19">
-        <v>8028</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1273321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="17">
-        <v>2.64</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="F14" s="19">
-        <v>1194543</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>13</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="17">
-        <v>2.54</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="19">
-        <v>3602</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1149182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="17">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="19">
-        <v>4288</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1135505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="17">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1143</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1117260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>16</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="17">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="19">
-        <v>8831</v>
-      </c>
-      <c r="F18" s="19">
-        <v>1103345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>17</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="17">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="19">
-        <v>27000</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1049788</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>18</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="17">
-        <v>2.27</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="19">
-        <v>5116</v>
-      </c>
-      <c r="F20" s="19">
-        <v>1027549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>19</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="17">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="19">
-        <v>3229</v>
-      </c>
-      <c r="F21" s="19">
-        <v>937844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>20</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="17">
-        <v>1.94</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="19">
-        <v>5918</v>
-      </c>
-      <c r="F22" s="19">
-        <v>881072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>21</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="17">
-        <v>1.94</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="19">
-        <v>3982</v>
-      </c>
-      <c r="F23" s="19">
-        <v>877155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>22</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="17">
-        <v>1.88</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="19">
-        <v>4477</v>
-      </c>
-      <c r="F24" s="19">
-        <v>853055</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>23</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="17">
-        <v>1.74</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="19">
-        <v>2171</v>
-      </c>
-      <c r="F25" s="19">
-        <v>790244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>24</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="17">
-        <v>1.69</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="19">
-        <v>8709</v>
-      </c>
-      <c r="F26" s="19">
-        <v>766305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>25</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="17">
-        <v>1.67</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="19">
-        <v>6152</v>
-      </c>
-      <c r="F27" s="19">
-        <v>758793</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>26</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="17">
-        <v>1.64</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="19">
-        <v>9083</v>
-      </c>
-      <c r="F28" s="19">
-        <v>742444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>27</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="17">
-        <v>1.53</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="19">
-        <v>4812</v>
-      </c>
-      <c r="F29" s="19">
-        <v>693746</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <v>28</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="19">
-        <v>2790</v>
-      </c>
-      <c r="F30" s="19">
-        <v>681764</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
-        <v>29</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="19">
-        <v>11762</v>
-      </c>
-      <c r="F31" s="19">
-        <v>679961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>30</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="17">
-        <v>1.49</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="19">
-        <v>1976</v>
-      </c>
-      <c r="F32" s="19">
-        <v>674488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <v>31</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="17">
-        <v>1.47</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="19">
-        <v>17345</v>
-      </c>
-      <c r="F33" s="19">
-        <v>668303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>32</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="17">
-        <v>1.44</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="19">
-        <v>1795</v>
-      </c>
-      <c r="F34" s="19">
-        <v>652141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>33</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="17">
-        <v>1.37</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="19">
-        <v>5084</v>
-      </c>
-      <c r="F35" s="19">
-        <v>620706</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>34</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="17">
-        <v>1.3</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="19">
-        <v>2470</v>
-      </c>
-      <c r="F36" s="19">
-        <v>587070</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
-        <v>35</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="19">
-        <v>1976</v>
-      </c>
-      <c r="F37" s="19">
-        <v>568554</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <v>36</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="19">
-        <v>2880</v>
-      </c>
-      <c r="F38" s="19">
-        <v>567907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
-        <v>37</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="17">
-        <v>1.23</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="17">
-        <v>776</v>
-      </c>
-      <c r="F39" s="19">
-        <v>559007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
-        <v>38</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="17">
-        <v>1.22</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="19">
-        <v>9341</v>
-      </c>
-      <c r="F40" s="19">
-        <v>553267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
-        <v>39</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="17">
-        <v>1.18</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="19">
-        <v>4646</v>
-      </c>
-      <c r="F41" s="19">
-        <v>533082</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
-        <v>40</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="17">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="19">
-        <v>2872</v>
-      </c>
-      <c r="F42" s="19">
-        <v>525662</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
-        <v>41</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="17">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="19">
-        <v>11195</v>
-      </c>
-      <c r="F43" s="19">
-        <v>516873</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
-        <v>42</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="17">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="19">
-        <v>19119</v>
-      </c>
-      <c r="F44" s="19">
-        <v>504742</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
-        <v>43</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="17">
-        <v>771</v>
-      </c>
-      <c r="F45" s="19">
-        <v>497565</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
-        <v>44</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="17">
-        <v>0.99</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="19">
-        <v>2735</v>
-      </c>
-      <c r="F46" s="19">
-        <v>446694</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
-        <v>45</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="17">
-        <v>0.88</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="19">
-        <v>2521</v>
-      </c>
-      <c r="F47" s="19">
-        <v>400990</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
-        <v>46</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="17">
-        <v>0.62</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="19">
-        <v>6000</v>
-      </c>
-      <c r="F48" s="19">
-        <v>278732</v>
       </c>
     </row>
   </sheetData>

--- a/ciq reference/data/Shares.xlsx
+++ b/ciq reference/data/Shares.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18613\Desktop\cursor\FundsMonitor-CIQ\ciq reference\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F5586-1306-45CA-A52A-D5DF0D517D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B549054E-4C58-4B7B-90FB-E6A26A8DF9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="34" state="veryHidden" r:id="rId1"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="36" state="veryHidden" r:id="rId1"/>
     <sheet name="shares" sheetId="1" r:id="rId2"/>
     <sheet name="08_05_2025_agix_holdings" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"f0f43c21-291a-463a-8d66-7e280ebf2dc8"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"0456f195-9817-4d25-a522-43adbad16d4b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="208">
   <si>
     <t>Ticker</t>
   </si>
@@ -513,33 +513,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BAABTAVMT0NBTAFI/////wFQtAAAACNDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACHY2sBAgAAAAYyMjUuMTIApl2x6YzV3QiCF2byjNXdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAESbhyICAAAABTE0MC4yAKZdsemM1d0I3Ddj8ozV3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAABisEBQIAAAAGMTI1LjIxAKZdsemM1d0I+z9m8ozV3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAaVX0AQIAAAAFMTMwLjcApl2x6YzV3QhScmPyjNXdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAzfgAAAgAAAAMxODAApl2x6YzV3Qj7P2byjNXdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAADT14AQCAAAABTIwOC44AKZdsemM1d0IRIhj8ozV3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADibswCAgAAAAYyMjYuNTYApl2x6YzV3QjsZ2byjNXdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADNhBcRAgAAAAU0NC4xNQCmXbHpjNXdCCX/YvKM1d0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJeABAAIAAAAGMjUyLjMyAKZdsemM1d0IL+5l8ozV3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI1LzgvNC5VU0QBAAAA8LZ9AQIAAAAGMjk3LjcyAKZdsemM1d0IJf9i8ozV3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAA9N1wAAgAAAAs0NC40OTA1MzM1NwCmXbHpjNXdCCX/YvKM1d0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAACP3AHACAAAABzMyLjAyMjcApl2x6YzV3QiNr2PyjNXdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADUiAAAAgAAAAY2MzYuMDIApl2x6YzV3Qgv7mXyjNXdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACDfYQBAgAAAAMxNzEApl2x6YzV3QjlwWXyjNXdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAANq5zg0CAAAABjM5NS4wMQCmXbHpjNXdCOXBZfKM1d0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAGlhAAACAAAABjIwMy4zNQCmXbHpjNXdCGqXZfKM1d0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAALZ5AAACAAAABTc2LjUzAKZdsemM1d0Ighdm8ozV3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAPUkAAAIAAAAGMjExLjY1AKZdsemM1d0I5cFl8ozV3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACrzAUA</t>
-  </si>
-  <si>
-    <t>AgAAAAwzNy45Njc0ODU0MTUApl2x6YzV3Qhql2XyjNXdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA1MyBAwIAAAAGMjg1Ljg2AKZdsemM1d0Iuzll8ozV3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsDxkEAIAAAAGMjA4LjQ4AKZdsemM1d0Iuzll8ozV3QgjQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA51YAAAIAAAAGMjUyLjUzAKZdsemM1d0IHGpl8ozV3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAF9s8AQIAAAAGNzc2LjM3AKZdsemM1d0IHGpl8ozV3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAu6EECAIAAAAGMTM5LjEzAKZdsemM1d0IBAhl8ozV3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAUhMiDwIAAAAGMTg1LjY5AKZdsemM1d0IBAhl8ozV3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAZfqYAgIAAAAGMTYwLjY2AKZdsemM1d0Iuzll8ozV3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAS1UAAAIAAAAGNTM1LjY0AKZdsemM1d0I/K1k8ozV3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAsPCHDAIAAAAGMzUyLjM2AKZdsemM1d0Iidhk8ozV3Qgj</t>
-  </si>
-  <si>
-    <t>Q0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAAV8AAAIAAAAGMzM4Ljg1AKZdsemM1d0Iidhk8ozV3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAZpBAACAAAABjEwNy43NwCmXbHpjNXdCGp5ZPKM1d0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAANMkGQIAAAAFNTcuNTIApl2x6YzV3QhbS2TyjNXdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC4yqUGAgAAAAU1Ni4yNQCmXbHpjNXdCFtLZPKM1d0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAICEWw0CAAAABTgwLjUzAKZdsemM1d0Iq99j8ozV3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAs58UnAgAAAAYxNDAuMDUApl2x6YzV3QgiEGTyjNXdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADD2/wBAgAAAAYxMjAuMzUApl2x6YzV3QhqeWTyjNXdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAo7wUAAgAAAAY2OTkuMzYApl2x6YzV3Qir32PyjNXdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAJ16DQACAAAACjE4Ni4zNDM1OTYApl2x6YzV3Qir32PyjNXdCCNDSVEuVFNMQS5JUV9DTE9TRVBS</t>
-  </si>
-  <si>
-    <t>SUNFLjIwMjUvOC80LlVTRAEAAAAQxqIBAgAAAAYzMDkuMjYApl2x6YzV3Qir32PyjNXdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADVggAAAgAAAAYxNDcuNTEApl2x6YzV3QhbS2TyjNXdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC/+xkDAgAAAAU1NC4xNwCmXbHpjNXdCFtLZPKM1d0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACocQAAAgAAAAYxOTUuMDQApl2x6YzV3QhqeWTyjNXdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAAvuAQACAAAADzI4My4xMTE2MjUyNTUyNQCmXbHpjNXdCESIY/KM1d0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAv3ReAQIAAAADOTIzAKZdsemM1d0IRIhj8ozV3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAC6PvwRAgAAAAQzNy42AKZdsemM1d0IIhBk8ozV3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAJgF6EAIAAAAFMTcuMTIApl2x6YzV3QiNr2PyjNXdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAANq5zg0CAAAABjM3OS4xNwCsRS0nytTdCEkwazTK1N0II0NJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAIdjawEC</t>
-  </si>
-  <si>
-    <t>AAAABjIyMi4yMgCsRS0nytTdCJWobDTK1N0II0NJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAYrBAUCAAAABTExOC42AKxFLSfK1N0IlahsNMrU3QgjQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAM34AAAIAAAAGMTczLjcyAKxFLSfK1N0IlahsNMrU3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADibswCAgAAAAYyMjAuOTcArEUtJ8rU3QiVqGw0ytTdCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAX2zwBAgAAAAY3NTAuMDEArEUtJ8rU3QhJMGs0ytTdCCNDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABpYQAAAgAAAAYyMDIuMzgArEUtJ8rU3QhJMGs0ytTdCCNDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAC2eQAAAgAAAAU3NC40NQCsRS0nytTdCEkwazTK1N0II0NJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAD1JAAACAAAABjIxNC43NQCsRS0nytTdCEhzbDTK1N0IKENJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAq8wFAAIAAAAKMzguMzM2MDc5NgCsRS0nytTdCEhzbDTK1N0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAJeABAAIAAAAGMjUwLjc0AKxFLSfK1N0ISHNsNMrU3Qgj</t>
-  </si>
-  <si>
-    <t>Q0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA1IgAAAIAAAAGNjE4LjY1AKxFLSfK1N0ISHNsNMrU3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAg32EAQIAAAAGMTcyLjg4AKxFLSfK1N0IlahsNMrU3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAsPCHDAIAAAAGMzM4Ljk5AKxFLSfK1N0ISTBrNMrU3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAAV8AAAIAAAAFMzQ3LjgArEUtJ8rU3QhJMGs0ytTdCCNDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAC7oQQIAgAAAAUxMzUuNgCsRS0nytTdCEkwazTK1N0II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAFITIg8CAAAABjE4Mi45NgCsRS0nytTdCEkwazTK1N0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGX6mAICAAAABjE1NC4yNwCsRS0nytTdCEkwazTK1N0IIUNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADUzIEDAgAAAAYyODAuMjcArEUtJ8rU3QhJMGs0ytTdCCNDSVEuU05PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACwPGQQAgAAAAYyMDUuMDIArEUtJ8rU3QhJMGs0ytTdCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEA</t>
-  </si>
-  <si>
-    <t>AADnVgAAAgAAAAYyNDQuNDIArEUtJ8rU3QhJMGs0ytTdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADD2/wBAgAAAAYxMTcuNTcArEUtJ8rU3QhJMGs0ytTdCCJDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAADTJBkCAAAABTU0Ljg5AKxFLSfK1N0ISTBrNMrU3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAZpBAACAAAABjEwNC44OACsRS0nytTdCEkwazTK1N0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAICEWw0CAAAABTc5LjU4AKxFLSfK1N0IL/RqNMrU3QgsQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAKO8FAAIAAAAGNjg5LjgyAKxFLSfK1N0ISTBrNMrU3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACdeg0AAgAAAAoxODUuNjc4MjE0AKxFLSfK1N0IoYxoNMrU3QgjQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAEMaiAQIAAAAGMzAyLjYzAKxFLSfK1N0IoYxoNMrU3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAS1UAAAIAAAAGNTI0LjExAKxFLSfK1N0ISTBrNMrU3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAC6PvwRAgAAAAUzNi4wMQCs</t>
-  </si>
-  <si>
-    <t>RS0nytTdCKGMaDTK1N0II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACYBehACAAAABDE3LjIArEUtJ8rU3Qgv9Go0ytTdCCNDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAj9wBwAgAAAAczMS4zOTAxAKxFLSfK1N0IL/RqNMrU3QgjQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA1YIAAAIAAAAGMTQ4LjE5AKxFLSfK1N0IL/RqNMrU3QgjQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAuMqlBgIAAAAFNTQuNTEArEUtJ8rU3QhJMGs0ytTdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAC/+xkDAgAAAAI1MgCsRS0nytTdCEkwazTK1N0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACocQAAAgAAAAYxODkuMTMArEUtJ8rU3QhJMGs0ytTdCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACznxScCAAAABjEzNy41OACsRS0nytTdCKGMaDTK1N0II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAPC2fQECAAAABjI4OC42NACsRS0nytTdCKGMaDTK1N0IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAPTdcAAIAAAAJNDUuMzk3OTg5AKxFLSfK1N0IoYxoNMrU3QgiQ0lRLlZS</t>
-  </si>
-  <si>
     <t>As of 2025-08-05</t>
   </si>
   <si>
@@ -712,43 +685,55 @@
   </si>
   <si>
     <t>鈥?5</t>
-  </si>
-  <si>
-    <t>VC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABEm4ciAgAAAAYxNDEuNTkArEUtJ8rU3QihjGg0ytTdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABpVfQBAgAAAAYxMjUuMDMArEUtJ8rU3QihjGg0ytTdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAADT14AQCAAAABjIwMC4xMQCsRS0nytTdCKGMaDTK1N0II0NJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAM2EFxECAAAABTQxLjgyAKxFLSfK1N0IoYxoNMrU3QgiQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAL7gEAAgAAAA8yODIuNDczMTU1NDQ1MjUArEUtJ8rU3QihjGg0ytTdCCJDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAL90XgECAAAABjkxNC4zNwCsRS0nytTdCKGMaDTK1N0II0NJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAIdjawECAAAABjIyNC45OACnFu4IkNXdCNhtLQmQ1d0IIkNJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAARJuHIgIAAAAGMTM4Ljc2AKcW7giQ1d0IUgUvCZDV3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAABisEBQIAAAADMTI3AKcW7giQ1d0I2G0tCZDV3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA</t>
-  </si>
-  <si>
-    <t>aVX0AQIAAAAGMTI3LjExAKcW7giQ1d0InRovCZDV3QgjQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAM34AAAIAAAAGMTc4LjI2AKcW7giQ1d0I2G0tCZDV3QgiQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAA09eAEAgAAAAYyMDcuODEApxbuCJDV3QidGi8JkNXdCCJDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAOJuzAICAAAABjIyOC4yNQCnFu4IkNXdCNhtLQmQ1d0II0NJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAM2EFxECAAAAAjQ0AKcW7giQ1d0IMi8vCZDV3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAl4AEAAgAAAAYyNDcuNDkApxbuCJDV3QjElC0JkNXdCCNDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADwtn0BAgAAAAYyOTIuOTMApxbuCJDV3QgyLy8JkNXdCChDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAD03XAACAAAACzQ0LjgyOTU0NzI0AHcC7giQ1d0IWEQvCZDV3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAI/cAcAIAAAAHMzEuOTUzMQB3Au4IkNXdCFIFLwmQ1d0II0NJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAANSIAAACAAAABTYyOC41AKcW7giQ1d0IxJQtCZDV</t>
-  </si>
-  <si>
-    <t>3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAg32EAQIAAAAGMTY5LjA5AKcW7giQ1d0IDL0tCZDV3QgjQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAtnkAAAIAAAAFNzYuNjMApxbuCJDV3QgMvS0JkNXdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAANq5zg0CAAAABjM3Ny45MwCnFu4IkNXdCNrOLQmQ1d0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAGlhAAACAAAABjIwMi45MgB3Au4IkNXdCKziLQmQ1d0II0NJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAD1JAAACAAAABjIxMy43NQB3Au4IkNXdCNrOLQmQ1d0IKENJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAq8wFAAIAAAAKMzguNDczMTE4OQB3Au4IkNXdCKziLQmQ1d0IIUNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADUzIEDAgAAAAYyODEuOTYApxbuCJDV3Qis4i0JkNXdCCNDSVEuU05PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACwPGQQAgAAAAYyMDUuNzcApxbuCJDV3QjZ9y0JkNXdCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADnVgAAAgAAAAYyNTUuNjcApxbuCJDV3QjZ9y0JkNXdCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIw</t>
-  </si>
-  <si>
-    <t>MjUvOC81LlVTRAEAAAAX2zwBAgAAAAY3NjMuNDYApxbuCJDV3QjHDC4JkNXdCCNDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC7oQQIAgAAAAYxMzIuOTQApxbuCJDV3QjHDC4JkNXdCCNDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABSEyIPAgAAAAYxODUuNDQApxbuCJDV3QglIS4JkNXdCCNDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABl+pgCAgAAAAYxNzMuMjcApxbuCJDV3QjfNS4JkNXdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABLVQAAAgAAAAY1MjcuNzUApxbuCJDV3QjgSi4JkNXdCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACw8IcMAgAAAAYzNDAuMzEApxbuCJDV3QjgSi4JkNXdCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAABXwAAAgAAAAYzMzguNzQAdwLuCJDV3QikXy4JkNXdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADD2/wBAgAAAAYxMTguMTIAdwLuCJDV3Qg+iS4JkNXdCCJDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAADTJBkCAAAABTU3Ljc0AKcW7giQ1d0IO54uCZDV3QgjQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAuMqlBgIAAAAFNTUuOTcApxbuCJDV</t>
-  </si>
-  <si>
-    <t>3Qg7ni4JkNXdCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAABmkEAAIAAAAGMTA5LjA2AKcW7giQ1d0IDbMuCZDV3QgjQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAgIRbDQIAAAAFODAuMDkApxbuCJDV3Qg+iS4JkNXdCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACznxScCAAAABjEzNy4yMwB3Au4IkNXdCLXcLgmQ1d0II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAL/7GQMCAAAABTU1LjE3AKcW7giQ1d0IDbMuCZDV3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAKhxAAACAAAABjE5NC42NwCnFu4IkNXdCA2zLgmQ1d0ILENJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACjvBQACAAAABjY4OS42MwCnFu4IkNXdCOTHLgmQ1d0IK0NJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAnXoNAAIAAAALMTkwLjA4Mzg5MzUAdwLuCJDV3Qjkxy4JkNXdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAQxqIBAgAAAAYzMDguNzIApxbuCJDV3Qg7ni4JkNXdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADVggAAAgAAAAYxNDYuNzEApxbuCJDV3Qg7ni4J</t>
-  </si>
-  <si>
-    <t>kNXdCCNDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAmAXoQAgAAAAUxNy4xNQCnFu4IkNXdCFIFLwmQ1d0IIkNJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAC+4BAAIAAAAPMjg1LjU3MzY5NDY3NjI1AKcW7giQ1d0ItdwuCZDV3QgiQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC/dF4BAgAAAAY5MDUuMTIApxbuCJDV3Qj78C4JkNXdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALo+/BECAAAABTM1LjkxAKcW7giQ1d0I+/AuCZDV3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAh2NrAQIAAAAGMjI5LjA4AKcW7giQ1d0IxJQtCZDV3QgiQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABEm4ciAgAAAAYxMzkuNzUApxbuCJDV3QhSBS8JkNXdCCNDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAGKwQFAgAAAAUxNTQuOQCnFu4IkNXdCMSULQmQ1d0II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAGlV9AECAAAABjEzNC4xNACnFu4IkNXdCJ0aLwmQ1d0II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAADN+AAACAAAABjE3OS40MgCnFu4IkNXdCAy9LQmQ1d0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1</t>
-  </si>
-  <si>
-    <t>LzgvNi5VU0QBAAAANPXgBAIAAAAGMjE1LjUzAKcW7giQ1d0InRovCZDV3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADibswCAgAAAAYyMzUuODIApxbuCJDV3QgMvS0JkNXdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADNhBcRAgAAAAU0My43NgCnFu4IkNXdCDIvLwmQ1d0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAJeABAAIAAAAGMjQ5LjE3AKcW7giQ1d0I2s4tCZDV3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA8LZ9AQIAAAAGMzAxLjY3AKcW7giQ1d0IMi8vCZDV3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAA9N1wAAgAAAAs0NC4wODY3MDM3NgB3Au4IkNXdCFhELwmQ1d0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACP3AHACAAAABzMyLjcwMDIAdwLuCJDV3QhSBS8JkNXdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADUiAAAAgAAAAY2MjUuODgApxbuCJDV3Qis4i0JkNXdCCNDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAC2eQAAAgAAAAU3NS4zMgCnFu4IkNXdCNn3LQmQ1d0II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAGlhAAACAAAABjIxMy4y</t>
-  </si>
-  <si>
-    <t>NQB3Au4IkNXdCCUhLgmQ1d0IKENJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAq8wFAAIAAAALMzcuNTczODk1MjUAdwLuCJDV3QglIS4JkNXdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACDfYQBAgAAAAYxNzIuODkApxbuCJDV3QjZ9y0JkNXdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAANq5zg0CAAAABjM5MC41NwCnFu4IkNXdCMcMLgmQ1d0II0NJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAD1JAAACAAAABjIyMi4zMQB3Au4IkNXdCCUhLgmQ1d0IIUNJUS5aUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADUzIEDAgAAAAYyODkuMzIApxbuCJDV3QglIS4JkNXdCCNDSVEuU05PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACwPGQQAgAAAAYyMTAuNTQApxbuCJDV3QjfNS4JkNXdCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADnVgAAAgAAAAYyNTYuNDMApxbuCJDV3QjfNS4JkNXdCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAX2zwBAgAAAAY3NzEuOTkApxbuCJDV3QjgSi4JkNXdCCNDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAC7oQQIAgAAAAYxMzYuOTYApxbuCJDV3QjgSi4JkNXdCCNDSVEuVEVB</t>
-  </si>
-  <si>
-    <t>TS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABSEyIPAgAAAAUxODUuNQCnFu4IkNXdCKRfLgmQ1d0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAGX6mAICAAAABjE3OS41NACnFu4IkNXdCBt0LgmQ1d0II0NJUS5NU0ZULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAEtVAAACAAAABjUyNC45NACnFu4IkNXdCBt0LgmQ1d0II0NJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALDwhwwCAAAABjM0My42MQCnFu4IkNXdCBt0LgmQ1d0II0NJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAAFfAAACAAAABjM0NS42MgB3Au4IkNXdCD6JLgmQ1d0II0NJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALjKpQYCAAAABTU3LjQzAKcW7giQ1d0IO54uCZDV3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAAZpBAACAAAABjEwOC43OACnFu4IkNXdCA2zLgmQ1d0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAICEWw0CAAAABTgwLjY0AKcW7giQ1d0IPokuCZDV3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAs58UnAgAAAAYxMzYuMTIAdwLuCJDV3Qjkxy4JkNXdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADD2/wBAgAA</t>
-  </si>
-  <si>
-    <t>AAYxMzguNzgAdwLuCJDV3Qjkxy4JkNXdCCJDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAADTJBkCAAAABTU1LjUzAKcW7giQ1d0IO54uCZDV3QgjQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA1YIAAAIAAAAGMTQ1Ljg0AKcW7giQ1d0ItdwuCZDV3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAv/sZAwIAAAAFNTUuMDkApxbuCJDV3Qj78C4JkNXdCC1DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAqHEAAAIAAAAGMTk2LjA5AKcW7giQ1d0I+/AuCZDV3QgsQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAKO8FAAIAAAAGNjkwLjk2AKcW7giQ1d0IUgUvCZDV3QgjQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAEMaiAQIAAAAGMzE5LjkxAKcW7giQ1d0ItdwuCZDV3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACdeg0AAgAAAAsxODYuNTgxOTM5NQB3Au4IkNXdCFhELwmQ1d0IIkNJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAuj78EQIAAAAFMzYuNzcApxbuCJDV3QgyLy8JkNXdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAAvuAQACAAAADjI4OS41</t>
-  </si>
-  <si>
-    <t>OTYxODI4ODUxAKcW7giQ1d0InRovCZDV3QgiQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAC/dF4BAgAAAAY5MTIuMzEApxbuCJDV3QidGi8JkNXdCCNDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAmAXoQAgAAAAUxNy4yNACnFu4IkNXdCDIvLwmQ1d0I</t>
   </si>
   <si>
     <t>META</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BAABTAVMT0NBTAFI/////wFQhwAAACNDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACHY2sBAgAAAAYyMjQuOTgA65XNR1fW3QjPmHFSV9bdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAESbhyICAAAABjEzOC43NgDrlc1HV9bdCMGEbVJX1t0II0NJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAAYrBAUCAAAAAzEyNwDrlc1HV9bdCMrHcVJX1t0II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAGlV9AECAAAABjEyNy4xMQD6bs1HV9bdCEhmblJX1t0II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAADN+AAACAAAABjE3OC4yNgD6bs1HV9bdCCDicVJX1t0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAANPXgBAIAAAAGMjA3LjgxAPpuzUdX1t0IjC5vUlfW3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADibswCAgAAAAYyMjguMjUA+m7NR1fW3QijB3JSV9bdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADNhBcRAgAAAAI0NAD6bs1HV9bdCMGEbVJX1t0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAJeABAAIAAAAGMjQ3LjQ5APpuzUdX1t0I/ERxUlfW3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzgvNS5VU0QBAAAA8LZ9AQIAAAAGMjkyLjkzAPpuzUdX1t0IYptuUlfW3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAA9N1wAAgAAAAs0NC44Mjk1NDcyNAD6bs1HV9bdCDI0bVJX1t0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACP3AHACAAAABzMxLjk1MzEA+m7NR1fW3QiyXW1SV9bdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADUiAAAAgAAAAU2MjguNQDrlc1HV9bdCLAQcVJX1t0II0NJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAIN9hAECAAAABjE2OS4wOQD6bs1HV9bdCLAQcVJX1t0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALZ5AAACAAAABTc2LjYzAPpuzUdX1t0I/ERxUlfW3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADauc4NAgAAAAYzNzcuOTMA+m7NR1fW3QhDMHBSV9bdCCNDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABpYQAAAgAAAAYyMDIuOTIA+m7NR1fW3QgAZ3BSV9bdCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAA9SQAAAgAAAAYyMTMuNzUA+m7NR1fW3QgAZ3BSV9bdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAKvM</t>
+  </si>
+  <si>
+    <t>BQACAAAACjM4LjQ3MzExODkA+m7NR1fW3QgmpG9SV9bdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA1MyBAwIAAAAGMjgxLjk2AOuVzUdX1t0IJqRvUlfW3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAsDxkEAIAAAAGMjA1Ljc3AOuVzUdX1t0IHY5wUlfW3QgjQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA51YAAAIAAAAGMjU1LjY3APpuzUdX1t0IHY5wUlfW3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAF9s8AQIAAAAGNzYzLjQ2APpuzUdX1t0Ix7dwUlfW3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAu6EECAIAAAAGMTMyLjk0APpuzUdX1t0I58xuUlfW3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAUhMiDwIAAAAGMTg1LjQ0AOuVzUdX1t0IunFxUlfW3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAZfqYAgIAAAAGMTczLjI3APpuzUdX1t0Ix7dwUlfW3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAS1UAAAIAAAAGNTI3Ljc1APpuzUdX1t0IslVvUlfW3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAsPCHDAIAAAAGMzQwLjMxAPpuzUdX1t0IslVvUlfW3Qgj</t>
+  </si>
+  <si>
+    <t>Q0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAAV8AAAIAAAAGMzM4Ljc0APpuzUdX1t0IslVvUlfW3QgjQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAw9v8AQIAAAAGMTE4LjEyAPpuzUdX1t0IjXxvUlfW3QgiQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAA0yQZAgAAAAU1Ny43NADrlc1HV9bdCKDpcFJX1t0II0NJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALjKpQYCAAAABTU1Ljk3APpuzUdX1t0IJqRvUlfW3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAAZpBAACAAAABjEwOS4wNgD6bs1HV9bdCDI0bVJX1t0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAICEWw0CAAAABTgwLjA5APpuzUdX1t0IcwdvUlfW3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAs58UnAgAAAAYxMzcuMjMA+m7NR1fW3QjauW1SV9bdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC/+xkDAgAAAAU1NS4xNwD6bs1HV9bdCHMHb1JX1t0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACocQAAAgAAAAYxOTQuNjcA+m7NR1fW3Qhim25SV9bdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNF</t>
+  </si>
+  <si>
+    <t>LjIwMjUvOC81LlVTRAEAAAAo7wUAAgAAAAY2ODkuNjMA+m7NR1fW3QgKCG5SV9bdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAJ16DQACAAAACzE5MC4wODM4OTM1APpuzUdX1t0IWjZuUlfW3QgjQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAEMaiAQIAAAAGMzA4LjcyAOuVzUdX1t0I58xuUlfW3QgjQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA1YIAAAIAAAAGMTQ2LjcxAPpuzUdX1t0IWjZuUlfW3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAJgF6EAIAAAAFMTcuMTUA+m7NR1fW3Qj14G1SV9bdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAAvuAQACAAAADzI4NS41NzM2OTQ2NzYyNQD6bs1HV9bdCGKbblJX1t0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAv3ReAQIAAAAGOTA1LjEyAPpuzUdX1t0ISGZuUlfW3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC6PvwRAgAAAAUzNS45MQD6bs1HV9bdCPXgbVJX1t0II0NJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAIdjawECAAAABjIyOS4wOACweHZXV9bdCEIg3VdX1t0IIkNJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA</t>
+  </si>
+  <si>
+    <t>RJuHIgIAAAAGMTM5Ljc1ALB4dldX1t0IJpjdV1fW3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAABisEBQIAAAAFMTU0LjkAsHh2V1fW3QgZTd5XV9bdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABpVfQBAgAAAAYxMzQuMTQAsHh2V1fW3Qhtxd5XV9bdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAzfgAAAgAAAAYxNzkuNDIAEWN2V1fW3QiVPd9XV9bdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAADT14AQCAAAABjIxNS41MwARY3ZXV9bdCPa231dX1t0IIkNJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA4m7MAgIAAAAGMjM1LjgyABFjdldX1t0IQzLgV1fW3QgjQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAzYQXEQIAAAAFNDMuNzYAEWN2V1fW3QiKqeBXV9bdCCJDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACXgAQACAAAABjI0OS4xNwARY3ZXV9bdCI0h4VdX1t0II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAPC2fQECAAAABjMwMS42NwARY3ZXV9bdCA+F4VdX1t0IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAPTdcAAIAAAALNDQuMDg2NzAzNzYAEk52V1fW3Qh6JOJX</t>
+  </si>
+  <si>
+    <t>V9bdCCNDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAj9wBwAgAAAAczMi43MDAyABJOdldX1t0IbYLiV1fW3QgjQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA1IgAAAIAAAAGNjI1Ljg4ALB4dldX1t0IF9XdV1fW3QgjQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAtnkAAAIAAAAFNzUuMzIAEWN2V1fW3Qj2tt9XV9bdCCNDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABpYQAAAgAAAAYyMTMuMjUAEk52V1fW3QhjT+JXV9bdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAKvMBQACAAAACzM3LjU3Mzg5NTI1ABJOdldX1t0IyrriV1fW3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAg32EAQIAAAAGMTcyLjg5ABFjdldX1t0IbcXeV1fW3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADauc4NAgAAAAYzOTAuNTcAEWN2V1fW3QiKqeBXV9bdCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAA9SQAAAgAAAAYyMjIuMzEAEk52V1fW3QgZv+FXV9bdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA1MyBAwIAAAAGMjg5LjMyALB4dldX1t0I6lvdV1fW3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzgvNi5VU0QBAAAAsDxkEAIAAAAGMjEwLjU0ALB4dldX1t0IGU3eV1fW3QgjQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA51YAAAIAAAAGMjU2LjQzABFjdldX1t0IGnrfV1fW3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAF9s8AQIAAAAGNzcxLjk5ABFjdldX1t0IQzLgV1fW3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAu6EECAIAAAAGMTM2Ljk2ABFjdldX1t0IjSHhV1fW3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAUhMiDwIAAAAFMTg1LjUAsHh2V1fW3QgX1d1XV9bdCCNDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABl+pgCAgAAAAYxNzkuNTQAEWN2V1fW3QiXAd9XV9bdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABLVQAAAgAAAAY1MjQuOTQAEWN2V1fW3QgH9d9XV9bdCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACw8IcMAgAAAAYzNDMuNjEAEWN2V1fW3QiF5eBXV9bdCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAABXwAAAgAAAAYzNDUuNjIAEk52V1fW3QhjT+JXV9bdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAC4yqUGAgAAAAU1Ny40MwCw</t>
+  </si>
+  <si>
+    <t>eHZXV9bdCJcB31dX1t0IIUNJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAGaQQAAgAAAAYxMDguNzgAEWN2V1fW3QgH9d9XV9bdCCNDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACAhFsNAgAAAAU4MC42NAARY3ZXV9bdCIXl4FdX1t0IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAALOfFJwIAAAAGMTM2LjEyABFjdldX1t0IeiTiV1fW3QgjQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAw9v8AQIAAAAGMTM4Ljc4ABJOdldX1t0Ix+zhV1fW3QgiQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAA0yQZAgAAAAU1NS41MwCweHZXV9bdCPEQ3ldX1t0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAANWCAAACAAAABjE0NS44NACweHZXV9bdCCKJ3ldX1t0II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAL/7GQMCAAAABTU1LjA5ABFjdldX1t0IGnrfV1fW3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAKhxAAACAAAABjE5Ni4wOQARY3ZXV9bdCPNt4FdX1t0ILENJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACjvBQACAAAABjY5MC45NgARY3ZXV9bdCKld4VdX1t0II0NJUS5U</t>
+  </si>
+  <si>
+    <t>U0xBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAABDGogECAAAABjMxOS45MQCweHZXV9bdCCaY3VdX1t0IK0NJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAnXoNAAIAAAALMTg2LjU4MTkzOTUAEk52V1fW3QhtguJXV9bdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALo+/BECAAAABTM2Ljc3ABFjdldX1t0IQzLgV1fW3QgiQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAL7gEAAgAAAA4yODkuNTk2MTgyODg1MQCweHZXV9bdCPEQ3ldX1t0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAv3ReAQIAAAAGOTEyLjMxABFjdldX1t0IlT3fV1fW3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAJgF6EAIAAAAFMTcuMjQAEWN2V1fW3QiF5eBXV9bdCCNDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACHY2sBAgAAAAYyMjAuOTgAsHh2V1fW3QhCIN1XV9bdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAESbhyICAAAABjEzOS4zOQCweHZXV9bdCCaY3VdX1t0II0NJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAAYrBAUCAAAABjE1MS4wNwCweHZXV9bdCBlN3ldX1t0II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0Uu</t>
+  </si>
+  <si>
+    <t>MjAyNS84LzcuVVNEAQAAAGlV9AECAAAABjEyOS42MwCweHZXV9bdCG3F3ldX1t0II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAADN+AAACAAAABjE4MC43NwARY3ZXV9bdCJU931dX1t0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAANPXgBAIAAAAGMjEwLjQ0ABFjdldX1t0I9rbfV1fW3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADibswCAgAAAAYyMjcuODYAEWN2V1fW3QhDMuBXV9bdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADNhBcRAgAAAAQ0MS42ABFjdldX1t0IiqngV1fW3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAl4AEAAgAAAAYyNDAuODgAEWN2V1fW3QiNIeFXV9bdCCNDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADwtn0BAgAAAAYzMDMuNzYAEWN2V1fW3QgZv+FXV9bdCChDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAD03XAACAAAACzQ1LjM3ODQzMjM5ABJOdldX1t0IeiTiV1fW3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAI/cAcAIAAAAHMzIuODE3NAASTnZXV9bdCG2C4ldX1t0II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAFITIg8CAAAAAzE3</t>
+  </si>
+  <si>
+    <t>MQCweHZXV9bdCBfV3VdX1t0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALuhBAgCAAAABjEzNi4zOAARY3ZXV9bdCI0h4VdX1t0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAICEWw0CAAAABTc2LjM3ABFjdldX1t0IheXgV1fW3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAAV8AAAIAAAAGMzM4LjI3ABJOdldX1t0IY0/iV1fW3QgiQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAA0yQZAgAAAAU1OC43NACweHZXV9bdCPEQ3ldX1t0II0NJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAANSIAAACAAAABzYyMC4zMjUAsHh2V1fW3QgX1d1XV9bdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACDfYQBAgAAAAUxNjguMQARY3ZXV9bdCG3F3ldX1t0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALZ5AAACAAAABTc1Ljg1ABFjdldX1t0I9rbfV1fW3QgjQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAaWEAAAIAAAAGMjIwLjAzABJOdldX1t0IY0/iV1fW3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAsDxkEAIAAAAFMjA2LjQAsHh2V1fW3QgZTd5XV9bdCCNDSVEuT1JDTC5JUV9DTE9TRVBS</t>
+  </si>
+  <si>
+    <t>SUNFLjIwMjUvOC83LlVTRAEAAADnVgAAAgAAAAYyNDkuMzkAEWN2V1fW3Qgaet9XV9bdCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAX2zwBAgAAAAY3NjEuODMAEWN2V1fW3QjzbeBXV9bdCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAA9SQAAAgAAAAYyMjMuMTMAEk52V1fW3QjH7OFXV9bdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAKvMBQACAAAACzM5LjUxNzc0OTI0ABJOdldX1t0I0MjiV1fW3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAZfqYAgIAAAAFMTgyLjIAEWN2V1fW3QiXAd9XV9bdCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAABmkEAAIAAAAGMTExLjg3ABFjdldX1t0IB/XfV1fW3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAsPCHDAIAAAAGMzkwLjg0ABFjdldX1t0IheXgV1fW3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADauc4NAgAAAAY0MzcuMzQAEWN2V1fW3QiKqeBXV9bdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA1MyBAwIAAAAFMjcyLjUAsHh2V1fW3QjqW91XV9bdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABLVQAAAgAAAAY1</t>
+  </si>
+  <si>
+    <t>MjAuODQAEWN2V1fW3QgH9d9XV9bdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADD2/wBAgAAAAYxMzkuMjgAEWN2V1fW3QjH7OFXV9bdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC4yqUGAgAAAAU1Ny44MQCweHZXV9bdCJcB31dX1t0IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAALOfFJwIAAAAGMTM1LjU3ABFjdldX1t0Ix+zhV1fW3QgjQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAEMaiAQIAAAAGMzIyLjI3ALB4dldX1t0IJpjdV1fW3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAv/sZAwIAAAAFNjUuMzEAEWN2V1fW3Qj2tt9XV9bdCCNDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAmAXoQAgAAAAUxNi45MwARY3ZXV9bdCIXl4FdX1t0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAANWCAAACAAAABTE0NS45ALB4dldX1t0IIoneV1fW3QgiQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC/dF4BAgAAAAY4NzQuMTIAEWN2V1fW3QiVPd9XV9bdCC1DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAqHEAAAIAAAAGMTk2LjUyABFjdldX1t0I823gV1fW3QgiQ0lRLlNB</t>
+  </si>
+  <si>
+    <t>UC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAL7gEAAgAAAA8yOTYuMjg5ODM0ODQwNzUAsHh2V1fW3QjxEN5XV9bdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALo+/BECAAAABTM0LjU4ABFjdldX1t0IQzLgV1fW3QgsQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAKO8FAAIAAAAGNzEzLjEyABFjdldX1t0ID4XhV1fW3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACdeg0AAgAAAAoxODkuMDM1ODgyABJOdldX1t0IbYLiV1fW3Qg=</t>
   </si>
 </sst>
 </file>
@@ -1433,76 +1418,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E87A527-8DDE-43AA-AD32-3F38F62A2CD0}">
-  <dimension ref="A1:U1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12543DB-8C7B-45A7-B721-E10C924A4416}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" t="s">
         <v>207</v>
-      </c>
-      <c r="R1" t="s">
-        <v>208</v>
-      </c>
-      <c r="S1" t="s">
-        <v>209</v>
-      </c>
-      <c r="T1" t="s">
-        <v>210</v>
-      </c>
-      <c r="U1" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1486,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1590,20 +1560,20 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP(A2,CHOOSE({1,2},F2:F45,J2:J45),2,FALSE)</f>
-        <v>4.0145851378449145E-3</v>
+        <v>3.0196994614592413E-3</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="13">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-3.5019499999999937</v>
+        <v>2.4539399999999887</v>
       </c>
       <c r="H2" s="9">
         <f>VLOOKUP(F2,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1611,30 +1581,30 @@
       </c>
       <c r="I2" s="2">
         <f>G2*H2</f>
-        <v>-1.3013225378839371E-2</v>
+        <v>9.1188264498776386E-3</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J45" si="0">$P$7*H2</f>
-        <v>4.0145851378449145E-3</v>
+        <v>3.0196994614592413E-3</v>
       </c>
       <c r="K2" s="6" cm="1">
         <f t="array" ref="K2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>186.58194</v>
+        <v>189.03587999999999</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L45" si="1">K2*H2</f>
-        <v>0.69333737970019249</v>
+        <v>0.70245620615007021</v>
       </c>
       <c r="M2" s="2">
         <f>J2*K2</f>
-        <v>0.74904908331427156</v>
+        <v>0.57083154503247369</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>125</v>
       </c>
       <c r="O2" s="6" cm="1">
         <f t="array" ref="O2">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.700200000000002</v>
+        <v>32.817399999999999</v>
       </c>
       <c r="P2" s="2">
         <v>1250002</v>
@@ -1649,20 +1619,20 @@
       </c>
       <c r="C3" s="7">
         <f>VLOOKUP(A3,CHOOSE({1,2},F3:F47,J3:J47),2,FALSE)</f>
-        <v>2.4199867354070526E-2</v>
+        <v>1.820270934787056E-2</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" ref="G3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.89921999999999969</v>
+        <v>1.9438499999999976</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP(F3,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1670,30 +1640,30 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I45" si="2">G3*H3</f>
-        <v>-2.0142495772006757E-2</v>
+        <v>4.3542170332527413E-2</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>2.4199867354070526E-2</v>
+        <v>1.820270934787056E-2</v>
       </c>
       <c r="K3" s="6" cm="1">
         <f t="array" ref="K3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>37.573900000000002</v>
+        <v>39.517749999999999</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>0.8416540133535787</v>
+        <v>0.88519618368610609</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M45" si="3">J3*K3</f>
-        <v>0.90928339597511054</v>
+        <v>0.71933011733181185</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>126</v>
       </c>
       <c r="O3" s="12">
         <f>SUM(M2:M45)</f>
-        <v>38.227447629972197</v>
+        <v>28.871205471946652</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -1706,7 +1676,7 @@
       </c>
       <c r="C4" s="7">
         <f>VLOOKUP(A4,CHOOSE({1,2},F4:F48,J4:J48),2,FALSE)</f>
-        <v>5.1856858615865415E-3</v>
+        <v>3.9005805745436915E-3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1719,7 +1689,7 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.74284999999999712</v>
+        <v>1.2917300000000012</v>
       </c>
       <c r="H4" s="9">
         <f>VLOOKUP(F4,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1727,30 +1697,30 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>-3.565674294921114E-3</v>
+        <v>6.2002940795294779E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>5.1856858615865415E-3</v>
+        <v>3.9005805745436915E-3</v>
       </c>
       <c r="K4" s="6" cm="1">
         <f t="array" ref="K4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>44.0867</v>
+        <v>45.378430000000002</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="1"/>
-        <v>0.21161582141468574</v>
+        <v>0.2178161154942152</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="3"/>
-        <v>0.22861977687400739</v>
+        <v>0.1770022225612907</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>129</v>
       </c>
       <c r="O4" s="6">
         <f>SUM(L2:L45)</f>
-        <v>35.384221091518256</v>
+        <v>35.528445544559126</v>
       </c>
       <c r="P4" s="2"/>
     </row>
@@ -1763,7 +1733,7 @@
       </c>
       <c r="C5" s="7">
         <f>VLOOKUP(A5,CHOOSE({1,2},F5:F49,J5:J49),2,FALSE)</f>
-        <v>5.9704529886399713E-3</v>
+        <v>4.4908684348246367E-3</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1774,7 +1744,7 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>10.330000000000013</v>
+        <v>6.7800000000000011</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP(F5,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1782,23 +1752,23 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>5.7087620659807013E-2</v>
+        <v>3.7468932049708727E-2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>5.9704529886399713E-3</v>
+        <v>4.4908684348246367E-3</v>
       </c>
       <c r="K5" s="6" cm="1">
         <f t="array" ref="K5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>213.25</v>
+        <v>220.03</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>1.1785029143953369</v>
+        <v>1.2159718464450457</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>1.2731990998274738</v>
+        <v>0.98812578171446486</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>128</v>
@@ -1815,7 +1785,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,CHOOSE({1,2},F6:F50,J6:J50),2,FALSE)</f>
-        <v>1.9472250410257463E-3</v>
+        <v>1.4646680057411564E-3</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -1826,7 +1796,7 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.8799999999999955</v>
+        <v>-7.3500000000000227</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP(F6,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1834,23 +1804,23 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>1.2400492159212538E-2</v>
+        <v>-1.3247618803809955E-2</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.9472250410257463E-3</v>
+        <v>1.4646680057411564E-3</v>
       </c>
       <c r="K6" s="6" cm="1">
         <f t="array" ref="K6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>345.62</v>
+        <v>338.27</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>0.62294449128881402</v>
+        <v>0.60969687248500404</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>0.67299991867931841</v>
+        <v>0.49545324630206095</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="5" t="s">
@@ -1872,7 +1842,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,CHOOSE({1,2},F7:F51,J7:J51),2,FALSE)</f>
-        <v>8.8450515179127782E-3</v>
+        <v>6.6530902666466904E-3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
@@ -1883,7 +1853,7 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>8.5600000000000023</v>
+        <v>0.81999999999999318</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP(F7,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1891,38 +1861,38 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>7.0082319868288237E-2</v>
+        <v>6.7134932584107304E-3</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>8.8450515179127782E-3</v>
+        <v>6.6530902666466904E-3</v>
       </c>
       <c r="K7" s="6" cm="1">
         <f t="array" ref="K7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>222.31</v>
+        <v>223.13</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>1.8200935198503683</v>
+        <v>1.826807013108779</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>1.9663434029471898</v>
+        <v>1.484504031196876</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>114</v>
       </c>
       <c r="O7" s="2" cm="1">
         <f t="array" ref="O7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.74710000000000321</v>
+        <v>0.11719999999999686</v>
       </c>
       <c r="P7" s="6">
         <f>O7/SUM(I2:I45)</f>
-        <v>1.0803529497258166</v>
+        <v>0.8126222532234606</v>
       </c>
       <c r="Q7" s="6" cm="1">
         <f t="array" ref="Q7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.700200000000002</v>
+        <v>32.817399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1934,7 +1904,7 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,CHOOSE({1,2},F8:F52,J8:J52),2,FALSE)</f>
-        <v>4.5634035581961566E-3</v>
+        <v>3.4325109055984488E-3</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1945,7 +1915,7 @@
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" ref="G8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>20.659999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP(F8,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1953,23 +1923,23 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>8.7267700371679399E-2</v>
+        <v>2.1119966208054067E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>4.5634035581961566E-3</v>
+        <v>3.4325109055984488E-3</v>
       </c>
       <c r="K8" s="6" cm="1">
         <f t="array" ref="K8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>138.78</v>
+        <v>139.28</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>0.58620578207074869</v>
+        <v>0.58831777869155411</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>0.63330914580646258</v>
+        <v>0.47808011893175195</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1984,7 +1954,7 @@
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,CHOOSE({1,2},F9:F53,J9:J53),2,FALSE)</f>
-        <v>2.4580150983920207E-3</v>
+        <v>1.84887519233371E-3</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -1995,7 +1965,7 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.1099999999999852</v>
+        <v>-0.55000000000001137</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP(F9,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2003,23 +1973,23 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>-2.5254679592512318E-3</v>
+        <v>-1.2513579978272295E-3</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>2.4580150983920207E-3</v>
+        <v>1.84887519233371E-3</v>
       </c>
       <c r="K9" s="6" cm="1">
         <f t="array" ref="K9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>136.12</v>
+        <v>135.57</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>0.30969972848043448</v>
+        <v>0.30844837048260726</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.33458501519312189</v>
+        <v>0.25065200982468105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2034,7 +2004,7 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,CHOOSE({1,2},F10:F54,J10:J54),2,FALSE)</f>
-        <v>6.9488190545259653E-4</v>
+        <v>5.2267779698885462E-4</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
@@ -2045,7 +2015,7 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.3300000000000409</v>
+        <v>22.159999999999968</v>
       </c>
       <c r="H10" s="9">
         <f>VLOOKUP(F10,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2053,23 +2023,23 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>8.5545463127261628E-4</v>
+        <v>1.4253289194737267E-2</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>6.9488190545259653E-4</v>
+        <v>5.2267779698885462E-4</v>
       </c>
       <c r="K10" s="6" cm="1">
         <f t="array" ref="K10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>690.96</v>
+        <v>713.12</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>0.44442476092038252</v>
+        <v>0.45867805011511981</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>0.48013560139152611</v>
+        <v>0.372731990588692</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2084,7 +2054,7 @@
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,CHOOSE({1,2},F11:F55,J11:J55),2,FALSE)</f>
-        <v>3.8183933560815564E-3</v>
+        <v>2.8721274963890049E-3</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -2095,7 +2065,7 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>8.7400000000000091</v>
+        <v>2.089999999999975</v>
       </c>
       <c r="H11" s="9">
         <f>VLOOKUP(F11,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2103,23 +2073,23 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>3.0890606575029511E-2</v>
+        <v>7.3868841809852214E-3</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>3.8183933560815564E-3</v>
+        <v>2.8721274963890049E-3</v>
       </c>
       <c r="K11" s="6" cm="1">
         <f t="array" ref="K11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>301.67</v>
+        <v>303.76</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>1.0662207420468128</v>
+        <v>1.073607626227798</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>1.1518947237291233</v>
+        <v>0.87243744830312409</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2134,7 +2104,7 @@
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,CHOOSE({1,2},F12:F56,J12:J56),2,FALSE)</f>
-        <v>1.7169805887713038E-2</v>
+        <v>1.2914822282314163E-2</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>27</v>
@@ -2145,7 +2115,7 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>8.9999999999999858E-2</v>
+        <v>-0.30999999999999872</v>
       </c>
       <c r="H12" s="9">
         <f>VLOOKUP(F12,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2153,23 +2123,23 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>1.4303497114404595E-3</v>
+        <v>-4.9267601171837927E-3</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.7169805887713038E-2</v>
+        <v>1.2914822282314163E-2</v>
       </c>
       <c r="K12" s="6" cm="1">
         <f t="array" ref="K12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>17.239999999999998</v>
+        <v>16.93</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>0.2739914336137062</v>
+        <v>0.26906467349652241</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>0.29600745350417274</v>
+        <v>0.21864794123957879</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2184,7 +2154,7 @@
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,CHOOSE({1,2},F13:F57,J13:J57),2,FALSE)</f>
-        <v>3.8469146283202824E-3</v>
+        <v>2.8935806895489954E-3</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>29</v>
@@ -2195,7 +2165,7 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.6799999999999784</v>
+        <v>-8.289999999999992</v>
       </c>
       <c r="H13" s="9">
         <f>VLOOKUP(F13,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2203,23 +2173,23 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>5.982134428584837E-3</v>
+        <v>-2.9518984769624342E-2</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>3.8469146283202824E-3</v>
+        <v>2.8935806895489954E-3</v>
       </c>
       <c r="K13" s="6" cm="1">
         <f t="array" ref="K13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>249.17</v>
+        <v>240.88</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>0.88724311641101372</v>
+        <v>0.85772413164138939</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.95853571793856474</v>
+        <v>0.69700571649856202</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2234,7 +2204,7 @@
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,CHOOSE({1,2},F14:F58,J14:J58),2,FALSE)</f>
-        <v>5.3101423222646181E-3</v>
+        <v>3.99419450833274E-3</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>31</v>
@@ -2245,7 +2215,7 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>4.0200000000000102</v>
+        <v>-0.58000000000001251</v>
       </c>
       <c r="H14" s="9">
         <f>VLOOKUP(F14,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2253,23 +2223,23 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>1.9759072385484234E-2</v>
+        <v>-2.8508114387017594E-3</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>5.3101423222646181E-3</v>
+        <v>3.99419450833274E-3</v>
       </c>
       <c r="K14" s="6" cm="1">
         <f t="array" ref="K14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>136.96</v>
+        <v>136.38</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>0.67318471490445619</v>
+        <v>0.67033390346575439</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>0.72727709245736216</v>
+        <v>0.54472824704641909</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2284,7 +2254,7 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,CHOOSE({1,2},F15:F59,J15:J59),2,FALSE)</f>
-        <v>1.6110197409995523E-3</v>
+        <v>1.2117803651582402E-3</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>33</v>
@@ -2295,7 +2265,7 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>12.639999999999986</v>
+        <v>46.769999999999982</v>
       </c>
       <c r="H15" s="9">
         <f>VLOOKUP(F15,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2303,23 +2273,23 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>1.8848737842019434E-2</v>
+        <v>6.9743312410700115E-2</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1.6110197409995523E-3</v>
+        <v>1.2117803651582402E-3</v>
       </c>
       <c r="K15" s="6" cm="1">
         <f t="array" ref="K15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>390.57</v>
+        <v>437.34</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="1"/>
-        <v>0.58241705213271655</v>
+        <v>0.65216036454341675</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>0.62921598024219516</v>
+        <v>0.52996002489830474</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2334,7 +2304,7 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,CHOOSE({1,2},F16:F60,J16:J60),2,FALSE)</f>
-        <v>1.7700474407548728E-3</v>
+        <v>1.3313981694442467E-3</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>35</v>
@@ -2345,7 +2315,7 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.3000000000000114</v>
+        <v>47.229999999999961</v>
       </c>
       <c r="H16" s="9">
         <f>VLOOKUP(F16,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2353,23 +2323,23 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>5.4067113492618597E-3</v>
+        <v>7.7381508189586834E-2</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>1.7700474407548728E-3</v>
+        <v>1.3313981694442467E-3</v>
       </c>
       <c r="K16" s="6" cm="1">
         <f t="array" ref="K16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>343.61</v>
+        <v>390.84</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="1"/>
-        <v>0.56296972324844285</v>
+        <v>0.64035123143802963</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>0.60820600111778189</v>
+        <v>0.52036366054558936</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2384,7 +2354,7 @@
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,CHOOSE({1,2},F17:F61,J17:J61),2,FALSE)</f>
-        <v>7.8174214363417108E-3</v>
+        <v>5.8801252161246155E-3</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>37</v>
@@ -2395,7 +2365,7 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.54999999999999716</v>
+        <v>-4.269999999999996</v>
       </c>
       <c r="H17" s="9">
         <f>VLOOKUP(F17,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2403,23 +2373,23 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>3.979793632330168E-3</v>
+        <v>-3.0897670563727071E-2</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>7.8174214363417108E-3</v>
+        <v>5.8801252161246155E-3</v>
       </c>
       <c r="K17" s="6" cm="1">
         <f t="array" ref="K17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>80.64</v>
+        <v>76.37</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>0.58351010638382983</v>
+        <v>0.55261243582010278</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>0.63039686462659561</v>
+        <v>0.4490651627554369</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2434,7 +2404,7 @@
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,CHOOSE({1,2},F18:F62,J18:J62),2,FALSE)</f>
-        <v>7.2945314452984023E-3</v>
+        <v>5.4868166748581262E-3</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>39</v>
@@ -2445,7 +2415,7 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.4200000000000159</v>
+        <v>0.43000000000000682</v>
       </c>
       <c r="H18" s="9">
         <f>VLOOKUP(F18,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2453,23 +2423,23 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="2"/>
-        <v>9.5878246594806524E-3</v>
+        <v>2.903355354631479E-3</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>7.2945314452984023E-3</v>
+        <v>5.4868166748581262E-3</v>
       </c>
       <c r="K18" s="6" cm="1">
         <f t="array" ref="K18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>196.09</v>
+        <v>196.52</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="1"/>
-        <v>1.3239975616039015</v>
+        <v>1.3269009169585331</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>1.4303846711085637</v>
+        <v>1.0782692129431191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2484,7 +2454,7 @@
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,CHOOSE({1,2},F19:F63,J19:J63),2,FALSE)</f>
-        <v>1.0045537794870061E-2</v>
+        <v>7.5560746696535543E-3</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>41</v>
@@ -2495,7 +2465,7 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.24000000000000199</v>
+        <v>-2.1599999999999966</v>
       </c>
       <c r="H19" s="9">
         <f>VLOOKUP(F19,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2503,23 +2473,23 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="2"/>
-        <v>-2.2316124294201314E-3</v>
+        <v>-2.0084511864780982E-2</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>1.0045537794870061E-2</v>
+        <v>7.5560746696535543E-3</v>
       </c>
       <c r="K19" s="6" cm="1">
         <f t="array" ref="K19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>43.76</v>
+        <v>41.6</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>0.40689733296426722</v>
+        <v>0.38681282109948623</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>0.43959273390351383</v>
+        <v>0.31433270625758786</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2534,7 +2504,7 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,CHOOSE({1,2},F20:F64,J20:J64),2,FALSE)</f>
-        <v>1.5564836113552003E-2</v>
+        <v>1.170759259449289E-2</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>43</v>
@@ -2545,7 +2515,7 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.86000000000000654</v>
+        <v>-2.1900000000000048</v>
       </c>
       <c r="H20" s="9">
         <f>VLOOKUP(F20,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2553,23 +2523,23 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>1.2390172175724613E-2</v>
+        <v>-3.155171751725204E-2</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1.5564836113552003E-2</v>
+        <v>1.170759259449289E-2</v>
       </c>
       <c r="K20" s="6" cm="1">
         <f t="array" ref="K20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>36.770000000000003</v>
+        <v>34.58</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="1"/>
-        <v>0.52975189639696585</v>
+        <v>0.49820017887971374</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>0.5723190238953072</v>
+        <v>0.40484855191756414</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2584,7 +2554,7 @@
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,CHOOSE({1,2},F21:F65,J21:J65),2,FALSE)</f>
-        <v>2.5038219901693686E-3</v>
+        <v>1.8833303207421792E-3</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>45</v>
@@ -2595,7 +2565,7 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>7.5699999999999932</v>
+        <v>-7.9599999999999795</v>
       </c>
       <c r="H21" s="9">
         <f>VLOOKUP(F21,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2603,23 +2573,23 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>1.7544203929273697E-2</v>
+        <v>-1.8448066483093582E-2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>2.5038219901693686E-3</v>
+        <v>1.8833303207421792E-3</v>
       </c>
       <c r="K21" s="6" cm="1">
         <f t="array" ref="K21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>235.82</v>
+        <v>227.86</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>0.5465355575431079</v>
+        <v>0.5280874910600144</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.59045130172174054</v>
+        <v>0.42913564688431299</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2634,7 +2604,7 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,CHOOSE({1,2},F22:F66,J22:J66),2,FALSE)</f>
-        <v>4.0802704920916769E-3</v>
+        <v>3.0691068154034612E-3</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>47</v>
@@ -2645,7 +2615,7 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>8.5299999999999727</v>
+        <v>-10.159999999999968</v>
       </c>
       <c r="H22" s="9">
         <f>VLOOKUP(F22,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2653,23 +2623,23 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="2"/>
-        <v>3.2216052454315969E-2</v>
+        <v>-3.8372226604437315E-2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>4.0802704920916769E-3</v>
+        <v>3.0691068154034612E-3</v>
       </c>
       <c r="K22" s="6" cm="1">
         <f t="array" ref="K22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>771.99</v>
+        <v>761.83</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>2.9156471669645327</v>
+        <v>2.8772749403600955</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>3.1499280171898536</v>
+        <v>2.3381376451788189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2684,7 +2654,7 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,CHOOSE({1,2},F23:F67,J23:J67),2,FALSE)</f>
-        <v>8.1475767695293865E-3</v>
+        <v>6.128462179370563E-3</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>49</v>
@@ -2695,7 +2665,7 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.3100000000000023</v>
+        <v>0.53000000000000114</v>
       </c>
       <c r="H23" s="9">
         <f>VLOOKUP(F23,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2703,23 +2673,23 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="2"/>
-        <v>-9.8794801928317084E-3</v>
+        <v>3.9970416047334411E-3</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>8.1475767695293865E-3</v>
+        <v>6.128462179370563E-3</v>
       </c>
       <c r="K23" s="6" cm="1">
         <f t="array" ref="K23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>75.319999999999993</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>0.56803240314815484</v>
+        <v>0.57202944475288831</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>0.61367548228095337</v>
+        <v>0.46484385630525715</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2734,7 +2704,7 @@
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,CHOOSE({1,2},F24:F68,J24:J68),2,FALSE)</f>
-        <v>4.1260773838690248E-3</v>
+        <v>3.1035619438119304E-3</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>51</v>
@@ -2745,7 +2715,7 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.8099999999999454</v>
+        <v>-4.1000000000000227</v>
       </c>
       <c r="H24" s="9">
         <f>VLOOKUP(F24,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2753,23 +2723,23 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0731934828904065E-2</v>
+        <v>-1.5658694946088174E-2</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>4.1260773838690248E-3</v>
+        <v>3.1035619438119304E-3</v>
       </c>
       <c r="K24" s="6" cm="1">
         <f t="array" ref="K24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>524.94000000000005</v>
+        <v>520.84</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="1"/>
-        <v>2.0048476402437756</v>
+        <v>1.9891889452976876</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>2.1659430618882061</v>
+        <v>1.616459202815006</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2784,7 +2754,7 @@
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,CHOOSE({1,2},F25:F69,J25:J69),2,FALSE)</f>
-        <v>4.1675628707617167E-3</v>
+        <v>3.1347665884082802E-3</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>53</v>
@@ -2795,7 +2765,7 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.28000000000000114</v>
+        <v>3.0900000000000034</v>
       </c>
       <c r="H25" s="9">
         <f>VLOOKUP(F25,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2803,23 +2773,23 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0801262717979694E-3</v>
+        <v>1.1919964928056128E-2</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>4.1675628707617167E-3</v>
+        <v>3.1347665884082802E-3</v>
       </c>
       <c r="K25" s="6" cm="1">
         <f t="array" ref="K25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>108.78</v>
+        <v>111.87</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>0.41962905659350946</v>
+        <v>0.43154902152156555</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>0.45334748908145955</v>
+        <v>0.35068633824523432</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2834,7 +2804,7 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,CHOOSE({1,2},F26:F70,J26:J70),2,FALSE)</f>
-        <v>2.2982095457574622E-2</v>
+        <v>1.7286723009615219E-2</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>55</v>
@@ -2845,7 +2815,7 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-7.9999999999998295E-2</v>
+        <v>10.219999999999999</v>
       </c>
       <c r="H26" s="9">
         <f>VLOOKUP(F26,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2853,23 +2823,23 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7018212770859205E-3</v>
+        <v>0.21740766814773094</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>2.2982095457574622E-2</v>
+        <v>1.7286723009615219E-2</v>
       </c>
       <c r="K26" s="6" cm="1">
         <f t="array" ref="K26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>55.09</v>
+        <v>65.31</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="1"/>
-        <v>1.1719166769333169</v>
+        <v>1.389324345081048</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>1.2660836387577861</v>
+        <v>1.12899587975797</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2884,7 +2854,7 @@
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,CHOOSE({1,2},F27:F71,J27:J71),2,FALSE)</f>
-        <v>4.5910605494579515E-3</v>
+        <v>3.4533140019960152E-3</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>57</v>
@@ -2895,7 +2865,7 @@
       </c>
       <c r="G27" s="2" cm="1">
         <f t="array" ref="G27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>7.7199999999999989</v>
+        <v>-5.0900000000000034</v>
       </c>
       <c r="H27" s="9">
         <f>VLOOKUP(F27,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2903,23 +2873,23 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>3.2806859509024781E-2</v>
+        <v>-2.1630429391312989E-2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>4.5910605494579515E-3</v>
+        <v>3.4533140019960152E-3</v>
       </c>
       <c r="K27" s="6" cm="1">
         <f t="array" ref="K27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>215.53</v>
+        <v>210.44</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="1"/>
-        <v>0.91591482253628398</v>
+        <v>0.89428439314497099</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>0.98951128022467227</v>
+        <v>0.72671539858004142</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2934,7 +2904,7 @@
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,CHOOSE({1,2},F28:F72,J28:J72),2,FALSE)</f>
-        <v>1.0259015196172042E-3</v>
+        <v>7.7166485699722701E-4</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
@@ -2945,7 +2915,7 @@
       </c>
       <c r="G28" s="2" cm="1">
         <f t="array" ref="G28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>7.1899999999999409</v>
+        <v>-38.189999999999941</v>
       </c>
       <c r="H28" s="9">
         <f>VLOOKUP(F28,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2953,23 +2923,23 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="2"/>
-        <v>6.8276130758190227E-3</v>
+        <v>-3.6265165975734384E-2</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>1.0259015196172042E-3</v>
+        <v>7.7166485699722701E-4</v>
       </c>
       <c r="K28" s="6" cm="1">
         <f t="array" ref="K28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>912.31</v>
+        <v>874.12</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="1"/>
-        <v>0.86632818987489613</v>
+        <v>0.83006302389916176</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>0.93594021536197147</v>
+        <v>0.67452768479841607</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2984,7 +2954,7 @@
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,CHOOSE({1,2},F29:F73,J29:J73),2,FALSE)</f>
-        <v>1.0898583119101048E-2</v>
+        <v>8.1977201741659927E-3</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>61</v>
@@ -2995,7 +2965,7 @@
       </c>
       <c r="G29" s="2" cm="1">
         <f t="array" ref="G29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.1599999999999966</v>
+        <v>1.3500000000000227</v>
       </c>
       <c r="H29" s="9">
         <f>VLOOKUP(F29,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3003,23 +2973,23 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" si="2"/>
-        <v>1.1702061276701923E-2</v>
+        <v>1.3618778209955095E-2</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>1.0898583119101048E-2</v>
+        <v>8.1977201741659927E-3</v>
       </c>
       <c r="K29" s="6" cm="1">
         <f t="array" ref="K29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>179.42</v>
+        <v>180.77</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="1"/>
-        <v>1.8099860640222976</v>
+        <v>1.8236048422322526</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>1.9554237832291099</v>
+        <v>1.4819018758839866</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3034,7 +3004,7 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,CHOOSE({1,2},F30:F74,J30:J74),2,FALSE)</f>
-        <v>4.6602030276124383E-3</v>
+        <v>3.5053217429899309E-3</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>63</v>
@@ -3045,7 +3015,7 @@
       </c>
       <c r="G30" s="2" cm="1">
         <f t="array" ref="G30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.76000000000001933</v>
+        <v>-7.0400000000000205</v>
       </c>
       <c r="H30" s="9">
         <f>VLOOKUP(F30,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3053,23 +3023,23 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>3.278330754670876E-3</v>
+        <v>-3.0367695411687431E-2</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>4.6602030276124383E-3</v>
+        <v>3.5053217429899309E-3</v>
       </c>
       <c r="K30" s="6" cm="1">
         <f t="array" ref="K30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>256.43</v>
+        <v>249.39</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="1"/>
-        <v>1.1061346781845149</v>
+        <v>1.0757669827728276</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>1.1950158623706575</v>
+        <v>0.87419218948425881</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3084,7 +3054,7 @@
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,CHOOSE({1,2},F31:F75,J31:J75),2,FALSE)</f>
-        <v>2.577285873208511E-3</v>
+        <v>1.9385885455482147E-3</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>65</v>
@@ -3095,7 +3065,7 @@
       </c>
       <c r="G31" s="2" cm="1">
         <f t="array" ref="G31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.7999999999999829</v>
+        <v>-4.789999999999992</v>
       </c>
       <c r="H31" s="9">
         <f>VLOOKUP(F31,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3103,23 +3073,23 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>9.0652654955751671E-3</v>
+        <v>-1.1427005716790834E-2</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>2.577285873208511E-3</v>
+        <v>1.9385885455482147E-3</v>
       </c>
       <c r="K31" s="6" cm="1">
         <f t="array" ref="K31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>172.89</v>
+        <v>168.1</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="1"/>
-        <v>0.41244572408684144</v>
+        <v>0.4010187183700506</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>0.44558695461901943</v>
+        <v>0.32587673450665489</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3134,7 +3104,7 @@
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,CHOOSE({1,2},F32:F76,J32:J76),2,FALSE)</f>
-        <v>7.2063747856514308E-3</v>
+        <v>5.420506805090884E-3</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>67</v>
@@ -3145,7 +3115,7 @@
       </c>
       <c r="G32" s="2" cm="1">
         <f t="array" ref="G32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.2699999999999818</v>
+        <v>2.6599999999999966</v>
       </c>
       <c r="H32" s="9">
         <f>VLOOKUP(F32,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3153,23 +3123,23 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>4.1823341082654147E-2</v>
+        <v>1.7743235610822999E-2</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>7.2063747856514308E-3</v>
+        <v>5.420506805090884E-3</v>
       </c>
       <c r="K32" s="6" cm="1">
         <f t="array" ref="K32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>179.54</v>
+        <v>182.2</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="1"/>
-        <v>1.1976016998372803</v>
+        <v>1.2153449354481032</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>1.2938325290158579</v>
+        <v>0.98761633988755904</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3184,7 +3154,7 @@
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,CHOOSE({1,2},F33:F77,J33:J77),2,FALSE)</f>
-        <v>8.3843897572085067E-3</v>
+        <v>6.3065886922747255E-3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>69</v>
@@ -3195,7 +3165,7 @@
       </c>
       <c r="G33" s="2" cm="1">
         <f t="array" ref="G33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.4600000000000009</v>
+        <v>0.38000000000000256</v>
       </c>
       <c r="H33" s="9">
         <f>VLOOKUP(F33,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3203,23 +3173,23 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>1.1330749870800213E-2</v>
+        <v>2.9490992814411696E-3</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>8.3843897572085067E-3</v>
+        <v>6.3065886922747255E-3</v>
       </c>
       <c r="K33" s="6" cm="1">
         <f t="array" ref="K33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>57.43</v>
+        <v>57.81</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="1"/>
-        <v>0.44570203087675059</v>
+        <v>0.44865113015819175</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.48151550375648455</v>
+        <v>0.36458389230040189</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3234,7 +3204,7 @@
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,CHOOSE({1,2},F34:F78,J34:J78),2,FALSE)</f>
-        <v>2.2626875976055941E-3</v>
+        <v>1.7019533240258974E-3</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>71</v>
@@ -3245,7 +3215,7 @@
       </c>
       <c r="G34" s="2" cm="1">
         <f t="array" ref="G34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.87000000000000455</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="H34" s="9">
         <f>VLOOKUP(F34,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3253,23 +3223,23 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8221250845998742E-3</v>
+        <v>1.2566379893792646E-4</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>2.2626875976055941E-3</v>
+        <v>1.7019533240258974E-3</v>
       </c>
       <c r="K34" s="6" cm="1">
         <f t="array" ref="K34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>145.84</v>
+        <v>145.9</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="1"/>
-        <v>0.30544680728510837</v>
+        <v>0.30557247108404628</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>0.32999035923479986</v>
+        <v>0.24831498997537846</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3284,7 +3254,7 @@
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,CHOOSE({1,2},F35:F79,J35:J79),2,FALSE)</f>
-        <v>7.9349636492043393E-3</v>
+        <v>5.9685383758142719E-3</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>73</v>
@@ -3295,7 +3265,7 @@
       </c>
       <c r="G35" s="2" cm="1">
         <f t="array" ref="G35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>7.0299999999999869</v>
+        <v>-4.5099999999999909</v>
       </c>
       <c r="H35" s="9">
         <f>VLOOKUP(F35,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3303,23 +3273,23 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>5.1633861385821683E-2</v>
+        <v>-3.3124995000007929E-2</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>7.9349636492043393E-3</v>
+        <v>5.9685383758142719E-3</v>
       </c>
       <c r="K35" s="6" cm="1">
         <f t="array" ref="K35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>134.13999999999999</v>
+        <v>129.63</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="1"/>
-        <v>0.9852298956321669</v>
+        <v>0.95210490063215891</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>1.06439602390427</v>
+        <v>0.773701629656804</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3334,7 +3304,7 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,CHOOSE({1,2},F36:F80,J36:J80),2,FALSE)</f>
-        <v>2.8979341156499454E-3</v>
+        <v>2.1797744444074997E-3</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>75</v>
@@ -3345,7 +3315,7 @@
       </c>
       <c r="G36" s="2" cm="1">
         <f t="array" ref="G36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>4.0224900000000048</v>
+        <v>6.693649999999991</v>
       </c>
       <c r="H36" s="9">
         <f>VLOOKUP(F36,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3353,23 +3323,23 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="2"/>
-        <v>1.0789909912144154E-2</v>
+        <v>1.7955018031971123E-2</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>2.8979341156499454E-3</v>
+        <v>2.1797744444074997E-3</v>
       </c>
       <c r="K36" s="6" cm="1">
         <f t="array" ref="K36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>289.59618</v>
+        <v>296.28982999999999</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="1"/>
-        <v>0.77681155033351945</v>
+        <v>0.79476656836549064</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>0.83923064978390238</v>
+        <v>0.64584499957184249</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3384,7 +3354,7 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,CHOOSE({1,2},F37:F81,J37:J81),2,FALSE)</f>
-        <v>5.5253482855204599E-3</v>
+        <v>4.1560686021763034E-3</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>77</v>
@@ -3395,7 +3365,7 @@
       </c>
       <c r="G37" s="2" cm="1">
         <f t="array" ref="G37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>27.900000000000006</v>
+        <v>-3.8300000000000125</v>
       </c>
       <c r="H37" s="9">
         <f>VLOOKUP(F37,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3403,23 +3373,23 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="2"/>
-        <v>0.14269153169354931</v>
+        <v>-1.9588120659007009E-2</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>5.5253482855204599E-3</v>
+        <v>4.1560686021763034E-3</v>
       </c>
       <c r="K37" s="6" cm="1">
         <f t="array" ref="K37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>154.9</v>
+        <v>151.07</v>
       </c>
       <c r="L37" s="6">
         <f t="shared" si="1"/>
-        <v>0.79221929244913214</v>
+        <v>0.77263117179012508</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.85587644942711927</v>
+        <v>0.6278572837307741</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3434,7 +3404,7 @@
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,CHOOSE({1,2},F38:F82,J38:J82),2,FALSE)</f>
-        <v>3.5729375586331272E-3</v>
+        <v>2.6875000158606034E-3</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>79</v>
@@ -3445,7 +3415,7 @@
       </c>
       <c r="G38" s="2" cm="1">
         <f t="array" ref="G38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>4.7699999999999818</v>
+        <v>-4.1399999999999864</v>
       </c>
       <c r="H38" s="9">
         <f>VLOOKUP(F38,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3453,23 +3423,23 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>1.5775318759489926E-2</v>
+        <v>-1.3691786093142207E-2</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>3.5729375586331272E-3</v>
+        <v>2.6875000158606034E-3</v>
       </c>
       <c r="K38" s="6" cm="1">
         <f t="array" ref="K38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>210.54</v>
+        <v>206.4</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="1"/>
-        <v>0.69629677392516176</v>
+        <v>0.68260498783201951</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>0.7522462735946186</v>
+        <v>0.55470000327362856</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3484,7 +3454,7 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,CHOOSE({1,2},F39:F83,J39:J83),2,FALSE)</f>
-        <v>6.9228906252180328E-4</v>
+        <v>5.2072750670158284E-4</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>81</v>
@@ -3495,7 +3465,7 @@
       </c>
       <c r="G39" s="2" cm="1">
         <f t="array" ref="G39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.6200000000000045</v>
+        <v>-5.55499999999995</v>
       </c>
       <c r="H39" s="9">
         <f>VLOOKUP(F39,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3503,23 +3473,23 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6788933137707009E-3</v>
+        <v>-3.5596383045786808E-3</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>6.9228906252180328E-4</v>
+        <v>5.2072750670158284E-4</v>
       </c>
       <c r="K39" s="6" cm="1">
         <f t="array" ref="K39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>625.88</v>
+        <v>620.32500000000005</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="1"/>
-        <v>0.40106326229878031</v>
+        <v>0.39750362399420164</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>0.43328987845114625</v>
+        <v>0.32302029059465942</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3534,7 +3504,7 @@
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,CHOOSE({1,2},F40:F84,J40:J84),2,FALSE)</f>
-        <v>2.5850644020008911E-3</v>
+        <v>1.9444394164100304E-3</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>83</v>
@@ -3545,7 +3515,7 @@
       </c>
       <c r="G40" s="2" cm="1">
         <f t="array" ref="G40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.0000000000002274E-2</v>
+        <v>-14.5</v>
       </c>
       <c r="H40" s="9">
         <f>VLOOKUP(F40,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3553,23 +3523,23 @@
       </c>
       <c r="I40" s="2">
         <f t="shared" si="2"/>
-        <v>1.4356777029157297E-4</v>
+        <v>-3.4695544487128825E-2</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>2.5850644020008911E-3</v>
+        <v>1.9444394164100304E-3</v>
       </c>
       <c r="K40" s="6" cm="1">
         <f t="array" ref="K40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>185.5</v>
+        <v>171</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="1"/>
-        <v>0.44386368981809632</v>
+        <v>0.40916814533096751</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>0.47952944657116531</v>
+        <v>0.33249914020611521</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3584,7 +3554,7 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,CHOOSE({1,2},F41:F85,J41:J85),2,FALSE)</f>
-        <v>1.0571020628844165E-2</v>
+        <v>7.9513335012073149E-3</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>85</v>
@@ -3595,7 +3565,7 @@
       </c>
       <c r="G41" s="2" cm="1">
         <f t="array" ref="G41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.2100000000000009</v>
+        <v>3.2100000000000009</v>
       </c>
       <c r="H41" s="9">
         <f>VLOOKUP(F41,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3603,23 +3573,23 @@
       </c>
       <c r="I41" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1624373401002567E-2</v>
+        <v>3.1409157745347617E-2</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>1.0571020628844165E-2</v>
+        <v>7.9513335012073149E-3</v>
       </c>
       <c r="K41" s="6" cm="1">
         <f t="array" ref="K41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>55.53</v>
+        <v>58.74</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="1"/>
-        <v>0.54334907464148052</v>
+        <v>0.57475823238682822</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>0.58700877551971653</v>
+        <v>0.4670613298609177</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3634,7 +3604,7 @@
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,CHOOSE({1,2},F42:F86,J42:J86),2,FALSE)</f>
-        <v>3.2341394156761394E-3</v>
+        <v>2.4326620849904157E-3</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>87</v>
@@ -3645,7 +3615,7 @@
       </c>
       <c r="G42" s="2" cm="1">
         <f t="array" ref="G42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>11.189999999999998</v>
+        <v>2.3599999999999568</v>
       </c>
       <c r="H42" s="9">
         <f>VLOOKUP(F42,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3653,23 +3623,23 @@
       </c>
       <c r="I42" s="2">
         <f t="shared" si="2"/>
-        <v>3.3498330402671347E-2</v>
+        <v>7.0648846961843563E-3</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>3.2341394156761394E-3</v>
+        <v>2.4326620849904157E-3</v>
       </c>
       <c r="K42" s="6" cm="1">
         <f t="array" ref="K42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>319.91000000000003</v>
+        <v>322.27</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="1"/>
-        <v>0.95768104371033003</v>
+        <v>0.96474592840651441</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>1.0346335404689537</v>
+        <v>0.78397401012986123</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3684,7 +3654,7 @@
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,CHOOSE({1,2},F43:F87,J43:J87),2,FALSE)</f>
-        <v>4.3179477607477269E-3</v>
+        <v>3.2478834250700473E-3</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>89</v>
@@ -3695,7 +3665,7 @@
       </c>
       <c r="G43" s="2" cm="1">
         <f t="array" ref="G43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.99000000000000909</v>
+        <v>-0.36000000000001364</v>
       </c>
       <c r="H43" s="9">
         <f>VLOOKUP(F43,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3703,23 +3673,23 @@
       </c>
       <c r="I43" s="2">
         <f t="shared" si="2"/>
-        <v>3.9568256690789656E-3</v>
+        <v>-1.438845697846938E-3</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>4.3179477607477269E-3</v>
+        <v>3.2478834250700473E-3</v>
       </c>
       <c r="K43" s="6" cm="1">
         <f t="array" ref="K43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>139.75</v>
+        <v>139.38999999999999</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="1"/>
-        <v>0.55855190631694984</v>
+        <v>0.55711306061910293</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>0.60343319956449482</v>
+        <v>0.45272247062051385</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3734,7 +3704,7 @@
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,CHOOSE({1,2},F44:F88,J44:J88),2,FALSE)</f>
-        <v>2.2168807058282466E-3</v>
+        <v>1.6674981956174282E-3</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>91</v>
@@ -3745,7 +3715,7 @@
       </c>
       <c r="G44" s="2" cm="1">
         <f t="array" ref="G44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>4.1000000000000227</v>
+        <v>-8.1000000000000227</v>
       </c>
       <c r="H44" s="9">
         <f>VLOOKUP(F44,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3753,23 +3723,23 @@
       </c>
       <c r="I44" s="2">
         <f t="shared" si="2"/>
-        <v>8.4131865389015844E-3</v>
+        <v>-1.6621173406122597E-2</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>2.2168807058282466E-3</v>
+        <v>1.6674981956174282E-3</v>
       </c>
       <c r="K44" s="6" cm="1">
         <f t="array" ref="K44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>229.08</v>
+        <v>220.98</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="1"/>
-        <v>0.47007140788574742</v>
+        <v>0.45345023447962479</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.50784303209113479</v>
+        <v>0.36848375126753924</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3784,7 +3754,7 @@
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,CHOOSE({1,2},F45:F89,J45:J89),2,FALSE)</f>
-        <v>1.7709117217318039E-3</v>
+        <v>1.3320482662066706E-3</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>93</v>
@@ -3795,7 +3765,7 @@
       </c>
       <c r="G45" s="2" cm="1">
         <f t="array" ref="G45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>7.3600000000000136</v>
+        <v>-16.819999999999993</v>
       </c>
       <c r="H45" s="9">
         <f>VLOOKUP(F45,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3803,23 +3773,23 @@
       </c>
       <c r="I45" s="2">
         <f t="shared" si="2"/>
-        <v>1.2064492696811707E-2</v>
+        <v>-2.7571299885920171E-2</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>1.7709117217318039E-3</v>
+        <v>1.3320482662066706E-3</v>
       </c>
       <c r="K45" s="6" cm="1">
         <f t="array" ref="K45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>289.32</v>
+        <v>272.5</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="1"/>
-        <v>0.47425258519586366</v>
+        <v>0.4466812853099435</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>0.51236017933144551</v>
+        <v>0.36298315254131774</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3867,7 +3837,7 @@
         <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
         <v>120</v>
@@ -3887,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
         <v>97</v>
@@ -3907,10 +3877,10 @@
         <v>7.76</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F3" s="17">
         <v>4721</v>
@@ -3933,7 +3903,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F4" s="17">
         <v>4774</v>
@@ -3956,7 +3926,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F5" s="17">
         <v>12610</v>
@@ -3979,7 +3949,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F6" s="17">
         <v>10234</v>
@@ -4002,7 +3972,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F7" s="17">
         <v>8440</v>
@@ -4022,13 +3992,13 @@
         <v>3.26</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G8" s="17">
         <v>1515465</v>
@@ -4045,10 +4015,10 @@
         <v>3.23</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G9" s="17">
         <v>1500020</v>
@@ -4068,7 +4038,7 @@
         <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F10" s="17">
         <v>26591</v>
@@ -4091,7 +4061,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F11" s="17">
         <v>8338</v>
@@ -4114,7 +4084,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F12" s="17">
         <v>6908</v>
@@ -4137,7 +4107,7 @@
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F13" s="17">
         <v>5392</v>
@@ -4160,7 +4130,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F14" s="17">
         <v>4418</v>
@@ -4183,7 +4153,7 @@
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F15" s="17">
         <v>9181</v>
@@ -4206,7 +4176,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F16" s="17">
         <v>3742</v>
@@ -4229,7 +4199,7 @@
         <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F17" s="17">
         <v>5312</v>
@@ -4252,7 +4222,7 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F18" s="17">
         <v>4451</v>
@@ -4275,7 +4245,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F19" s="17">
         <v>28000</v>
@@ -4298,7 +4268,7 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F20" s="17">
         <v>1187</v>
@@ -4321,7 +4291,7 @@
         <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F21" s="17">
         <v>3353</v>
@@ -4344,7 +4314,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F22" s="17">
         <v>4645</v>
@@ -4367,7 +4337,7 @@
         <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F23" s="17">
         <v>4134</v>
@@ -4390,7 +4360,7 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F24" s="17">
         <v>6144</v>
@@ -4413,7 +4383,7 @@
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F25" s="17">
         <v>6393</v>
@@ -4436,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F26" s="17">
         <v>2253</v>
@@ -4459,7 +4429,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F27" s="17">
         <v>9045</v>
@@ -4482,7 +4452,7 @@
         <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F28" s="17">
         <v>9427</v>
@@ -4505,7 +4475,7 @@
         <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F29" s="17">
         <v>12231</v>
@@ -4528,7 +4498,7 @@
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F30" s="17">
         <v>1864</v>
@@ -4551,7 +4521,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F31" s="17">
         <v>2048</v>
@@ -4574,7 +4544,7 @@
         <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F32" s="17">
         <v>4996</v>
@@ -4597,7 +4567,7 @@
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F33" s="17">
         <v>2897</v>
@@ -4620,7 +4590,7 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F34" s="17">
         <v>18009</v>
@@ -4643,7 +4613,7 @@
         <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F35" s="17">
         <v>5280</v>
@@ -4666,7 +4636,7 @@
         <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F36" s="17">
         <v>2049</v>
@@ -4689,7 +4659,7 @@
         <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F37" s="17">
         <v>2565</v>
@@ -4712,7 +4682,7 @@
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F38">
         <v>804</v>
@@ -4735,7 +4705,7 @@
         <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F39" s="17">
         <v>2991</v>
@@ -4758,7 +4728,7 @@
         <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F40" s="17">
         <v>9701</v>
@@ -4781,7 +4751,7 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F41" s="17">
         <v>4822</v>
@@ -4804,7 +4774,7 @@
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F42" s="17">
         <v>11623</v>
@@ -4827,7 +4797,7 @@
         <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F43" s="17">
         <v>2982</v>
@@ -4850,7 +4820,7 @@
         <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F44">
         <v>801</v>
@@ -4873,7 +4843,7 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F45" s="17">
         <v>2844</v>
@@ -4896,7 +4866,7 @@
         <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F46" s="17">
         <v>2618</v>
@@ -4919,7 +4889,7 @@
         <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F47" s="17">
         <v>19866</v>
@@ -4942,7 +4912,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F48" s="17">
         <v>6000</v>
@@ -4956,16 +4926,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C49">
         <v>0.19</v>
       </c>
       <c r="E49" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F49" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G49" s="17">
         <v>86477</v>
@@ -4976,13 +4946,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F50">
         <v>50</v>
@@ -4993,13 +4963,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F51">
         <v>4</v>

--- a/ciq reference/data/Shares.xlsx
+++ b/ciq reference/data/Shares.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18613\Desktop\cursor\FundsMonitor-CIQ\ciq reference\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B549054E-4C58-4B7B-90FB-E6A26A8DF9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3ED07E-53CC-4086-867A-86811D15C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="36" state="veryHidden" r:id="rId1"/>
-    <sheet name="shares" sheetId="1" r:id="rId2"/>
+    <sheet name="shares" sheetId="1" r:id="rId1"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="41" state="veryHidden" r:id="rId2"/>
     <sheet name="08_05_2025_agix_holdings" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"0456f195-9817-4d25-a522-43adbad16d4b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4e288186-4f80-4218-9a86-1e4a321a8ed9"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -691,49 +691,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BAABTAVMT0NBTAFI/////wFQhwAAACNDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACHY2sBAgAAAAYyMjQuOTgA65XNR1fW3QjPmHFSV9bdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAESbhyICAAAABjEzOC43NgDrlc1HV9bdCMGEbVJX1t0II0NJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAAYrBAUCAAAAAzEyNwDrlc1HV9bdCMrHcVJX1t0II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAGlV9AECAAAABjEyNy4xMQD6bs1HV9bdCEhmblJX1t0II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAADN+AAACAAAABjE3OC4yNgD6bs1HV9bdCCDicVJX1t0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAANPXgBAIAAAAGMjA3LjgxAPpuzUdX1t0IjC5vUlfW3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADibswCAgAAAAYyMjguMjUA+m7NR1fW3QijB3JSV9bdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADNhBcRAgAAAAI0NAD6bs1HV9bdCMGEbVJX1t0IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAJeABAAIAAAAGMjQ3LjQ5APpuzUdX1t0I/ERxUlfW3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI1LzgvNS5VU0QBAAAA8LZ9AQIAAAAGMjkyLjkzAPpuzUdX1t0IYptuUlfW3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAA9N1wAAgAAAAs0NC44Mjk1NDcyNAD6bs1HV9bdCDI0bVJX1t0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACP3AHACAAAABzMxLjk1MzEA+m7NR1fW3QiyXW1SV9bdCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADUiAAAAgAAAAU2MjguNQDrlc1HV9bdCLAQcVJX1t0II0NJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAIN9hAECAAAABjE2OS4wOQD6bs1HV9bdCLAQcVJX1t0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALZ5AAACAAAABTc2LjYzAPpuzUdX1t0I/ERxUlfW3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADauc4NAgAAAAYzNzcuOTMA+m7NR1fW3QhDMHBSV9bdCCNDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABpYQAAAgAAAAYyMDIuOTIA+m7NR1fW3QgAZ3BSV9bdCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAA9SQAAAgAAAAYyMTMuNzUA+m7NR1fW3QgAZ3BSV9bdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAKvM</t>
-  </si>
-  <si>
-    <t>BQACAAAACjM4LjQ3MzExODkA+m7NR1fW3QgmpG9SV9bdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA1MyBAwIAAAAGMjgxLjk2AOuVzUdX1t0IJqRvUlfW3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAsDxkEAIAAAAGMjA1Ljc3AOuVzUdX1t0IHY5wUlfW3QgjQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA51YAAAIAAAAGMjU1LjY3APpuzUdX1t0IHY5wUlfW3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAF9s8AQIAAAAGNzYzLjQ2APpuzUdX1t0Ix7dwUlfW3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAu6EECAIAAAAGMTMyLjk0APpuzUdX1t0I58xuUlfW3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAUhMiDwIAAAAGMTg1LjQ0AOuVzUdX1t0IunFxUlfW3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAZfqYAgIAAAAGMTczLjI3APpuzUdX1t0Ix7dwUlfW3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAS1UAAAIAAAAGNTI3Ljc1APpuzUdX1t0IslVvUlfW3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAsPCHDAIAAAAGMzQwLjMxAPpuzUdX1t0IslVvUlfW3Qgj</t>
-  </si>
-  <si>
-    <t>Q0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAAV8AAAIAAAAGMzM4Ljc0APpuzUdX1t0IslVvUlfW3QgjQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAw9v8AQIAAAAGMTE4LjEyAPpuzUdX1t0IjXxvUlfW3QgiQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAA0yQZAgAAAAU1Ny43NADrlc1HV9bdCKDpcFJX1t0II0NJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAALjKpQYCAAAABTU1Ljk3APpuzUdX1t0IJqRvUlfW3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAAZpBAACAAAABjEwOS4wNgD6bs1HV9bdCDI0bVJX1t0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAICEWw0CAAAABTgwLjA5APpuzUdX1t0IcwdvUlfW3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAs58UnAgAAAAYxMzcuMjMA+m7NR1fW3QjauW1SV9bdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC/+xkDAgAAAAU1NS4xNwD6bs1HV9bdCHMHb1JX1t0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACocQAAAgAAAAYxOTQuNjcA+m7NR1fW3Qhim25SV9bdCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNF</t>
-  </si>
-  <si>
-    <t>LjIwMjUvOC81LlVTRAEAAAAo7wUAAgAAAAY2ODkuNjMA+m7NR1fW3QgKCG5SV9bdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAJ16DQACAAAACzE5MC4wODM4OTM1APpuzUdX1t0IWjZuUlfW3QgjQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAEMaiAQIAAAAGMzA4LjcyAOuVzUdX1t0I58xuUlfW3QgjQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA1YIAAAIAAAAGMTQ2LjcxAPpuzUdX1t0IWjZuUlfW3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAJgF6EAIAAAAFMTcuMTUA+m7NR1fW3Qj14G1SV9bdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAAvuAQACAAAADzI4NS41NzM2OTQ2NzYyNQD6bs1HV9bdCGKbblJX1t0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAv3ReAQIAAAAGOTA1LjEyAPpuzUdX1t0ISGZuUlfW3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC6PvwRAgAAAAUzNS45MQD6bs1HV9bdCPXgbVJX1t0II0NJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAIdjawECAAAABjIyOS4wOACweHZXV9bdCEIg3VdX1t0IIkNJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA</t>
-  </si>
-  <si>
-    <t>RJuHIgIAAAAGMTM5Ljc1ALB4dldX1t0IJpjdV1fW3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAABisEBQIAAAAFMTU0LjkAsHh2V1fW3QgZTd5XV9bdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABpVfQBAgAAAAYxMzQuMTQAsHh2V1fW3Qhtxd5XV9bdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAzfgAAAgAAAAYxNzkuNDIAEWN2V1fW3QiVPd9XV9bdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAADT14AQCAAAABjIxNS41MwARY3ZXV9bdCPa231dX1t0IIkNJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA4m7MAgIAAAAGMjM1LjgyABFjdldX1t0IQzLgV1fW3QgjQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAzYQXEQIAAAAFNDMuNzYAEWN2V1fW3QiKqeBXV9bdCCJDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACXgAQACAAAABjI0OS4xNwARY3ZXV9bdCI0h4VdX1t0II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAPC2fQECAAAABjMwMS42NwARY3ZXV9bdCA+F4VdX1t0IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAPTdcAAIAAAALNDQuMDg2NzAzNzYAEk52V1fW3Qh6JOJX</t>
-  </si>
-  <si>
-    <t>V9bdCCNDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAj9wBwAgAAAAczMi43MDAyABJOdldX1t0IbYLiV1fW3QgjQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA1IgAAAIAAAAGNjI1Ljg4ALB4dldX1t0IF9XdV1fW3QgjQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAtnkAAAIAAAAFNzUuMzIAEWN2V1fW3Qj2tt9XV9bdCCNDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABpYQAAAgAAAAYyMTMuMjUAEk52V1fW3QhjT+JXV9bdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAKvMBQACAAAACzM3LjU3Mzg5NTI1ABJOdldX1t0IyrriV1fW3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAg32EAQIAAAAGMTcyLjg5ABFjdldX1t0IbcXeV1fW3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADauc4NAgAAAAYzOTAuNTcAEWN2V1fW3QiKqeBXV9bdCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAA9SQAAAgAAAAYyMjIuMzEAEk52V1fW3QgZv+FXV9bdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA1MyBAwIAAAAGMjg5LjMyALB4dldX1t0I6lvdV1fW3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI1LzgvNi5VU0QBAAAAsDxkEAIAAAAGMjEwLjU0ALB4dldX1t0IGU3eV1fW3QgjQ0lRLk9SQ0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA51YAAAIAAAAGMjU2LjQzABFjdldX1t0IGnrfV1fW3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAF9s8AQIAAAAGNzcxLjk5ABFjdldX1t0IQzLgV1fW3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAu6EECAIAAAAGMTM2Ljk2ABFjdldX1t0IjSHhV1fW3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAUhMiDwIAAAAFMTg1LjUAsHh2V1fW3QgX1d1XV9bdCCNDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABl+pgCAgAAAAYxNzkuNTQAEWN2V1fW3QiXAd9XV9bdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABLVQAAAgAAAAY1MjQuOTQAEWN2V1fW3QgH9d9XV9bdCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACw8IcMAgAAAAYzNDMuNjEAEWN2V1fW3QiF5eBXV9bdCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAABXwAAAgAAAAYzNDUuNjIAEk52V1fW3QhjT+JXV9bdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAC4yqUGAgAAAAU1Ny40MwCw</t>
-  </si>
-  <si>
-    <t>eHZXV9bdCJcB31dX1t0IIUNJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAGaQQAAgAAAAYxMDguNzgAEWN2V1fW3QgH9d9XV9bdCCNDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACAhFsNAgAAAAU4MC42NAARY3ZXV9bdCIXl4FdX1t0IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAALOfFJwIAAAAGMTM2LjEyABFjdldX1t0IeiTiV1fW3QgjQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAw9v8AQIAAAAGMTM4Ljc4ABJOdldX1t0Ix+zhV1fW3QgiQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAA0yQZAgAAAAU1NS41MwCweHZXV9bdCPEQ3ldX1t0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAANWCAAACAAAABjE0NS44NACweHZXV9bdCCKJ3ldX1t0II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAL/7GQMCAAAABTU1LjA5ABFjdldX1t0IGnrfV1fW3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAKhxAAACAAAABjE5Ni4wOQARY3ZXV9bdCPNt4FdX1t0ILENJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACjvBQACAAAABjY5MC45NgARY3ZXV9bdCKld4VdX1t0II0NJUS5U</t>
-  </si>
-  <si>
-    <t>U0xBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAABDGogECAAAABjMxOS45MQCweHZXV9bdCCaY3VdX1t0IK0NJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAnXoNAAIAAAALMTg2LjU4MTkzOTUAEk52V1fW3QhtguJXV9bdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALo+/BECAAAABTM2Ljc3ABFjdldX1t0IQzLgV1fW3QgiQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAL7gEAAgAAAA4yODkuNTk2MTgyODg1MQCweHZXV9bdCPEQ3ldX1t0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAv3ReAQIAAAAGOTEyLjMxABFjdldX1t0IlT3fV1fW3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAJgF6EAIAAAAFMTcuMjQAEWN2V1fW3QiF5eBXV9bdCCNDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACHY2sBAgAAAAYyMjAuOTgAsHh2V1fW3QhCIN1XV9bdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAESbhyICAAAABjEzOS4zOQCweHZXV9bdCCaY3VdX1t0II0NJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAAYrBAUCAAAABjE1MS4wNwCweHZXV9bdCBlN3ldX1t0II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0Uu</t>
-  </si>
-  <si>
-    <t>MjAyNS84LzcuVVNEAQAAAGlV9AECAAAABjEyOS42MwCweHZXV9bdCG3F3ldX1t0II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAADN+AAACAAAABjE4MC43NwARY3ZXV9bdCJU931dX1t0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAANPXgBAIAAAAGMjEwLjQ0ABFjdldX1t0I9rbfV1fW3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADibswCAgAAAAYyMjcuODYAEWN2V1fW3QhDMuBXV9bdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADNhBcRAgAAAAQ0MS42ABFjdldX1t0IiqngV1fW3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAl4AEAAgAAAAYyNDAuODgAEWN2V1fW3QiNIeFXV9bdCCNDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADwtn0BAgAAAAYzMDMuNzYAEWN2V1fW3QgZv+FXV9bdCChDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAD03XAACAAAACzQ1LjM3ODQzMjM5ABJOdldX1t0IeiTiV1fW3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAI/cAcAIAAAAHMzIuODE3NAASTnZXV9bdCG2C4ldX1t0II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAFITIg8CAAAAAzE3</t>
-  </si>
-  <si>
-    <t>MQCweHZXV9bdCBfV3VdX1t0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALuhBAgCAAAABjEzNi4zOAARY3ZXV9bdCI0h4VdX1t0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAICEWw0CAAAABTc2LjM3ABFjdldX1t0IheXgV1fW3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAAV8AAAIAAAAGMzM4LjI3ABJOdldX1t0IY0/iV1fW3QgiQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAA0yQZAgAAAAU1OC43NACweHZXV9bdCPEQ3ldX1t0II0NJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAANSIAAACAAAABzYyMC4zMjUAsHh2V1fW3QgX1d1XV9bdCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACDfYQBAgAAAAUxNjguMQARY3ZXV9bdCG3F3ldX1t0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALZ5AAACAAAABTc1Ljg1ABFjdldX1t0I9rbfV1fW3QgjQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAaWEAAAIAAAAGMjIwLjAzABJOdldX1t0IY0/iV1fW3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAsDxkEAIAAAAFMjA2LjQAsHh2V1fW3QgZTd5XV9bdCCNDSVEuT1JDTC5JUV9DTE9TRVBS</t>
-  </si>
-  <si>
-    <t>SUNFLjIwMjUvOC83LlVTRAEAAADnVgAAAgAAAAYyNDkuMzkAEWN2V1fW3Qgaet9XV9bdCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAX2zwBAgAAAAY3NjEuODMAEWN2V1fW3QjzbeBXV9bdCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAA9SQAAAgAAAAYyMjMuMTMAEk52V1fW3QjH7OFXV9bdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAKvMBQACAAAACzM5LjUxNzc0OTI0ABJOdldX1t0I0MjiV1fW3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAZfqYAgIAAAAFMTgyLjIAEWN2V1fW3QiXAd9XV9bdCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAABmkEAAIAAAAGMTExLjg3ABFjdldX1t0IB/XfV1fW3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAsPCHDAIAAAAGMzkwLjg0ABFjdldX1t0IheXgV1fW3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADauc4NAgAAAAY0MzcuMzQAEWN2V1fW3QiKqeBXV9bdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA1MyBAwIAAAAFMjcyLjUAsHh2V1fW3QjqW91XV9bdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABLVQAAAgAAAAY1</t>
-  </si>
-  <si>
-    <t>MjAuODQAEWN2V1fW3QgH9d9XV9bdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADD2/wBAgAAAAYxMzkuMjgAEWN2V1fW3QjH7OFXV9bdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC4yqUGAgAAAAU1Ny44MQCweHZXV9bdCJcB31dX1t0IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAALOfFJwIAAAAGMTM1LjU3ABFjdldX1t0Ix+zhV1fW3QgjQ0lRLlRTTEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAEMaiAQIAAAAGMzIyLjI3ALB4dldX1t0IJpjdV1fW3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAv/sZAwIAAAAFNjUuMzEAEWN2V1fW3Qj2tt9XV9bdCCNDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAmAXoQAgAAAAUxNi45MwARY3ZXV9bdCIXl4FdX1t0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAANWCAAACAAAABTE0NS45ALB4dldX1t0IIoneV1fW3QgiQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC/dF4BAgAAAAY4NzQuMTIAEWN2V1fW3QiVPd9XV9bdCC1DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAqHEAAAIAAAAGMTk2LjUyABFjdldX1t0I823gV1fW3QgiQ0lRLlNB</t>
-  </si>
-  <si>
-    <t>UC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAL7gEAAgAAAA8yOTYuMjg5ODM0ODQwNzUAsHh2V1fW3QjxEN5XV9bdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALo+/BECAAAABTM0LjU4ABFjdldX1t0IQzLgV1fW3QgsQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAKO8FAAIAAAAGNzEzLjEyABFjdldX1t0ID4XhV1fW3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACdeg0AAgAAAAoxODkuMDM1ODgyABJOdldX1t0IbYLiV1fW3Qg=</t>
+    <t>BAABTAVMT0NBTAFI/////wFQhwAAACtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAJ16DQACAAAACjE4OS4wMzU4ODIAtQRF0y7X3Qg1zbL1LtfdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAJ16DQACAAAACzE4Ni41ODE5Mzk1ALUERdMu190I1u778y7X3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAI/cAcAIAAAAHMzIuODE3NAC1BEXTLtfdCMYts/Uu190II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACP3AHACAAAABzMyLjcwMDIAtQRF0y7X3QjW7vvzLtfdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAKvMBQACAAAACzM5LjUxNzc0OTI0ALUERdMu190IZTK09S7X3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACrzAUAAgAAAAszNy41NzM4OTUyNQC1BEXTLtfdCM7o/PMu190IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAPTdcAAIAAAALNDUuMzc4NDMyMzkAtQRF0y7X3QgEVbL1LtfdCChDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAD03XAACAAAACzQ0LjA4NjcwMzc2ALUERdMu190IEgz68y7X3QgjQ0lRLkFBUEwuSVFfQ0xP</t>
+  </si>
+  <si>
+    <t>U0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAaWEAAAIAAAAGMjIwLjAzALUERdMu190IZTK09S7X3QgjQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAaWEAAAIAAAAGMjEzLjI1ALUERdMu190Izuj88y7X3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAAV8AAAIAAAAGMzM4LjI3ALUERdMu190IlIqz9S7X3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAAV8AAAIAAAAGMzQ1LjYyALUERdMu190IIJ/88y7X3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAPUkAAAIAAAAGMjIzLjEzALUERdMu190IZTK09S7X3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAPUkAAAIAAAAGMjIyLjMxALUERdMu190Izuj88y7X3QgjQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAw9v8AQIAAAAGMTM5LjI4ALUERdMu190IlIqz9S7X3QgjQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAw9v8AQIAAAAGMTM4Ljc4ALUERdMu190I1u778y7X3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAs58UnAgAAAAYxMzUuNTcAtQRF0y7X3Qg1zbL1LtfdCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACznxScCAAAABjEz</t>
+  </si>
+  <si>
+    <t>Ni4xMgC1BEXTLtfdCFmN+/Mu190ILENJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACjvBQACAAAABjcxMy4xMgC1BEXTLtfdCDXNsvUu190ILENJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACjvBQACAAAABjY5MC45NgC1BEXTLtfdCNbu+/Mu190II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAPC2fQECAAAABjMwMy43NgC1BEXTLtfdCA28sfUu190II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAPC2fQECAAAABjMwMS42NwC1BEXTLtfdCBIM+vMu190II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACYBehACAAAABTE2LjkzALUERdMu190Ixi2z9S7X3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAJgF6EAIAAAAFMTcuMjQAtQRF0y7X3QjW7vvzLtfdCCJDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACXgAQACAAAABjI0MC44OAC1BEXTLtfdCGUytPUu190IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAJeABAAIAAAAGMjQ5LjE3ALUERdMu190Izuj88y7X3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAu6EECAIAAAAGMTM2LjM4ALUERdMu190IlIqz9S7X</t>
+  </si>
+  <si>
+    <t>3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAu6EECAIAAAAGMTM2Ljk2ALUERdMu190IIJ/88y7X3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADauc4NAgAAAAY0MzcuMzQAtQRF0y7X3QhlMrT1LtfdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAANq5zg0CAAAABjM5MC41NwC1BEXTLtfdCM7o/PMu190II0NJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALDwhwwCAAAABjM5MC44NAC1BEXTLtfdCJSKs/Uu190II0NJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALDwhwwCAAAABjM0My42MQC1BEXTLtfdCCCf/PMu190II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAICEWw0CAAAABTc2LjM3ALUERdMu190INc2y9S7X3QgjQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAgIRbDQIAAAAFODAuNjQAtQRF0y7X3QjW7vvzLtfdCC1DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAqHEAAAIAAAAGMTk2LjUyALUERdMu190INc2y9S7X3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAKhxAAACAAAABjE5Ni4wOQC1BEXTLtfdCFmN+/Mu190II0NJUS5HVExCLklRX0NM</t>
+  </si>
+  <si>
+    <t>T1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAM2EFxECAAAABDQxLjYAtQRF0y7X3QjDmLL1LtfdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADNhBcRAgAAAAU0My43NgC1BEXTLtfdCFmN+/Mu190IIkNJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAuj78EQIAAAAFMzQuNTgAtQRF0y7X3Qg1zbL1LtfdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALo+/BECAAAABTM2Ljc3ALUERdMu190IWY378y7X3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADibswCAgAAAAYyMjcuODYAtQRF0y7X3QjgpbT1LtfdCCJDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAOJuzAICAAAABjIzNS44MgC1BEXTLtfdCOPb/fMu190II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAABfbPAECAAAABjc2MS44MwC1BEXTLtfdCMQKtPUu190II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAABfbPAECAAAABjc3MS45OQC1BEXTLtfdCM7o/PMu190II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALZ5AAACAAAABTc1Ljg1ALUERdMu190IZTK09S7X3QgjQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAtnkAAAIAAAAFNzUuMzIAtQRF</t>
+  </si>
+  <si>
+    <t>0y7X3QjO6PzzLtfdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABLVQAAAgAAAAY1MjAuODQAtQRF0y7X3QiUirP1LtfdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABLVQAAAgAAAAY1MjQuOTQAtQRF0y7X3Qggn/zzLtfdCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAABmkEAAIAAAAGMTExLjg3ALUERdMu190Ixi2z9S7X3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAAZpBAACAAAABjEwOC43OAC1BEXTLtfdCNbu+/Mu190II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAL/7GQMCAAAABTY1LjMxALUERdMu190INc2y9S7X3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAv/sZAwIAAAAFNTUuMDkAtQRF0y7X3QhZjfvzLtfdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAADT14AQCAAAABjIxMC40NAC1BEXTLtfdCARVsvUu190IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAANPXgBAIAAAAGMjE1LjUzALUERdMu190I/lT78y7X3QgiQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC/dF4BAgAAAAY4NzQuMTIAtQRF0y7X3QjDmLL1LtfdCCJDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84</t>
+  </si>
+  <si>
+    <t>LzYuVVNEAQAAAL90XgECAAAABjkxMi4zMQC1BEXTLtfdCFmN+/Mu190II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAADN+AAACAAAABjE4MC43NwC1BEXTLtfdCOCltPUu190II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAADN+AAACAAAABjE3OS40MgC1BEXTLtfdCM7o/PMu190II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAOdWAAACAAAABjI0OS4zOQC1BEXTLtfdCMQKtPUu190II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAOdWAAACAAAABjI1Ni40MwC1BEXTLtfdCM7o/PMu190II0NJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAIN9hAECAAAABTE2OC4xALUERdMu190IZTK09S7X3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAg32EAQIAAAAGMTcyLjg5ALUERdMu190Izuj88y7X3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAZfqYAgIAAAAFMTgyLjIAtQRF0y7X3Qg10rP1LtfdCCNDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABl+pgCAgAAAAYxNzkuNTQAtQRF0y7X3QjO6PzzLtfdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC4yqUGAgAAAAU1Ny44MQC1BEXTLtfdCMYt</t>
+  </si>
+  <si>
+    <t>s/Uu190II0NJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALjKpQYCAAAABTU3LjQzALUERdMu190I1u778y7X3QgjQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA1YIAAAIAAAAFMTQ1LjkAtQRF0y7X3QjGLbP1LtfdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADVggAAAgAAAAYxNDUuODQAtQRF0y7X3QjW7vvzLtfdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABpVfQBAgAAAAYxMjkuNjMAtQRF0y7X3QgEVbL1LtfdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABpVfQBAgAAAAYxMzQuMTQAtQRF0y7X3Qj+VPvzLtfdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAAvuAQACAAAADzI5Ni4yODk4MzQ4NDA3NQC1BEXTLtfdCMOYsvUu190IIkNJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAC+4BAAIAAAAOMjg5LjU5NjE4Mjg4NTEAtQRF0y7X3QhZjfvzLtfdCCNDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAGKwQFAgAAAAYxNTEuMDcAtQRF0y7X3QjgpbT1LtfdCCNDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAGKwQFAgAAAAUxNTQuOQC1BEXTLtfdCM7o/PMu190II0NJUS5TTk9XLklRX0NM</t>
+  </si>
+  <si>
+    <t>T1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALA8ZBACAAAABTIwNi40ALUERdMu190INdKz9S7X3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAsDxkEAIAAAAGMjEwLjU0ALUERdMu190Izuj88y7X3QgjQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA1IgAAAIAAAAHNjIwLjMyNQC1BEXTLtfdCGUytPUu190II0NJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAANSIAAACAAAABjYyNS44OAC1BEXTLtfdCM7o/PMu190II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAFITIg8CAAAAAzE3MQC1BEXTLtfdCDXSs/Uu190II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAFITIg8CAAAABTE4NS41ALUERdMu190Izuj88y7X3QgiQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAA0yQZAgAAAAU1OC43NAC1BEXTLtfdCMYts/Uu190IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAANMkGQIAAAAFNTUuNTMAtQRF0y7X3QjW7vvzLtfdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAQxqIBAgAAAAYzMjIuMjcAtQRF0y7X3QjGLbP1LtfdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAQxqIBAgAAAAYzMTkuOTEA</t>
+  </si>
+  <si>
+    <t>tQRF0y7X3QjW7vvzLtfdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAESbhyICAAAABjEzOS4zOQC1BEXTLtfdCARVsvUu190IIkNJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAARJuHIgIAAAAGMTM5Ljc1ALUERdMu190I/lT78y7X3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAh2NrAQIAAAAGMjIwLjk4ALUERdMu190I4KW09S7X3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAh2NrAQIAAAAGMjI5LjA4ALUERdMu190Izuj88y7X3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAANTMgQMCAAAABTI3Mi41ALUERdMu190INdKz9S7X3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAANTMgQMCAAAABjI4OS4zMgC1BEXTLtfdCM7o/PMu190II0NJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAIdjawECAAAABjIyMi4wNwAk++HzLtfdCGUytPUu190IIkNJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAARJuHIgIAAAAGMTM5LjkzACT74fMu190IBFWy9S7X3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAABisEBQIAAAAHMTQ5LjYwOQAk++HzLtfdCOCltPUu190II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0Uu</t>
+  </si>
+  <si>
+    <t>MjAyNS84LzguVVNEAQAAAGlV9AECAAAABjEyOC43MQAk++HzLtfdCARVsvUu190II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAADN+AAACAAAABzE4Mi43MzUAJPvh8y7X3QjgpbT1LtfdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAADT14AQCAAAABTIwNC42ACT74fMu190IBFWy9S7X3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADibswCAgAAAAYyMDkuMTgAJPvh8y7X3QjgpbT1LtfdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADNhBcRAgAAAAU0MC40MgAk++HzLtfdCMOYsvUu190IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAJeABAAIAAAAGMjQwLjUxACT74fMu190IZTK09S7X3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA8LZ9AQIAAAAGMzA0Ljk3ACT74fMu190IDbyx9S7X3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAA9N1wAAgAAAAo0NS4xNTgwNTM1ACT74fMu190IDbyx9S7X3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAI/cAcAIAAAAGMzIuODQ1ACT74fMu190Ixi2z9S7X3QgjQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA1IgAAAIAAAAGNjE5</t>
+  </si>
+  <si>
+    <t>LjQyACT74fMu190IZTK09S7X3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAg32EAQIAAAAGMTY3LjA2ACT74fMu190IZTK09S7X3QgjQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAtnkAAAIAAAAFNzcuMzQAJPvh8y7X3QhlMrT1LtfdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAANq5zg0CAAAABjQ1NS45OAAk++HzLtfdCGUytPUu190II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAGlhAAACAAAABjIyOS4zNQAk++HzLtfdCGUytPUu190IKENJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAq8wFAAIAAAALMzkuMzA0MjMxNzUAJPvh8y7X3QhlMrT1LtfdCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAA9SQAAAgAAAAYyMjIuNjkAJPvh8y7X3QhlMrT1LtfdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA1MyBAwIAAAAHMjY5LjY5NQAk++HzLtfdCDXSs/Uu190II0NJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALA8ZBACAAAABjE5MS43MwAk++HzLtfdCDXSs/Uu190II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAOdWAAACAAAABjI1MC4wNQAk++HzLtfdCMQKtPUu190II0NJUS5N</t>
+  </si>
+  <si>
+    <t>RVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAABfbPAECAAAABTc2OS4zACT74fMu190IxAq09S7X3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAu6EECAIAAAAGMTMwLjkxACT74fMu190IlIqz9S7X3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAUhMiDwIAAAAGMTY4LjA2ACT74fMu190INdKz9S7X3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAZfqYAgIAAAAGMTg2Ljk2ACT74fMu190INdKz9S7X3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAS1UAAAIAAAAGNTIyLjA0ACT74fMu190IlIqz9S7X3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAsPCHDAIAAAAGMzcwLjM0ACT74fMu190IlIqz9S7X3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAAV8AAAIAAAAGMzQxLjA1ACT74fMu190IlIqz9S7X3QgjQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAuMqlBgIAAAAFNTguNTgAJPvh8y7X3QjGLbP1LtfdCCNDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACAhFsNAgAAAAU3NC41MQAk++HzLtfdCDXNsvUu190IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAALOfF</t>
+  </si>
+  <si>
+    <t>JwIAAAAFMTM4LjUAJPvh8y7X3Qg1zbL1LtfdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADD2/wBAgAAAAYxMzkuMTgAJPvh8y7X3QiUirP1LtfdCCJDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAADTJBkCAAAABTYwLjg3ACT74fMu190Ixi2z9S7X3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAAZpBAACAAAABjExOC44OAAk++HzLtfdCMYts/Uu190II0NJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAABDGogECAAAABzMyOS42NzUAJPvh8y7X3QjGLbP1LtfdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADVggAAAgAAAAYxNDcuNTYAJPvh8y7X3QjGLbP1LtfdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAC/+xkDAgAAAAU2OC43OAAk++HzLtfdCDXNsvUu190ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACocQAAAgAAAAcyMDEuNDM5ACT74fMu190INc2y9S7X3QgsQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAKO8FAAIAAAAGNzIyLjMyACT74fMu190INc2y9S7X3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACdeg0AAgAAAAsxODQu</t>
+  </si>
+  <si>
+    <t>NjMyMDM0NQAk++HzLtfdCDXNsvUu190II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAACYBehACAAAABTE2LjMzACT74fMu190Ixi2z9S7X3QgiQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAL7gEAAgAAAA4yOTEuNzYzODgyMzg5NAAk++HzLtfdCMOYsvUu190IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAv3ReAQIAAAAGODcyLjUxACT74fMu190Iw5iy9S7X3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAC6PvwRAgAAAAUzMy43NAAk++HzLtfdCDXNsvUu190I</t>
   </si>
 </sst>
 </file>
@@ -1418,75 +1418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12543DB-8C7B-45A7-B721-E10C924A4416}">
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1560,20 +1496,20 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP(A2,CHOOSE({1,2},F2:F45,J2:J45),2,FALSE)</f>
-        <v>3.0196994614592413E-3</v>
+        <v>1.0546636005732124E-3</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="13">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.4539399999999887</v>
+        <v>-4.4038500000000056</v>
       </c>
       <c r="H2" s="9">
         <f>VLOOKUP(F2,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1581,30 +1517,30 @@
       </c>
       <c r="I2" s="2">
         <f>G2*H2</f>
-        <v>9.1188264498776386E-3</v>
+        <v>-1.6364680416511356E-2</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J45" si="0">$P$7*H2</f>
-        <v>3.0196994614592413E-3</v>
+        <v>1.0546636005732124E-3</v>
       </c>
       <c r="K2" s="6" cm="1">
         <f t="array" ref="K2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>189.03587999999999</v>
+        <v>184.63202999999999</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L45" si="1">K2*H2</f>
-        <v>0.70245620615007021</v>
+        <v>0.6860915257335588</v>
       </c>
       <c r="M2" s="2">
         <f>J2*K2</f>
-        <v>0.57083154503247369</v>
+        <v>0.19472468154094136</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>125</v>
       </c>
       <c r="O2" s="6" cm="1">
         <f t="array" ref="O2">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.817399999999999</v>
+        <v>32.844999999999999</v>
       </c>
       <c r="P2" s="2">
         <v>1250002</v>
@@ -1619,20 +1555,20 @@
       </c>
       <c r="C3" s="7">
         <f>VLOOKUP(A3,CHOOSE({1,2},F3:F47,J3:J47),2,FALSE)</f>
-        <v>1.820270934787056E-2</v>
+        <v>6.3574985610441222E-3</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" ref="G3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.9438499999999976</v>
+        <v>-0.2135200000000026</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP(F3,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1640,30 +1576,30 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I45" si="2">G3*H3</f>
-        <v>4.3542170332527413E-2</v>
+        <v>-4.7828403474555019E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>1.820270934787056E-2</v>
+        <v>6.3574985610441222E-3</v>
       </c>
       <c r="K3" s="6" cm="1">
         <f t="array" ref="K3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>39.517749999999999</v>
+        <v>39.304229999999997</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>0.88519618368610609</v>
+        <v>0.88041334333865062</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M45" si="3">J3*K3</f>
-        <v>0.71933011733181185</v>
+        <v>0.24987658566794721</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>126</v>
       </c>
       <c r="O3" s="12">
         <f>SUM(M2:M45)</f>
-        <v>28.871205471946652</v>
+        <v>10.111189411648899</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -1676,7 +1612,7 @@
       </c>
       <c r="C4" s="7">
         <f>VLOOKUP(A4,CHOOSE({1,2},F4:F48,J4:J48),2,FALSE)</f>
-        <v>3.9005805745436915E-3</v>
+        <v>1.3623211202237404E-3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1689,7 +1625,7 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.2917300000000012</v>
+        <v>-0.22037999999999869</v>
       </c>
       <c r="H4" s="9">
         <f>VLOOKUP(F4,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1697,30 +1633,30 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>6.2002940795294779E-3</v>
+        <v>-1.0578223074843016E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>3.9005805745436915E-3</v>
+        <v>1.3623211202237404E-3</v>
       </c>
       <c r="K4" s="6" cm="1">
         <f t="array" ref="K4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>45.378430000000002</v>
+        <v>45.158050000000003</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="1"/>
-        <v>0.2178161154942152</v>
+        <v>0.2167582931867309</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="3"/>
-        <v>0.1770022225612907</v>
+        <v>6.1519765263119683E-2</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>129</v>
       </c>
       <c r="O4" s="6">
         <f>SUM(L2:L45)</f>
-        <v>35.528445544559126</v>
+        <v>35.625691183686108</v>
       </c>
       <c r="P4" s="2"/>
     </row>
@@ -1733,7 +1669,7 @@
       </c>
       <c r="C5" s="7">
         <f>VLOOKUP(A5,CHOOSE({1,2},F5:F49,J5:J49),2,FALSE)</f>
-        <v>4.4908684348246367E-3</v>
+        <v>1.5684857164175998E-3</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1744,7 +1680,7 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.7800000000000011</v>
+        <v>9.3199999999999932</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP(F5,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1752,23 +1688,23 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>3.7468932049708727E-2</v>
+        <v>5.1505965590455012E-2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>4.4908684348246367E-3</v>
+        <v>1.5684857164175998E-3</v>
       </c>
       <c r="K5" s="6" cm="1">
         <f t="array" ref="K5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>220.03</v>
+        <v>229.35</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>1.2159718464450457</v>
+        <v>1.2674778120355006</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>0.98812578171446486</v>
+        <v>0.35973219906037651</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>128</v>
@@ -1785,7 +1721,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,CHOOSE({1,2},F6:F50,J6:J50),2,FALSE)</f>
-        <v>1.4646680057411564E-3</v>
+        <v>5.1155158064401459E-4</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -1796,7 +1732,7 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-7.3500000000000227</v>
+        <v>2.7800000000000296</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP(F6,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1804,23 +1740,23 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3247618803809955E-2</v>
+        <v>5.0106639829376812E-3</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.4646680057411564E-3</v>
+        <v>5.1155158064401459E-4</v>
       </c>
       <c r="K6" s="6" cm="1">
         <f t="array" ref="K6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>338.27</v>
+        <v>341.05</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>0.60969687248500404</v>
+        <v>0.61470753646794174</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>0.49545324630206095</v>
+        <v>0.17446466657864118</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="5" t="s">
@@ -1842,7 +1778,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,CHOOSE({1,2},F7:F51,J7:J51),2,FALSE)</f>
-        <v>6.6530902666466904E-3</v>
+        <v>2.3236657240616266E-3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
@@ -1853,7 +1789,7 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.81999999999999318</v>
+        <v>-0.43999999999999773</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP(F7,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1861,38 +1797,38 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>6.7134932584107304E-3</v>
+        <v>-3.6023622362204035E-3</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>6.6530902666466904E-3</v>
+        <v>2.3236657240616266E-3</v>
       </c>
       <c r="K7" s="6" cm="1">
         <f t="array" ref="K7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>223.13</v>
+        <v>222.69</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>1.826807013108779</v>
+        <v>1.8232046508725586</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>1.484504031196876</v>
+        <v>0.51745712009128364</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>114</v>
       </c>
       <c r="O7" s="2" cm="1">
         <f t="array" ref="O7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.11719999999999686</v>
+        <v>2.7599999999999625E-2</v>
       </c>
       <c r="P7" s="6">
         <f>O7/SUM(I2:I45)</f>
-        <v>0.8126222532234606</v>
+        <v>0.28381735415365267</v>
       </c>
       <c r="Q7" s="6" cm="1">
         <f t="array" ref="Q7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.817399999999999</v>
+        <v>32.844999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1904,7 +1840,7 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,CHOOSE({1,2},F8:F52,J8:J52),2,FALSE)</f>
-        <v>3.4325109055984488E-3</v>
+        <v>1.1988425857968916E-3</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1915,7 +1851,7 @@
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" ref="G8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.5</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP(F8,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1923,23 +1859,23 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>2.1119966208054067E-3</v>
+        <v>-4.2239932416105732E-4</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>3.4325109055984488E-3</v>
+        <v>1.1988425857968916E-3</v>
       </c>
       <c r="K8" s="6" cm="1">
         <f t="array" ref="K8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>139.28</v>
+        <v>139.18</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>0.58831777869155411</v>
+        <v>0.587895379367393</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>0.47808011893175195</v>
+        <v>0.16685491109121137</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1954,7 +1890,7 @@
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,CHOOSE({1,2},F9:F53,J9:J53),2,FALSE)</f>
-        <v>1.84887519233371E-3</v>
+        <v>6.4574021098605307E-4</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -1965,7 +1901,7 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.55000000000001137</v>
+        <v>2.9300000000000068</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP(F9,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1973,23 +1909,23 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2513579978272295E-3</v>
+        <v>6.6663253338794821E-3</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>1.84887519233371E-3</v>
+        <v>6.4574021098605307E-4</v>
       </c>
       <c r="K9" s="6" cm="1">
         <f t="array" ref="K9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>135.57</v>
+        <v>138.5</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>0.30844837048260726</v>
+        <v>0.31511469581648671</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.25065200982468105</v>
+        <v>8.9435019221568351E-2</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2004,7 +1940,7 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,CHOOSE({1,2},F10:F54,J10:J54),2,FALSE)</f>
-        <v>5.2267779698885462E-4</v>
+        <v>1.8255103010998122E-4</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
@@ -2015,7 +1951,7 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>22.159999999999968</v>
+        <v>9.2000000000000455</v>
       </c>
       <c r="H10" s="9">
         <f>VLOOKUP(F10,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2023,23 +1959,23 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>1.4253289194737267E-2</v>
+        <v>5.9174305321111776E-3</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>5.2267779698885462E-4</v>
+        <v>1.8255103010998122E-4</v>
       </c>
       <c r="K10" s="6" cm="1">
         <f t="array" ref="K10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>713.12</v>
+        <v>722.32</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>0.45867805011511981</v>
+        <v>0.464595480647231</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>0.372731990588692</v>
+        <v>0.13186026006904164</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2054,7 +1990,7 @@
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,CHOOSE({1,2},F11:F55,J11:J55),2,FALSE)</f>
-        <v>2.8721274963890049E-3</v>
+        <v>1.0031224515247475E-3</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -2065,7 +2001,7 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.089999999999975</v>
+        <v>1.2100000000000364</v>
       </c>
       <c r="H11" s="9">
         <f>VLOOKUP(F11,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2073,23 +2009,23 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>7.3868841809852214E-3</v>
+        <v>4.2766171574126766E-3</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>2.8721274963890049E-3</v>
+        <v>1.0031224515247475E-3</v>
       </c>
       <c r="K11" s="6" cm="1">
         <f t="array" ref="K11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>303.76</v>
+        <v>304.97000000000003</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>1.073607626227798</v>
+        <v>1.0778842433852107</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>0.87243744830312409</v>
+        <v>0.30592225404150225</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2104,7 +2040,7 @@
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,CHOOSE({1,2},F12:F56,J12:J56),2,FALSE)</f>
-        <v>1.2914822282314163E-2</v>
+        <v>4.5106452290608048E-3</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>27</v>
@@ -2115,7 +2051,7 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.30999999999999872</v>
+        <v>-0.60000000000000142</v>
       </c>
       <c r="H12" s="9">
         <f>VLOOKUP(F12,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2123,23 +2059,23 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>-4.9267601171837927E-3</v>
+        <v>-9.5356647429364338E-3</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.2914822282314163E-2</v>
+        <v>4.5106452290608048E-3</v>
       </c>
       <c r="K12" s="6" cm="1">
         <f t="array" ref="K12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>16.93</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>0.26906467349652241</v>
+        <v>0.25952900875358598</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>0.21864794123957879</v>
+        <v>7.3658836590562937E-2</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2154,7 +2090,7 @@
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,CHOOSE({1,2},F13:F57,J13:J57),2,FALSE)</f>
-        <v>2.8935806895489954E-3</v>
+        <v>1.010615217685978E-3</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>29</v>
@@ -2165,7 +2101,7 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-8.289999999999992</v>
+        <v>-0.37000000000000455</v>
       </c>
       <c r="H13" s="9">
         <f>VLOOKUP(F13,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2173,23 +2109,23 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9518984769624342E-2</v>
+        <v>-1.317493892009789E-3</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>2.8935806895489954E-3</v>
+        <v>1.010615217685978E-3</v>
       </c>
       <c r="K13" s="6" cm="1">
         <f t="array" ref="K13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>240.88</v>
+        <v>240.51</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>0.85772413164138939</v>
+        <v>0.85640663774937953</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.69700571649856202</v>
+        <v>0.24306306600565458</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2204,7 +2140,7 @@
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,CHOOSE({1,2},F14:F58,J14:J58),2,FALSE)</f>
-        <v>3.99419450833274E-3</v>
+        <v>1.3950168271091102E-3</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>31</v>
@@ -2215,7 +2151,7 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.58000000000001251</v>
+        <v>-5.4699999999999989</v>
       </c>
       <c r="H14" s="9">
         <f>VLOOKUP(F14,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2223,23 +2159,23 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8508114387017594E-3</v>
+        <v>-2.6886100982238422E-2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>3.99419450833274E-3</v>
+        <v>1.3950168271091102E-3</v>
       </c>
       <c r="K14" s="6" cm="1">
         <f t="array" ref="K14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>136.38</v>
+        <v>130.91</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>0.67033390346575439</v>
+        <v>0.64344780248351596</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>0.54472824704641909</v>
+        <v>0.18262165283685361</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2254,7 +2190,7 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,CHOOSE({1,2},F15:F59,J15:J59),2,FALSE)</f>
-        <v>1.2117803651582402E-3</v>
+        <v>4.232277613495087E-4</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>33</v>
@@ -2265,7 +2201,7 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>46.769999999999982</v>
+        <v>18.640000000000043</v>
       </c>
       <c r="H15" s="9">
         <f>VLOOKUP(F15,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2273,23 +2209,23 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>6.9743312410700115E-2</v>
+        <v>2.7795923526522423E-2</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1.2117803651582402E-3</v>
+        <v>4.232277613495087E-4</v>
       </c>
       <c r="K15" s="6" cm="1">
         <f t="array" ref="K15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>437.34</v>
+        <v>455.98</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="1"/>
-        <v>0.65216036454341675</v>
+        <v>0.67995628806993913</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>0.52996002489830474</v>
+        <v>0.19298339462014899</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2304,7 +2240,7 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,CHOOSE({1,2},F16:F60,J16:J60),2,FALSE)</f>
-        <v>1.3313981694442467E-3</v>
+        <v>4.6500560903637005E-4</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>35</v>
@@ -2315,7 +2251,7 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>47.229999999999961</v>
+        <v>-20.5</v>
       </c>
       <c r="H16" s="9">
         <f>VLOOKUP(F16,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2323,23 +2259,23 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>7.7381508189586834E-2</v>
+        <v>-3.3587146260565984E-2</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>1.3313981694442467E-3</v>
+        <v>4.6500560903637005E-4</v>
       </c>
       <c r="K16" s="6" cm="1">
         <f t="array" ref="K16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>390.84</v>
+        <v>370.34</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="1"/>
-        <v>0.64035123143802963</v>
+        <v>0.60676408517746372</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>0.52036366054558936</v>
+        <v>0.17221017725052928</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2354,7 +2290,7 @@
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,CHOOSE({1,2},F17:F61,J17:J61),2,FALSE)</f>
-        <v>5.8801252161246155E-3</v>
+        <v>2.0536990887372888E-3</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>37</v>
@@ -2365,7 +2301,7 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.269999999999996</v>
+        <v>-1.8599999999999994</v>
       </c>
       <c r="H17" s="9">
         <f>VLOOKUP(F17,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2373,23 +2309,23 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0897670563727071E-2</v>
+        <v>-1.345893846569845E-2</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>5.8801252161246155E-3</v>
+        <v>2.0536990887372888E-3</v>
       </c>
       <c r="K17" s="6" cm="1">
         <f t="array" ref="K17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>76.37</v>
+        <v>74.510000000000005</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>0.55261243582010278</v>
+        <v>0.53915349735440432</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>0.4490651627554369</v>
+        <v>0.1530211191018154</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2404,7 +2340,7 @@
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,CHOOSE({1,2},F18:F62,J18:J62),2,FALSE)</f>
-        <v>5.4868166748581262E-3</v>
+        <v>1.9163317091147284E-3</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>39</v>
@@ -2415,7 +2351,7 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.43000000000000682</v>
+        <v>4.9189999999999827</v>
       </c>
       <c r="H18" s="9">
         <f>VLOOKUP(F18,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2423,23 +2359,23 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="2"/>
-        <v>2.903355354631479E-3</v>
+        <v>3.3213034859144112E-2</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>5.4868166748581262E-3</v>
+        <v>1.9163317091147284E-3</v>
       </c>
       <c r="K18" s="6" cm="1">
         <f t="array" ref="K18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>196.52</v>
+        <v>201.43899999999999</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="1"/>
-        <v>1.3269009169585331</v>
+        <v>1.360113951817677</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>1.0782692129431191</v>
+        <v>0.38602394315236177</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2454,7 +2390,7 @@
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,CHOOSE({1,2},F19:F63,J19:J63),2,FALSE)</f>
-        <v>7.5560746696535543E-3</v>
+        <v>2.6390430633934222E-3</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>41</v>
@@ -2465,7 +2401,7 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.1599999999999966</v>
+        <v>-1.1799999999999997</v>
       </c>
       <c r="H19" s="9">
         <f>VLOOKUP(F19,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2473,23 +2409,23 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="2"/>
-        <v>-2.0084511864780982E-2</v>
+        <v>-1.0972094444648885E-2</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>7.5560746696535543E-3</v>
+        <v>2.6390430633934222E-3</v>
       </c>
       <c r="K19" s="6" cm="1">
         <f t="array" ref="K19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>41.6</v>
+        <v>40.42</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>0.38681282109948623</v>
+        <v>0.37584072665483736</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>0.31433270625758786</v>
+        <v>0.10667012062236213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2504,7 +2440,7 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,CHOOSE({1,2},F20:F64,J20:J64),2,FALSE)</f>
-        <v>1.170759259449289E-2</v>
+        <v>4.0890068423515566E-3</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>43</v>
@@ -2515,7 +2451,7 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.1900000000000048</v>
+        <v>-0.83999999999999631</v>
       </c>
       <c r="H20" s="9">
         <f>VLOOKUP(F20,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2523,23 +2459,23 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>-3.155171751725204E-2</v>
+        <v>-1.2102028636754128E-2</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1.170759259449289E-2</v>
+        <v>4.0890068423515566E-3</v>
       </c>
       <c r="K20" s="6" cm="1">
         <f t="array" ref="K20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>34.58</v>
+        <v>33.74</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="1"/>
-        <v>0.49820017887971374</v>
+        <v>0.4860981502429596</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>0.40484855191756414</v>
+        <v>0.13796309086094152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2554,7 +2490,7 @@
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,CHOOSE({1,2},F21:F65,J21:J65),2,FALSE)</f>
-        <v>1.8833303207421792E-3</v>
+        <v>6.5777404754802939E-4</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>45</v>
@@ -2565,7 +2501,7 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-7.9599999999999795</v>
+        <v>-18.680000000000007</v>
       </c>
       <c r="H21" s="9">
         <f>VLOOKUP(F21,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2573,23 +2509,23 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8448066483093582E-2</v>
+        <v>-4.3292698731682046E-2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>1.8833303207421792E-3</v>
+        <v>6.5777404754802939E-4</v>
       </c>
       <c r="K21" s="6" cm="1">
         <f t="array" ref="K21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>227.86</v>
+        <v>209.18</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>0.5280874910600144</v>
+        <v>0.48479479232833234</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.42913564688431299</v>
+        <v>0.1375931752660968</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2604,7 +2540,7 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,CHOOSE({1,2},F22:F66,J22:J66),2,FALSE)</f>
-        <v>3.0691068154034612E-3</v>
+        <v>1.0719196680960465E-3</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>47</v>
@@ -2615,7 +2551,7 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-10.159999999999968</v>
+        <v>7.4699999999999136</v>
       </c>
       <c r="H22" s="9">
         <f>VLOOKUP(F22,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2623,23 +2559,23 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="2"/>
-        <v>-3.8372226604437315E-2</v>
+        <v>2.8212650859758298E-2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>3.0691068154034612E-3</v>
+        <v>1.0719196680960465E-3</v>
       </c>
       <c r="K22" s="6" cm="1">
         <f t="array" ref="K22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>761.83</v>
+        <v>769.3</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>2.8772749403600955</v>
+        <v>2.9054875912198539</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>2.3381376451788189</v>
+        <v>0.8246278006662886</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2654,7 +2590,7 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,CHOOSE({1,2},F23:F67,J23:J67),2,FALSE)</f>
-        <v>6.128462179370563E-3</v>
+        <v>2.1404335333915334E-3</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>49</v>
@@ -2665,7 +2601,7 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.53000000000000114</v>
+        <v>1.4900000000000091</v>
       </c>
       <c r="H23" s="9">
         <f>VLOOKUP(F23,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2673,23 +2609,23 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="2"/>
-        <v>3.9970416047334411E-3</v>
+        <v>1.1236966020854436E-2</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>6.128462179370563E-3</v>
+        <v>2.1404335333915334E-3</v>
       </c>
       <c r="K23" s="6" cm="1">
         <f t="array" ref="K23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>75.849999999999994</v>
+        <v>77.34</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>0.57202944475288831</v>
+        <v>0.58326641077374275</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>0.46484385630525715</v>
+        <v>0.16554112947250119</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2704,7 +2640,7 @@
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,CHOOSE({1,2},F24:F68,J24:J68),2,FALSE)</f>
-        <v>3.1035619438119304E-3</v>
+        <v>1.0839535046580227E-3</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>51</v>
@@ -2715,7 +2651,7 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.1000000000000227</v>
+        <v>1.1999999999999318</v>
       </c>
       <c r="H24" s="9">
         <f>VLOOKUP(F24,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2723,23 +2659,23 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5658694946088174E-2</v>
+        <v>4.5830326671474717E-3</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>3.1035619438119304E-3</v>
+        <v>1.0839535046580227E-3</v>
       </c>
       <c r="K24" s="6" cm="1">
         <f t="array" ref="K24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>520.84</v>
+        <v>522.04</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="1"/>
-        <v>1.9891889452976876</v>
+        <v>1.9937719779648351</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>1.616459202815006</v>
+        <v>0.56586708757167414</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2754,7 +2690,7 @@
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,CHOOSE({1,2},F25:F69,J25:J69),2,FALSE)</f>
-        <v>3.1347665884082802E-3</v>
+        <v>1.0948520736198126E-3</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>53</v>
@@ -2765,7 +2701,7 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.0900000000000034</v>
+        <v>7.0099999999999909</v>
       </c>
       <c r="H25" s="9">
         <f>VLOOKUP(F25,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2773,23 +2709,23 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="2"/>
-        <v>1.1919964928056128E-2</v>
+        <v>2.7041732733227592E-2</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>3.1347665884082802E-3</v>
+        <v>1.0948520736198126E-3</v>
       </c>
       <c r="K25" s="6" cm="1">
         <f t="array" ref="K25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>111.87</v>
+        <v>118.88</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>0.43154902152156555</v>
+        <v>0.45859075425479318</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>0.35068633824523432</v>
+        <v>0.13015601451192332</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2804,7 +2740,7 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,CHOOSE({1,2},F26:F70,J26:J70),2,FALSE)</f>
-        <v>1.7286723009615219E-2</v>
+        <v>6.0375801513115803E-3</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>55</v>
@@ -2815,7 +2751,7 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>10.219999999999999</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="H26" s="9">
         <f>VLOOKUP(F26,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2823,23 +2759,23 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>0.21740766814773094</v>
+        <v>7.3816497893603353E-2</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>1.7286723009615219E-2</v>
+        <v>6.0375801513115803E-3</v>
       </c>
       <c r="K26" s="6" cm="1">
         <f t="array" ref="K26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>65.31</v>
+        <v>68.78</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="1"/>
-        <v>1.389324345081048</v>
+        <v>1.4631408429746513</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>1.12899587975797</v>
+        <v>0.41526476280721047</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2854,7 +2790,7 @@
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,CHOOSE({1,2},F27:F71,J27:J71),2,FALSE)</f>
-        <v>3.4533140019960152E-3</v>
+        <v>1.2061082984380848E-3</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>57</v>
@@ -2865,7 +2801,7 @@
       </c>
       <c r="G27" s="2" cm="1">
         <f t="array" ref="G27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-5.0900000000000034</v>
+        <v>-5.8400000000000034</v>
       </c>
       <c r="H27" s="9">
         <f>VLOOKUP(F27,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2873,23 +2809,23 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1630429391312989E-2</v>
+        <v>-2.4817624291801149E-2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>3.4533140019960152E-3</v>
+        <v>1.2061082984380848E-3</v>
       </c>
       <c r="K27" s="6" cm="1">
         <f t="array" ref="K27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>210.44</v>
+        <v>204.6</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="1"/>
-        <v>0.89428439314497099</v>
+        <v>0.86946676885316987</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>0.72671539858004142</v>
+        <v>0.24676975786043215</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2904,7 +2840,7 @@
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,CHOOSE({1,2},F28:F72,J28:J72),2,FALSE)</f>
-        <v>7.7166485699722701E-4</v>
+        <v>2.695125282842633E-4</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
@@ -2915,7 +2851,7 @@
       </c>
       <c r="G28" s="2" cm="1">
         <f t="array" ref="G28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-38.189999999999941</v>
+        <v>-1.6100000000000136</v>
       </c>
       <c r="H28" s="9">
         <f>VLOOKUP(F28,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2923,23 +2859,23 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="2"/>
-        <v>-3.6265165975734384E-2</v>
+        <v>-1.5288535538343269E-3</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>7.7166485699722701E-4</v>
+        <v>2.695125282842633E-4</v>
       </c>
       <c r="K28" s="6" cm="1">
         <f t="array" ref="K28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>874.12</v>
+        <v>872.51</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="1"/>
-        <v>0.83006302389916176</v>
+        <v>0.82853417034532739</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>0.67452768479841607</v>
+        <v>0.23515237605330258</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2954,7 +2890,7 @@
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,CHOOSE({1,2},F29:F73,J29:J73),2,FALSE)</f>
-        <v>8.1977201741659927E-3</v>
+        <v>2.8631448876702279E-3</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>61</v>
@@ -2965,7 +2901,7 @@
       </c>
       <c r="G29" s="2" cm="1">
         <f t="array" ref="G29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.3500000000000227</v>
+        <v>1.9650000000000034</v>
       </c>
       <c r="H29" s="9">
         <f>VLOOKUP(F29,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2973,23 +2909,23 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" si="2"/>
-        <v>1.3618778209955095E-2</v>
+        <v>1.9822888283378783E-2</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>8.1977201741659927E-3</v>
+        <v>2.8631448876702279E-3</v>
       </c>
       <c r="K29" s="6" cm="1">
         <f t="array" ref="K29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>180.77</v>
+        <v>182.73500000000001</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="1"/>
-        <v>1.8236048422322526</v>
+        <v>1.8434277305156315</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>1.4819018758839866</v>
+        <v>0.52319678104841916</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3004,7 +2940,7 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,CHOOSE({1,2},F30:F74,J30:J74),2,FALSE)</f>
-        <v>3.5053217429899309E-3</v>
+        <v>1.2242725800410681E-3</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>63</v>
@@ -3015,7 +2951,7 @@
       </c>
       <c r="G30" s="2" cm="1">
         <f t="array" ref="G30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-7.0400000000000205</v>
+        <v>0.66000000000002501</v>
       </c>
       <c r="H30" s="9">
         <f>VLOOKUP(F30,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3023,23 +2959,23 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0367695411687431E-2</v>
+        <v>2.8469714448457963E-3</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>3.5053217429899309E-3</v>
+        <v>1.2242725800410681E-3</v>
       </c>
       <c r="K30" s="6" cm="1">
         <f t="array" ref="K30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>249.39</v>
+        <v>250.05</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="1"/>
-        <v>1.0757669827728276</v>
+        <v>1.0786139542176734</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>0.87419218948425881</v>
+        <v>0.3061293586392691</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3054,7 +2990,7 @@
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,CHOOSE({1,2},F31:F75,J31:J75),2,FALSE)</f>
-        <v>1.9385885455482147E-3</v>
+        <v>6.7707359675119906E-4</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>65</v>
@@ -3065,7 +3001,7 @@
       </c>
       <c r="G31" s="2" cm="1">
         <f t="array" ref="G31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.789999999999992</v>
+        <v>-1.039999999999992</v>
       </c>
       <c r="H31" s="9">
         <f>VLOOKUP(F31,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3073,23 +3009,23 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1427005716790834E-2</v>
+        <v>-2.4810200303679326E-3</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>1.9385885455482147E-3</v>
+        <v>6.7707359675119906E-4</v>
       </c>
       <c r="K31" s="6" cm="1">
         <f t="array" ref="K31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>168.1</v>
+        <v>167.06</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="1"/>
-        <v>0.4010187183700506</v>
+        <v>0.39853769833968267</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>0.32587673450665489</v>
+        <v>0.11311191507325531</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3104,7 +3040,7 @@
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,CHOOSE({1,2},F32:F76,J32:J76),2,FALSE)</f>
-        <v>5.420506805090884E-3</v>
+        <v>1.8931722500709247E-3</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>67</v>
@@ -3115,7 +3051,7 @@
       </c>
       <c r="G32" s="2" cm="1">
         <f t="array" ref="G32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.6599999999999966</v>
+        <v>4.7600000000000193</v>
       </c>
       <c r="H32" s="9">
         <f>VLOOKUP(F32,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3123,23 +3059,23 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>1.7743235610822999E-2</v>
+        <v>3.1751053198315012E-2</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>5.420506805090884E-3</v>
+        <v>1.8931722500709247E-3</v>
       </c>
       <c r="K32" s="6" cm="1">
         <f t="array" ref="K32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>182.2</v>
+        <v>186.96</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="1"/>
-        <v>1.2153449354481032</v>
+        <v>1.2470959886464184</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>0.98761633988755904</v>
+        <v>0.35394748387326008</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3154,7 +3090,7 @@
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,CHOOSE({1,2},F33:F77,J33:J77),2,FALSE)</f>
-        <v>6.3065886922747255E-3</v>
+        <v>2.2026461978817509E-3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>69</v>
@@ -3165,7 +3101,7 @@
       </c>
       <c r="G33" s="2" cm="1">
         <f t="array" ref="G33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.38000000000000256</v>
+        <v>0.76999999999999602</v>
       </c>
       <c r="H33" s="9">
         <f>VLOOKUP(F33,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3173,23 +3109,23 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>2.9490992814411696E-3</v>
+        <v>5.9758064387096669E-3</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>6.3065886922747255E-3</v>
+        <v>2.2026461978817509E-3</v>
       </c>
       <c r="K33" s="6" cm="1">
         <f t="array" ref="K33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>57.81</v>
+        <v>58.58</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="1"/>
-        <v>0.44865113015819175</v>
+        <v>0.45462693659690145</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.36458389230040189</v>
+        <v>0.12903101427191296</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3204,7 +3140,7 @@
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,CHOOSE({1,2},F34:F78,J34:J78),2,FALSE)</f>
-        <v>1.7019533240258974E-3</v>
+        <v>5.9442611545762534E-4</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>71</v>
@@ -3215,7 +3151,7 @@
       </c>
       <c r="G34" s="2" cm="1">
         <f t="array" ref="G34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.0000000000002274E-2</v>
+        <v>1.6599999999999966</v>
       </c>
       <c r="H34" s="9">
         <f>VLOOKUP(F34,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3223,23 +3159,23 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>1.2566379893792646E-4</v>
+        <v>3.4766984372824931E-3</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>1.7019533240258974E-3</v>
+        <v>5.9442611545762534E-4</v>
       </c>
       <c r="K34" s="6" cm="1">
         <f t="array" ref="K34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>145.9</v>
+        <v>147.56</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="1"/>
-        <v>0.30557247108404628</v>
+        <v>0.30904916952132877</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>0.24831498997537846</v>
+        <v>8.7713517596927193E-2</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3254,7 +3190,7 @@
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,CHOOSE({1,2},F35:F79,J35:J79),2,FALSE)</f>
-        <v>5.9685383758142719E-3</v>
+        <v>2.0845783674623601E-3</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>73</v>
@@ -3265,7 +3201,7 @@
       </c>
       <c r="G35" s="2" cm="1">
         <f t="array" ref="G35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.5099999999999909</v>
+        <v>-0.91999999999998749</v>
       </c>
       <c r="H35" s="9">
         <f>VLOOKUP(F35,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3273,23 +3209,23 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>-3.3124995000007929E-2</v>
+        <v>-6.757205188471606E-3</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>5.9685383758142719E-3</v>
+        <v>2.0845783674623601E-3</v>
       </c>
       <c r="K35" s="6" cm="1">
         <f t="array" ref="K35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>129.63</v>
+        <v>128.71</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="1"/>
-        <v>0.95210490063215891</v>
+        <v>0.94534769544368735</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>0.773701629656804</v>
+        <v>0.26830608167608039</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3304,7 +3240,7 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,CHOOSE({1,2},F36:F80,J36:J80),2,FALSE)</f>
-        <v>2.1797744444074997E-3</v>
+        <v>7.6131045268503362E-4</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>75</v>
@@ -3315,7 +3251,7 @@
       </c>
       <c r="G36" s="2" cm="1">
         <f t="array" ref="G36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.693649999999991</v>
+        <v>-4.525950000000023</v>
       </c>
       <c r="H36" s="9">
         <f>VLOOKUP(F36,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3323,23 +3259,23 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="2"/>
-        <v>1.7955018031971123E-2</v>
+        <v>-1.2140388855377894E-2</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>2.1797744444074997E-3</v>
+        <v>7.6131045268503362E-4</v>
       </c>
       <c r="K36" s="6" cm="1">
         <f t="array" ref="K36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>296.28982999999999</v>
+        <v>291.76387999999997</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="1"/>
-        <v>0.79476656836549064</v>
+        <v>0.78262617951011271</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>0.64584499957184249</v>
+        <v>0.2221228915599418</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3354,7 +3290,7 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,CHOOSE({1,2},F37:F81,J37:J81),2,FALSE)</f>
-        <v>4.1560686021763034E-3</v>
+        <v>1.4515531535983955E-3</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>77</v>
@@ -3365,7 +3301,7 @@
       </c>
       <c r="G37" s="2" cm="1">
         <f t="array" ref="G37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-3.8300000000000125</v>
+        <v>-1.4609999999999843</v>
       </c>
       <c r="H37" s="9">
         <f>VLOOKUP(F37,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3373,23 +3309,23 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="2"/>
-        <v>-1.9588120659007009E-2</v>
+        <v>-7.4721264445976078E-3</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>4.1560686021763034E-3</v>
+        <v>1.4515531535983955E-3</v>
       </c>
       <c r="K37" s="6" cm="1">
         <f t="array" ref="K37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>151.07</v>
+        <v>149.60900000000001</v>
       </c>
       <c r="L37" s="6">
         <f t="shared" si="1"/>
-        <v>0.77263117179012508</v>
+        <v>0.76515904534552748</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.6278572837307741</v>
+        <v>0.21716541575670237</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3404,7 +3340,7 @@
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,CHOOSE({1,2},F38:F82,J38:J82),2,FALSE)</f>
-        <v>2.6875000158606034E-3</v>
+        <v>9.3863925183415716E-4</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>79</v>
@@ -3415,7 +3351,7 @@
       </c>
       <c r="G38" s="2" cm="1">
         <f t="array" ref="G38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.1399999999999864</v>
+        <v>-14.670000000000016</v>
       </c>
       <c r="H38" s="9">
         <f>VLOOKUP(F38,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3423,23 +3359,23 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3691786093142207E-2</v>
+        <v>-4.8516546373525857E-2</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>2.6875000158606034E-3</v>
+        <v>9.3863925183415716E-4</v>
       </c>
       <c r="K38" s="6" cm="1">
         <f t="array" ref="K38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>206.4</v>
+        <v>191.73</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="1"/>
-        <v>0.68260498783201951</v>
+        <v>0.63408844145849363</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>0.55470000327362856</v>
+        <v>0.17996530375416295</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3454,7 +3390,7 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,CHOOSE({1,2},F39:F83,J39:J83),2,FALSE)</f>
-        <v>5.2072750670158284E-4</v>
+        <v>1.8186986954986937E-4</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>81</v>
@@ -3465,7 +3401,7 @@
       </c>
       <c r="G39" s="2" cm="1">
         <f t="array" ref="G39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-5.55499999999995</v>
+        <v>-0.9050000000000864</v>
       </c>
       <c r="H39" s="9">
         <f>VLOOKUP(F39,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3473,23 +3409,23 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" si="2"/>
-        <v>-3.5596383045786808E-3</v>
+        <v>-5.7992307212314002E-4</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>5.2072750670158284E-4</v>
+        <v>1.8186986954986937E-4</v>
       </c>
       <c r="K39" s="6" cm="1">
         <f t="array" ref="K39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>620.32500000000005</v>
+        <v>619.41999999999996</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="1"/>
-        <v>0.39750362399420164</v>
+        <v>0.39692370092207852</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>0.32302029059465942</v>
+        <v>0.11265383459658007</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3504,7 +3440,7 @@
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,CHOOSE({1,2},F40:F84,J40:J84),2,FALSE)</f>
-        <v>1.9444394164100304E-3</v>
+        <v>6.7911707843153462E-4</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>83</v>
@@ -3515,7 +3451,7 @@
       </c>
       <c r="G40" s="2" cm="1">
         <f t="array" ref="G40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-14.5</v>
+        <v>-2.9399999999999977</v>
       </c>
       <c r="H40" s="9">
         <f>VLOOKUP(F40,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3523,23 +3459,23 @@
       </c>
       <c r="I40" s="2">
         <f t="shared" si="2"/>
-        <v>-3.4695544487128825E-2</v>
+        <v>-7.0348207442868039E-3</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>1.9444394164100304E-3</v>
+        <v>6.7911707843153462E-4</v>
       </c>
       <c r="K40" s="6" cm="1">
         <f t="array" ref="K40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>171</v>
+        <v>168.06</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="1"/>
-        <v>0.40916814533096751</v>
+        <v>0.40213332458668072</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>0.33249914020611521</v>
+        <v>0.11413241620120371</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3554,7 +3490,7 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,CHOOSE({1,2},F41:F85,J41:J85),2,FALSE)</f>
-        <v>7.9513335012073149E-3</v>
+        <v>2.7770916035760947E-3</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>85</v>
@@ -3565,7 +3501,7 @@
       </c>
       <c r="G41" s="2" cm="1">
         <f t="array" ref="G41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.2100000000000009</v>
+        <v>2.1299999999999955</v>
       </c>
       <c r="H41" s="9">
         <f>VLOOKUP(F41,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3573,23 +3509,23 @@
       </c>
       <c r="I41" s="2">
         <f t="shared" si="2"/>
-        <v>3.1409157745347617E-2</v>
+        <v>2.0841590653454908E-2</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>7.9513335012073149E-3</v>
+        <v>2.7770916035760947E-3</v>
       </c>
       <c r="K41" s="6" cm="1">
         <f t="array" ref="K41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>58.74</v>
+        <v>60.87</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="1"/>
-        <v>0.57475823238682822</v>
+        <v>0.59559982304028303</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>0.4670613298609177</v>
+        <v>0.16904156590967687</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3604,7 +3540,7 @@
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,CHOOSE({1,2},F42:F86,J42:J86),2,FALSE)</f>
-        <v>2.4326620849904157E-3</v>
+        <v>8.4963427197953941E-4</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>87</v>
@@ -3615,7 +3551,7 @@
       </c>
       <c r="G42" s="2" cm="1">
         <f t="array" ref="G42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.3599999999999568</v>
+        <v>7.4050000000000296</v>
       </c>
       <c r="H42" s="9">
         <f>VLOOKUP(F42,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3623,23 +3559,23 @@
       </c>
       <c r="I42" s="2">
         <f t="shared" si="2"/>
-        <v>7.0648846961843563E-3</v>
+        <v>2.2167572531884037E-2</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>2.4326620849904157E-3</v>
+        <v>8.4963427197953941E-4</v>
       </c>
       <c r="K42" s="6" cm="1">
         <f t="array" ref="K42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>322.27</v>
+        <v>329.67500000000001</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="1"/>
-        <v>0.96474592840651441</v>
+        <v>0.98691350093839847</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>0.78397401012986123</v>
+        <v>0.28010317861485468</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3654,7 +3590,7 @@
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,CHOOSE({1,2},F43:F87,J43:J87),2,FALSE)</f>
-        <v>3.2478834250700473E-3</v>
+        <v>1.1343593861063012E-3</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>89</v>
@@ -3665,7 +3601,7 @@
       </c>
       <c r="G43" s="2" cm="1">
         <f t="array" ref="G43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.36000000000001364</v>
+        <v>0.54000000000002046</v>
       </c>
       <c r="H43" s="9">
         <f>VLOOKUP(F43,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3673,23 +3609,23 @@
       </c>
       <c r="I43" s="2">
         <f t="shared" si="2"/>
-        <v>-1.438845697846938E-3</v>
+        <v>2.1582685467704068E-3</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>3.2478834250700473E-3</v>
+        <v>1.1343593861063012E-3</v>
       </c>
       <c r="K43" s="6" cm="1">
         <f t="array" ref="K43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>139.38999999999999</v>
+        <v>139.93</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="1"/>
-        <v>0.55711306061910293</v>
+        <v>0.5592713291658733</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>0.45272247062051385</v>
+        <v>0.15873090889785474</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3704,7 +3640,7 @@
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,CHOOSE({1,2},F44:F88,J44:J88),2,FALSE)</f>
-        <v>1.6674981956174282E-3</v>
+        <v>5.8239227889564902E-4</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>91</v>
@@ -3715,7 +3651,7 @@
       </c>
       <c r="G44" s="2" cm="1">
         <f t="array" ref="G44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-8.1000000000000227</v>
+        <v>1.0900000000000034</v>
       </c>
       <c r="H44" s="9">
         <f>VLOOKUP(F44,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3723,23 +3659,23 @@
       </c>
       <c r="I44" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6621173406122597E-2</v>
+        <v>2.2366764213177328E-3</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>1.6674981956174282E-3</v>
+        <v>5.8239227889564902E-4</v>
       </c>
       <c r="K44" s="6" cm="1">
         <f t="array" ref="K44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>220.98</v>
+        <v>222.07</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="1"/>
-        <v>0.45345023447962479</v>
+        <v>0.45568691090094254</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.36848375126753924</v>
+        <v>0.12933185337435676</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3754,7 +3690,7 @@
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,CHOOSE({1,2},F45:F89,J45:J89),2,FALSE)</f>
-        <v>1.3320482662066706E-3</v>
+        <v>4.6523266255640736E-4</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>93</v>
@@ -3765,7 +3701,7 @@
       </c>
       <c r="G45" s="2" cm="1">
         <f t="array" ref="G45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-16.819999999999993</v>
+        <v>-2.8050000000000068</v>
       </c>
       <c r="H45" s="9">
         <f>VLOOKUP(F45,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3773,23 +3709,23 @@
       </c>
       <c r="I45" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7571299885920171E-2</v>
+        <v>-4.597948643282182E-3</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>1.3320482662066706E-3</v>
+        <v>4.6523266255640736E-4</v>
       </c>
       <c r="K45" s="6" cm="1">
         <f t="array" ref="K45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>272.5</v>
+        <v>269.69499999999999</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="1"/>
-        <v>0.4466812853099435</v>
+        <v>0.44208333666666133</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>0.36298315254131774</v>
+        <v>0.12547092292815029</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3814,12 +3750,76 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFD4FAC-B17A-4101-81AB-7504FFBE2A71}">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69862999-B0FF-44F5-A747-2A793E7FABEE}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/ciq reference/data/Shares.xlsx
+++ b/ciq reference/data/Shares.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18613\Desktop\cursor\FundsMonitor-CIQ\ciq reference\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3ED07E-53CC-4086-867A-86811D15C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F0CB9-4E40-42DE-9648-9994DBB95174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="shares" sheetId="1" r:id="rId1"/>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="41" state="veryHidden" r:id="rId2"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="43" state="veryHidden" r:id="rId1"/>
+    <sheet name="shares" sheetId="1" r:id="rId2"/>
     <sheet name="08_05_2025_agix_holdings" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"4e288186-4f80-4218-9a86-1e4a321a8ed9"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"1d0cf9d1-cef0-4fcf-927e-686a7068bfa9"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -691,49 +691,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BAABTAVMT0NBTAFI/////wFQhwAAACtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAJ16DQACAAAACjE4OS4wMzU4ODIAtQRF0y7X3Qg1zbL1LtfdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAJ16DQACAAAACzE4Ni41ODE5Mzk1ALUERdMu190I1u778y7X3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAI/cAcAIAAAAHMzIuODE3NAC1BEXTLtfdCMYts/Uu190II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACP3AHACAAAABzMyLjcwMDIAtQRF0y7X3QjW7vvzLtfdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAKvMBQACAAAACzM5LjUxNzc0OTI0ALUERdMu190IZTK09S7X3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACrzAUAAgAAAAszNy41NzM4OTUyNQC1BEXTLtfdCM7o/PMu190IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAPTdcAAIAAAALNDUuMzc4NDMyMzkAtQRF0y7X3QgEVbL1LtfdCChDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAD03XAACAAAACzQ0LjA4NjcwMzc2ALUERdMu190IEgz68y7X3QgjQ0lRLkFBUEwuSVFfQ0xP</t>
-  </si>
-  <si>
-    <t>U0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAaWEAAAIAAAAGMjIwLjAzALUERdMu190IZTK09S7X3QgjQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAaWEAAAIAAAAGMjEzLjI1ALUERdMu190Izuj88y7X3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAAV8AAAIAAAAGMzM4LjI3ALUERdMu190IlIqz9S7X3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAAV8AAAIAAAAGMzQ1LjYyALUERdMu190IIJ/88y7X3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAPUkAAAIAAAAGMjIzLjEzALUERdMu190IZTK09S7X3QgjQ0lRLkFNWk4uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAPUkAAAIAAAAGMjIyLjMxALUERdMu190Izuj88y7X3QgjQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAw9v8AQIAAAAGMTM5LjI4ALUERdMu190IlIqz9S7X3QgjQ0lRLkFORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAw9v8AQIAAAAGMTM4Ljc4ALUERdMu190I1u778y7X3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAs58UnAgAAAAYxMzUuNTcAtQRF0y7X3Qg1zbL1LtfdCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACznxScCAAAABjEz</t>
-  </si>
-  <si>
-    <t>Ni4xMgC1BEXTLtfdCFmN+/Mu190ILENJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACjvBQACAAAABjcxMy4xMgC1BEXTLtfdCDXNsvUu190ILENJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACjvBQACAAAABjY5MC45NgC1BEXTLtfdCNbu+/Mu190II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAPC2fQECAAAABjMwMy43NgC1BEXTLtfdCA28sfUu190II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAPC2fQECAAAABjMwMS42NwC1BEXTLtfdCBIM+vMu190II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACYBehACAAAABTE2LjkzALUERdMu190Ixi2z9S7X3QgjQ0lRLkNGTFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAJgF6EAIAAAAFMTcuMjQAtQRF0y7X3QjW7vvzLtfdCCJDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACXgAQACAAAABjI0MC44OAC1BEXTLtfdCGUytPUu190IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAJeABAAIAAAAGMjQ5LjE3ALUERdMu190Izuj88y7X3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAu6EECAIAAAAGMTM2LjM4ALUERdMu190IlIqz9S7X</t>
-  </si>
-  <si>
-    <t>3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAu6EECAIAAAAGMTM2Ljk2ALUERdMu190IIJ/88y7X3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADauc4NAgAAAAY0MzcuMzQAtQRF0y7X3QhlMrT1LtfdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAANq5zg0CAAAABjM5MC41NwC1BEXTLtfdCM7o/PMu190II0NJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALDwhwwCAAAABjM5MC44NAC1BEXTLtfdCJSKs/Uu190II0NJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALDwhwwCAAAABjM0My42MQC1BEXTLtfdCCCf/PMu190II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAICEWw0CAAAABTc2LjM3ALUERdMu190INc2y9S7X3QgjQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAgIRbDQIAAAAFODAuNjQAtQRF0y7X3QjW7vvzLtfdCC1DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAqHEAAAIAAAAGMTk2LjUyALUERdMu190INc2y9S7X3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAKhxAAACAAAABjE5Ni4wOQC1BEXTLtfdCFmN+/Mu190II0NJUS5HVExCLklRX0NM</t>
-  </si>
-  <si>
-    <t>T1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAM2EFxECAAAABDQxLjYAtQRF0y7X3QjDmLL1LtfdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADNhBcRAgAAAAU0My43NgC1BEXTLtfdCFmN+/Mu190IIkNJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAuj78EQIAAAAFMzQuNTgAtQRF0y7X3Qg1zbL1LtfdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALo+/BECAAAABTM2Ljc3ALUERdMu190IWY378y7X3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADibswCAgAAAAYyMjcuODYAtQRF0y7X3QjgpbT1LtfdCCJDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAOJuzAICAAAABjIzNS44MgC1BEXTLtfdCOPb/fMu190II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAABfbPAECAAAABjc2MS44MwC1BEXTLtfdCMQKtPUu190II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAABfbPAECAAAABjc3MS45OQC1BEXTLtfdCM7o/PMu190II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALZ5AAACAAAABTc1Ljg1ALUERdMu190IZTK09S7X3QgjQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAtnkAAAIAAAAFNzUuMzIAtQRF</t>
-  </si>
-  <si>
-    <t>0y7X3QjO6PzzLtfdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABLVQAAAgAAAAY1MjAuODQAtQRF0y7X3QiUirP1LtfdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABLVQAAAgAAAAY1MjQuOTQAtQRF0y7X3Qggn/zzLtfdCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAABmkEAAIAAAAGMTExLjg3ALUERdMu190Ixi2z9S7X3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAAZpBAACAAAABjEwOC43OAC1BEXTLtfdCNbu+/Mu190II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAL/7GQMCAAAABTY1LjMxALUERdMu190INc2y9S7X3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAv/sZAwIAAAAFNTUuMDkAtQRF0y7X3QhZjfvzLtfdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAADT14AQCAAAABjIxMC40NAC1BEXTLtfdCARVsvUu190IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAANPXgBAIAAAAGMjE1LjUzALUERdMu190I/lT78y7X3QgiQ0lRLk5PVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC/dF4BAgAAAAY4NzQuMTIAtQRF0y7X3QjDmLL1LtfdCCJDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84</t>
-  </si>
-  <si>
-    <t>LzYuVVNEAQAAAL90XgECAAAABjkxMi4zMQC1BEXTLtfdCFmN+/Mu190II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAADN+AAACAAAABjE4MC43NwC1BEXTLtfdCOCltPUu190II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAADN+AAACAAAABjE3OS40MgC1BEXTLtfdCM7o/PMu190II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAOdWAAACAAAABjI0OS4zOQC1BEXTLtfdCMQKtPUu190II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAOdWAAACAAAABjI1Ni40MwC1BEXTLtfdCM7o/PMu190II0NJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAIN9hAECAAAABTE2OC4xALUERdMu190IZTK09S7X3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAg32EAQIAAAAGMTcyLjg5ALUERdMu190Izuj88y7X3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAZfqYAgIAAAAFMTgyLjIAtQRF0y7X3Qg10rP1LtfdCCNDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABl+pgCAgAAAAYxNzkuNTQAtQRF0y7X3QjO6PzzLtfdCCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC4yqUGAgAAAAU1Ny44MQC1BEXTLtfdCMYt</t>
-  </si>
-  <si>
-    <t>s/Uu190II0NJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALjKpQYCAAAABTU3LjQzALUERdMu190I1u778y7X3QgjQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA1YIAAAIAAAAFMTQ1LjkAtQRF0y7X3QjGLbP1LtfdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADVggAAAgAAAAYxNDUuODQAtQRF0y7X3QjW7vvzLtfdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABpVfQBAgAAAAYxMjkuNjMAtQRF0y7X3QgEVbL1LtfdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABpVfQBAgAAAAYxMzQuMTQAtQRF0y7X3Qj+VPvzLtfdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAAvuAQACAAAADzI5Ni4yODk4MzQ4NDA3NQC1BEXTLtfdCMOYsvUu190IIkNJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAC+4BAAIAAAAOMjg5LjU5NjE4Mjg4NTEAtQRF0y7X3QhZjfvzLtfdCCNDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAGKwQFAgAAAAYxNTEuMDcAtQRF0y7X3QjgpbT1LtfdCCNDSVEuU0hPUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAGKwQFAgAAAAUxNTQuOQC1BEXTLtfdCM7o/PMu190II0NJUS5TTk9XLklRX0NM</t>
-  </si>
-  <si>
-    <t>T1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALA8ZBACAAAABTIwNi40ALUERdMu190INdKz9S7X3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAsDxkEAIAAAAGMjEwLjU0ALUERdMu190Izuj88y7X3QgjQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA1IgAAAIAAAAHNjIwLjMyNQC1BEXTLtfdCGUytPUu190II0NJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAANSIAAACAAAABjYyNS44OAC1BEXTLtfdCM7o/PMu190II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAFITIg8CAAAAAzE3MQC1BEXTLtfdCDXSs/Uu190II0NJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAFITIg8CAAAABTE4NS41ALUERdMu190Izuj88y7X3QgiQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAA0yQZAgAAAAU1OC43NAC1BEXTLtfdCMYts/Uu190IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAANMkGQIAAAAFNTUuNTMAtQRF0y7X3QjW7vvzLtfdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAQxqIBAgAAAAYzMjIuMjcAtQRF0y7X3QjGLbP1LtfdCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAQxqIBAgAAAAYzMTkuOTEA</t>
-  </si>
-  <si>
-    <t>tQRF0y7X3QjW7vvzLtfdCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAESbhyICAAAABjEzOS4zOQC1BEXTLtfdCARVsvUu190IIkNJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAARJuHIgIAAAAGMTM5Ljc1ALUERdMu190I/lT78y7X3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAh2NrAQIAAAAGMjIwLjk4ALUERdMu190I4KW09S7X3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAh2NrAQIAAAAGMjI5LjA4ALUERdMu190Izuj88y7X3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAANTMgQMCAAAABTI3Mi41ALUERdMu190INdKz9S7X3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAANTMgQMCAAAABjI4OS4zMgC1BEXTLtfdCM7o/PMu190II0NJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAIdjawECAAAABjIyMi4wNwAk++HzLtfdCGUytPUu190IIkNJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAARJuHIgIAAAAGMTM5LjkzACT74fMu190IBFWy9S7X3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAABisEBQIAAAAHMTQ5LjYwOQAk++HzLtfdCOCltPUu190II0NJUS5SQkxYLklRX0NMT1NFUFJJQ0Uu</t>
-  </si>
-  <si>
-    <t>MjAyNS84LzguVVNEAQAAAGlV9AECAAAABjEyOC43MQAk++HzLtfdCARVsvUu190II0NJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAADN+AAACAAAABzE4Mi43MzUAJPvh8y7X3QjgpbT1LtfdCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAADT14AQCAAAABTIwNC42ACT74fMu190IBFWy9S7X3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADibswCAgAAAAYyMDkuMTgAJPvh8y7X3QjgpbT1LtfdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADNhBcRAgAAAAU0MC40MgAk++HzLtfdCMOYsvUu190IIkNJUS5DUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAJeABAAIAAAAGMjQwLjUxACT74fMu190IZTK09S7X3QgjQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA8LZ9AQIAAAAGMzA0Ljk3ACT74fMu190IDbyx9S7X3QgoQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAA9N1wAAgAAAAo0NS4xNTgwNTM1ACT74fMu190IDbyx9S7X3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAI/cAcAIAAAAGMzIuODQ1ACT74fMu190Ixi2z9S7X3QgjQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA1IgAAAIAAAAGNjE5</t>
-  </si>
-  <si>
-    <t>LjQyACT74fMu190IZTK09S7X3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAg32EAQIAAAAGMTY3LjA2ACT74fMu190IZTK09S7X3QgjQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAtnkAAAIAAAAFNzcuMzQAJPvh8y7X3QhlMrT1LtfdCCJDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAANq5zg0CAAAABjQ1NS45OAAk++HzLtfdCGUytPUu190II0NJUS5BQVBMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAGlhAAACAAAABjIyOS4zNQAk++HzLtfdCGUytPUu190IKENJUS5UV1NFOjIzMzAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAq8wFAAIAAAALMzkuMzA0MjMxNzUAJPvh8y7X3QhlMrT1LtfdCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAA9SQAAAgAAAAYyMjIuNjkAJPvh8y7X3QhlMrT1LtfdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA1MyBAwIAAAAHMjY5LjY5NQAk++HzLtfdCDXSs/Uu190II0NJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALA8ZBACAAAABjE5MS43MwAk++HzLtfdCDXSs/Uu190II0NJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAOdWAAACAAAABjI1MC4wNQAk++HzLtfdCMQKtPUu190II0NJUS5N</t>
-  </si>
-  <si>
-    <t>RVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAABfbPAECAAAABTc2OS4zACT74fMu190IxAq09S7X3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAu6EECAIAAAAGMTMwLjkxACT74fMu190IlIqz9S7X3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAUhMiDwIAAAAGMTY4LjA2ACT74fMu190INdKz9S7X3QgjQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAZfqYAgIAAAAGMTg2Ljk2ACT74fMu190INdKz9S7X3QgjQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAS1UAAAIAAAAGNTIyLjA0ACT74fMu190IlIqz9S7X3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAsPCHDAIAAAAGMzcwLjM0ACT74fMu190IlIqz9S7X3QgjQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAAV8AAAIAAAAGMzQxLjA1ACT74fMu190IlIqz9S7X3QgjQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAuMqlBgIAAAAFNTguNTgAJPvh8y7X3QjGLbP1LtfdCCNDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACAhFsNAgAAAAU3NC41MQAk++HzLtfdCDXNsvUu190IIkNJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAALOfF</t>
-  </si>
-  <si>
-    <t>JwIAAAAFMTM4LjUAJPvh8y7X3Qg1zbL1LtfdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADD2/wBAgAAAAYxMzkuMTgAJPvh8y7X3QiUirP1LtfdCCJDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAADTJBkCAAAABTYwLjg3ACT74fMu190Ixi2z9S7X3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAAZpBAACAAAABjExOC44OAAk++HzLtfdCMYts/Uu190II0NJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAABDGogECAAAABzMyOS42NzUAJPvh8y7X3QjGLbP1LtfdCCNDSVEuUUNPTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADVggAAAgAAAAYxNDcuNTYAJPvh8y7X3QjGLbP1LtfdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAC/+xkDAgAAAAU2OC43OAAk++HzLtfdCDXNsvUu190ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACocQAAAgAAAAcyMDEuNDM5ACT74fMu190INc2y9S7X3QgsQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAKO8FAAIAAAAGNzIyLjMyACT74fMu190INc2y9S7X3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACdeg0AAgAAAAsxODQu</t>
-  </si>
-  <si>
-    <t>NjMyMDM0NQAk++HzLtfdCDXNsvUu190II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAACYBehACAAAABTE2LjMzACT74fMu190Ixi2z9S7X3QgiQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAL7gEAAgAAAA4yOTEuNzYzODgyMzg5NAAk++HzLtfdCMOYsvUu190IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAv3ReAQIAAAAGODcyLjUxACT74fMu190Iw5iy9S7X3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAC6PvwRAgAAAAUzMy43NAAk++HzLtfdCDXNsvUu190I</t>
+    <t>BAABTAVMT0NBTAFI/////wFQhwAAACtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAJ16DQACAAAACzE4NC42MzIwMzQ1AFvDN2qR2d0IXypvapHZ3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACdeg0AAgAAAAoxODkuMDM1ODgyAOItrlqR2d0IkBYqZpHZ3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAI/cAcAIAAAAHMzIuODU4NQBbwzdqkdndCF8qb2qR2d0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACP3AHACAAAABzMyLjgxNzQA4i2uWpHZ3QiQFipmkdndCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAKvMBQACAAAACzM5LjMwNDIzMTc1AFvDN2qR2d0IXypvapHZ3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACrzAUAAgAAAAszOS41MTc3NDkyNADiLa5akdndCDCGK2aR2d0IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAPTdcAAIAAAAKNDUuMTU4MDUzNQBbwzdqkdndCDcDb2qR2d0IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAPTdcAAIAAAALNDUuMzc4NDMyMzkA4i2uWpHZ3Qj3OSlmkdndCCNDSVEuQUFQTC5JUV9DTE9T</t>
+  </si>
+  <si>
+    <t>RVBSSUNFLjIwMjUvOC84LlVTRAEAAABpYQAAAgAAAAYyMjkuMzUAW8M3apHZ3Qg3A29qkdndCCNDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABpYQAAAgAAAAYyMjAuMDMA4i2uWpHZ3QgwhitmkdndCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAABXwAAAgAAAAYzNDEuMDUAW8M3apHZ3Qg3A29qkdndCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAABXwAAAgAAAAYzMzguMjcA4i2uWpHZ3QiM0CpmkdndCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAA9SQAAAgAAAAYyMjIuNjkAW8M3apHZ3Qg6wW5qkdndCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAA9SQAAAgAAAAYyMjMuMTMA4i2uWpHZ3QgwhitmkdndCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADD2/wBAgAAAAYxMzkuMTgAW8M3apHZ3Qh/6G5qkdndCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADD2/wBAgAAAAYxMzkuMjgA4i2uWpHZ3QihPSpmkdndCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAACznxScCAAAABTEzOC41AFvDN2qR2d0If+huapHZ3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAs58UnAgAAAAYxMzUu</t>
+  </si>
+  <si>
+    <t>NTcA4i2uWpHZ3Qjf7ylmkdndCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAo7wUAAgAAAAY3MjIuMzIAW8M3apHZ3QgkjG5qkdndCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAo7wUAAgAAAAY3MTMuMTIA4i2uWpHZ3QiQFipmkdndCCNDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADwtn0BAgAAAAYzMDQuOTcAW8M3apHZ3Qg6wW5qkdndCCNDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADwtn0BAgAAAAYzMDMuNzYA4i2uWpHZ3QjuEilmkdndCCNDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAmAXoQAgAAAAUxNi4zMwBbwzdqkdndCKhabmqR2d0II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACYBehACAAAABTE2LjkzAOItrlqR2d0IccgpZpHZ3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAl4AEAAgAAAAYyNDAuNTEAW8M3apHZ3QgkjG5qkdndCCJDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACXgAQACAAAABjI0MC44OADiLa5akdndCJa0K2aR2d0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALuhBAgCAAAABjEzMC45MQBbwzdqkdndCCSMbmqR2d0I</t>
+  </si>
+  <si>
+    <t>I0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALuhBAgCAAAABjEzNi4zOADiLa5akdndCIzQKmaR2d0IIkNJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA2rnODQIAAAAGNDU1Ljk4AFvDN2qR2d0IqFpuapHZ3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADauc4NAgAAAAY0MzcuMzQA4i2uWpHZ3QgwhitmkdndCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACw8IcMAgAAAAYzNzAuMzQAY9g3apHZ3QioWm5qkdndCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACw8IcMAgAAAAYzOTAuODQA4i2uWpHZ3QiM0CpmkdndCCNDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACAhFsNAgAAAAU3NC41MQBj2DdqkdndCKhabmqR2d0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAICEWw0CAAAABTc2LjM3AOItrlqR2d0I3+8pZpHZ3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAKhxAAACAAAABjIwMS40MgBj2DdqkdndCEczbmqR2d0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACocQAAAgAAAAYxOTYuNTIA4i2uWpHZ3Qjf7ylmkdndCCNDSVEuR1RMQi5JUV9DTE9T</t>
+  </si>
+  <si>
+    <t>RVBSSUNFLjIwMjUvOC84LlVTRAEAAADNhBcRAgAAAAU0MC40MgBj2DdqkdndCEczbmqR2d0II0NJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAM2EFxECAAAABDQxLjYA4i2uWpHZ3Qi3ailmkdndCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALo+/BECAAAABTMzLjc0AGPYN2qR2d0IZ+1tapHZ3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC6PvwRAgAAAAUzNC41OADiLa5akdndCJAWKmaR2d0IIkNJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA4m7MAgIAAAAGMjA5LjE4AGPYN2qR2d0IZ+1tapHZ3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADibswCAgAAAAYyMjcuODYA4i2uWpHZ3QgmBixmkdndCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAX2zwBAgAAAAU3NjkuMwBj2DdqkdndCGftbWqR2d0II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAABfbPAECAAAABjc2MS44MwDiLa5akdndCB9fK2aR2d0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALZ5AAACAAAABTc3LjM0AGPYN2qR2d0I88JtapHZ3QgjQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAtnkAAAIAAAAFNzUuODUA4i2uWpHZ</t>
+  </si>
+  <si>
+    <t>3QgfXytmkdndCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAABLVQAAAgAAAAY1MjIuMDQAY9g3apHZ3Qjzwm1qkdndCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABLVQAAAgAAAAY1MjAuODQA4i2uWpHZ3Qh3nipmkdndCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAABmkEAAIAAAAGMTE4Ljg5AGPYN2qR2d0I88JtapHZ3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAAZpBAACAAAABjExMS44NwDiLa5akdndCG9pKmaR2d0II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAL/7GQMCAAAABTY4Ljc4AGPYN2qR2d0I1ZJtapHZ3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAv/sZAwIAAAAFNjUuMzEA4i2uWpHZ3QhvaSpmkdndCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAADT14AQCAAAABTIwNC42AGPYN2qR2d0I1ZJtapHZ3QgiQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAA09eAEAgAAAAYyMTAuNDQA4i2uWpHZ3Qi3ailmkdndCCJDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAL90XgECAAAABjg3Mi41MQBj2DdqkdndCPNbbWqR2d0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5V</t>
+  </si>
+  <si>
+    <t>U0QBAAAAv3ReAQIAAAAGODc0LjEyAOItrlqR2d0IS5spZpHZ3QgjQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAM34AAAIAAAAFMTgyLjcAY9g3apHZ3QjzW21qkdndCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAzfgAAAgAAAAYxODAuNzcA4i2uWpHZ3QgmBixmkdndCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADnVgAAAgAAAAYyNTAuMDUAY9g3apHZ3QjVkm1qkdndCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADnVgAAAgAAAAYyNDkuMzkA4i2uWpHZ3QhyLitmkdndCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACDfYQBAgAAAAYxNjcuMDYAY9g3apHZ3QiWDW1qkdndCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACDfYQBAgAAAAUxNjguMQDiLa5akdndCIbbK2aR2d0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAGX6mAICAAAABjE4Ni45NgBj2DdqkdndCPNbbWqR2d0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAGX6mAICAAAABTE4Mi4yAOItrlqR2d0IRAcrZpHZ3QgjQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAuMqlBgIAAAAFNTguNTgAY9g3apHZ3QjzW21qkdnd</t>
+  </si>
+  <si>
+    <t>CCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC4yqUGAgAAAAU1Ny44MQDiLa5akdndCG9pKmaR2d0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAANWCAAACAAAABjE0Ny41NgBj2DdqkdndCJYNbWqR2d0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAANWCAAACAAAABTE0NS45AOItrlqR2d0Ib2kqZpHZ3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAaVX0AQIAAAAGMTI4LjcxAKHtN2qR2d0Ilg1tapHZ3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAaVX0AQIAAAAGMTI5LjYzAOItrlqR2d0It2opZpHZ3QgiQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAL7gEAAgAAAA4yOTEuNzYzODgyMzg5NACh7TdqkdndCK7WbGqR2d0IIkNJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAC+4BAAIAAAAPMjk2LjI4OTgzNDg0MDc1AOItrlqR2d0IS5spZpHZ3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAABisEBQIAAAAGMTQ5LjYxAKHtN2qR2d0IrtZsapHZ3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAABisEBQIAAAAGMTUxLjA3AOItrlqR2d0IhtsrZpHZ3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQ</t>
+  </si>
+  <si>
+    <t>UklDRS4yMDI1LzgvOC5VU0QBAAAAsDxkEAIAAAAGMTkxLjczAKHtN2qR2d0Ilg1tapHZ3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAsDxkEAIAAAAFMjA2LjQA4i2uWpHZ3QhyLitmkdndCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADUiAAAAgAAAAY2MTkuNDIAoe03apHZ3QgLqWxqkdndCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADUiAAAAgAAAAc2MjAuMzI1AOItrlqR2d0IlrQrZpHZ3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAUhMiDwIAAAAGMTY4LjA2AKHtN2qR2d0IrtZsapHZ3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAUhMiDwIAAAADMTcxAOItrlqR2d0IRAcrZpHZ3QgiQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAA0yQZAgAAAAU2MC44NwCh7TdqkdndCK7WbGqR2d0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAANMkGQIAAAAFNTguNzQA4i2uWpHZ3QihPSpmkdndCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAQxqIBAgAAAAYzMjkuNjUAoe03apHZ3QiFpWxqkdndCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAQxqIBAgAAAAYzMjIuMjcA4i2u</t>
+  </si>
+  <si>
+    <t>WpHZ3QihPSpmkdndCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAESbhyICAAAABjEzOS45MwCh7TdqkdndCAupbGqR2d0IIkNJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAARJuHIgIAAAAGMTM5LjM5AONUrlqR2d0I9zkpZpHZ3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAh2NrAQIAAAAGMjIyLjA3AKHtN2qR2d0IY1hsapHZ3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAh2NrAQIAAAAGMjIwLjk4AONUrlqR2d0IhtsrZpHZ3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAANTMgQMCAAAABzI2OS42OTUAoe03apHZ3Qhxf2xqkdndCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA1MyBAwIAAAAFMjcyLjUA41SuWpHZ3QhyLitmkdndCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAh2NrAQIAAAAGMjEzLjY5AKHtN2qR2d0IcX9sapHZ3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAARJuHIgIAAAAGMTM5LjgzAKHtN2qR2d0IC6lsapHZ3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAAYrBAUCAAAABTE0Ny41AKHtN2qR2d0IrtZsapHZ3QgkQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4y</t>
+  </si>
+  <si>
+    <t>MDI1LzgvMTEuVVNEAQAAAGlV9AECAAAABjEzMC43NACh7TdqkdndCJYNbWqR2d0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAzfgAAAgAAAAYxODIuMDYAY9g3apHZ3QjzW21qkdndCCNDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAA09eAEAgAAAAYyMDEuMTcAY9g3apHZ3Qjzwm1qkdndCCNDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADibswCAgAAAAMyMDEAY9g3apHZ3Qhn7W1qkdndCCRDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAzYQXEQIAAAAFMzguODIAY9g3apHZ3QhHM25qkdndCCNDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAl4AEAAgAAAAYyMzIuNjgAW8M3apHZ3QgkjG5qkdndCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAA8LZ9AQIAAAAFMzAzLjkAW8M3apHZ3Qg6wW5qkdndCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAA9N1wAAgAAAAs0NS4yMDQzMzY1NwBbwzdqkdndCDcDb2qR2d0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAj9wBwAgAAAAczMi42NTgzAFvDN2qR2d0IXypvapHZ3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAANSIAAAC</t>
+  </si>
+  <si>
+    <t>AAAABjYxNi4xMgCh7TdqkdndCAupbGqR2d0IJENJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAACDfYQBAgAAAAYxNjguMTcAY9g3apHZ3Qg4SG1qkdndCCRDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAtnkAAAIAAAAFNzcuMjgAY9g3apHZ3Qjzwm1qkdndCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADauc4NAgAAAAY0NjUuNTgAW8M3apHZ3QioWm5qkdndCCRDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAPUkAAAIAAAAFMjIxLjMAW8M3apHZ3Qg6wW5qkdndCCRDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAaWEAAAIAAAAGMjI3LjE4AFvDN2qR2d0INwNvapHZ3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAq8wFAAIAAAALMzkuMzY2MTM4MTIAW8M3apHZ3QhBVW9qkdndCCJDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAANTMgQMCAAAABjI3MS4xOACh7TdqkdndCHF/bGqR2d0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAACwPGQQAgAAAAUxOTEuOACh7TdqkdndCJYNbWqR2d0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADnVgAAAgAAAAYyNTIuNjgAY9g3apHZ3QjV</t>
+  </si>
+  <si>
+    <t>km1qkdndCCRDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAF9s8AQIAAAAGNzY1Ljg3AGPYN2qR2d0IZ+1tapHZ3QgkQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAALuhBAgCAAAABjEyOC44MwBbwzdqkdndCCSMbmqR2d0IJENJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAABSEyIPAgAAAAYxNTkuMjgAoe03apHZ3Qiu1mxqkdndCCRDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAZfqYAgIAAAAGMTgyLjY4AGPYN2qR2d0I81ttapHZ3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAEtVAAACAAAABjUyMS43NwBj2DdqkdndCPPCbWqR2d0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAACw8IcMAgAAAAYzNDAuNTkAY9g3apHZ3QioWm5qkdndCCRDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAAV8AAAIAAAAGMzMzLjY1AFvDN2qR2d0IXypvapHZ3QgjQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAANMkGQIAAAAFNjAuODIAoe03apHZ3Qiu1mxqkdndCCRDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAuMqlBgIAAAAFNTcuMzQAY9g3apHZ3QjzW21qkdndCCJDSVEuTVUuSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzgvMTEuVVNEAQAAAAZpBAACAAAABjEyMy43MgBj2DdqkdndCPPCbWqR2d0IJENJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAACAhFsNAgAAAAU3Mi41NABj2DdqkdndCKhabmqR2d0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAACznxScCAAAABjE0MS4wNQBbwzdqkdndCH/obmqR2d0IJENJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADD2/wBAgAAAAYxMzcuNjUAW8M3apHZ3Qh/6G5qkdndCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAEMaiAQIAAAAGMzM5LjAzAKHtN2qR2d0IC6lsapHZ3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAANWCAAACAAAABjE0Ny45NwBj2DdqkdndCJYNbWqR2d0IJENJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAC/+xkDAgAAAAU3MC4yNABj2DdqkdndCNWSbWqR2d0ILkNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAqHEAAAIAAAADMjAxAGPYN2qR2d0IRzNuapHZ3QgtQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAACjvBQACAAAABjcyMS4zMQBbwzdqkdndCDrBbmqR2d0ILENJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4y</t>
+  </si>
+  <si>
+    <t>MDI1LzgvMTEuVVNEAQAAAJ16DQACAAAACTE5MS43NTY3MwBbwzdqkdndCF8qb2qR2d0II0NJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAALo+/BECAAAABDMyLjUAY9g3apHZ3Qhn7W1qkdndCCNDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAL7gEAAgAAAA8yODkuMTM0OTcyMTc0ODUAoe03apHZ3Qiu1mxqkdndCCNDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAC/dF4BAgAAAAY4NTYuMzcAY9g3apHZ3QjzW21qkdndCCRDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAJgF6EAIAAAAFMTUuOTEAW8M3apHZ3QgkjG5qkdndCA==</t>
   </si>
 </sst>
 </file>
@@ -1418,11 +1418,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4B5748-C854-447F-B7B5-133B30230427}">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1496,20 +1560,20 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP(A2,CHOOSE({1,2},F2:F45,J2:J45),2,FALSE)</f>
-        <v>1.0546636005732124E-3</v>
+        <v>3.7283024486110816E-3</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="13">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.4038500000000056</v>
+        <v>7.1247000000000185</v>
       </c>
       <c r="H2" s="9">
         <f>VLOOKUP(F2,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1517,30 +1581,30 @@
       </c>
       <c r="I2" s="2">
         <f>G2*H2</f>
-        <v>-1.6364680416511356E-2</v>
+        <v>2.6475342839451528E-2</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J45" si="0">$P$7*H2</f>
-        <v>1.0546636005732124E-3</v>
+        <v>3.7283024486110816E-3</v>
       </c>
       <c r="K2" s="6" cm="1">
         <f t="array" ref="K2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>184.63202999999999</v>
+        <v>191.75673</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L45" si="1">K2*H2</f>
-        <v>0.6860915257335588</v>
+        <v>0.71256686857301033</v>
       </c>
       <c r="M2" s="2">
         <f>J2*K2</f>
-        <v>0.19472468154094136</v>
+        <v>0.71492708599665411</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>125</v>
       </c>
       <c r="O2" s="6" cm="1">
         <f t="array" ref="O2">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.844999999999999</v>
+        <v>32.658299999999997</v>
       </c>
       <c r="P2" s="2">
         <v>1250002</v>
@@ -1555,20 +1619,20 @@
       </c>
       <c r="C3" s="7">
         <f>VLOOKUP(A3,CHOOSE({1,2},F3:F47,J3:J47),2,FALSE)</f>
-        <v>6.3574985610441222E-3</v>
+        <v>2.2474159001315455E-2</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" ref="G3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.2135200000000026</v>
+        <v>6.1910000000004572E-2</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP(F3,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1576,30 +1640,30 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I45" si="2">G3*H3</f>
-        <v>-4.7828403474555019E-3</v>
+        <v>1.3867817811492526E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>6.3574985610441222E-3</v>
+        <v>2.2474159001315455E-2</v>
       </c>
       <c r="K3" s="6" cm="1">
         <f t="array" ref="K3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>39.304229999999997</v>
+        <v>39.366140000000001</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>0.88041334333865062</v>
+        <v>0.88180012511979988</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M45" si="3">J3*K3</f>
-        <v>0.24987658566794721</v>
+        <v>0.8847208896280444</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>126</v>
       </c>
       <c r="O3" s="12">
         <f>SUM(M2:M45)</f>
-        <v>10.111189411648899</v>
+        <v>35.542979055527113</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -1612,7 +1676,7 @@
       </c>
       <c r="C4" s="7">
         <f>VLOOKUP(A4,CHOOSE({1,2},F4:F48,J4:J48),2,FALSE)</f>
-        <v>1.3623211202237404E-3</v>
+        <v>4.8158912145675973E-3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1625,7 +1689,7 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.22037999999999869</v>
+        <v>4.6289999999999054E-2</v>
       </c>
       <c r="H4" s="9">
         <f>VLOOKUP(F4,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1633,30 +1697,30 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0578223074843016E-3</v>
+        <v>2.2219164449336425E-4</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>1.3623211202237404E-3</v>
+        <v>4.8158912145675973E-3</v>
       </c>
       <c r="K4" s="6" cm="1">
         <f t="array" ref="K4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>45.158050000000003</v>
+        <v>45.204340000000002</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="1"/>
-        <v>0.2167582931867309</v>
+        <v>0.21698048483122429</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="3"/>
-        <v>6.1519765263119683E-2</v>
+        <v>0.21769918386632664</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>129</v>
       </c>
       <c r="O4" s="6">
         <f>SUM(L2:L45)</f>
-        <v>35.625691183686108</v>
+        <v>35.425639595184649</v>
       </c>
       <c r="P4" s="2"/>
     </row>
@@ -1669,7 +1733,7 @@
       </c>
       <c r="C5" s="7">
         <f>VLOOKUP(A5,CHOOSE({1,2},F5:F49,J5:J49),2,FALSE)</f>
-        <v>1.5684857164175998E-3</v>
+        <v>5.5446960850388267E-3</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1680,7 +1744,7 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>9.3199999999999932</v>
+        <v>-2.1699999999999875</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP(F5,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1688,23 +1752,23 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>5.1505965590455012E-2</v>
+        <v>-1.199226881236983E-2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>1.5684857164175998E-3</v>
+        <v>5.5446960850388267E-3</v>
       </c>
       <c r="K5" s="6" cm="1">
         <f t="array" ref="K5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>229.35</v>
+        <v>227.18</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>1.2674778120355006</v>
+        <v>1.2554855432231309</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>0.35973219906037651</v>
+        <v>1.2596440565991207</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>128</v>
@@ -1721,7 +1785,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,CHOOSE({1,2},F6:F50,J6:J50),2,FALSE)</f>
-        <v>5.1155158064401459E-4</v>
+        <v>1.8083671510701329E-3</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -1732,7 +1796,7 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.7800000000000296</v>
+        <v>-7.4000000000000341</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP(F6,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1740,23 +1804,23 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>5.0106639829376812E-3</v>
+        <v>-1.3337738659618207E-2</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>5.1155158064401459E-4</v>
+        <v>1.8083671510701329E-3</v>
       </c>
       <c r="K6" s="6" cm="1">
         <f t="array" ref="K6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>341.05</v>
+        <v>333.65</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>0.61470753646794174</v>
+        <v>0.60136979780832345</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>0.17446466657864118</v>
+        <v>0.6033616999545498</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="5" t="s">
@@ -1778,7 +1842,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,CHOOSE({1,2},F7:F51,J7:J51),2,FALSE)</f>
-        <v>2.3236657240616266E-3</v>
+        <v>8.2143051149807991E-3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
@@ -1789,7 +1853,7 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.43999999999999773</v>
+        <v>-1.3899999999999864</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP(F7,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1797,38 +1861,38 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>-3.6023622362204035E-3</v>
+        <v>-1.1380189791696221E-2</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>2.3236657240616266E-3</v>
+        <v>8.2143051149807991E-3</v>
       </c>
       <c r="K7" s="6" cm="1">
         <f t="array" ref="K7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>222.69</v>
+        <v>221.3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>1.8232046508725586</v>
+        <v>1.8118244610808625</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>0.51745712009128364</v>
+        <v>1.8178257219452509</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>114</v>
       </c>
       <c r="O7" s="2" cm="1">
         <f t="array" ref="O7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.7599999999999625E-2</v>
+        <v>-0.20020000000000238</v>
       </c>
       <c r="P7" s="6">
         <f>O7/SUM(I2:I45)</f>
-        <v>0.28381735415365267</v>
+        <v>1.0033122749986543</v>
       </c>
       <c r="Q7" s="6" cm="1">
         <f t="array" ref="Q7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.844999999999999</v>
+        <v>32.658299999999997</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1840,7 +1904,7 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,CHOOSE({1,2},F8:F52,J8:J52),2,FALSE)</f>
-        <v>1.1988425857968916E-3</v>
+        <v>4.237984268819486E-3</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1851,7 +1915,7 @@
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" ref="G8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-9.9999999999994316E-2</v>
+        <v>-1.5300000000000011</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP(F8,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1859,23 +1923,23 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2239932416105732E-4</v>
+        <v>-6.4627096596645492E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>1.1988425857968916E-3</v>
+        <v>4.237984268819486E-3</v>
       </c>
       <c r="K8" s="6" cm="1">
         <f t="array" ref="K8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>139.18</v>
+        <v>137.65</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>0.587895379367393</v>
+        <v>0.58143266970772856</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>0.16685491109121137</v>
+        <v>0.58335853460300224</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1890,7 +1954,7 @@
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,CHOOSE({1,2},F9:F53,J9:J53),2,FALSE)</f>
-        <v>6.4574021098605307E-4</v>
+        <v>2.2827324357050415E-3</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -1901,7 +1965,7 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.9300000000000068</v>
+        <v>2.5500000000000114</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP(F9,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1909,23 +1973,23 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>6.6663253338794821E-3</v>
+        <v>5.8017507171988789E-3</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>6.4574021098605307E-4</v>
+        <v>2.2827324357050415E-3</v>
       </c>
       <c r="K9" s="6" cm="1">
         <f t="array" ref="K9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>138.5</v>
+        <v>141.05000000000001</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>0.31511469581648671</v>
+        <v>0.32091644653368562</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>8.9435019221568351E-2</v>
+        <v>0.32197941005619612</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1940,7 +2004,7 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,CHOOSE({1,2},F10:F54,J10:J54),2,FALSE)</f>
-        <v>1.8255103010998122E-4</v>
+        <v>6.4532942275205801E-4</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
@@ -1951,7 +2015,7 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>9.2000000000000455</v>
+        <v>-1.0100000000001046</v>
       </c>
       <c r="H10" s="9">
         <f>VLOOKUP(F10,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1959,23 +2023,23 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>5.9174305321111776E-3</v>
+        <v>-6.496309605905303E-4</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>1.8255103010998122E-4</v>
+        <v>6.4532942275205801E-4</v>
       </c>
       <c r="K10" s="6" cm="1">
         <f t="array" ref="K10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>722.32</v>
+        <v>721.31</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>0.464595480647231</v>
+        <v>0.46394584968664043</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>0.13186026006904164</v>
+        <v>0.46548256592528692</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1990,7 +2054,7 @@
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,CHOOSE({1,2},F11:F55,J11:J55),2,FALSE)</f>
-        <v>1.0031224515247475E-3</v>
+        <v>3.5461012309932738E-3</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -2001,7 +2065,7 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.2100000000000364</v>
+        <v>-1.07000000000005</v>
       </c>
       <c r="H11" s="9">
         <f>VLOOKUP(F11,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2009,23 +2073,23 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>4.2766171574126766E-3</v>
+        <v>-3.7818019491170579E-3</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>1.0031224515247475E-3</v>
+        <v>3.5461012309932738E-3</v>
       </c>
       <c r="K11" s="6" cm="1">
         <f t="array" ref="K11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>304.97000000000003</v>
+        <v>303.89999999999998</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>1.0778842433852107</v>
+        <v>1.0741024414360936</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>0.30592225404150225</v>
+        <v>1.0776601640988559</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2040,7 +2104,7 @@
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,CHOOSE({1,2},F12:F56,J12:J56),2,FALSE)</f>
-        <v>4.5106452290608048E-3</v>
+        <v>1.5945415811433314E-2</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>27</v>
@@ -2051,7 +2115,7 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.60000000000000142</v>
+        <v>-0.41999999999999815</v>
       </c>
       <c r="H12" s="9">
         <f>VLOOKUP(F12,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2059,23 +2123,23 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>-9.5356647429364338E-3</v>
+        <v>-6.6749653200554584E-3</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>4.5106452290608048E-3</v>
+        <v>1.5945415811433314E-2</v>
       </c>
       <c r="K12" s="6" cm="1">
         <f t="array" ref="K12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>16.329999999999998</v>
+        <v>15.91</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>0.25952900875358598</v>
+        <v>0.25285404343353052</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>7.3658836590562937E-2</v>
+        <v>0.25369156555990402</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2090,7 +2154,7 @@
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,CHOOSE({1,2},F13:F57,J13:J57),2,FALSE)</f>
-        <v>1.010615217685978E-3</v>
+        <v>3.5725886326733957E-3</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>29</v>
@@ -2101,7 +2165,7 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.37000000000000455</v>
+        <v>-7.8299999999999841</v>
       </c>
       <c r="H13" s="9">
         <f>VLOOKUP(F13,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2109,23 +2173,23 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>-1.317493892009789E-3</v>
+        <v>-2.7881019390368918E-2</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>1.010615217685978E-3</v>
+        <v>3.5725886326733957E-3</v>
       </c>
       <c r="K13" s="6" cm="1">
         <f t="array" ref="K13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>240.51</v>
+        <v>232.68</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>0.85640663774937953</v>
+        <v>0.82852561835901062</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.24306306600565458</v>
+        <v>0.83126992305044578</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2140,7 +2204,7 @@
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,CHOOSE({1,2},F14:F58,J14:J58),2,FALSE)</f>
-        <v>1.3950168271091102E-3</v>
+        <v>4.9314726037172196E-3</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>31</v>
@@ -2151,7 +2215,7 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-5.4699999999999989</v>
+        <v>-2.0799999999999841</v>
       </c>
       <c r="H14" s="9">
         <f>VLOOKUP(F14,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2159,23 +2223,23 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6886100982238422E-2</v>
+        <v>-1.0223599642240493E-2</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>1.3950168271091102E-3</v>
+        <v>4.9314726037172196E-3</v>
       </c>
       <c r="K14" s="6" cm="1">
         <f t="array" ref="K14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>130.91</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>0.64344780248351596</v>
+        <v>0.63322420284127545</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>0.18262165283685361</v>
+        <v>0.63532161553688948</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2190,7 +2254,7 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,CHOOSE({1,2},F15:F59,J15:J59),2,FALSE)</f>
-        <v>4.232277613495087E-4</v>
+        <v>1.4961368706590003E-3</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>33</v>
@@ -2201,7 +2265,7 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>18.640000000000043</v>
+        <v>9.5999999999999659</v>
       </c>
       <c r="H15" s="9">
         <f>VLOOKUP(F15,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2209,23 +2273,23 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>2.7795923526522423E-2</v>
+        <v>1.4315497095204598E-2</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>4.232277613495087E-4</v>
+        <v>1.4961368706590003E-3</v>
       </c>
       <c r="K15" s="6" cm="1">
         <f t="array" ref="K15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>455.98</v>
+        <v>465.58</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="1"/>
-        <v>0.67995628806993913</v>
+        <v>0.69427178516514376</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>0.19298339462014899</v>
+        <v>0.69657140424141739</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2240,7 +2304,7 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,CHOOSE({1,2},F16:F60,J16:J60),2,FALSE)</f>
-        <v>4.6500560903637005E-4</v>
+        <v>1.6438242012390733E-3</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>35</v>
@@ -2251,7 +2315,7 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-20.5</v>
+        <v>-29.75</v>
       </c>
       <c r="H16" s="9">
         <f>VLOOKUP(F16,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2259,23 +2323,23 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>-3.3587146260565984E-2</v>
+        <v>-4.8742322012284782E-2</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>4.6500560903637005E-4</v>
+        <v>1.6438242012390733E-3</v>
       </c>
       <c r="K16" s="6" cm="1">
         <f t="array" ref="K16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>370.34</v>
+        <v>340.59</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="1"/>
-        <v>0.60676408517746372</v>
+        <v>0.55802176316517893</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>0.17221017725052928</v>
+        <v>0.55987008470001587</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2290,7 +2354,7 @@
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,CHOOSE({1,2},F17:F61,J17:J61),2,FALSE)</f>
-        <v>2.0536990887372888E-3</v>
+        <v>7.2599560059606527E-3</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>37</v>
@@ -2301,7 +2365,7 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.8599999999999994</v>
+        <v>-1.9699999999999989</v>
       </c>
       <c r="H17" s="9">
         <f>VLOOKUP(F17,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2309,23 +2373,23 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>-1.345893846569845E-2</v>
+        <v>-1.4254897192164485E-2</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>2.0536990887372888E-3</v>
+        <v>7.2599560059606527E-3</v>
       </c>
       <c r="K17" s="6" cm="1">
         <f t="array" ref="K17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>74.510000000000005</v>
+        <v>72.540000000000006</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>0.53915349735440432</v>
+        <v>0.52489860016223977</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>0.1530211191018154</v>
+        <v>0.52663720867238584</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2340,7 +2404,7 @@
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,CHOOSE({1,2},F18:F62,J18:J62),2,FALSE)</f>
-        <v>1.9163317091147284E-3</v>
+        <v>6.7743536418250873E-3</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>39</v>
@@ -2351,7 +2415,7 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>4.9189999999999827</v>
+        <v>-0.41999999999998749</v>
       </c>
       <c r="H18" s="9">
         <f>VLOOKUP(F18,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2359,23 +2423,23 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="2"/>
-        <v>3.3213034859144112E-2</v>
+        <v>-2.8358354626631757E-3</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>1.9163317091147284E-3</v>
+        <v>6.7743536418250873E-3</v>
       </c>
       <c r="K18" s="6" cm="1">
         <f t="array" ref="K18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>201.43899999999999</v>
+        <v>201</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="1"/>
-        <v>1.360113951817677</v>
+        <v>1.3571498285602743</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>0.38602394315236177</v>
+        <v>1.3616450820068426</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2390,7 +2454,7 @@
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,CHOOSE({1,2},F19:F63,J19:J63),2,FALSE)</f>
-        <v>2.6390430633934222E-3</v>
+        <v>9.3291839311531975E-3</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>41</v>
@@ -2401,7 +2465,7 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.1799999999999997</v>
+        <v>-1.6000000000000014</v>
       </c>
       <c r="H19" s="9">
         <f>VLOOKUP(F19,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2409,23 +2473,23 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0972094444648885E-2</v>
+        <v>-1.4877416196134099E-2</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>2.6390430633934222E-3</v>
+        <v>9.3291839311531975E-3</v>
       </c>
       <c r="K19" s="6" cm="1">
         <f t="array" ref="K19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>40.42</v>
+        <v>38.82</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>0.37584072665483736</v>
+        <v>0.36096331045870328</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>0.10667012062236213</v>
+        <v>0.36215892020736712</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2440,7 +2504,7 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,CHOOSE({1,2},F20:F64,J20:J64),2,FALSE)</f>
-        <v>4.0890068423515566E-3</v>
+        <v>1.4454897480524642E-2</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>43</v>
@@ -2451,7 +2515,7 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.83999999999999631</v>
+        <v>-1.240000000000002</v>
       </c>
       <c r="H20" s="9">
         <f>VLOOKUP(F20,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2459,23 +2523,23 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2102028636754128E-2</v>
+        <v>-1.7864899416160963E-2</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>4.0890068423515566E-3</v>
+        <v>1.4454897480524642E-2</v>
       </c>
       <c r="K20" s="6" cm="1">
         <f t="array" ref="K20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>33.74</v>
+        <v>32.5</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="1"/>
-        <v>0.4860981502429596</v>
+        <v>0.46823325082679867</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>0.13796309086094152</v>
+        <v>0.46978416811705087</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2490,7 +2554,7 @@
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,CHOOSE({1,2},F21:F65,J21:J65),2,FALSE)</f>
-        <v>6.5777404754802939E-4</v>
+        <v>2.3252728081003884E-3</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>45</v>
@@ -2501,7 +2565,7 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-18.680000000000007</v>
+        <v>-8.1800000000000068</v>
       </c>
       <c r="H21" s="9">
         <f>VLOOKUP(F21,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2509,23 +2573,23 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>-4.3292698731682046E-2</v>
+        <v>-1.8957937667299748E-2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>6.5777404754802939E-4</v>
+        <v>2.3252728081003884E-3</v>
       </c>
       <c r="K21" s="6" cm="1">
         <f t="array" ref="K21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>209.18</v>
+        <v>201</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>0.48479479232833234</v>
+        <v>0.46583685466103258</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.1375931752660968</v>
+        <v>0.4673798344281781</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2540,7 +2604,7 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,CHOOSE({1,2},F22:F66,J22:J66),2,FALSE)</f>
-        <v>1.0719196680960465E-3</v>
+        <v>3.7893037373289379E-3</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>47</v>
@@ -2551,7 +2615,7 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>7.4699999999999136</v>
+        <v>-3.42999999999995</v>
       </c>
       <c r="H22" s="9">
         <f>VLOOKUP(F22,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2559,23 +2623,23 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="2"/>
-        <v>2.8212650859758298E-2</v>
+        <v>-1.2954403272954574E-2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>1.0719196680960465E-3</v>
+        <v>3.7893037373289379E-3</v>
       </c>
       <c r="K22" s="6" cm="1">
         <f t="array" ref="K22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>769.3</v>
+        <v>765.87</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>2.9054875912198539</v>
+        <v>2.8925331879468992</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>0.8246278006662886</v>
+        <v>2.9021140533081136</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2590,7 +2654,7 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,CHOOSE({1,2},F23:F67,J23:J67),2,FALSE)</f>
-        <v>2.1404335333915334E-3</v>
+        <v>7.5665677466214562E-3</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>49</v>
@@ -2601,7 +2665,7 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.4900000000000091</v>
+        <v>-6.0000000000002274E-2</v>
       </c>
       <c r="H23" s="9">
         <f>VLOOKUP(F23,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2609,23 +2673,23 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="2"/>
-        <v>1.1236966020854436E-2</v>
+        <v>-4.5249527600757554E-4</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>2.1404335333915334E-3</v>
+        <v>7.5665677466214562E-3</v>
       </c>
       <c r="K23" s="6" cm="1">
         <f t="array" ref="K23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>77.34</v>
+        <v>77.28</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>0.58326641077374275</v>
+        <v>0.5828139154977352</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>0.16554112947250119</v>
+        <v>0.58474435545890613</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2640,7 +2704,7 @@
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,CHOOSE({1,2},F24:F68,J24:J68),2,FALSE)</f>
-        <v>1.0839535046580227E-3</v>
+        <v>3.8318441097242848E-3</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>51</v>
@@ -2651,7 +2715,7 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.1999999999999318</v>
+        <v>-0.26999999999998181</v>
       </c>
       <c r="H24" s="9">
         <f>VLOOKUP(F24,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2659,23 +2723,23 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>4.5830326671474717E-3</v>
+        <v>-1.0311823501081704E-3</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>1.0839535046580227E-3</v>
+        <v>3.8318441097242848E-3</v>
       </c>
       <c r="K24" s="6" cm="1">
         <f t="array" ref="K24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>522.04</v>
+        <v>521.77</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="1"/>
-        <v>1.9937719779648351</v>
+        <v>1.9927407956147269</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>0.56586708757167414</v>
+        <v>1.9993413011308401</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2690,7 +2754,7 @@
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,CHOOSE({1,2},F25:F69,J25:J69),2,FALSE)</f>
-        <v>1.0948520736198126E-3</v>
+        <v>3.8703712394408257E-3</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>53</v>
@@ -2701,7 +2765,7 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>7.0099999999999909</v>
+        <v>4.8299999999999983</v>
       </c>
       <c r="H25" s="9">
         <f>VLOOKUP(F25,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2709,23 +2773,23 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="2"/>
-        <v>2.7041732733227592E-2</v>
+        <v>1.863217818851489E-2</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>1.0948520736198126E-3</v>
+        <v>3.8703712394408257E-3</v>
       </c>
       <c r="K25" s="6" cm="1">
         <f t="array" ref="K25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>118.88</v>
+        <v>123.72</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>0.45859075425479318</v>
+        <v>0.4772615083815866</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>0.13015601451192332</v>
+        <v>0.47884232974361896</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2740,7 +2804,7 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,CHOOSE({1,2},F26:F70,J26:J70),2,FALSE)</f>
-        <v>6.0375801513115803E-3</v>
+        <v>2.1343227214427829E-2</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>55</v>
@@ -2751,7 +2815,7 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>3.4699999999999989</v>
+        <v>1.4599999999999937</v>
       </c>
       <c r="H26" s="9">
         <f>VLOOKUP(F26,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2759,23 +2823,23 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>7.3816497893603353E-2</v>
+        <v>3.1058238306818576E-2</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>6.0375801513115803E-3</v>
+        <v>2.1343227214427829E-2</v>
       </c>
       <c r="K26" s="6" cm="1">
         <f t="array" ref="K26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>68.78</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="1"/>
-        <v>1.4631408429746513</v>
+        <v>1.4941990812814698</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>0.41526476280721047</v>
+        <v>1.4991482795414106</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2790,7 +2854,7 @@
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,CHOOSE({1,2},F27:F71,J27:J71),2,FALSE)</f>
-        <v>1.2061082984380848E-3</v>
+        <v>4.263669021963846E-3</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>57</v>
@@ -2801,7 +2865,7 @@
       </c>
       <c r="G27" s="2" cm="1">
         <f t="array" ref="G27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-5.8400000000000034</v>
+        <v>-3.4300000000000068</v>
       </c>
       <c r="H27" s="9">
         <f>VLOOKUP(F27,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2809,23 +2873,23 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4817624291801149E-2</v>
+        <v>-1.4576104678232544E-2</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>1.2061082984380848E-3</v>
+        <v>4.263669021963846E-3</v>
       </c>
       <c r="K27" s="6" cm="1">
         <f t="array" ref="K27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>204.6</v>
+        <v>201.17</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="1"/>
-        <v>0.86946676885316987</v>
+        <v>0.85489066417493731</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>0.24676975786043215</v>
+        <v>0.85772229714846682</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2840,7 +2904,7 @@
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,CHOOSE({1,2},F28:F72,J28:J72),2,FALSE)</f>
-        <v>2.695125282842633E-4</v>
+        <v>9.5274381194862296E-4</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
@@ -2851,7 +2915,7 @@
       </c>
       <c r="G28" s="2" cm="1">
         <f t="array" ref="G28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.6100000000000136</v>
+        <v>-16.139999999999986</v>
       </c>
       <c r="H28" s="9">
         <f>VLOOKUP(F28,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2859,23 +2923,23 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5288535538343269E-3</v>
+        <v>-1.5326519477568823E-2</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>2.695125282842633E-4</v>
+        <v>9.5274381194862296E-4</v>
       </c>
       <c r="K28" s="6" cm="1">
         <f t="array" ref="K28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>872.51</v>
+        <v>856.37</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="1"/>
-        <v>0.82853417034532739</v>
+        <v>0.81320765086775859</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>0.23515237605330258</v>
+        <v>0.81590121823844219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2890,7 +2954,7 @@
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,CHOOSE({1,2},F29:F73,J29:J73),2,FALSE)</f>
-        <v>2.8631448876702279E-3</v>
+        <v>1.0121398035949568E-2</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>61</v>
@@ -2901,7 +2965,7 @@
       </c>
       <c r="G29" s="2" cm="1">
         <f t="array" ref="G29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.9650000000000034</v>
+        <v>-0.63999999999998636</v>
       </c>
       <c r="H29" s="9">
         <f>VLOOKUP(F29,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2909,23 +2973,23 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" si="2"/>
-        <v>1.9822888283378783E-2</v>
+        <v>-6.456309669904391E-3</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>2.8631448876702279E-3</v>
+        <v>1.0121398035949568E-2</v>
       </c>
       <c r="K29" s="6" cm="1">
         <f t="array" ref="K29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>182.73500000000001</v>
+        <v>182.06</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="1"/>
-        <v>1.8434277305156315</v>
+        <v>1.8366183414106538</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>0.52319678104841916</v>
+        <v>1.8427017264249783</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2940,7 +3004,7 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,CHOOSE({1,2},F30:F74,J30:J74),2,FALSE)</f>
-        <v>1.2242725800410681E-3</v>
+        <v>4.3278809048247473E-3</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>63</v>
@@ -2951,7 +3015,7 @@
       </c>
       <c r="G30" s="2" cm="1">
         <f t="array" ref="G30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.66000000000002501</v>
+        <v>2.6299999999999955</v>
       </c>
       <c r="H30" s="9">
         <f>VLOOKUP(F30,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2959,23 +3023,23 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>2.8469714448457963E-3</v>
+        <v>1.1344749848400223E-2</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>1.2242725800410681E-3</v>
+        <v>4.3278809048247473E-3</v>
       </c>
       <c r="K30" s="6" cm="1">
         <f t="array" ref="K30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>250.05</v>
+        <v>252.68</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="1"/>
-        <v>1.0786139542176734</v>
+        <v>1.0899587040660734</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>0.3061293586392691</v>
+        <v>1.0935689470311172</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2990,7 +3054,7 @@
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,CHOOSE({1,2},F31:F75,J31:J75),2,FALSE)</f>
-        <v>6.7707359675119906E-4</v>
+        <v>2.3934979336400959E-3</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>65</v>
@@ -3001,7 +3065,7 @@
       </c>
       <c r="G31" s="2" cm="1">
         <f t="array" ref="G31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.039999999999992</v>
+        <v>1.1099999999999852</v>
       </c>
       <c r="H31" s="9">
         <f>VLOOKUP(F31,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3009,23 +3073,23 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>-2.4810200303679326E-3</v>
+        <v>2.6480117631811437E-3</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>6.7707359675119906E-4</v>
+        <v>2.3934979336400959E-3</v>
       </c>
       <c r="K31" s="6" cm="1">
         <f t="array" ref="K31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>167.06</v>
+        <v>168.17</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="1"/>
-        <v>0.39853769833968267</v>
+        <v>0.4011857101028638</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>0.11311191507325531</v>
+        <v>0.40251454750025489</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3040,7 +3104,7 @@
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,CHOOSE({1,2},F32:F76,J32:J76),2,FALSE)</f>
-        <v>1.8931722500709247E-3</v>
+        <v>6.6924834911774381E-3</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>67</v>
@@ -3051,7 +3115,7 @@
       </c>
       <c r="G32" s="2" cm="1">
         <f t="array" ref="G32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>4.7600000000000193</v>
+        <v>-4.2800000000000011</v>
       </c>
       <c r="H32" s="9">
         <f>VLOOKUP(F32,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3059,23 +3123,23 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>3.1751053198315012E-2</v>
+        <v>-2.8549266321173893E-2</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>1.8931722500709247E-3</v>
+        <v>6.6924834911774381E-3</v>
       </c>
       <c r="K32" s="6" cm="1">
         <f t="array" ref="K32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>186.96</v>
+        <v>182.68</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="1"/>
-        <v>1.2470959886464184</v>
+        <v>1.2185467223252444</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>0.35394748387326008</v>
+        <v>1.2225828841682944</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3090,7 +3154,7 @@
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,CHOOSE({1,2},F33:F77,J33:J77),2,FALSE)</f>
-        <v>2.2026461978817509E-3</v>
+        <v>7.7864934454200431E-3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>69</v>
@@ -3101,7 +3165,7 @@
       </c>
       <c r="G33" s="2" cm="1">
         <f t="array" ref="G33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.76999999999999602</v>
+        <v>-1.2399999999999949</v>
       </c>
       <c r="H33" s="9">
         <f>VLOOKUP(F33,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3109,23 +3173,23 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>5.9758064387096669E-3</v>
+        <v>-9.6233766025973968E-3</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>2.2026461978817509E-3</v>
+        <v>7.7864934454200431E-3</v>
       </c>
       <c r="K33" s="6" cm="1">
         <f t="array" ref="K33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>58.58</v>
+        <v>57.34</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="1"/>
-        <v>0.45462693659690145</v>
+        <v>0.44500355999430402</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.12903101427191296</v>
+        <v>0.44647753416038533</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3140,7 +3204,7 @@
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,CHOOSE({1,2},F34:F78,J34:J78),2,FALSE)</f>
-        <v>5.9442611545762534E-4</v>
+        <v>2.1013338666229947E-3</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>71</v>
@@ -3151,7 +3215,7 @@
       </c>
       <c r="G34" s="2" cm="1">
         <f t="array" ref="G34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.6599999999999966</v>
+        <v>0.40999999999999659</v>
       </c>
       <c r="H34" s="9">
         <f>VLOOKUP(F34,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3159,23 +3223,23 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>3.4766984372824931E-3</v>
+        <v>8.5870262607579107E-4</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>5.9442611545762534E-4</v>
+        <v>2.1013338666229947E-3</v>
       </c>
       <c r="K34" s="6" cm="1">
         <f t="array" ref="K34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>147.56</v>
+        <v>147.97</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="1"/>
-        <v>0.30904916952132877</v>
+        <v>0.30990787214740456</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>8.7713517596927193E-2</v>
+        <v>0.3109343722442045</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3190,7 +3254,7 @@
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,CHOOSE({1,2},F35:F79,J35:J79),2,FALSE)</f>
-        <v>2.0845783674623601E-3</v>
+        <v>7.3691162068241847E-3</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>73</v>
@@ -3201,7 +3265,7 @@
       </c>
       <c r="G35" s="2" cm="1">
         <f t="array" ref="G35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.91999999999998749</v>
+        <v>2.0300000000000011</v>
       </c>
       <c r="H35" s="9">
         <f>VLOOKUP(F35,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3209,23 +3273,23 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>-6.757205188471606E-3</v>
+        <v>1.4909920144127778E-2</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>2.0845783674623601E-3</v>
+        <v>7.3691162068241847E-3</v>
       </c>
       <c r="K35" s="6" cm="1">
         <f t="array" ref="K35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>128.71</v>
+        <v>130.74</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="1"/>
-        <v>0.94534769544368735</v>
+        <v>0.96025761558781508</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>0.26830608167608039</v>
+        <v>0.96343825288019402</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3240,7 +3304,7 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,CHOOSE({1,2},F36:F80,J36:J80),2,FALSE)</f>
-        <v>7.6131045268503362E-4</v>
+        <v>2.6912805404075255E-3</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>75</v>
@@ -3251,7 +3315,7 @@
       </c>
       <c r="G36" s="2" cm="1">
         <f t="array" ref="G36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.525950000000023</v>
+        <v>-2.6289099999999621</v>
       </c>
       <c r="H36" s="9">
         <f>VLOOKUP(F36,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3259,23 +3323,23 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2140388855377894E-2</v>
+        <v>-7.0517769011568567E-3</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>7.6131045268503362E-4</v>
+        <v>2.6912805404075255E-3</v>
       </c>
       <c r="K36" s="6" cm="1">
         <f t="array" ref="K36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>291.76387999999997</v>
+        <v>289.13497000000001</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="1"/>
-        <v>0.78262617951011271</v>
+        <v>0.77557440260895583</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>0.2221228915599418</v>
+        <v>0.77814331831231365</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3290,7 +3354,7 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,CHOOSE({1,2},F37:F81,J37:J81),2,FALSE)</f>
-        <v>1.4515531535983955E-3</v>
+        <v>5.1313320891217748E-3</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>77</v>
@@ -3301,7 +3365,7 @@
       </c>
       <c r="G37" s="2" cm="1">
         <f t="array" ref="G37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.4609999999999843</v>
+        <v>-2.1100000000000136</v>
       </c>
       <c r="H37" s="9">
         <f>VLOOKUP(F37,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3309,23 +3373,23 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="2"/>
-        <v>-7.4721264445976078E-3</v>
+        <v>-1.0791366733813295E-2</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>1.4515531535983955E-3</v>
+        <v>5.1313320891217748E-3</v>
       </c>
       <c r="K37" s="6" cm="1">
         <f t="array" ref="K37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>149.60900000000001</v>
+        <v>147.5</v>
       </c>
       <c r="L37" s="6">
         <f t="shared" si="1"/>
-        <v>0.76515904534552748</v>
+        <v>0.75437279300353122</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.21716541575670237</v>
+        <v>0.75687148314546182</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3340,7 +3404,7 @@
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,CHOOSE({1,2},F38:F82,J38:J82),2,FALSE)</f>
-        <v>9.3863925183415716E-4</v>
+        <v>3.3181490468370744E-3</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>79</v>
@@ -3351,7 +3415,7 @@
       </c>
       <c r="G38" s="2" cm="1">
         <f t="array" ref="G38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-14.670000000000016</v>
+        <v>7.00000000000216E-2</v>
       </c>
       <c r="H38" s="9">
         <f>VLOOKUP(F38,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3359,23 +3423,23 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>-4.8516546373525857E-2</v>
+        <v>2.315036295942641E-4</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>9.3863925183415716E-4</v>
+        <v>3.3181490468370744E-3</v>
       </c>
       <c r="K38" s="6" cm="1">
         <f t="array" ref="K38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>191.73</v>
+        <v>191.8</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="1"/>
-        <v>0.63408844145849363</v>
+        <v>0.63431994508808787</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>0.17996530375416295</v>
+        <v>0.63642098718335094</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3390,7 +3454,7 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,CHOOSE({1,2},F39:F83,J39:J83),2,FALSE)</f>
-        <v>1.8186986954986937E-4</v>
+        <v>6.4292147714477429E-4</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>81</v>
@@ -3401,7 +3465,7 @@
       </c>
       <c r="G39" s="2" cm="1">
         <f t="array" ref="G39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.9050000000000864</v>
+        <v>-3.2999999999999545</v>
       </c>
       <c r="H39" s="9">
         <f>VLOOKUP(F39,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3409,23 +3473,23 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" si="2"/>
-        <v>-5.7992307212314002E-4</v>
+        <v>-2.1146366165813845E-3</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>1.8186986954986937E-4</v>
+        <v>6.4292147714477429E-4</v>
       </c>
       <c r="K39" s="6" cm="1">
         <f t="array" ref="K39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>619.41999999999996</v>
+        <v>616.12</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="1"/>
-        <v>0.39692370092207852</v>
+        <v>0.39480906430549711</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>0.11265383459658007</v>
+        <v>0.39611678049843835</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3440,7 +3504,7 @@
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,CHOOSE({1,2},F40:F84,J40:J84),2,FALSE)</f>
-        <v>6.7911707843153462E-4</v>
+        <v>2.4007217704619475E-3</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>83</v>
@@ -3451,7 +3515,7 @@
       </c>
       <c r="G40" s="2" cm="1">
         <f t="array" ref="G40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.9399999999999977</v>
+        <v>-8.7800000000000011</v>
       </c>
       <c r="H40" s="9">
         <f>VLOOKUP(F40,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3459,23 +3523,23 @@
       </c>
       <c r="I40" s="2">
         <f t="shared" si="2"/>
-        <v>-7.0348207442868039E-3</v>
+        <v>-2.1008750385999388E-2</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>6.7911707843153462E-4</v>
+        <v>2.4007217704619475E-3</v>
       </c>
       <c r="K40" s="6" cm="1">
         <f t="array" ref="K40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>168.06</v>
+        <v>159.28</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="1"/>
-        <v>0.40213332458668072</v>
+        <v>0.3811245742006813</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>0.11413241620120371</v>
+        <v>0.38238696359917901</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3490,7 +3554,7 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,CHOOSE({1,2},F41:F85,J41:J85),2,FALSE)</f>
-        <v>2.7770916035760947E-3</v>
+        <v>9.8171942408960457E-3</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>85</v>
@@ -3501,7 +3565,7 @@
       </c>
       <c r="G41" s="2" cm="1">
         <f t="array" ref="G41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.1299999999999955</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="H41" s="9">
         <f>VLOOKUP(F41,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3509,23 +3573,23 @@
       </c>
       <c r="I41" s="2">
         <f t="shared" si="2"/>
-        <v>2.0841590653454908E-2</v>
+        <v>-4.892392172172246E-4</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>2.7770916035760947E-3</v>
+        <v>9.8171942408960457E-3</v>
       </c>
       <c r="K41" s="6" cm="1">
         <f t="array" ref="K41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>60.87</v>
+        <v>60.82</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="1"/>
-        <v>0.59559982304028303</v>
+        <v>0.59511058382306581</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>0.16904156590967687</v>
+        <v>0.59708175373129746</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3540,7 +3604,7 @@
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,CHOOSE({1,2},F42:F86,J42:J86),2,FALSE)</f>
-        <v>8.4963427197953941E-4</v>
+        <v>3.0035108208186579E-3</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>87</v>
@@ -3551,7 +3615,7 @@
       </c>
       <c r="G42" s="2" cm="1">
         <f t="array" ref="G42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>7.4050000000000296</v>
+        <v>9.3799999999999955</v>
       </c>
       <c r="H42" s="9">
         <f>VLOOKUP(F42,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3559,23 +3623,23 @@
       </c>
       <c r="I42" s="2">
         <f t="shared" si="2"/>
-        <v>2.2167572531884037E-2</v>
+        <v>2.8079923072123068E-2</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>8.4963427197953941E-4</v>
+        <v>3.0035108208186579E-3</v>
       </c>
       <c r="K42" s="6" cm="1">
         <f t="array" ref="K42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>329.67500000000001</v>
+        <v>339.03</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="1"/>
-        <v>0.98691350093839847</v>
+        <v>1.0149185841302653</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>0.28010317861485468</v>
+        <v>1.0182802735821495</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3590,7 +3654,7 @@
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,CHOOSE({1,2},F43:F87,J43:J87),2,FALSE)</f>
-        <v>1.1343593861063012E-3</v>
+        <v>4.0100320846632861E-3</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>89</v>
@@ -3601,7 +3665,7 @@
       </c>
       <c r="G43" s="2" cm="1">
         <f t="array" ref="G43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.54000000000002046</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="H43" s="9">
         <f>VLOOKUP(F43,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3609,23 +3673,23 @@
       </c>
       <c r="I43" s="2">
         <f t="shared" si="2"/>
-        <v>2.1582685467704068E-3</v>
+        <v>-3.9967936051300048E-4</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>1.1343593861063012E-3</v>
+        <v>4.0100320846632861E-3</v>
       </c>
       <c r="K43" s="6" cm="1">
         <f t="array" ref="K43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>139.93</v>
+        <v>139.83000000000001</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="1"/>
-        <v>0.5592713291658733</v>
+        <v>0.5588716498053603</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>0.15873090889785474</v>
+        <v>0.5607227863984674</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3640,7 +3704,7 @@
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,CHOOSE({1,2},F44:F88,J44:J88),2,FALSE)</f>
-        <v>5.8239227889564902E-4</v>
+        <v>2.0587934942276477E-3</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>91</v>
@@ -3651,7 +3715,7 @@
       </c>
       <c r="G44" s="2" cm="1">
         <f t="array" ref="G44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.0900000000000034</v>
+        <v>-8.3799999999999955</v>
       </c>
       <c r="H44" s="9">
         <f>VLOOKUP(F44,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3659,23 +3723,23 @@
       </c>
       <c r="I44" s="2">
         <f t="shared" si="2"/>
-        <v>2.2366764213177328E-3</v>
+        <v>-1.719573248682801E-2</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>5.8239227889564902E-4</v>
+        <v>2.0587934942276477E-3</v>
       </c>
       <c r="K44" s="6" cm="1">
         <f t="array" ref="K44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>222.07</v>
+        <v>213.69</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="1"/>
-        <v>0.45568691090094254</v>
+        <v>0.43849117841411456</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.12933185337435676</v>
+        <v>0.43994358178150605</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3690,7 +3754,7 @@
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,CHOOSE({1,2},F45:F89,J45:J89),2,FALSE)</f>
-        <v>4.6523266255640736E-4</v>
+        <v>1.6446268497748344E-3</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>93</v>
@@ -3701,7 +3765,7 @@
       </c>
       <c r="G45" s="2" cm="1">
         <f t="array" ref="G45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.8050000000000068</v>
+        <v>1.4850000000000136</v>
       </c>
       <c r="H45" s="9">
         <f>VLOOKUP(F45,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3709,23 +3773,23 @@
       </c>
       <c r="I45" s="2">
         <f t="shared" si="2"/>
-        <v>-4.597948643282182E-3</v>
+        <v>2.434208105267054E-3</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>4.6523266255640736E-4</v>
+        <v>1.6446268497748344E-3</v>
       </c>
       <c r="K45" s="6" cm="1">
         <f t="array" ref="K45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>269.69499999999999</v>
+        <v>271.18</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="1"/>
-        <v>0.44208333666666133</v>
+        <v>0.44451754477192834</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>0.12547092292815029</v>
+        <v>0.44598990912193959</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3750,76 +3814,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFD4FAC-B17A-4101-81AB-7504FFBE2A71}">
-  <dimension ref="A1:P1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69862999-B0FF-44F5-A747-2A793E7FABEE}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/ciq reference/data/Shares.xlsx
+++ b/ciq reference/data/Shares.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18613\Desktop\cursor\FundsMonitor-CIQ\ciq reference\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F0CB9-4E40-42DE-9648-9994DBB95174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF93F6F-DA2C-43B7-8B09-E6553115CAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="43" state="veryHidden" r:id="rId1"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="46" state="veryHidden" r:id="rId1"/>
     <sheet name="shares" sheetId="1" r:id="rId2"/>
     <sheet name="08_05_2025_agix_holdings" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"1d0cf9d1-cef0-4fcf-927e-686a7068bfa9"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"04d639a8-6a78-43d7-a973-8ab5d3540b1f"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -691,49 +691,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BAABTAVMT0NBTAFI/////wFQhwAAACtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAJ16DQACAAAACzE4NC42MzIwMzQ1AFvDN2qR2d0IXypvapHZ3QgrQ0lRLktPU0U6QTAwMDY2MC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACdeg0AAgAAAAoxODkuMDM1ODgyAOItrlqR2d0IkBYqZpHZ3QgjQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAI/cAcAIAAAAHMzIuODU4NQBbwzdqkdndCF8qb2qR2d0II0NJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACP3AHACAAAABzMyLjgxNzQA4i2uWpHZ3QiQFipmkdndCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAKvMBQACAAAACzM5LjMwNDIzMTc1AFvDN2qR2d0IXypvapHZ3QgoQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACrzAUAAgAAAAszOS41MTc3NDkyNADiLa5akdndCDCGK2aR2d0IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAPTdcAAIAAAAKNDUuMTU4MDUzNQBbwzdqkdndCDcDb2qR2d0IKENJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAPTdcAAIAAAALNDUuMzc4NDMyMzkA4i2uWpHZ3Qj3OSlmkdndCCNDSVEuQUFQTC5JUV9DTE9T</t>
-  </si>
-  <si>
-    <t>RVBSSUNFLjIwMjUvOC84LlVTRAEAAABpYQAAAgAAAAYyMjkuMzUAW8M3apHZ3Qg3A29qkdndCCNDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABpYQAAAgAAAAYyMjAuMDMA4i2uWpHZ3QgwhitmkdndCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAABXwAAAgAAAAYzNDEuMDUAW8M3apHZ3Qg3A29qkdndCCNDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAABXwAAAgAAAAYzMzguMjcA4i2uWpHZ3QiM0CpmkdndCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAA9SQAAAgAAAAYyMjIuNjkAW8M3apHZ3Qg6wW5qkdndCCNDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAA9SQAAAgAAAAYyMjMuMTMA4i2uWpHZ3QgwhitmkdndCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADD2/wBAgAAAAYxMzkuMTgAW8M3apHZ3Qh/6G5qkdndCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADD2/wBAgAAAAYxMzkuMjgA4i2uWpHZ3QihPSpmkdndCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAACznxScCAAAABTEzOC41AFvDN2qR2d0If+huapHZ3QgiQ0lRLkFSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAs58UnAgAAAAYxMzUu</t>
-  </si>
-  <si>
-    <t>NTcA4i2uWpHZ3Qjf7ylmkdndCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAo7wUAAgAAAAY3MjIuMzIAW8M3apHZ3QgkjG5qkdndCCxDSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAo7wUAAgAAAAY3MTMuMTIA4i2uWpHZ3QiQFipmkdndCCNDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADwtn0BAgAAAAYzMDQuOTcAW8M3apHZ3Qg6wW5qkdndCCNDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADwtn0BAgAAAAYzMDMuNzYA4i2uWpHZ3QjuEilmkdndCCNDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAmAXoQAgAAAAUxNi4zMwBbwzdqkdndCKhabmqR2d0II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACYBehACAAAABTE2LjkzAOItrlqR2d0IccgpZpHZ3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAl4AEAAgAAAAYyNDAuNTEAW8M3apHZ3QgkjG5qkdndCCJDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAACXgAQACAAAABjI0MC44OADiLa5akdndCJa0K2aR2d0II0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALuhBAgCAAAABjEzMC45MQBbwzdqkdndCCSMbmqR2d0I</t>
-  </si>
-  <si>
-    <t>I0NJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALuhBAgCAAAABjEzNi4zOADiLa5akdndCIzQKmaR2d0IIkNJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA2rnODQIAAAAGNDU1Ljk4AFvDN2qR2d0IqFpuapHZ3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADauc4NAgAAAAY0MzcuMzQA4i2uWpHZ3QgwhitmkdndCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACw8IcMAgAAAAYzNzAuMzQAY9g3apHZ3QioWm5qkdndCCNDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACw8IcMAgAAAAYzOTAuODQA4i2uWpHZ3QiM0CpmkdndCCNDSVEuRVNUQy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACAhFsNAgAAAAU3NC41MQBj2DdqkdndCKhabmqR2d0II0NJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAICEWw0CAAAABTc2LjM3AOItrlqR2d0I3+8pZpHZ3QgtQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAKhxAAACAAAABjIwMS40MgBj2DdqkdndCEczbmqR2d0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACocQAAAgAAAAYxOTYuNTIA4i2uWpHZ3Qjf7ylmkdndCCNDSVEuR1RMQi5JUV9DTE9T</t>
-  </si>
-  <si>
-    <t>RVBSSUNFLjIwMjUvOC84LlVTRAEAAADNhBcRAgAAAAU0MC40MgBj2DdqkdndCEczbmqR2d0II0NJUS5HVExCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAM2EFxECAAAABDQxLjYA4i2uWpHZ3Qi3ailmkdndCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALo+/BECAAAABTMzLjc0AGPYN2qR2d0IZ+1tapHZ3QgiQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC6PvwRAgAAAAUzNC41OADiLa5akdndCJAWKmaR2d0IIkNJUS5NREIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA4m7MAgIAAAAGMjA5LjE4AGPYN2qR2d0IZ+1tapHZ3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADibswCAgAAAAYyMjcuODYA4i2uWpHZ3QgmBixmkdndCCNDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAX2zwBAgAAAAU3NjkuMwBj2DdqkdndCGftbWqR2d0II0NJUS5NRVRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAABfbPAECAAAABjc2MS44MwDiLa5akdndCB9fK2aR2d0II0NJUS5NUlZMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALZ5AAACAAAABTc3LjM0AGPYN2qR2d0I88JtapHZ3QgjQ0lRLk1SVkwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAtnkAAAIAAAAFNzUuODUA4i2uWpHZ</t>
-  </si>
-  <si>
-    <t>3QgfXytmkdndCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAABLVQAAAgAAAAY1MjIuMDQAY9g3apHZ3Qjzwm1qkdndCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABLVQAAAgAAAAY1MjAuODQA4i2uWpHZ3Qh3nipmkdndCCFDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAABmkEAAIAAAAGMTE4Ljg5AGPYN2qR2d0I88JtapHZ3QghQ0lRLk1VLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAAZpBAACAAAABjExMS44NwDiLa5akdndCG9pKmaR2d0II0NJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAL/7GQMCAAAABTY4Ljc4AGPYN2qR2d0I1ZJtapHZ3QgjQ0lRLk5CSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAv/sZAwIAAAAFNjUuMzEA4i2uWpHZ3QhvaSpmkdndCCJDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAADT14AQCAAAABTIwNC42AGPYN2qR2d0I1ZJtapHZ3QgiQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAA09eAEAgAAAAYyMTAuNDQA4i2uWpHZ3Qi3ailmkdndCCJDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAL90XgECAAAABjg3Mi41MQBj2DdqkdndCPNbbWqR2d0IIkNJUS5OT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5V</t>
-  </si>
-  <si>
-    <t>U0QBAAAAv3ReAQIAAAAGODc0LjEyAOItrlqR2d0IS5spZpHZ3QgjQ0lRLk5WREEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAM34AAAIAAAAFMTgyLjcAY9g3apHZ3QjzW21qkdndCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAzfgAAAgAAAAYxODAuNzcA4i2uWpHZ3QgmBixmkdndCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADnVgAAAgAAAAYyNTAuMDUAY9g3apHZ3QjVkm1qkdndCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADnVgAAAgAAAAYyNDkuMzkA4i2uWpHZ3QhyLitmkdndCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACDfYQBAgAAAAYxNjcuMDYAY9g3apHZ3QiWDW1qkdndCCNDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACDfYQBAgAAAAUxNjguMQDiLa5akdndCIbbK2aR2d0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAGX6mAICAAAABjE4Ni45NgBj2DdqkdndCPNbbWqR2d0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAGX6mAICAAAABTE4Mi4yAOItrlqR2d0IRAcrZpHZ3QgjQ0lRLlBTVEcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAuMqlBgIAAAAFNTguNTgAY9g3apHZ3QjzW21qkdnd</t>
-  </si>
-  <si>
-    <t>CCNDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC4yqUGAgAAAAU1Ny44MQDiLa5akdndCG9pKmaR2d0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAANWCAAACAAAABjE0Ny41NgBj2DdqkdndCJYNbWqR2d0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAANWCAAACAAAABTE0NS45AOItrlqR2d0Ib2kqZpHZ3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAaVX0AQIAAAAGMTI4LjcxAKHtN2qR2d0Ilg1tapHZ3QgjQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAaVX0AQIAAAAGMTI5LjYzAOItrlqR2d0It2opZpHZ3QgiQ0lRLlNBUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAL7gEAAgAAAA4yOTEuNzYzODgyMzg5NACh7TdqkdndCK7WbGqR2d0IIkNJUS5TQVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAC+4BAAIAAAAPMjk2LjI4OTgzNDg0MDc1AOItrlqR2d0IS5spZpHZ3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAABisEBQIAAAAGMTQ5LjYxAKHtN2qR2d0IrtZsapHZ3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAABisEBQIAAAAGMTUxLjA3AOItrlqR2d0IhtsrZpHZ3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQ</t>
-  </si>
-  <si>
-    <t>UklDRS4yMDI1LzgvOC5VU0QBAAAAsDxkEAIAAAAGMTkxLjczAKHtN2qR2d0Ilg1tapHZ3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAsDxkEAIAAAAFMjA2LjQA4i2uWpHZ3QhyLitmkdndCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADUiAAAAgAAAAY2MTkuNDIAoe03apHZ3QgLqWxqkdndCCNDSVEuU05QUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADUiAAAAgAAAAc2MjAuMzI1AOItrlqR2d0IlrQrZpHZ3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAUhMiDwIAAAAGMTY4LjA2AKHtN2qR2d0IrtZsapHZ3QgjQ0lRLlRFQU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAUhMiDwIAAAADMTcxAOItrlqR2d0IRAcrZpHZ3QgiQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAA0yQZAgAAAAU2MC44NwCh7TdqkdndCK7WbGqR2d0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAANMkGQIAAAAFNTguNzQA4i2uWpHZ3QihPSpmkdndCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAQxqIBAgAAAAYzMjkuNjUAoe03apHZ3QiFpWxqkdndCCNDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAQxqIBAgAAAAYzMjIuMjcA4i2u</t>
-  </si>
-  <si>
-    <t>WpHZ3QihPSpmkdndCCJDSVEuVlJULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAESbhyICAAAABjEzOS45MwCh7TdqkdndCAupbGqR2d0IIkNJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAARJuHIgIAAAAGMTM5LjM5AONUrlqR2d0I9zkpZpHZ3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAh2NrAQIAAAAGMjIyLjA3AKHtN2qR2d0IY1hsapHZ3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAh2NrAQIAAAAGMjIwLjk4AONUrlqR2d0IhtsrZpHZ3QghQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAANTMgQMCAAAABzI2OS42OTUAoe03apHZ3Qhxf2xqkdndCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA1MyBAwIAAAAFMjcyLjUA41SuWpHZ3QhyLitmkdndCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAh2NrAQIAAAAGMjEzLjY5AKHtN2qR2d0IcX9sapHZ3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAARJuHIgIAAAAGMTM5LjgzAKHtN2qR2d0IC6lsapHZ3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAAYrBAUCAAAABTE0Ny41AKHtN2qR2d0IrtZsapHZ3QgkQ0lRLlJCTFguSVFfQ0xPU0VQUklDRS4y</t>
-  </si>
-  <si>
-    <t>MDI1LzgvMTEuVVNEAQAAAGlV9AECAAAABjEzMC43NACh7TdqkdndCJYNbWqR2d0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAzfgAAAgAAAAYxODIuMDYAY9g3apHZ3QjzW21qkdndCCNDSVEuTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAA09eAEAgAAAAYyMDEuMTcAY9g3apHZ3Qjzwm1qkdndCCNDSVEuTURCLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADibswCAgAAAAMyMDEAY9g3apHZ3Qhn7W1qkdndCCRDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAzYQXEQIAAAAFMzguODIAY9g3apHZ3QhHM25qkdndCCNDSVEuQ1JNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAl4AEAAgAAAAYyMzIuNjgAW8M3apHZ3QgkjG5qkdndCCRDSVEuQVZHTy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAA8LZ9AQIAAAAFMzAzLjkAW8M3apHZ3Qg6wW5qkdndCClDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAA9N1wAAgAAAAs0NS4yMDQzMzY1NwBbwzdqkdndCDcDb2qR2d0IJENJUS5BR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAj9wBwAgAAAAczMi42NTgzAFvDN2qR2d0IXypvapHZ3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAANSIAAAC</t>
-  </si>
-  <si>
-    <t>AAAABjYxNi4xMgCh7TdqkdndCAupbGqR2d0IJENJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAACDfYQBAgAAAAYxNjguMTcAY9g3apHZ3Qg4SG1qkdndCCRDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAtnkAAAIAAAAFNzcuMjgAY9g3apHZ3Qjzwm1qkdndCCNDSVEuQVBQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADauc4NAgAAAAY0NjUuNTgAW8M3apHZ3QioWm5qkdndCCRDSVEuQU1aTi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAPUkAAAIAAAAFMjIxLjMAW8M3apHZ3Qg6wW5qkdndCCRDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAaWEAAAIAAAAGMjI3LjE4AFvDN2qR2d0INwNvapHZ3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAq8wFAAIAAAALMzkuMzY2MTM4MTIAW8M3apHZ3QhBVW9qkdndCCJDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAANTMgQMCAAAABjI3MS4xOACh7TdqkdndCHF/bGqR2d0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAACwPGQQAgAAAAUxOTEuOACh7TdqkdndCJYNbWqR2d0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADnVgAAAgAAAAYyNTIuNjgAY9g3apHZ3QjV</t>
-  </si>
-  <si>
-    <t>km1qkdndCCRDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAF9s8AQIAAAAGNzY1Ljg3AGPYN2qR2d0IZ+1tapHZ3QgkQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAALuhBAgCAAAABjEyOC44MwBbwzdqkdndCCSMbmqR2d0IJENJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAABSEyIPAgAAAAYxNTkuMjgAoe03apHZ3Qiu1mxqkdndCCRDSVEuUExUUi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAZfqYAgIAAAAGMTgyLjY4AGPYN2qR2d0I81ttapHZ3QgkQ0lRLk1TRlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAEtVAAACAAAABjUyMS43NwBj2DdqkdndCPPCbWqR2d0IJENJUS5EVU9MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAACw8IcMAgAAAAYzNDAuNTkAY9g3apHZ3QioWm5qkdndCCRDSVEuQURCRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAAV8AAAIAAAAGMzMzLjY1AFvDN2qR2d0IXypvapHZ3QgjQ0lRLlRFTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAANMkGQIAAAAFNjAuODIAoe03apHZ3Qiu1mxqkdndCCRDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAuMqlBgIAAAAFNTcuMzQAY9g3apHZ3QjzW21qkdndCCJDSVEuTVUuSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI1LzgvMTEuVVNEAQAAAAZpBAACAAAABjEyMy43MgBj2DdqkdndCPPCbWqR2d0IJENJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAACAhFsNAgAAAAU3Mi41NABj2DdqkdndCKhabmqR2d0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAACznxScCAAAABjE0MS4wNQBbwzdqkdndCH/obmqR2d0IJENJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADD2/wBAgAAAAYxMzcuNjUAW8M3apHZ3Qh/6G5qkdndCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAEMaiAQIAAAAGMzM5LjAzAKHtN2qR2d0IC6lsapHZ3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAANWCAAACAAAABjE0Ny45NwBj2DdqkdndCJYNbWqR2d0IJENJUS5OQklTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAC/+xkDAgAAAAU3MC4yNABj2DdqkdndCNWSbWqR2d0ILkNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAqHEAAAIAAAADMjAxAGPYN2qR2d0IRzNuapHZ3QgtQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAACjvBQACAAAABjcyMS4zMQBbwzdqkdndCDrBbmqR2d0ILENJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4y</t>
-  </si>
-  <si>
-    <t>MDI1LzgvMTEuVVNEAQAAAJ16DQACAAAACTE5MS43NTY3MwBbwzdqkdndCF8qb2qR2d0II0NJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAALo+/BECAAAABDMyLjUAY9g3apHZ3Qhn7W1qkdndCCNDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAL7gEAAgAAAA8yODkuMTM0OTcyMTc0ODUAoe03apHZ3Qiu1mxqkdndCCNDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAC/dF4BAgAAAAY4NTYuMzcAY9g3apHZ3QjzW21qkdndCCRDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAJgF6EAIAAAAFMTUuOTEAW8M3apHZ3QgkjG5qkdndCA==</t>
+    <t>BAABTAVMT0NBTAFI/////wFQhwAAACxDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAACdeg0AAgAAAAkxOTEuNzU2NzMALZqwt3Xa3Qh3EtHIddrdCCtDSVEuS09TRTpBMDAwNjYwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAJ16DQACAAAACzE4NC42MzIwMzQ1AC2asLd12t0I0+FZuHXa3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAACP3AHACAAAABzMyLjY1ODMA5cSwt3Xa3QhIjdPIddrdCCNDSVEuQUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAj9wBwAgAAAAczMi44NTg1AC2asLd12t0IFnNYuHXa3QgpQ0lRLlRXU0U6MjMzMC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAq8wFAAIAAAALMzkuMzY2MTM4MTIALZqwt3Xa3QiqdNTIddrdCChDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAKvMBQACAAAACzM5LjMwNDIzMTc1AC2asLd12t0IttZXuHXa3QgpQ0lRLlRXU0U6MjQ1NC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAPTdcAAIAAAALNDUuMjA0MzM2NTcALZqwt3Xa3Qg7zdTIddrdCChDSVEuVFdTRToyNDU0LklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAD03XAACAAAACjQ1LjE1ODA1MzUALZqwt3Xa3Qi4iFe4ddrdCCRDSVEuQUFQTC5JUV9D</t>
+  </si>
+  <si>
+    <t>TE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAaWEAAAIAAAAGMjI3LjE4AOXEsLd12t0IwIvVyHXa3QgjQ0lRLkFBUEwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAaWEAAAIAAAAGMjI5LjM1AOXEsLd12t0IkjpXuHXa3QgkQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAAFfAAACAAAABjMzMy42NQDlxLC3ddrdCHxM0sh12t0II0NJUS5BREJFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAAFfAAACAAAABjM0MS4wNQDlxLC3ddrdCEPoWLh12t0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAA9SQAAAgAAAAUyMjEuMwDlxLC3ddrdCMFf1Mh12t0II0NJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAD1JAAACAAAABjIyMi42OQDlxLC3ddrdCLbWV7h12t0IJENJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADD2/wBAgAAAAYxMzcuNjUA5cSwt3Xa3QhUy9DIddrdCCNDSVEuQU5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADD2/wBAgAAAAYxMzkuMTgA5cSwt3Xa3Qi0k1m4ddrdCCNDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAs58UnAgAAAAYxNDEuMDUA5cSwt3Xa3Qj2t9TIddrdCCJDSVEuQVJNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAACznxScC</t>
+  </si>
+  <si>
+    <t>AAAABTEzOC41AOXEsLd12t0Io2FXuHXa3QgtQ0lRLk5BU0RBUUdTOkFTTUwuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAACjvBQACAAAABjcyMS4zMQDlxLC3ddrdCHcS0ch12t0ILENJUS5OQVNEQVFHUzpBU01MLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAACjvBQACAAAABjcyMi4zMgDlxLC3ddrdCNPhWbh12t0IJENJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADwtn0BAgAAAAUzMDMuOQDlxLC3ddrdCI+j0Mh12t0II0NJUS5BVkdPLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAPC2fQECAAAABjMwNC45NwDlxLC3ddrdCO0vWrh12t0IJENJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAmAXoQAgAAAAUxNS45MQDlxLC3ddrdCI+j0Mh12t0II0NJUS5DRkxULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAACYBehACAAAABTE2LjMzAOXEsLd12t0I7S9auHXa3QgjQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAJeABAAIAAAAGMjMyLjY4AOXEsLd12t0IqC7VyHXa3QgiQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAl4AEAAgAAAAYyNDAuNTEA5cSwt3Xa3QiCE1e4ddrdCCRDSVEuRERPRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAu6EECAIAAAAGMTI4LjgzAOXEsLd1</t>
+  </si>
+  <si>
+    <t>2t0Imk7TyHXa3QgjQ0lRLkRET0cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAu6EECAIAAAAGMTMwLjkxAOXEsLd12t0IN0xYuHXa3QgjQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAA2rnODQIAAAAGNDY1LjU4AOXEsLd12t0I/UrUyHXa3QgiQ0lRLkFQUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADauc4NAgAAAAY0NTUuOTgA5cSwt3Xa3QjDr1e4ddrdCCRDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAsPCHDAIAAAAGMzQwLjU5AOXEsLd12t0IjDnTyHXa3QgjQ0lRLkRVT0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAsPCHDAIAAAAGMzcwLjM0AOXEsLd12t0IQ+hYuHXa3QgkQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAICEWw0CAAAABTcyLjU0AOXEsLd12t0I18rRyHXa3QgjQ0lRLkVTVEMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAgIRbDQIAAAAFNzQuNTEA5cSwt3Xa3QiWRVm4ddrdCC5DSVEuTkFTREFRR1M6R09PR0wuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAKhxAAACAAAAAzIwMQDlxLC3ddrdCHcS0ch12t0ILUNJUS5OQVNEQVFHUzpHT09HTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACocQAAAgAAAAYyMDEuNDIA5cSwt3Xa3QjT4Vm4ddrdCCRDSVEu</t>
+  </si>
+  <si>
+    <t>R1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAzYQXEQIAAAAFMzguODIA5cSwt3Xa3Qhzt9PIddrdCCNDSVEuR1RMQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADNhBcRAgAAAAU0MC40MgDlxLC3ddrdCCuaWLh12t0II0NJUS5JT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAALo+/BECAAAABDMyLjUA5cSwt3Xa3QjFfNDIddrdCCJDSVEuSU9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALo+/BECAAAABTMzLjc0AOXEsLd12t0IAQlauHXa3QgjQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAA4m7MAgIAAAADMjAxAOXEsLd12t0IEOLVyHXa3QgiQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADibswCAgAAAAYyMDkuMTgA5cSwt3Xa3Qh461a4ddrdCCRDSVEuTUVUQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAF9s8AQIAAAAGNzY1Ljg3AOXEsLd12t0IxyDUyHXa3QgjQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAF9s8AQIAAAAFNzY5LjMA5cSwt3Xa3Qg3TFi4ddrdCCRDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAtnkAAAIAAAAFNzcuMjgA5cSwt3Xa3QgoWdXIddrdCCNDSVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAC2eQAAAgAA</t>
+  </si>
+  <si>
+    <t>AAU3Ny4zNADlxLC3ddrdCJI6V7h12t0IJENJUS5NU0ZULklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAABLVQAAAgAAAAY1MjEuNzcA5cSwt3Xa3Qh5JNPIddrdCCNDSVEuTVNGVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAABLVQAAAgAAAAY1MjIuMDQA5cSwt3Xa3Qg1wVi4ddrdCCJDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAAZpBAACAAAABjEyMy43MgDlxLC3ddrdCK6h0sh12t0IIUNJUS5NVS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAGaQQAAgAAAAYxMTguODkA5cSwt3Xa3QhuFVm4ddrdCCRDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAv/sZAwIAAAAFNzAuMjQA5cSwt3Xa3QiC/dDIddrdCCNDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAC/+xkDAgAAAAU2OC43OADlxLC3ddrdCLy6Wbh12t0II0NJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAADT14AQCAAAABjIwMS4xNwDlxLC3ddrdCDvN1Mh12t0IIkNJUS5ORVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAANPXgBAIAAAAFMjA0LjYA5cSwt3Xa3QijYVe4ddrdCCNDSVEuTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAC/dF4BAgAAAAY4NTYuMzcA5cSwt3Xa3QhbjdTIddrdCCJDSVEuTk9XLklRX0NM</t>
+  </si>
+  <si>
+    <t>T1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAL90XgECAAAABjg3Mi41MQDlxLC3ddrdCLbWV7h12t0IJENJUS5OVkRBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAzfgAAAgAAAAYxODIuMDYA5cSwt3Xa3QgQ4tXIddrdCCNDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAzfgAAAgAAAAUxODIuNwDlxLC3ddrdCHjrVrh12t0IJENJUS5PUkNMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADnVgAAAgAAAAYyNTIuNjgA5cSwt3Xa3Qiy9tPIddrdCCNDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADnVgAAAgAAAAYyNTAuMDUA5cSwt3Xa3Qj2JFi4ddrdCCRDSVEuUEFOVy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAg32EAQIAAAAGMTY4LjE3AOXEsLd12t0IqC7VyHXa3QgjQ0lRLlBBTlcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAg32EAQIAAAAGMTY3LjA2AOXEsLd12t0Iw69XuHXa3QgkQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAGX6mAICAAAABjE4Mi42OADlxLC3ddrdCBn20sh12t0II0NJUS5QTFRSLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAGX6mAICAAAABjE4Ni45NgDlxLC3ddrdCDXBWLh12t0IJENJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAC4yqUG</t>
+  </si>
+  <si>
+    <t>AgAAAAU1Ny4zNADlxLC3ddrdCOiM0sh12t0II0NJUS5QU1RHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALjKpQYCAAAABTU4LjU4AOXEsLd12t0IbhVZuHXa3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAANWCAAACAAAABjE0Ny45NwDlxLC3ddrdCFTL0Mh12t0II0NJUS5RQ09NLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAANWCAAACAAAABjE0Ny41NgDlxLC3ddrdCLy6Wbh12t0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAABpVfQBAgAAAAYxMzAuNzQA5cSwt3Xa3Qg7zdTIddrdCCNDSVEuUkJMWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAABpVfQBAgAAAAYxMjguNzEA5cSwt3Xa3QijYVe4ddrdCCNDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAL7gEAAgAAAA8yODkuMTM0OTcyMTc0ODUA5cSwt3Xa3Qi/39HIddrdCCJDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAAvuAQACAAAADjI5MS43NjM4ODIzODk0AOXEsLd12t0IlkVZuHXa3QgkQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAAYrBAUCAAAABTE0Ny41AOXEsLd12t0IvbnVyHXa3QgjQ0lRLlNIT1AuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAABisEBQIAAAAGMTQ5LjYxAOXEsLd1</t>
+  </si>
+  <si>
+    <t>2t0IeOtWuHXa3QgkQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAALA8ZBACAAAABTE5MS44AOXEsLd12t0IgOHTyHXa3QgjQ0lRLlNOT1cuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAsDxkEAIAAAAGMTkxLjczAOXEsLd12t0I5P1XuHXa3QgkQ0lRLlNOUFMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAANSIAAACAAAABjYxNi4xMgDlxLC3ddrdCCcB1ch12t0II0NJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAANSIAAACAAAABjYxOS40MgDlxLC3ddrdCLiIV7h12t0IJENJUS5URUFNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAABSEyIPAgAAAAYxNTkuMjgA5cSwt3Xa3Qivy9LIddrdCCNDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAABSEyIPAgAAAAYxNjguMDYA5cSwt3Xa3Qgrmli4ddrdCCNDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAA0yQZAgAAAAU2MC44MgDlxLC3ddrdCFTL0Mh12t0IIkNJUS5URU0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAANMkGQIAAAAFNjAuODcA5cSwt3Xa3Qi8ulm4ddrdCCRDSVEuVFNMQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAEMaiAQIAAAAGMzM5LjAzAOXEsLd12t0IxHbSyHXa3QgjQ0lRLlRTTEEuSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzgvOC5VU0QBAAAAEMaiAQIAAAAGMzI5LjY1AOXEsLd12t0IbhVZuHXa3QgjQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAARJuHIgIAAAAGMTM5LjgzAOXEsLd12t0Ig6LTyHXa3QgiQ0lRLlZSVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAABEm4ciAgAAAAYxMzkuOTMA5cSwt3Xa3QgWc1i4ddrdCCRDSVEuV0RBWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAh2NrAQIAAAAGMjEzLjY5AOXEsLd12t0IwIvVyHXa3QgjQ0lRLldEQVkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAh2NrAQIAAAAGMjIyLjA3AOXEsLd12t0IG7dWuHXa3QgiQ0lRLlpTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADUzIEDAgAAAAYyNzEuMTgA5cSwt3Xa3QiCzNPIddrdCCFDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA1MyBAwIAAAAHMjY5LjY5NQDlxLC3ddrdCOT9V7h12t0IJENJUS5XREFZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAACHY2sBAgAAAAUyMTQuNgCNfKPIddrdCMCL1ch12t0II0NJUS5WUlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAESbhyICAAAABjE0My43MgCNfKPIddrdCMCL1ch12t0IJENJUS5TSE9QLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAAGKwQFAgAAAAUxNDkuMwCN</t>
+  </si>
+  <si>
+    <t>fKPIddrdCL251ch12t0IJENJUS5SQkxYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAABpVfQBAgAAAAYxMjkuNTMAjXyjyHXa3Qi9udXIddrdCCRDSVEuTlZEQS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAM34AAAIAAAAGMTgzLjE2AI18o8h12t0IvbnVyHXa3QgjQ0lRLk5FVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAANPXgBAIAAAAGMjAyLjMzAI18o8h12t0IEOLVyHXa3QgjQ0lRLk1EQi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAA4m7MAgIAAAAGMjA3LjgyAI18o8h12t0IEOLVyHXa3QgkQ0lRLkdUTEIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAM2EFxECAAAABTM5LjI1AI18o8h12t0IEOLVyHXa3QgjQ0lRLkNSTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAJeABAAIAAAAGMjMxLjY2AI18o8h12t0IKFnVyHXa3QgkQ0lRLkFWR08uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAPC2fQECAAAABjMxMi44MwBfkqPIddrdCKgu1ch12t0IKUNJUS5UV1NFOjI0NTQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAD03XAACAAAACzQ1LjQ4MzQyOTI4AI18o8h12t0IqC7VyHXa3QgkQ0lRLkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAACP3AHACAAAABzMzLjE0MDYAX5KjyHXa3QgoWdXIddrdCCRD</t>
+  </si>
+  <si>
+    <t>SVEuTVJWTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAtnkAAAIAAAAFNzcuODEAjXyjyHXa3QgoWdXIddrdCCRDSVEuQUFQTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAaWEAAAIAAAAGMjI5LjY1AI18o8h12t0IKFnVyHXa3QgkQ0lRLlFDT00uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAANWCAAACAAAABjE1My43MwBfkqPIddrdCMCL1ch12t0II0NJUS5BUk0uSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAACznxScCAAAABjE0Mi4zOQBfkqPIddrdCPa31Mh12t0IJENJUS5TTlBTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAADUiAAAAgAAAAU2MjUuOACNfKPIddrdCCcB1ch12t0IJENJUS5QQU5XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAACDfYQBAgAAAAUxNzUuNACNfKPIddrdCCcB1ch12t0II0NJUS5BUFAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAANq5zg0CAAAAAzQ2NwCNfKPIddrdCP1K1Mh12t0IJENJUS5BTVpOLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAA9SQAAAgAAAAYyMjEuNDcAjXyjyHXa3QjBX9TIddrdCClDSVEuVFdTRToyMzMwLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAACrzAUAAgAAAAszOS40NjM1NjM2NACNfKPIddrdCKp01Mh12t0II0NJUS5OT1cuSVFfQ0xPU0VQUklDRS4y</t>
+  </si>
+  <si>
+    <t>MDI1LzgvMTIuVVNEAQAAAL90XgECAAAABjg1My40MwCNfKPIddrdCI6i1Mh12t0ILENJUS5LT1NFOkEwMDA2NjAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAJ16DQACAAAACjE5NC40NTQxODIAX5KjyHXa3QiOotTIddrdCCJDSVEuWlMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAANTMgQMCAAAABjI3NS40MwCNfKPIddrdCHO308h12t0IJENJUS5TTk9XLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAACwPGQQAgAAAAYxOTMuMDYAjXyjyHXa3QiA4dPIddrdCCRDSVEuT1JDTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAA51YAAAIAAAAGMjUzLjg2AI18o8h12t0IsvbTyHXa3QgkQ0lRLk1FVEEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAABfbPAECAAAAAzc5MACNfKPIddrdCGAL1Mh12t0IJENJUS5ERE9HLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAC7oQQIAgAAAAYxMjguOTYAX5KjyHXa3QiaTtPIddrdCCRDSVEuTkJJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAv/sZAwIAAAAFNzUuMzMAX5KjyHXa3QgUeNPIddrdCCRDSVEuVEVBTS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAUhMiDwIAAAADMTU4AF+So8h12t0Ir8vSyHXa3QgkQ0lRLlBMVFIuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAGX6mAIC</t>
+  </si>
+  <si>
+    <t>AAAABjE4Ni45NwBfkqPIddrdCBn20sh12t0IJENJUS5NU0ZULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAABLVQAAAgAAAAY1MjkuMjQAX5KjyHXa3Qh5JNPIddrdCCRDSVEuRFVPTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAsPCHDAIAAAAGMzIyLjkzAF+So8h12t0IjDnTyHXa3QgkQ0lRLkFEQkUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAAFfAAACAAAABjMzOC40MwBfkqPIddrdCIVh0sh12t0IJENJUS5FU1RDLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAACAhFsNAgAAAAU3My4xMgBfkqPIddrdCIVh0sh12t0IJENJUS5UU0xBLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAAQxqIBAgAAAAYzNDAuODQAX5KjyHXa3QjEdtLIddrdCCRDSVEuUFNURy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAuMqlBgIAAAAFNTkuNDEAX5KjyHXa3QjojNLIddrdCCJDSVEuTVUuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAAZpBAACAAAABjEyNy43NQBfkqPIddrdCK6h0sh12t0IJENJUS5BTkVULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAADD2/wBAgAAAAYxNDEuMjUAX5KjyHXa3QjXytHIddrdCCNDSVEuU0FQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAAL7gEAAgAAAA0yNzAuODM4MTk3NTY4AF+So8h12t0IJgvS</t>
+  </si>
+  <si>
+    <t>yHXa3QguQ0lRLk5BU0RBUUdTOkdPT0dMLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAACocQAAAgAAAAYyMDMuMzQAX5KjyHXa3Qif9NHIddrdCC1DSVEuTkFTREFRR1M6QVNNTC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAKO8FAAIAAAAGNzQxLjc5AF+So8h12t0In/TRyHXa3QgjQ0lRLklPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAuj78EQIAAAAFMzIuNjkAX5KjyHXa3QgmC9LIddrdCCRDSVEuQ0ZMVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAJgF6EAIAAAAFMTYuNTYAX5KjyHXa3Qh4INLIddrdCCNDSVEuVEVNLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAAA0yQZAgAAAAU2Ni4zNABfkqPIddrdCBZG0ch12t0I</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4B5748-C854-447F-B7B5-133B30230427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8974094A-FB6C-45F4-9EA8-57E8B52EB097}">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="C2" s="7">
         <f>VLOOKUP(A2,CHOOSE({1,2},F2:F45,J2:J45),2,FALSE)</f>
-        <v>3.7283024486110816E-3</v>
+        <v>3.5460628712250964E-3</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="13">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" cm="1">
         <f t="array" ref="G2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>7.1247000000000185</v>
+        <v>2.6974500000000035</v>
       </c>
       <c r="H2" s="9">
         <f>VLOOKUP(F2,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1581,30 +1581,30 @@
       </c>
       <c r="I2" s="2">
         <f>G2*H2</f>
-        <v>2.6475342839451528E-2</v>
+        <v>1.0023708162066955E-2</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ref="J2:J45" si="0">$P$7*H2</f>
-        <v>3.7283024486110816E-3</v>
+        <v>3.5460628712250964E-3</v>
       </c>
       <c r="K2" s="6" cm="1">
         <f t="array" ref="K2">_xll.ciqfunctions.udf.CIQ(F2,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>191.75673</v>
+        <v>194.45418000000001</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ref="L2:L45" si="1">K2*H2</f>
-        <v>0.71256686857301033</v>
+        <v>0.72259057673507732</v>
       </c>
       <c r="M2" s="2">
         <f>J2*K2</f>
-        <v>0.71492708599665411</v>
+        <v>0.68954674785252179</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>125</v>
       </c>
       <c r="O2" s="6" cm="1">
         <f t="array" ref="O2">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.658299999999997</v>
+        <v>33.140599999999999</v>
       </c>
       <c r="P2" s="2">
         <v>1250002</v>
@@ -1619,20 +1619,20 @@
       </c>
       <c r="C3" s="7">
         <f>VLOOKUP(A3,CHOOSE({1,2},F3:F47,J3:J47),2,FALSE)</f>
-        <v>2.2474159001315455E-2</v>
+        <v>2.1375621182842346E-2</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="13">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" cm="1">
         <f t="array" ref="G3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>6.1910000000004572E-2</v>
+        <v>9.7419999999999618E-2</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP(F3,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1640,30 +1640,30 @@
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I45" si="2">G3*H3</f>
-        <v>1.3867817811492526E-3</v>
+        <v>2.1822045084727779E-3</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" si="0"/>
-        <v>2.2474159001315455E-2</v>
+        <v>2.1375621182842346E-2</v>
       </c>
       <c r="K3" s="6" cm="1">
         <f t="array" ref="K3">_xll.ciqfunctions.udf.CIQ(F3,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>39.366140000000001</v>
+        <v>39.463560000000001</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>0.88180012511979988</v>
+        <v>0.88398232962827261</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M45" si="3">J3*K3</f>
-        <v>0.8847208896280444</v>
+        <v>0.84355810908636997</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>126</v>
       </c>
       <c r="O3" s="12">
         <f>SUM(M2:M45)</f>
-        <v>35.542979055527113</v>
+        <v>34.287936774046912</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C4" s="7">
         <f>VLOOKUP(A4,CHOOSE({1,2},F4:F48,J4:J48),2,FALSE)</f>
-        <v>4.8158912145675973E-3</v>
+        <v>4.5804902534662172E-3</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="G4" s="2" cm="1">
         <f t="array" ref="G4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>4.6289999999999054E-2</v>
+        <v>0.27908999999999651</v>
       </c>
       <c r="H4" s="9">
         <f>VLOOKUP(F4,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1697,30 +1697,30 @@
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>2.2219164449336425E-4</v>
+        <v>1.3396298565922127E-3</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>4.8158912145675973E-3</v>
+        <v>4.5804902534662172E-3</v>
       </c>
       <c r="K4" s="6" cm="1">
         <f t="array" ref="K4">_xll.ciqfunctions.udf.CIQ(F4,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>45.204340000000002</v>
+        <v>45.483429999999998</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="1"/>
-        <v>0.21698048483122429</v>
+        <v>0.21832011468781648</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" si="3"/>
-        <v>0.21769918386632664</v>
+        <v>0.20833640780921295</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>129</v>
       </c>
       <c r="O4" s="6">
         <f>SUM(L2:L45)</f>
-        <v>35.425639595184649</v>
+        <v>35.931051934876905</v>
       </c>
       <c r="P4" s="2"/>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="C5" s="7">
         <f>VLOOKUP(A5,CHOOSE({1,2},F5:F49,J5:J49),2,FALSE)</f>
-        <v>5.5446960850388267E-3</v>
+        <v>5.2736711118241044E-3</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="G5" s="2" cm="1">
         <f t="array" ref="G5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.1699999999999875</v>
+        <v>2.4699999999999989</v>
       </c>
       <c r="H5" s="9">
         <f>VLOOKUP(F5,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1752,23 +1752,23 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" si="2"/>
-        <v>-1.199226881236983E-2</v>
+        <v>1.3650186159702137E-2</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>5.5446960850388267E-3</v>
+        <v>5.2736711118241044E-3</v>
       </c>
       <c r="K5" s="6" cm="1">
         <f t="array" ref="K5">_xll.ciqfunctions.udf.CIQ(F5,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>227.18</v>
+        <v>229.65</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>1.2554855432231309</v>
+        <v>1.2691357293828329</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>1.2596440565991207</v>
+        <v>1.2110985708304056</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>128</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,CHOOSE({1,2},F6:F50,J6:J50),2,FALSE)</f>
-        <v>1.8083671510701329E-3</v>
+        <v>1.7199740901765645E-3</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G6" s="2" cm="1">
         <f t="array" ref="G6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-7.4000000000000341</v>
+        <v>4.7800000000000296</v>
       </c>
       <c r="H6" s="9">
         <f>VLOOKUP(F6,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1804,23 +1804,23 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3337738659618207E-2</v>
+        <v>8.6154582152669097E-3</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>1.8083671510701329E-3</v>
+        <v>1.7199740901765645E-3</v>
       </c>
       <c r="K6" s="6" cm="1">
         <f t="array" ref="K6">_xll.ciqfunctions.udf.CIQ(F6,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>333.65</v>
+        <v>338.43</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>0.60136979780832345</v>
+        <v>0.60998525602359044</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="3"/>
-        <v>0.6033616999545498</v>
+        <v>0.58209083133845474</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="5" t="s">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,CHOOSE({1,2},F7:F51,J7:J51),2,FALSE)</f>
-        <v>8.2143051149807991E-3</v>
+        <v>7.8127895423288768E-3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="G7" s="2" cm="1">
         <f t="array" ref="G7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.3899999999999864</v>
+        <v>0.16999999999998749</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP(F7,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1861,38 +1861,38 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" si="2"/>
-        <v>-1.1380189791696221E-2</v>
+        <v>1.3918217730850607E-3</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>8.2143051149807991E-3</v>
+        <v>7.8127895423288768E-3</v>
       </c>
       <c r="K7" s="6" cm="1">
         <f t="array" ref="K7">_xll.ciqfunctions.udf.CIQ(F7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>221.3</v>
+        <v>221.47</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>1.8118244610808625</v>
+        <v>1.8132162828539475</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="3"/>
-        <v>1.8178257219452509</v>
+        <v>1.7302984999395763</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>114</v>
       </c>
       <c r="O7" s="2" cm="1">
         <f t="array" ref="O7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.20020000000000238</v>
+        <v>0.48230000000000217</v>
       </c>
       <c r="P7" s="6">
         <f>O7/SUM(I2:I45)</f>
-        <v>1.0033122749986543</v>
+        <v>0.95427032963554637</v>
       </c>
       <c r="Q7" s="6" cm="1">
         <f t="array" ref="Q7">_xll.ciqfunctions.udf.CIQ(N7,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.658299999999997</v>
+        <v>33.140599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,CHOOSE({1,2},F8:F52,J8:J52),2,FALSE)</f>
-        <v>4.237984268819486E-3</v>
+        <v>4.0308314230502714E-3</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="G8" s="2" cm="1">
         <f t="array" ref="G8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.5300000000000011</v>
+        <v>3.5999999999999943</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP(F8,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1923,23 +1923,23 @@
       </c>
       <c r="I8" s="2">
         <f t="shared" si="2"/>
-        <v>-6.4627096596645492E-3</v>
+        <v>1.5206375669798905E-2</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>4.237984268819486E-3</v>
+        <v>4.0308314230502714E-3</v>
       </c>
       <c r="K8" s="6" cm="1">
         <f t="array" ref="K8">_xll.ciqfunctions.udf.CIQ(F8,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>137.65</v>
+        <v>141.25</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>0.58143266970772856</v>
+        <v>0.59663904537752743</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>0.58335853460300224</v>
+        <v>0.56935493850585084</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,CHOOSE({1,2},F9:F53,J9:J53),2,FALSE)</f>
-        <v>2.2827324357050415E-3</v>
+        <v>2.1711523801429869E-3</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="G9" s="2" cm="1">
         <f t="array" ref="G9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.5500000000000114</v>
+        <v>1.339999999999975</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP(F9,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -1973,23 +1973,23 @@
       </c>
       <c r="I9" s="2">
         <f t="shared" si="2"/>
-        <v>5.8017507171988789E-3</v>
+        <v>3.0487631219789481E-3</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>2.2827324357050415E-3</v>
+        <v>2.1711523801429869E-3</v>
       </c>
       <c r="K9" s="6" cm="1">
         <f t="array" ref="K9">_xll.ciqfunctions.udf.CIQ(F9,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>141.05000000000001</v>
+        <v>142.38999999999999</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>0.32091644653368562</v>
+        <v>0.32396520965566455</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.32197941005619612</v>
+        <v>0.30915038740855988</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,CHOOSE({1,2},F10:F54,J10:J54),2,FALSE)</f>
-        <v>6.4532942275205801E-4</v>
+        <v>6.1378569396447306E-4</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="G10" s="2" cm="1">
         <f t="array" ref="G10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.0100000000001046</v>
+        <v>20.480000000000018</v>
       </c>
       <c r="H10" s="9">
         <f>VLOOKUP(F10,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2023,23 +2023,23 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="2"/>
-        <v>-6.496309605905303E-4</v>
+        <v>1.3172714923656133E-2</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>6.4532942275205801E-4</v>
+        <v>6.1378569396447306E-4</v>
       </c>
       <c r="K10" s="6" cm="1">
         <f t="array" ref="K10">_xll.ciqfunctions.udf.CIQ(F10,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>721.31</v>
+        <v>741.79</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>0.46394584968664043</v>
+        <v>0.47711856461029656</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>0.46548256592528692</v>
+        <v>0.45530008992590643</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,CHOOSE({1,2},F11:F55,J11:J55),2,FALSE)</f>
-        <v>3.5461012309932738E-3</v>
+        <v>3.3727676566356244E-3</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.07000000000005</v>
+        <v>8.9300000000000068</v>
       </c>
       <c r="H11" s="9">
         <f>VLOOKUP(F11,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2073,23 +2073,23 @@
       </c>
       <c r="I11" s="2">
         <f t="shared" si="2"/>
-        <v>-3.7818019491170579E-3</v>
+        <v>3.1562141500573619E-2</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>3.5461012309932738E-3</v>
+        <v>3.3727676566356244E-3</v>
       </c>
       <c r="K11" s="6" cm="1">
         <f t="array" ref="K11">_xll.ciqfunctions.udf.CIQ(F11,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>303.89999999999998</v>
+        <v>312.83</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>1.0741024414360936</v>
+        <v>1.1056645829366671</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>1.0776601640988559</v>
+        <v>1.0551029060253223</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,CHOOSE({1,2},F12:F56,J12:J56),2,FALSE)</f>
-        <v>1.5945415811433314E-2</v>
+        <v>1.5166003229226645E-2</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>27</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.41999999999999815</v>
+        <v>0.64999999999999858</v>
       </c>
       <c r="H12" s="9">
         <f>VLOOKUP(F12,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2123,23 +2123,23 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>-6.6749653200554584E-3</v>
+        <v>1.0330303471514424E-2</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>1.5945415811433314E-2</v>
+        <v>1.5166003229226645E-2</v>
       </c>
       <c r="K12" s="6" cm="1">
         <f t="array" ref="K12">_xll.ciqfunctions.udf.CIQ(F12,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>15.91</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>0.25285404343353052</v>
+        <v>0.26318434690504494</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>0.25369156555990402</v>
+        <v>0.25114901347599322</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,CHOOSE({1,2},F13:F57,J13:J57),2,FALSE)</f>
-        <v>3.5725886326733957E-3</v>
+        <v>3.3979603530296886E-3</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>29</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-7.8299999999999841</v>
+        <v>-1.0200000000000102</v>
       </c>
       <c r="H13" s="9">
         <f>VLOOKUP(F13,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2173,23 +2173,23 @@
       </c>
       <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7881019390368918E-2</v>
+        <v>-3.6320101887837345E-3</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>3.5725886326733957E-3</v>
+        <v>3.3979603530296886E-3</v>
       </c>
       <c r="K13" s="6" cm="1">
         <f t="array" ref="K13">_xll.ciqfunctions.udf.CIQ(F13,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>232.68</v>
+        <v>231.66</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>0.82852561835901062</v>
+        <v>0.82489360817022694</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>0.83126992305044578</v>
+        <v>0.78717149538285769</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,CHOOSE({1,2},F14:F58,J14:J58),2,FALSE)</f>
-        <v>4.9314726037172196E-3</v>
+        <v>4.690422019549406E-3</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>31</v>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.0799999999999841</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="H14" s="9">
         <f>VLOOKUP(F14,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2223,23 +2223,23 @@
       </c>
       <c r="I14" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0223599642240493E-2</v>
+        <v>6.3897497764001338E-4</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="0"/>
-        <v>4.9314726037172196E-3</v>
+        <v>4.690422019549406E-3</v>
       </c>
       <c r="K14" s="6" cm="1">
         <f t="array" ref="K14">_xll.ciqfunctions.udf.CIQ(F14,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>128.83000000000001</v>
+        <v>128.96</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>0.63322420284127545</v>
+        <v>0.63386317781891555</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
-        <v>0.63532161553688948</v>
+        <v>0.60487682364109141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,CHOOSE({1,2},F15:F59,J15:J59),2,FALSE)</f>
-        <v>1.4961368706590003E-3</v>
+        <v>1.4230056387435049E-3</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>33</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>9.5999999999999659</v>
+        <v>1.4200000000000159</v>
       </c>
       <c r="H15" s="9">
         <f>VLOOKUP(F15,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2273,23 +2273,23 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>1.4315497095204598E-2</v>
+        <v>2.1175006119990448E-3</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>1.4961368706590003E-3</v>
+        <v>1.4230056387435049E-3</v>
       </c>
       <c r="K15" s="6" cm="1">
         <f t="array" ref="K15">_xll.ciqfunctions.udf.CIQ(F15,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>465.58</v>
+        <v>467</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="1"/>
-        <v>0.69427178516514376</v>
+        <v>0.69638928577714276</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
-        <v>0.69657140424141739</v>
+        <v>0.66454363329321675</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,CHOOSE({1,2},F16:F60,J16:J60),2,FALSE)</f>
-        <v>1.6438242012390733E-3</v>
+        <v>1.5634740065164688E-3</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>35</v>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-29.75</v>
+        <v>-17.659999999999968</v>
       </c>
       <c r="H16" s="9">
         <f>VLOOKUP(F16,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2323,23 +2323,23 @@
       </c>
       <c r="I16" s="2">
         <f t="shared" si="2"/>
-        <v>-4.8742322012284782E-2</v>
+        <v>-2.8934097705443619E-2</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="0"/>
-        <v>1.6438242012390733E-3</v>
+        <v>1.5634740065164688E-3</v>
       </c>
       <c r="K16" s="6" cm="1">
         <f t="array" ref="K16">_xll.ciqfunctions.udf.CIQ(F16,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>340.59</v>
+        <v>322.93</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="1"/>
-        <v>0.55802176316517893</v>
+        <v>0.52908766545973529</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
-        <v>0.55987008470001587</v>
+        <v>0.50489266092436325</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,CHOOSE({1,2},F17:F61,J17:J61),2,FALSE)</f>
-        <v>7.2599560059606527E-3</v>
+        <v>6.9050890571003224E-3</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>37</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.9699999999999989</v>
+        <v>0.57999999999999829</v>
       </c>
       <c r="H17" s="9">
         <f>VLOOKUP(F17,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2373,23 +2373,23 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4254897192164485E-2</v>
+        <v>4.1968732850027318E-3</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>7.2599560059606527E-3</v>
+        <v>6.9050890571003224E-3</v>
       </c>
       <c r="K17" s="6" cm="1">
         <f t="array" ref="K17">_xll.ciqfunctions.udf.CIQ(F17,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>72.540000000000006</v>
+        <v>73.12</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="1"/>
-        <v>0.52489860016223977</v>
+        <v>0.5290954734472425</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>0.52663720867238584</v>
+        <v>0.50490011185517558</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,CHOOSE({1,2},F18:F62,J18:J62),2,FALSE)</f>
-        <v>6.7743536418250873E-3</v>
+        <v>6.4432229565424791E-3</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>39</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.41999999999998749</v>
+        <v>2.3400000000000034</v>
       </c>
       <c r="H18" s="9">
         <f>VLOOKUP(F18,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2423,23 +2423,23 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8358354626631757E-3</v>
+        <v>1.5799654720552472E-2</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>6.7743536418250873E-3</v>
+        <v>6.4432229565424791E-3</v>
       </c>
       <c r="K18" s="6" cm="1">
         <f t="array" ref="K18">_xll.ciqfunctions.udf.CIQ(F18,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>201</v>
+        <v>203.34</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="1"/>
-        <v>1.3571498285602743</v>
+        <v>1.3729494832808269</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>1.3616450820068426</v>
+        <v>1.3101649559833477</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,CHOOSE({1,2},F19:F63,J19:J63),2,FALSE)</f>
-        <v>9.3291839311531975E-3</v>
+        <v>8.8731730360063071E-3</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>41</v>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.6000000000000014</v>
+        <v>0.42999999999999972</v>
       </c>
       <c r="H19" s="9">
         <f>VLOOKUP(F19,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2473,23 +2473,23 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4877416196134099E-2</v>
+        <v>3.9983056027110327E-3</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="0"/>
-        <v>9.3291839311531975E-3</v>
+        <v>8.8731730360063071E-3</v>
       </c>
       <c r="K19" s="6" cm="1">
         <f t="array" ref="K19">_xll.ciqfunctions.udf.CIQ(F19,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>38.82</v>
+        <v>39.25</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="1"/>
-        <v>0.36096331045870328</v>
+        <v>0.36496161606141431</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>0.36215892020736712</v>
+        <v>0.34827204166324754</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,CHOOSE({1,2},F20:F64,J20:J64),2,FALSE)</f>
-        <v>1.4454897480524642E-2</v>
+        <v>1.3748341495778849E-2</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>43</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.240000000000002</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="H20" s="9">
         <f>VLOOKUP(F20,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2523,23 +2523,23 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7864899416160963E-2</v>
+        <v>2.737363620218175E-3</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="0"/>
-        <v>1.4454897480524642E-2</v>
+        <v>1.3748341495778849E-2</v>
       </c>
       <c r="K20" s="6" cm="1">
         <f t="array" ref="K20">_xll.ciqfunctions.udf.CIQ(F20,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>32.5</v>
+        <v>32.69</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="1"/>
-        <v>0.46823325082679867</v>
+        <v>0.47097061444701682</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>0.46978416811705087</v>
+        <v>0.44943328349701056</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,CHOOSE({1,2},F21:F65,J21:J65),2,FALSE)</f>
-        <v>2.3252728081003884E-3</v>
+        <v>2.2116133773819385E-3</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>45</v>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-8.1800000000000068</v>
+        <v>6.8199999999999932</v>
       </c>
       <c r="H21" s="9">
         <f>VLOOKUP(F21,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2573,23 +2573,23 @@
       </c>
       <c r="I21" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8957937667299748E-2</v>
+        <v>1.5806006710389248E-2</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="0"/>
-        <v>2.3252728081003884E-3</v>
+        <v>2.2116133773819385E-3</v>
       </c>
       <c r="K21" s="6" cm="1">
         <f t="array" ref="K21">_xll.ciqfunctions.udf.CIQ(F21,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>201</v>
+        <v>207.82</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>0.46583685466103258</v>
+        <v>0.48164286137142182</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
-        <v>0.4673798344281781</v>
+        <v>0.45961749208751446</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,CHOOSE({1,2},F22:F66,J22:J66),2,FALSE)</f>
-        <v>3.7893037373289379E-3</v>
+        <v>3.6040824144356683E-3</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>47</v>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-3.42999999999995</v>
+        <v>24.129999999999995</v>
       </c>
       <c r="H22" s="9">
         <f>VLOOKUP(F22,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2623,23 +2623,23 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2954403272954574E-2</v>
+        <v>9.113403818553889E-2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="0"/>
-        <v>3.7893037373289379E-3</v>
+        <v>3.6040824144356683E-3</v>
       </c>
       <c r="K22" s="6" cm="1">
         <f t="array" ref="K22">_xll.ciqfunctions.udf.CIQ(F22,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>765.87</v>
+        <v>790</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="1"/>
-        <v>2.8925331879468992</v>
+        <v>2.9836672261324382</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
-        <v>2.9021140533081136</v>
+        <v>2.8472251074041779</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,CHOOSE({1,2},F23:F67,J23:J67),2,FALSE)</f>
-        <v>7.5665677466214562E-3</v>
+        <v>7.1967136032376712E-3</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>49</v>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-6.0000000000002274E-2</v>
+        <v>0.53000000000000114</v>
       </c>
       <c r="H23" s="9">
         <f>VLOOKUP(F23,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2673,23 +2673,23 @@
       </c>
       <c r="I23" s="2">
         <f t="shared" si="2"/>
-        <v>-4.5249527600757554E-4</v>
+        <v>3.9970416047334411E-3</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>7.5665677466214562E-3</v>
+        <v>7.1967136032376712E-3</v>
       </c>
       <c r="K23" s="6" cm="1">
         <f t="array" ref="K23">_xll.ciqfunctions.udf.CIQ(F23,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>77.28</v>
+        <v>77.81</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="1"/>
-        <v>0.5828139154977352</v>
+        <v>0.58681095710246867</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
-        <v>0.58474435545890613</v>
+        <v>0.55997628546792322</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,CHOOSE({1,2},F24:F68,J24:J68),2,FALSE)</f>
-        <v>3.8318441097242848E-3</v>
+        <v>3.6445434116746198E-3</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>51</v>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.26999999999998181</v>
+        <v>7.4700000000000273</v>
       </c>
       <c r="H24" s="9">
         <f>VLOOKUP(F24,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2723,23 +2723,23 @@
       </c>
       <c r="I24" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0311823501081704E-3</v>
+        <v>2.8529378352994739E-2</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>3.8318441097242848E-3</v>
+        <v>3.6445434116746198E-3</v>
       </c>
       <c r="K24" s="6" cm="1">
         <f t="array" ref="K24">_xll.ciqfunctions.udf.CIQ(F24,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>521.77</v>
+        <v>529.24</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="1"/>
-        <v>1.9927407956147269</v>
+        <v>2.0212701739677215</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
-        <v>1.9993413011308401</v>
+        <v>1.9288381551946758</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,CHOOSE({1,2},F25:F69,J25:J69),2,FALSE)</f>
-        <v>3.8703712394408257E-3</v>
+        <v>3.6811873337023494E-3</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>53</v>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>4.8299999999999983</v>
+        <v>4.0300000000000011</v>
       </c>
       <c r="H25" s="9">
         <f>VLOOKUP(F25,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2773,23 +2773,23 @@
       </c>
       <c r="I25" s="2">
         <f t="shared" si="2"/>
-        <v>1.863217818851489E-2</v>
+        <v>1.5546103126235002E-2</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>3.8703712394408257E-3</v>
+        <v>3.6811873337023494E-3</v>
       </c>
       <c r="K25" s="6" cm="1">
         <f t="array" ref="K25">_xll.ciqfunctions.udf.CIQ(F25,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>123.72</v>
+        <v>127.75</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="1"/>
-        <v>0.4772615083815866</v>
+        <v>0.4928076115078216</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
-        <v>0.47884232974361896</v>
+        <v>0.47027168188047513</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,CHOOSE({1,2},F26:F70,J26:J70),2,FALSE)</f>
-        <v>2.1343227214427829E-2</v>
+        <v>2.029996938832003E-2</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>55</v>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.4599999999999937</v>
+        <v>5.0900000000000034</v>
       </c>
       <c r="H26" s="9">
         <f>VLOOKUP(F26,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2823,23 +2823,23 @@
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>3.1058238306818576E-2</v>
+        <v>0.10827837875459406</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="0"/>
-        <v>2.1343227214427829E-2</v>
+        <v>2.029996938832003E-2</v>
       </c>
       <c r="K26" s="6" cm="1">
         <f t="array" ref="K26">_xll.ciqfunctions.udf.CIQ(F26,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>70.239999999999995</v>
+        <v>75.33</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="1"/>
-        <v>1.4941990812814698</v>
+        <v>1.6024774600360638</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>1.4991482795414106</v>
+        <v>1.5291966940221478</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,CHOOSE({1,2},F27:F71,J27:J71),2,FALSE)</f>
-        <v>4.263669021963846E-3</v>
+        <v>4.0552607044020911E-3</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>57</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="G27" s="2" cm="1">
         <f t="array" ref="G27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-3.4300000000000068</v>
+        <v>1.160000000000025</v>
       </c>
       <c r="H27" s="9">
         <f>VLOOKUP(F27,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2873,23 +2873,23 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4576104678232544E-2</v>
+        <v>4.9295281127551263E-3</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="0"/>
-        <v>4.263669021963846E-3</v>
+        <v>4.0552607044020911E-3</v>
       </c>
       <c r="K27" s="6" cm="1">
         <f t="array" ref="K27">_xll.ciqfunctions.udf.CIQ(F27,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>201.17</v>
+        <v>202.33</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="1"/>
-        <v>0.85489066417493731</v>
+        <v>0.85982019228769235</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="3"/>
-        <v>0.85772229714846682</v>
+        <v>0.82050089832167517</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,CHOOSE({1,2},F28:F72,J28:J72),2,FALSE)</f>
-        <v>9.5274381194862296E-4</v>
+        <v>9.0617365514406663E-4</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>59</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G28" s="2" cm="1">
         <f t="array" ref="G28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-16.139999999999986</v>
+        <v>-2.9400000000000546</v>
       </c>
       <c r="H28" s="9">
         <f>VLOOKUP(F28,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2923,23 +2923,23 @@
       </c>
       <c r="I28" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5326519477568823E-2</v>
+        <v>-2.7918195330887989E-3</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="0"/>
-        <v>9.5274381194862296E-4</v>
+        <v>9.0617365514406663E-4</v>
       </c>
       <c r="K28" s="6" cm="1">
         <f t="array" ref="K28">_xll.ciqfunctions.udf.CIQ(F28,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>856.37</v>
+        <v>853.43</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="1"/>
-        <v>0.81320765086775859</v>
+        <v>0.81041583133466977</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
-        <v>0.81590121823844219</v>
+        <v>0.77335578250960069</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,CHOOSE({1,2},F29:F73,J29:J73),2,FALSE)</f>
-        <v>1.0121398035949568E-2</v>
+        <v>9.6266636827015001E-3</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>61</v>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="G29" s="2" cm="1">
         <f t="array" ref="G29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-0.63999999999998636</v>
+        <v>1.0999999999999943</v>
       </c>
       <c r="H29" s="9">
         <f>VLOOKUP(F29,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -2973,23 +2973,23 @@
       </c>
       <c r="I29" s="2">
         <f t="shared" si="2"/>
-        <v>-6.456309669904391E-3</v>
+        <v>1.1096782245148351E-2</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="0"/>
-        <v>1.0121398035949568E-2</v>
+        <v>9.6266636827015001E-3</v>
       </c>
       <c r="K29" s="6" cm="1">
         <f t="array" ref="K29">_xll.ciqfunctions.udf.CIQ(F29,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>182.06</v>
+        <v>183.16</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="1"/>
-        <v>1.8366183414106538</v>
+        <v>1.8477151236558023</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
-        <v>1.8427017264249783</v>
+        <v>1.7632197201236066</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,CHOOSE({1,2},F30:F74,J30:J74),2,FALSE)</f>
-        <v>4.3278809048247473E-3</v>
+        <v>4.1163339077816405E-3</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>63</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="G30" s="2" cm="1">
         <f t="array" ref="G30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.6299999999999955</v>
+        <v>1.1800000000000068</v>
       </c>
       <c r="H30" s="9">
         <f>VLOOKUP(F30,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3023,23 +3023,23 @@
       </c>
       <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>1.1344749848400223E-2</v>
+        <v>5.0900398559362596E-3</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="0"/>
-        <v>4.3278809048247473E-3</v>
+        <v>4.1163339077816405E-3</v>
       </c>
       <c r="K30" s="6" cm="1">
         <f t="array" ref="K30">_xll.ciqfunctions.udf.CIQ(F30,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>252.68</v>
+        <v>253.86</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="1"/>
-        <v>1.0899587040660734</v>
+        <v>1.0950487439220098</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
-        <v>1.0935689470311172</v>
+        <v>1.0449725258294473</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,CHOOSE({1,2},F31:F75,J31:J75),2,FALSE)</f>
-        <v>2.3934979336400959E-3</v>
+        <v>2.2765036559727098E-3</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>65</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="G31" s="2" cm="1">
         <f t="array" ref="G31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.1099999999999852</v>
+        <v>7.2300000000000182</v>
       </c>
       <c r="H31" s="9">
         <f>VLOOKUP(F31,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3073,23 +3073,23 @@
       </c>
       <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>2.6480117631811437E-3</v>
+        <v>1.7247860403423399E-2</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="0"/>
-        <v>2.3934979336400959E-3</v>
+        <v>2.2765036559727098E-3</v>
       </c>
       <c r="K31" s="6" cm="1">
         <f t="array" ref="K31">_xll.ciqfunctions.udf.CIQ(F31,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>168.17</v>
+        <v>175.4</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="1"/>
-        <v>0.4011857101028638</v>
+        <v>0.41843357050628721</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="3"/>
-        <v>0.40251454750025489</v>
+        <v>0.39929874125761333</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,CHOOSE({1,2},F32:F76,J32:J76),2,FALSE)</f>
-        <v>6.6924834911774381E-3</v>
+        <v>6.365354622233553E-3</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>67</v>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="G32" s="2" cm="1">
         <f t="array" ref="G32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.2800000000000011</v>
+        <v>4.289999999999992</v>
       </c>
       <c r="H32" s="9">
         <f>VLOOKUP(F32,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3123,23 +3123,23 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>-2.8549266321173893E-2</v>
+        <v>2.8615970214447606E-2</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="0"/>
-        <v>6.6924834911774381E-3</v>
+        <v>6.365354622233553E-3</v>
       </c>
       <c r="K32" s="6" cm="1">
         <f t="array" ref="K32">_xll.ciqfunctions.udf.CIQ(F32,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>182.68</v>
+        <v>186.97</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="1"/>
-        <v>1.2185467223252444</v>
+        <v>1.2471626925396919</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
-        <v>1.2225828841682944</v>
+        <v>1.1901303537190073</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,CHOOSE({1,2},F33:F77,J33:J77),2,FALSE)</f>
-        <v>7.7864934454200431E-3</v>
+        <v>7.4058893248126288E-3</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>69</v>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="G33" s="2" cm="1">
         <f t="array" ref="G33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-1.2399999999999949</v>
+        <v>2.0699999999999932</v>
       </c>
       <c r="H33" s="9">
         <f>VLOOKUP(F33,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3173,23 +3173,23 @@
       </c>
       <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>-9.6233766025973968E-3</v>
+        <v>1.6064830296271471E-2</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="0"/>
-        <v>7.7864934454200431E-3</v>
+        <v>7.4058893248126288E-3</v>
       </c>
       <c r="K33" s="6" cm="1">
         <f t="array" ref="K33">_xll.ciqfunctions.udf.CIQ(F33,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>57.34</v>
+        <v>59.41</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="1"/>
-        <v>0.44500355999430402</v>
+        <v>0.4610683902905755</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="3"/>
-        <v>0.44647753416038533</v>
+        <v>0.43998388478711825</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,CHOOSE({1,2},F34:F78,J34:J78),2,FALSE)</f>
-        <v>2.1013338666229947E-3</v>
+        <v>1.9986205805957594E-3</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>71</v>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="G34" s="2" cm="1">
         <f t="array" ref="G34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>0.40999999999999659</v>
+        <v>5.7599999999999909</v>
       </c>
       <c r="H34" s="9">
         <f>VLOOKUP(F34,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3223,23 +3223,23 @@
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>8.5870262607579107E-4</v>
+        <v>1.2063724698040464E-2</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>2.1013338666229947E-3</v>
+        <v>1.9986205805957594E-3</v>
       </c>
       <c r="K34" s="6" cm="1">
         <f t="array" ref="K34">_xll.ciqfunctions.udf.CIQ(F34,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>147.97</v>
+        <v>153.72999999999999</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="1"/>
-        <v>0.30990787214740456</v>
+        <v>0.32197159684544502</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
-        <v>0.3109343722442045</v>
+        <v>0.30724794185498605</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,CHOOSE({1,2},F35:F79,J35:J79),2,FALSE)</f>
-        <v>7.3691162068241847E-3</v>
+        <v>7.0089135028455563E-3</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>73</v>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="G35" s="2" cm="1">
         <f t="array" ref="G35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>2.0300000000000011</v>
+        <v>-1.210000000000008</v>
       </c>
       <c r="H35" s="9">
         <f>VLOOKUP(F35,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3273,23 +3273,23 @@
       </c>
       <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>1.4909920144127778E-2</v>
+        <v>-8.8871937804900093E-3</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>7.3691162068241847E-3</v>
+        <v>7.0089135028455563E-3</v>
       </c>
       <c r="K35" s="6" cm="1">
         <f t="array" ref="K35">_xll.ciqfunctions.udf.CIQ(F35,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>130.74</v>
+        <v>129.53</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="1"/>
-        <v>0.96025761558781508</v>
+        <v>0.95137042180732512</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="3"/>
-        <v>0.96343825288019402</v>
+        <v>0.9078645660235849</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,CHOOSE({1,2},F36:F80,J36:J80),2,FALSE)</f>
-        <v>2.6912805404075255E-3</v>
+        <v>2.559730636645371E-3</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>75</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="G36" s="2" cm="1">
         <f t="array" ref="G36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.6289099999999621</v>
+        <v>-18.296770000000038</v>
       </c>
       <c r="H36" s="9">
         <f>VLOOKUP(F36,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3323,23 +3323,23 @@
       </c>
       <c r="I36" s="2">
         <f t="shared" si="2"/>
-        <v>-7.0517769011568567E-3</v>
+        <v>-4.9079177321316385E-2</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="0"/>
-        <v>2.6912805404075255E-3</v>
+        <v>2.559730636645371E-3</v>
       </c>
       <c r="K36" s="6" cm="1">
         <f t="array" ref="K36">_xll.ciqfunctions.udf.CIQ(F36,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>289.13497000000001</v>
+        <v>270.83819999999997</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="1"/>
-        <v>0.77557440260895583</v>
+        <v>0.72649522528763943</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
-        <v>0.77814331831231365</v>
+        <v>0.69327283811388629</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,CHOOSE({1,2},F37:F81,J37:J81),2,FALSE)</f>
-        <v>5.1313320891217748E-3</v>
+        <v>4.8805123650682543E-3</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>77</v>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="G37" s="2" cm="1">
         <f t="array" ref="G37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-2.1100000000000136</v>
+        <v>1.8000000000000114</v>
       </c>
       <c r="H37" s="9">
         <f>VLOOKUP(F37,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3373,23 +3373,23 @@
       </c>
       <c r="I37" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0791366733813295E-2</v>
+        <v>9.2059052705516248E-3</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="0"/>
-        <v>5.1313320891217748E-3</v>
+        <v>4.8805123650682543E-3</v>
       </c>
       <c r="K37" s="6" cm="1">
         <f t="array" ref="K37">_xll.ciqfunctions.udf.CIQ(F37,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>147.5</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="L37" s="6">
         <f t="shared" si="1"/>
-        <v>0.75437279300353122</v>
+        <v>0.76357869827408276</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
-        <v>0.75687148314546182</v>
+        <v>0.72866049610469041</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,CHOOSE({1,2},F38:F82,J38:J82),2,FALSE)</f>
-        <v>3.3181490468370744E-3</v>
+        <v>3.1559577846382238E-3</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>79</v>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="G38" s="2" cm="1">
         <f t="array" ref="G38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>7.00000000000216E-2</v>
+        <v>1.2599999999999909</v>
       </c>
       <c r="H38" s="9">
         <f>VLOOKUP(F38,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3423,23 +3423,23 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>2.315036295942641E-4</v>
+        <v>4.1670653326954374E-3</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="0"/>
-        <v>3.3181490468370744E-3</v>
+        <v>3.1559577846382238E-3</v>
       </c>
       <c r="K38" s="6" cm="1">
         <f t="array" ref="K38">_xll.ciqfunctions.udf.CIQ(F38,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>191.8</v>
+        <v>193.06</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="1"/>
-        <v>0.63431994508808787</v>
+        <v>0.63848701042078337</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
-        <v>0.63642098718335094</v>
+        <v>0.60928920990225555</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,CHOOSE({1,2},F39:F83,J39:J83),2,FALSE)</f>
-        <v>6.4292147714477429E-4</v>
+        <v>6.1149544883773996E-4</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>81</v>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="G39" s="2" cm="1">
         <f t="array" ref="G39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-3.2999999999999545</v>
+        <v>9.67999999999995</v>
       </c>
       <c r="H39" s="9">
         <f>VLOOKUP(F39,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3473,23 +3473,23 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1146366165813845E-3</v>
+        <v>6.2029340753054479E-3</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>6.4292147714477429E-4</v>
+        <v>6.1149544883773996E-4</v>
       </c>
       <c r="K39" s="6" cm="1">
         <f t="array" ref="K39">_xll.ciqfunctions.udf.CIQ(F39,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>616.12</v>
+        <v>625.79999999999995</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="1"/>
-        <v>0.39480906430549711</v>
+        <v>0.40101199838080259</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
-        <v>0.39611678049843835</v>
+        <v>0.38267385188265762</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,CHOOSE({1,2},F40:F84,J40:J84),2,FALSE)</f>
-        <v>2.4007217704619475E-3</v>
+        <v>2.2833743913529092E-3</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>83</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="G40" s="2" cm="1">
         <f t="array" ref="G40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-8.7800000000000011</v>
+        <v>-1.2800000000000011</v>
       </c>
       <c r="H40" s="9">
         <f>VLOOKUP(F40,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3523,23 +3523,23 @@
       </c>
       <c r="I40" s="2">
         <f t="shared" si="2"/>
-        <v>-2.1008750385999388E-2</v>
+        <v>-3.0627790995534439E-3</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="0"/>
-        <v>2.4007217704619475E-3</v>
+        <v>2.2833743913529092E-3</v>
       </c>
       <c r="K40" s="6" cm="1">
         <f t="array" ref="K40">_xll.ciqfunctions.udf.CIQ(F40,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>159.28</v>
+        <v>158</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="1"/>
-        <v>0.3811245742006813</v>
+        <v>0.37806179510112786</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="3"/>
-        <v>0.38238696359917901</v>
+        <v>0.36077315383375963</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,CHOOSE({1,2},F41:F85,J41:J85),2,FALSE)</f>
-        <v>9.8171942408960457E-3</v>
+        <v>9.3373293816908821E-3</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>85</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="G41" s="2" cm="1">
         <f t="array" ref="G41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-4.9999999999997158E-2</v>
+        <v>5.5200000000000031</v>
       </c>
       <c r="H41" s="9">
         <f>VLOOKUP(F41,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3573,23 +3573,23 @@
       </c>
       <c r="I41" s="2">
         <f t="shared" si="2"/>
-        <v>-4.892392172172246E-4</v>
+        <v>5.4012009580784698E-2</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="0"/>
-        <v>9.8171942408960457E-3</v>
+        <v>9.3373293816908821E-3</v>
       </c>
       <c r="K41" s="6" cm="1">
         <f t="array" ref="K41">_xll.ciqfunctions.udf.CIQ(F41,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>60.82</v>
+        <v>66.34</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="1"/>
-        <v>0.59511058382306581</v>
+        <v>0.64912259340385059</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
-        <v>0.59708175373129746</v>
+        <v>0.61943843118137321</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,CHOOSE({1,2},F42:F86,J42:J86),2,FALSE)</f>
-        <v>3.0035108208186579E-3</v>
+        <v>2.8566990880784303E-3</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>87</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G42" s="2" cm="1">
         <f t="array" ref="G42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>9.3799999999999955</v>
+        <v>1.8100000000000023</v>
       </c>
       <c r="H42" s="9">
         <f>VLOOKUP(F42,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3623,23 +3623,23 @@
       </c>
       <c r="I42" s="2">
         <f t="shared" si="2"/>
-        <v>2.8079923072123068E-2</v>
+        <v>5.4184073305482772E-3</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="0"/>
-        <v>3.0035108208186579E-3</v>
+        <v>2.8566990880784303E-3</v>
       </c>
       <c r="K42" s="6" cm="1">
         <f t="array" ref="K42">_xll.ciqfunctions.udf.CIQ(F42,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>339.03</v>
+        <v>340.84</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="1"/>
-        <v>1.0149185841302653</v>
+        <v>1.0203369914608136</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
-        <v>1.0182802735821495</v>
+        <v>0.97367731718065209</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,CHOOSE({1,2},F43:F87,J43:J87),2,FALSE)</f>
-        <v>4.0100320846632861E-3</v>
+        <v>3.8140215510528699E-3</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>89</v>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="G43" s="2" cm="1">
         <f t="array" ref="G43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-9.9999999999994316E-2</v>
+        <v>3.8899999999999864</v>
       </c>
       <c r="H43" s="9">
         <f>VLOOKUP(F43,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3673,23 +3673,23 @@
       </c>
       <c r="I43" s="2">
         <f t="shared" si="2"/>
-        <v>-3.9967936051300048E-4</v>
+        <v>1.5547527123956547E-2</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="0"/>
-        <v>4.0100320846632861E-3</v>
+        <v>3.8140215510528699E-3</v>
       </c>
       <c r="K43" s="6" cm="1">
         <f t="array" ref="K43">_xll.ciqfunctions.udf.CIQ(F43,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>139.83000000000001</v>
+        <v>143.72</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="1"/>
-        <v>0.5588716498053603</v>
+        <v>0.57441917692931688</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
-        <v>0.5607227863984674</v>
+        <v>0.54815117731731844</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,CHOOSE({1,2},F44:F88,J44:J88),2,FALSE)</f>
-        <v>2.0587934942276477E-3</v>
+        <v>1.9581595833568079E-3</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>91</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="G44" s="2" cm="1">
         <f t="array" ref="G44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>-8.3799999999999955</v>
+        <v>0.90999999999999659</v>
       </c>
       <c r="H44" s="9">
         <f>VLOOKUP(F44,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3723,23 +3723,23 @@
       </c>
       <c r="I44" s="2">
         <f t="shared" si="2"/>
-        <v>-1.719573248682801E-2</v>
+        <v>1.8673170122927734E-3</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="0"/>
-        <v>2.0587934942276477E-3</v>
+        <v>1.9581595833568079E-3</v>
       </c>
       <c r="K44" s="6" cm="1">
         <f t="array" ref="K44">_xll.ciqfunctions.udf.CIQ(F44,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>213.69</v>
+        <v>214.6</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="1"/>
-        <v>0.43849117841411456</v>
+        <v>0.44035849542640731</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
-        <v>0.43994358178150605</v>
+        <v>0.42022104658837095</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,CHOOSE({1,2},F45:F89,J45:J89),2,FALSE)</f>
-        <v>1.6446268497748344E-3</v>
+        <v>1.5642374215587131E-3</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>93</v>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="G45" s="2" cm="1">
         <f t="array" ref="G45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")-_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$3,"USD")</f>
-        <v>1.4850000000000136</v>
+        <v>4.25</v>
       </c>
       <c r="H45" s="9">
         <f>VLOOKUP(F45,'08_05_2025_agix_holdings'!$D$3:$F$48,3,FALSE)/$P$2</f>
@@ -3773,23 +3773,23 @@
       </c>
       <c r="I45" s="2">
         <f t="shared" si="2"/>
-        <v>2.434208105267054E-3</v>
+        <v>6.966588853457834E-3</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="0"/>
-        <v>1.6446268497748344E-3</v>
+        <v>1.5642374215587131E-3</v>
       </c>
       <c r="K45" s="6" cm="1">
         <f t="array" ref="K45">_xll.ciqfunctions.udf.CIQ(F45,"IQ_CLOSEPRICE",$E$2,"USD")</f>
-        <v>271.18</v>
+        <v>275.43</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="1"/>
-        <v>0.44451754477192834</v>
+        <v>0.4514841336253862</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
-        <v>0.44598990912193959</v>
+        <v>0.43083791301991636</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
